--- a/Stats.xlsx
+++ b/Stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AL\Documents\2019 Mega Comparison\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s-kwongal\Downloads\Projects\1 - 2019 Mega Comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B6D385-2F78-411F-926B-776591790525}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850B6334-695F-49AF-9757-6D0534EC87B3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="5685" windowWidth="28800" windowHeight="15315" activeTab="3" xr2:uid="{E6171133-BC82-453F-AA1B-A983A9E75A15}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{E6171133-BC82-453F-AA1B-A983A9E75A15}"/>
   </bookViews>
   <sheets>
     <sheet name="Tau" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="279">
   <si>
     <t>Carlos S. M.: R5 3600 @ 4.2 GHz</t>
   </si>
@@ -123,9 +123,6 @@
     <t>Perfect</t>
   </si>
   <si>
-    <t>Mayu: R7 2700X @ 4.475 GHz</t>
-  </si>
-  <si>
     <t>umbry: R7 2700X @ 4.2 GHz</t>
   </si>
   <si>
@@ -291,9 +288,6 @@
     <t>5:45.17</t>
   </si>
   <si>
-    <t>Mayu: R7 2700X @ 4.5 GHz</t>
-  </si>
-  <si>
     <t>AwesomeGamer89: i7-8700K @ 5 GHz</t>
   </si>
   <si>
@@ -843,9 +837,6 @@
     <t>BlackHawk 580: i7-8700K @ 5.1-5.2 GHz</t>
   </si>
   <si>
-    <t>Mayu: R7 2700X @ 4.475-4.5 GHz</t>
-  </si>
-  <si>
     <t>Niko MIDI: i7-7700K @ 4.9-5 GHz</t>
   </si>
   <si>
@@ -867,7 +858,22 @@
     <t>*Orangepaprika 67: R5 1500X @ Stock (3.7 GHz)</t>
   </si>
   <si>
-    <t>*Only had 8GB RAM</t>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>*Only has 8GB RAM</t>
+  </si>
+  <si>
+    <t>Composite (Lag Times)</t>
+  </si>
+  <si>
+    <t>Yuzu: R7 2700X @ 4.5 GHz</t>
+  </si>
+  <si>
+    <t>Yuzu: R7 2700X @ 4.475 GHz</t>
+  </si>
+  <si>
+    <t>Yuzu: R7 2700X @ 4.475-4.5 GHz</t>
   </si>
 </sst>
 </file>
@@ -877,7 +883,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m:ss.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -898,6 +904,33 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -923,7 +956,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -966,6 +999,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1291,32 +1340,37 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:H110"/>
+  <dimension ref="A1:J110"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.7109375" style="6" customWidth="1"/>
-    <col min="2" max="4" width="7.5703125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.7109375" style="6" customWidth="1"/>
-    <col min="6" max="8" width="7.5703125" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="6"/>
+    <col min="1" max="1" width="41.6640625" style="6" customWidth="1"/>
+    <col min="2" max="4" width="7.5546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.6640625" style="6" customWidth="1"/>
+    <col min="6" max="8" width="7.5546875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="41.77734375" style="6" customWidth="1"/>
+    <col min="10" max="10" width="7.5546875" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>252</v>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>250</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
-      <c r="E1" s="11" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E1" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
@@ -1324,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="2" t="s">
@@ -1334,33 +1388,47 @@
         <v>0</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="J2" s="5">
+        <f t="shared" ref="J2:J32" si="0">SUMIF($A$3:$A$65,I2,$B$3:$B$65)+SUMIF($E$3:$E$65,I2,$F$3:$F$65)</f>
+        <v>2.0717592592592532E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>276</v>
       </c>
       <c r="B3" s="19">
         <v>6.9444444444444024E-5</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>276</v>
       </c>
       <c r="F3" s="19">
         <v>1.377314814814813E-4</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="5">
+        <f t="shared" si="0"/>
+        <v>2.2337962962962936E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1368,7 +1436,7 @@
         <v>7.2337962962962417E-5</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" t="s">
@@ -1378,11 +1446,18 @@
         <v>1.4814814814814812E-4</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="5">
+        <f t="shared" si="0"/>
+        <v>2.252314814814812E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1390,29 +1465,36 @@
         <v>7.5231481481481243E-5</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" s="19">
         <v>1.4942129629629637E-4</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="5">
+        <f t="shared" si="0"/>
+        <v>2.3414351851851764E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="19">
         <v>7.5810185185184835E-5</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" t="s">
@@ -1422,11 +1504,18 @@
         <v>1.6180555555555523E-4</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <f t="shared" si="0"/>
+        <v>2.4479166666666616E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1434,7 +1523,7 @@
         <v>7.6967592592592452E-5</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" t="s">
@@ -1444,19 +1533,26 @@
         <v>1.6527777777777765E-4</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" si="0"/>
+        <v>2.4872685185185111E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="19">
         <v>7.905092592592599E-5</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" t="s">
@@ -1466,11 +1562,18 @@
         <v>1.6782407407407371E-4</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="5">
+        <f t="shared" si="0"/>
+        <v>2.5902777777777773E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1478,7 +1581,7 @@
         <v>8.0555555555555502E-5</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" t="s">
@@ -1488,11 +1591,18 @@
         <v>1.7025462962962914E-4</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="5">
+        <f t="shared" si="0"/>
+        <v>2.6377314814814709E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1500,21 +1610,28 @@
         <v>8.1712962962962685E-5</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" s="19">
         <v>1.7997685185185174E-4</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="5">
+        <f t="shared" si="0"/>
+        <v>2.6817129629629587E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1522,7 +1639,7 @@
         <v>8.3449074074073461E-5</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" t="s">
@@ -1532,11 +1649,18 @@
         <v>1.8645833333333318E-4</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="5">
+        <f t="shared" si="0"/>
+        <v>2.7627314814814745E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -1544,7 +1668,7 @@
         <v>8.5763888888888695E-5</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" t="s">
@@ -1554,11 +1678,18 @@
         <v>1.9050925925925876E-4</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="5">
+        <f t="shared" si="0"/>
+        <v>2.8564814814814729E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1566,7 +1697,7 @@
         <v>8.6574074074073984E-5</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" t="s">
@@ -1576,11 +1707,18 @@
         <v>1.9282407407407399E-4</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="5">
+        <f t="shared" si="0"/>
+        <v>2.873842592592585E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1588,7 +1726,7 @@
         <v>8.7731481481481167E-5</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" t="s">
@@ -1598,11 +1736,18 @@
         <v>1.9629629629629641E-4</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" s="5">
+        <f t="shared" si="0"/>
+        <v>2.9467592592592566E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1610,7 +1755,7 @@
         <v>8.7962962962962431E-5</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" t="s">
@@ -1620,11 +1765,18 @@
         <v>1.9768518518518486E-4</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="5">
+        <f t="shared" si="0"/>
+        <v>2.9699074074073959E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1632,7 +1784,7 @@
         <v>9.3518518518517953E-5</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" t="s">
@@ -1642,11 +1794,18 @@
         <v>2.0081018518518451E-4</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="J16" s="5">
+        <f t="shared" si="0"/>
+        <v>2.9699074074074046E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1654,7 +1813,7 @@
         <v>1.0046296296296279E-4</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" t="s">
@@ -1664,11 +1823,18 @@
         <v>2.0196759259259256E-4</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" s="5">
+        <f t="shared" si="0"/>
+        <v>2.9733796296296322E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1676,7 +1842,7 @@
         <v>1.0104166666666681E-4</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" t="s">
@@ -1686,11 +1852,18 @@
         <v>2.0925925925925843E-4</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="5">
+        <f t="shared" si="0"/>
+        <v>3.0243055555555535E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1698,7 +1871,7 @@
         <v>1.0277777777777759E-4</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" t="s">
@@ -1708,11 +1881,18 @@
         <v>2.0960648148148119E-4</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="5">
+        <f t="shared" si="0"/>
+        <v>3.2187499999999968E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1720,7 +1900,7 @@
         <v>1.0416666666666647E-4</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" t="s">
@@ -1730,11 +1910,18 @@
         <v>2.1238425925925895E-4</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="5">
+        <f t="shared" si="0"/>
+        <v>3.2314814814814749E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1742,7 +1929,7 @@
         <v>1.0763888888888845E-4</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" t="s">
@@ -1752,11 +1939,18 @@
         <v>2.1412037037037016E-4</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="5">
+        <f t="shared" si="0"/>
+        <v>3.2673611111111098E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -1764,7 +1958,7 @@
         <v>1.0937499999999966E-4</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" t="s">
@@ -1774,11 +1968,18 @@
         <v>2.2222222222222218E-4</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22" s="5">
+        <f t="shared" si="0"/>
+        <v>3.2986111111111063E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1786,7 +1987,7 @@
         <v>1.0949074074074073E-4</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" t="s">
@@ -1796,11 +1997,18 @@
         <v>2.2233796296296281E-4</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" s="5">
+        <f t="shared" si="0"/>
+        <v>3.4016203703703682E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1808,7 +2016,7 @@
         <v>1.1053240740740728E-4</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" t="s">
@@ -1818,19 +2026,26 @@
         <v>2.2395833333333339E-4</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" s="5">
+        <f t="shared" si="0"/>
+        <v>3.484953703703701E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" s="19">
         <v>1.1087962962962961E-4</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" t="s">
@@ -1840,11 +2055,18 @@
         <v>2.3796296296296282E-4</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" s="5">
+        <f t="shared" si="0"/>
+        <v>3.7071759259259263E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -1852,7 +2074,7 @@
         <v>1.135416666666663E-4</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="17" t="s">
@@ -1865,8 +2087,15 @@
         <v>3.9887731481481484E-3</v>
       </c>
       <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J26" s="5">
+        <f t="shared" si="0"/>
+        <v>3.7418981481481418E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -1874,7 +2103,7 @@
         <v>1.1782407407407401E-4</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="17" t="s">
@@ -1884,11 +2113,18 @@
         <v>2.6134259259259296E-4</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27" s="5">
+        <f t="shared" si="0"/>
+        <v>3.7974537037037013E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
         <v>13</v>
       </c>
@@ -1900,17 +2136,24 @@
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F28" s="19">
         <v>2.6331018518518457E-4</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="J28" s="5">
+        <f t="shared" si="0"/>
+        <v>4.1145833333333312E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
         <v>3</v>
       </c>
@@ -1922,7 +2165,7 @@
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="17" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F29" s="19">
         <v>2.7083333333333343E-4</v>
@@ -1931,10 +2174,17 @@
         <v>4.0025462962962966E-3</v>
       </c>
       <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" s="5">
+        <f t="shared" si="0"/>
+        <v>4.1805555555555476E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B30" s="19">
         <v>1.4062499999999969E-4</v>
@@ -1944,7 +2194,7 @@
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="17" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F30" s="19">
         <v>2.8136574074074045E-4</v>
@@ -1953,10 +2203,17 @@
         <v>4.0130787037037036E-3</v>
       </c>
       <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="J30" s="5">
+        <f t="shared" si="0"/>
+        <v>4.2789351851851799E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B31" s="19">
         <v>1.4652777777777754E-4</v>
@@ -1975,10 +2232,17 @@
         <v>4.0188657407407404E-3</v>
       </c>
       <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="J31" s="5">
+        <f t="shared" si="0"/>
+        <v>4.7268518518518493E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B32" s="19">
         <v>1.6296296296296284E-4</v>
@@ -1988,7 +2252,7 @@
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="17" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F32" s="19">
         <v>3.0972222222222208E-4</v>
@@ -1997,10 +2261,17 @@
         <v>4.0414351851851852E-3</v>
       </c>
       <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="J32" s="5">
+        <f t="shared" si="0"/>
+        <v>8.8958333333333294E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B33" s="19">
         <v>3.4259259259259225E-4</v>
@@ -2010,7 +2281,7 @@
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="17" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F33" s="19">
         <v>5.4699074074074068E-4</v>
@@ -2020,7 +2291,7 @@
       </c>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B34" s="19"/>
       <c r="C34" s="20"/>
       <c r="D34" s="9"/>
@@ -2029,7 +2300,7 @@
       <c r="G34" s="20"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B35" s="19"/>
       <c r="C35" s="20"/>
       <c r="D35" s="9"/>
@@ -2038,7 +2309,7 @@
       <c r="G35" s="20"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B36" s="19"/>
       <c r="C36" s="20"/>
       <c r="D36" s="9"/>
@@ -2047,7 +2318,7 @@
       <c r="G36" s="20"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B37" s="19"/>
       <c r="C37" s="20"/>
       <c r="D37" s="9"/>
@@ -2056,7 +2327,7 @@
       <c r="G37" s="20"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B38" s="19"/>
       <c r="C38" s="20"/>
       <c r="D38" s="9"/>
@@ -2064,7 +2335,7 @@
       <c r="G38" s="20"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B39" s="19"/>
       <c r="C39" s="20"/>
       <c r="D39" s="9"/>
@@ -2072,7 +2343,7 @@
       <c r="G39" s="20"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B40" s="19"/>
       <c r="C40" s="20"/>
       <c r="D40" s="9"/>
@@ -2080,7 +2351,7 @@
       <c r="G40" s="20"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B41" s="19"/>
       <c r="C41" s="20"/>
       <c r="D41" s="9"/>
@@ -2088,7 +2359,7 @@
       <c r="G41" s="20"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B42" s="19"/>
       <c r="C42" s="20"/>
       <c r="D42" s="9"/>
@@ -2096,7 +2367,7 @@
       <c r="G42" s="20"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B43" s="19"/>
       <c r="C43" s="20"/>
       <c r="D43" s="9"/>
@@ -2104,7 +2375,7 @@
       <c r="G43" s="20"/>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B44" s="19"/>
       <c r="C44" s="20"/>
       <c r="D44" s="9"/>
@@ -2112,7 +2383,7 @@
       <c r="G44" s="20"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B45" s="19"/>
       <c r="C45" s="20"/>
       <c r="D45" s="9"/>
@@ -2120,7 +2391,7 @@
       <c r="G45" s="20"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B46" s="19"/>
       <c r="C46" s="20"/>
       <c r="D46" s="9"/>
@@ -2128,7 +2399,7 @@
       <c r="G46" s="20"/>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B47" s="19"/>
       <c r="C47" s="20"/>
       <c r="D47" s="9"/>
@@ -2136,7 +2407,7 @@
       <c r="G47" s="20"/>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B48" s="19"/>
       <c r="C48" s="20"/>
       <c r="D48" s="9"/>
@@ -2144,7 +2415,7 @@
       <c r="G48" s="20"/>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" s="19"/>
       <c r="C49" s="20"/>
       <c r="D49" s="9"/>
@@ -2152,7 +2423,7 @@
       <c r="G49" s="20"/>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="19"/>
       <c r="C50" s="20"/>
       <c r="D50" s="9"/>
@@ -2160,7 +2431,7 @@
       <c r="G50" s="20"/>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="19"/>
       <c r="C51" s="20"/>
       <c r="D51" s="9"/>
@@ -2168,7 +2439,7 @@
       <c r="G51" s="20"/>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="19"/>
       <c r="C52" s="20"/>
       <c r="D52" s="9"/>
@@ -2176,7 +2447,7 @@
       <c r="G52" s="20"/>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="19"/>
       <c r="C53" s="20"/>
       <c r="D53" s="9"/>
@@ -2184,7 +2455,7 @@
       <c r="G53" s="20"/>
       <c r="H53" s="1"/>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="19"/>
       <c r="C54" s="20"/>
       <c r="D54" s="9"/>
@@ -2192,7 +2463,7 @@
       <c r="G54" s="20"/>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B55" s="19"/>
       <c r="C55" s="20"/>
       <c r="D55" s="9"/>
@@ -2200,7 +2471,7 @@
       <c r="G55" s="20"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="19"/>
       <c r="C56" s="20"/>
       <c r="D56" s="9"/>
@@ -2208,7 +2479,7 @@
       <c r="G56" s="20"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="19"/>
       <c r="C57" s="20"/>
       <c r="D57" s="9"/>
@@ -2216,7 +2487,7 @@
       <c r="G57" s="20"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" s="19"/>
       <c r="C58" s="20"/>
       <c r="D58" s="9"/>
@@ -2224,7 +2495,7 @@
       <c r="G58" s="20"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" s="19"/>
       <c r="C59" s="20"/>
       <c r="D59" s="9"/>
@@ -2232,7 +2503,7 @@
       <c r="G59" s="20"/>
       <c r="H59" s="1"/>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B60" s="19"/>
       <c r="C60" s="20"/>
       <c r="D60" s="9"/>
@@ -2240,7 +2511,7 @@
       <c r="G60" s="20"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B61" s="19"/>
       <c r="C61" s="20"/>
       <c r="D61" s="9"/>
@@ -2248,7 +2519,7 @@
       <c r="G61" s="20"/>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B62" s="19"/>
       <c r="C62" s="20"/>
       <c r="D62" s="9"/>
@@ -2256,7 +2527,7 @@
       <c r="G62" s="20"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B63" s="19"/>
       <c r="C63" s="20"/>
       <c r="D63" s="9"/>
@@ -2264,7 +2535,7 @@
       <c r="G63" s="20"/>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B64" s="19"/>
       <c r="C64" s="20"/>
       <c r="D64" s="9"/>
@@ -2272,7 +2543,7 @@
       <c r="G64" s="20"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B65" s="19"/>
       <c r="C65" s="20"/>
       <c r="D65" s="9"/>
@@ -2280,190 +2551,193 @@
       <c r="G65" s="20"/>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I2:J32">
+    <sortCondition ref="J2:J32"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2474,32 +2748,43 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:I110"/>
+  <dimension ref="A1:L110"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.7109375" style="6" customWidth="1"/>
-    <col min="2" max="4" width="7.5703125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.7109375" style="6" customWidth="1"/>
-    <col min="6" max="8" width="7.5703125" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="6"/>
+    <col min="1" max="1" width="41.6640625" style="6" customWidth="1"/>
+    <col min="2" max="4" width="7.5546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.6640625" style="6" customWidth="1"/>
+    <col min="6" max="7" width="7.5546875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="41.77734375" style="6" customWidth="1"/>
+    <col min="10" max="10" width="7.5546875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="6"/>
+    <col min="12" max="12" width="37.109375" style="6" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>252</v>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>250</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
-      <c r="E1" s="11" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E1" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
@@ -2507,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="2" t="s">
@@ -2517,36 +2802,51 @@
         <v>0</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H2" s="3"/>
-      <c r="I2" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I2" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="J2" s="1">
+        <f>SUMIF($A$3:$A$65,I2,$B$3:$B$65)+SUMIF($E$3:$E$65,I2,$F$3:$F$65)</f>
+        <v>9.96527777777775E-5</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>28</v>
+        <v>277</v>
       </c>
       <c r="B3" s="19">
         <v>4.2361111111111072E-5</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="13" t="s">
-        <v>28</v>
+        <v>277</v>
       </c>
       <c r="F3" s="19">
         <v>5.7291666666666428E-5</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I3" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" ref="J3:J32" si="0">SUMIF($A$3:$A$65,I3,$B$3:$B$65)+SUMIF($E$3:$E$65,I3,$F$3:$F$65)</f>
+        <v>1.140046296296297E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>21</v>
       </c>
@@ -2554,21 +2854,28 @@
         <v>4.8611111111111251E-5</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F4" s="19">
         <v>6.1689814814814333E-5</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I4" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1296296296296271E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>7</v>
       </c>
@@ -2576,7 +2883,7 @@
         <v>4.9305555555555474E-5</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="13" t="s">
@@ -2586,19 +2893,26 @@
         <v>6.3078703703703647E-5</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I5" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="0"/>
+        <v>1.118055555555551E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B6" s="19">
         <v>5.0115740740740763E-5</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="13" t="s">
@@ -2608,19 +2922,26 @@
         <v>6.3657407407407239E-5</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I6" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1967592592592585E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B7" s="19">
         <v>5.0462962962962658E-5</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="13" t="s">
@@ -2630,11 +2951,18 @@
         <v>6.5393518518518448E-5</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I7" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1574074074074047E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>0</v>
       </c>
@@ -2642,7 +2970,7 @@
         <v>5.2662037037036827E-5</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="13" t="s">
@@ -2652,11 +2980,18 @@
         <v>6.5740740740740343E-5</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I8" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2083333333333304E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>9</v>
       </c>
@@ -2664,29 +2999,36 @@
         <v>5.5092592592592693E-5</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F9" s="19">
         <v>6.8634259259259169E-5</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I9" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2395833333333313E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B10" s="19">
         <v>5.5324074074073956E-5</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="13" t="s">
@@ -2696,19 +3038,26 @@
         <v>6.9212962962963195E-5</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I10" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2743055555555554E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B11" s="19">
         <v>5.5902777777777982E-5</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="13" t="s">
@@ -2718,33 +3067,47 @@
         <v>6.9675925925926155E-5</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I11" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2847222222222253E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B12" s="19">
         <v>5.7291666666666428E-5</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F12" s="19">
         <v>7.1180555555556101E-5</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I12" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3703703703703664E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>18</v>
       </c>
@@ -2752,7 +3115,7 @@
         <v>5.8564814814814677E-5</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="13" t="s">
@@ -2762,11 +3125,18 @@
         <v>7.1527777777777562E-5</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I13" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3402777777777762E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>20</v>
       </c>
@@ -2774,21 +3144,28 @@
         <v>6.0300925925925453E-5</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F14" s="19">
         <v>7.1527777777777562E-5</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I14" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="0"/>
+        <v>1.398148148148144E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
         <v>15</v>
       </c>
@@ -2796,7 +3173,7 @@
         <v>6.1111111111110741E-5</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="13" t="s">
@@ -2806,11 +3183,18 @@
         <v>7.3148148148148139E-5</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I15" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3194444444444408E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>10</v>
       </c>
@@ -2818,7 +3202,7 @@
         <v>6.2268518518517925E-5</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="13" t="s">
@@ -2828,33 +3212,47 @@
         <v>7.3726851851852165E-5</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4074074074074076E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B17" s="19">
         <v>6.3773148148147871E-5</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F17" s="19">
         <v>7.4305555555555756E-5</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3888888888888892E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
         <v>4</v>
       </c>
@@ -2862,7 +3260,7 @@
         <v>6.5740740740740777E-5</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="13" t="s">
@@ -2872,11 +3270,18 @@
         <v>7.6157407407407597E-5</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4282407407407386E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
         <v>23</v>
       </c>
@@ -2884,21 +3289,28 @@
         <v>6.6666666666666263E-5</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F19" s="19">
         <v>7.6967592592592886E-5</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4629629629629628E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
         <v>22</v>
       </c>
@@ -2906,7 +3318,7 @@
         <v>6.6666666666666263E-5</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="13" t="s">
@@ -2916,19 +3328,26 @@
         <v>7.8472222222221964E-5</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4143518518518541E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B21" s="19">
         <v>6.7129629629629657E-5</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="13" t="s">
@@ -2938,11 +3357,18 @@
         <v>7.8703703703703661E-5</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3877314814814785E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
         <v>25</v>
       </c>
@@ -2950,7 +3376,7 @@
         <v>6.7245370370370289E-5</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="13" t="s">
@@ -2960,11 +3386,18 @@
         <v>7.9629629629630015E-5</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5798611111111091E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
         <v>26</v>
       </c>
@@ -2972,7 +3405,7 @@
         <v>7.6967592592592452E-5</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="13" t="s">
@@ -2982,11 +3415,18 @@
         <v>8.0439814814814437E-5</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6331018518518561E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
         <v>8</v>
       </c>
@@ -2994,7 +3434,7 @@
         <v>7.7893518518518372E-5</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="13" t="s">
@@ -3004,11 +3444,18 @@
         <v>8.1018518518518462E-5</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5914351851851766E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
         <v>12</v>
       </c>
@@ -3016,7 +3463,7 @@
         <v>7.8703703703703227E-5</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="13" t="s">
@@ -3026,11 +3473,18 @@
         <v>8.5416666666667234E-5</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7071759259259254E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
         <v>19</v>
       </c>
@@ -3038,7 +3492,7 @@
         <v>8.3333333333333263E-5</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="13" t="s">
@@ -3048,11 +3502,18 @@
         <v>8.7384259259259273E-5</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8182870370370315E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
         <v>3</v>
       </c>
@@ -3060,7 +3521,7 @@
         <v>8.5763888888888695E-5</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="13" t="s">
@@ -3070,11 +3531,18 @@
         <v>9.606481481481445E-5</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9224537037036997E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
         <v>14</v>
       </c>
@@ -3082,7 +3550,7 @@
         <v>8.5995370370369958E-5</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="17" t="s">
@@ -3095,8 +3563,15 @@
         <v>3.1618055555555553E-3</v>
       </c>
       <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="J28" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9641203703703704E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
         <v>11</v>
       </c>
@@ -3104,7 +3579,7 @@
         <v>8.7962962962962864E-5</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="17" t="s">
@@ -3114,11 +3589,18 @@
         <v>1.0625000000000001E-4</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J29" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9166666666666637E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
         <v>13</v>
       </c>
@@ -3130,7 +3612,7 @@
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="17" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F30" s="19">
         <v>1.068287037037036E-4</v>
@@ -3139,10 +3621,17 @@
         <v>3.1699074074074073E-3</v>
       </c>
       <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J30" s="1">
+        <f t="shared" si="0"/>
+        <v>2.1215277777777725E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="19">
         <v>9.7800925925925659E-5</v>
@@ -3158,13 +3647,20 @@
         <v>1.0844907407407418E-4</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="J31" s="1">
+        <f t="shared" si="0"/>
+        <v>2.1307870370370317E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B32" s="19">
         <v>1.0624999999999957E-4</v>
@@ -3174,7 +3670,7 @@
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F32" s="19">
         <v>1.1435185185185159E-4</v>
@@ -3183,10 +3679,17 @@
         <v>3.1774305555555553E-3</v>
       </c>
       <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="J32" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2777777777777813E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B33" s="19">
         <v>1.1319444444444441E-4</v>
@@ -3196,7 +3699,7 @@
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="17" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F33" s="19">
         <v>1.1458333333333372E-4</v>
@@ -3205,8 +3708,9 @@
         <v>3.1776620370370374E-3</v>
       </c>
       <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B34" s="19"/>
       <c r="C34" s="20"/>
       <c r="D34" s="5"/>
@@ -3214,8 +3718,9 @@
       <c r="F34" s="20"/>
       <c r="G34" s="20"/>
       <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B35" s="19"/>
       <c r="C35" s="20"/>
       <c r="D35" s="5"/>
@@ -3223,8 +3728,9 @@
       <c r="F35" s="20"/>
       <c r="G35" s="20"/>
       <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J35" s="5"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B36" s="19"/>
       <c r="C36" s="20"/>
       <c r="D36" s="5"/>
@@ -3232,8 +3738,9 @@
       <c r="F36" s="20"/>
       <c r="G36" s="20"/>
       <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J36" s="5"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B37" s="19"/>
       <c r="C37" s="20"/>
       <c r="D37" s="5"/>
@@ -3241,410 +3748,439 @@
       <c r="F37" s="20"/>
       <c r="G37" s="20"/>
       <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B38" s="19"/>
       <c r="C38" s="20"/>
       <c r="D38" s="5"/>
       <c r="F38" s="20"/>
       <c r="G38" s="20"/>
       <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B39" s="19"/>
       <c r="C39" s="20"/>
       <c r="D39" s="5"/>
       <c r="F39" s="20"/>
       <c r="G39" s="20"/>
       <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B40" s="19"/>
       <c r="C40" s="20"/>
       <c r="D40" s="5"/>
       <c r="F40" s="20"/>
       <c r="G40" s="20"/>
       <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J40" s="5"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B41" s="19"/>
       <c r="C41" s="20"/>
       <c r="D41" s="5"/>
       <c r="F41" s="20"/>
       <c r="G41" s="20"/>
       <c r="H41" s="1"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J41" s="5"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B42" s="19"/>
       <c r="C42" s="20"/>
       <c r="D42" s="5"/>
       <c r="F42" s="20"/>
       <c r="G42" s="20"/>
       <c r="H42" s="1"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J42" s="5"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B43" s="19"/>
       <c r="C43" s="20"/>
       <c r="D43" s="5"/>
       <c r="F43" s="20"/>
       <c r="G43" s="20"/>
       <c r="H43" s="1"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J43" s="5"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B44" s="19"/>
       <c r="C44" s="20"/>
       <c r="D44" s="5"/>
       <c r="F44" s="20"/>
       <c r="G44" s="20"/>
       <c r="H44" s="1"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J44" s="5"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B45" s="19"/>
       <c r="C45" s="20"/>
       <c r="D45" s="5"/>
       <c r="F45" s="20"/>
       <c r="G45" s="20"/>
       <c r="H45" s="1"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J45" s="5"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B46" s="19"/>
       <c r="C46" s="20"/>
       <c r="D46" s="5"/>
       <c r="F46" s="20"/>
       <c r="G46" s="20"/>
       <c r="H46" s="1"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J46" s="5"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B47" s="19"/>
       <c r="C47" s="20"/>
       <c r="D47" s="5"/>
       <c r="F47" s="20"/>
       <c r="G47" s="20"/>
       <c r="H47" s="1"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J47" s="5"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B48" s="19"/>
       <c r="C48" s="20"/>
       <c r="D48" s="5"/>
       <c r="F48" s="20"/>
       <c r="G48" s="20"/>
       <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J48" s="5"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B49" s="19"/>
       <c r="C49" s="20"/>
       <c r="D49" s="5"/>
       <c r="F49" s="20"/>
       <c r="G49" s="20"/>
       <c r="H49" s="1"/>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J49" s="5"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B50" s="19"/>
       <c r="C50" s="20"/>
       <c r="D50" s="5"/>
       <c r="F50" s="20"/>
       <c r="G50" s="20"/>
       <c r="H50" s="1"/>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J50" s="5"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B51" s="19"/>
       <c r="C51" s="20"/>
       <c r="D51" s="5"/>
       <c r="F51" s="20"/>
       <c r="G51" s="20"/>
       <c r="H51" s="1"/>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J51" s="5"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B52" s="19"/>
       <c r="C52" s="20"/>
       <c r="D52" s="5"/>
       <c r="F52" s="20"/>
       <c r="G52" s="20"/>
       <c r="H52" s="1"/>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J52" s="5"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B53" s="19"/>
       <c r="C53" s="20"/>
       <c r="D53" s="5"/>
       <c r="F53" s="20"/>
       <c r="G53" s="20"/>
       <c r="H53" s="1"/>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J53" s="5"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B54" s="19"/>
       <c r="C54" s="20"/>
       <c r="D54" s="5"/>
       <c r="F54" s="20"/>
       <c r="G54" s="20"/>
       <c r="H54" s="1"/>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J54" s="5"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B55" s="19"/>
       <c r="C55" s="20"/>
       <c r="D55" s="5"/>
       <c r="F55" s="20"/>
       <c r="G55" s="20"/>
       <c r="H55" s="1"/>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J55" s="5"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B56" s="19"/>
       <c r="C56" s="20"/>
       <c r="D56" s="5"/>
       <c r="F56" s="20"/>
       <c r="G56" s="20"/>
       <c r="H56" s="1"/>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J56" s="5"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B57" s="19"/>
       <c r="C57" s="20"/>
       <c r="D57" s="5"/>
       <c r="F57" s="20"/>
       <c r="G57" s="20"/>
       <c r="H57" s="1"/>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J57" s="5"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B58" s="19"/>
       <c r="C58" s="20"/>
       <c r="D58" s="5"/>
       <c r="F58" s="20"/>
       <c r="G58" s="20"/>
       <c r="H58" s="1"/>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J58" s="5"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B59" s="19"/>
       <c r="C59" s="20"/>
       <c r="D59" s="5"/>
       <c r="F59" s="20"/>
       <c r="G59" s="20"/>
       <c r="H59" s="1"/>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J59" s="5"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B60" s="19"/>
       <c r="C60" s="20"/>
       <c r="D60" s="5"/>
       <c r="F60" s="20"/>
       <c r="G60" s="20"/>
       <c r="H60" s="1"/>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J60" s="5"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B61" s="19"/>
       <c r="C61" s="20"/>
       <c r="D61" s="5"/>
       <c r="F61" s="20"/>
       <c r="G61" s="20"/>
       <c r="H61" s="1"/>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J61" s="5"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B62" s="19"/>
       <c r="C62" s="20"/>
       <c r="D62" s="5"/>
       <c r="F62" s="20"/>
       <c r="G62" s="20"/>
       <c r="H62" s="1"/>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J62" s="5"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B63" s="19"/>
       <c r="C63" s="20"/>
       <c r="D63" s="5"/>
       <c r="F63" s="20"/>
       <c r="G63" s="20"/>
       <c r="H63" s="1"/>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J63" s="5"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B64" s="19"/>
       <c r="C64" s="20"/>
       <c r="D64" s="5"/>
       <c r="F64" s="20"/>
       <c r="G64" s="20"/>
       <c r="H64" s="1"/>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J64" s="5"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B65" s="19"/>
       <c r="C65" s="20"/>
       <c r="D65" s="5"/>
       <c r="F65" s="20"/>
       <c r="G65" s="20"/>
       <c r="H65" s="1"/>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J65" s="5"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
     </row>
@@ -3660,41 +4196,46 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:L110"/>
+  <dimension ref="A1:N110"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.7109375" style="6" customWidth="1"/>
-    <col min="2" max="4" width="7.5703125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.7109375" style="6" customWidth="1"/>
-    <col min="6" max="8" width="7.5703125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="41.85546875" style="6" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" style="6" customWidth="1"/>
-    <col min="11" max="12" width="7.7109375" style="6" customWidth="1"/>
-    <col min="13" max="16384" width="8.85546875" style="6"/>
+    <col min="1" max="1" width="41.6640625" style="6" customWidth="1"/>
+    <col min="2" max="4" width="7.5546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.6640625" style="6" customWidth="1"/>
+    <col min="6" max="8" width="7.5546875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="41.88671875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="7.5546875" style="6" customWidth="1"/>
+    <col min="11" max="12" width="7.6640625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="41.88671875" style="6" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>252</v>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>250</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
-      <c r="E1" s="11" t="s">
-        <v>254</v>
+      <c r="E1" s="23" t="s">
+        <v>252</v>
       </c>
       <c r="H1" s="7"/>
-      <c r="I1" s="11" t="s">
-        <v>253</v>
+      <c r="I1" s="25" t="s">
+        <v>251</v>
       </c>
       <c r="J1" s="5"/>
       <c r="L1" s="5"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="N1" s="5"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
@@ -3725,8 +4266,15 @@
         <v>17</v>
       </c>
       <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5">
+        <f t="shared" ref="N2:N30" si="0">SUMIF($A$3:$A$65,M2,$B$3:$B$65)+SUMIF($E$3:$E$65,M2,$F$3:$F$65)+SUMIF($I$3:$I$65,M2,$J$3:$J$65)</f>
+        <v>1.7164351851851867E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>21</v>
       </c>
@@ -3738,7 +4286,7 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="13" t="s">
-        <v>28</v>
+        <v>277</v>
       </c>
       <c r="F3" s="20">
         <v>4.2013888888888743E-5</v>
@@ -3757,10 +4305,17 @@
         <v>3.9290509259259261E-3</v>
       </c>
       <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="N3" s="5">
+        <f t="shared" si="0"/>
+        <v>1.8182870370370358E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>28</v>
+        <v>277</v>
       </c>
       <c r="B4" s="20">
         <v>4.1550925925925783E-5</v>
@@ -3780,7 +4335,7 @@
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="13" t="s">
-        <v>28</v>
+        <v>277</v>
       </c>
       <c r="J4" s="20">
         <v>9.8263888888889053E-5</v>
@@ -3789,8 +4344,15 @@
         <v>3.9475694444444445E-3</v>
       </c>
       <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="5">
+        <f t="shared" si="0"/>
+        <v>2.0856481481481464E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
@@ -3821,8 +4383,15 @@
         <v>3.9650462962962964E-3</v>
       </c>
       <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" s="5">
+        <f t="shared" si="0"/>
+        <v>2.3206018518518584E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
@@ -3853,8 +4422,15 @@
         <v>3.9771990740740748E-3</v>
       </c>
       <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" s="5">
+        <f t="shared" si="0"/>
+        <v>2.6354166666666648E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
@@ -3885,8 +4461,15 @@
         <v>4.0052083333333337E-3</v>
       </c>
       <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="N7" s="5">
+        <f t="shared" si="0"/>
+        <v>2.813657407407411E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>0</v>
       </c>
@@ -3917,8 +4500,15 @@
         <v>4.0269675925925933E-3</v>
       </c>
       <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" s="5">
+        <f t="shared" si="0"/>
+        <v>2.8437499999999926E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>1</v>
       </c>
@@ -3949,8 +4539,15 @@
         <v>4.0271990740740737E-3</v>
       </c>
       <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="N9" s="5">
+        <f t="shared" si="0"/>
+        <v>2.9583333333333328E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>24</v>
       </c>
@@ -3981,8 +4578,15 @@
         <v>4.0281249999999996E-3</v>
       </c>
       <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" s="5">
+        <f t="shared" si="0"/>
+        <v>3.0231481481481515E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>20</v>
       </c>
@@ -4013,8 +4617,15 @@
         <v>4.0396990740740749E-3</v>
       </c>
       <c r="L11" s="2"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="5">
+        <f t="shared" si="0"/>
+        <v>3.0312499999999979E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>18</v>
       </c>
@@ -4045,8 +4656,15 @@
         <v>4.0405092592592593E-3</v>
       </c>
       <c r="L12" s="2"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12" s="5">
+        <f t="shared" si="0"/>
+        <v>3.2893518518518493E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>25</v>
       </c>
@@ -4077,8 +4695,15 @@
         <v>4.0422453703703705E-3</v>
       </c>
       <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N13" s="5">
+        <f t="shared" si="0"/>
+        <v>3.311342592592591E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>9</v>
       </c>
@@ -4109,8 +4734,15 @@
         <v>4.0454861111111108E-3</v>
       </c>
       <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N14" s="5">
+        <f t="shared" si="0"/>
+        <v>3.3287037037037096E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>15</v>
       </c>
@@ -4141,8 +4773,15 @@
         <v>4.0633101851851854E-3</v>
       </c>
       <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N15" s="5">
+        <f t="shared" si="0"/>
+        <v>3.3472222222222302E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>10</v>
       </c>
@@ -4173,8 +4812,15 @@
         <v>4.0692129629629628E-3</v>
       </c>
       <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N16" s="5">
+        <f t="shared" si="0"/>
+        <v>3.3865740740740753E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>23</v>
       </c>
@@ -4205,8 +4851,15 @@
         <v>4.0771990740740742E-3</v>
       </c>
       <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N17" s="5">
+        <f t="shared" si="0"/>
+        <v>3.6481481481481456E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>22</v>
       </c>
@@ -4237,8 +4890,15 @@
         <v>4.0896990740740737E-3</v>
       </c>
       <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N18" s="5">
+        <f t="shared" si="0"/>
+        <v>3.7627314814814771E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>8</v>
       </c>
@@ -4269,8 +4929,15 @@
         <v>4.0983796296296298E-3</v>
       </c>
       <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N19" s="5">
+        <f t="shared" si="0"/>
+        <v>3.7951388888888887E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
@@ -4301,8 +4968,15 @@
         <v>4.1010416666666669E-3</v>
       </c>
       <c r="L20" s="2"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N20" s="5">
+        <f t="shared" si="0"/>
+        <v>4.0266203703703666E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>2</v>
       </c>
@@ -4333,8 +5007,15 @@
         <v>4.115162037037037E-3</v>
       </c>
       <c r="L21" s="2"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21" s="5">
+        <f t="shared" si="0"/>
+        <v>4.2407407407407389E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>4</v>
       </c>
@@ -4365,8 +5046,15 @@
         <v>4.1317129629629629E-3</v>
       </c>
       <c r="L22" s="2"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N22" s="5">
+        <f t="shared" si="0"/>
+        <v>4.3842592592592631E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>26</v>
       </c>
@@ -4397,8 +5085,15 @@
         <v>4.1350694444444447E-3</v>
       </c>
       <c r="L23" s="2"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M23" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="5">
+        <f t="shared" si="0"/>
+        <v>4.4976851851851905E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>3</v>
       </c>
@@ -4429,8 +5124,15 @@
         <v>4.1377314814814809E-3</v>
       </c>
       <c r="L24" s="2"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N24" s="5">
+        <f t="shared" si="0"/>
+        <v>4.5648148148148154E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>11</v>
       </c>
@@ -4461,8 +5163,15 @@
         <v>4.1525462962962965E-3</v>
       </c>
       <c r="L25" s="2"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M25" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="N25" s="5">
+        <f t="shared" si="0"/>
+        <v>5.2546296296296325E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>12</v>
       </c>
@@ -4484,7 +5193,7 @@
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J26" s="20">
         <v>3.3101851851851868E-4</v>
@@ -4493,8 +5202,15 @@
         <v>4.1803240740740742E-3</v>
       </c>
       <c r="L26" s="2"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="N26" s="5">
+        <f t="shared" si="0"/>
+        <v>5.2627314814814854E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>14</v>
       </c>
@@ -4525,8 +5241,15 @@
         <v>4.2783564814814819E-3</v>
       </c>
       <c r="L27" s="2"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M27" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N27" s="5">
+        <f t="shared" si="0"/>
+        <v>5.3900462962962951E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>13</v>
       </c>
@@ -4538,7 +5261,7 @@
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F28" s="20">
         <v>1.0682870370370403E-4</v>
@@ -4557,10 +5280,17 @@
         <v>4.287962962962963E-3</v>
       </c>
       <c r="L28" s="2"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M28" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N28" s="5">
+        <f t="shared" si="0"/>
+        <v>6.9224537037037019E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" s="20">
         <v>8.7615740740740536E-5</v>
@@ -4570,7 +5300,7 @@
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="17" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F29" s="20">
         <v>1.2465277777777778E-4</v>
@@ -4588,10 +5318,17 @@
       <c r="K29" s="20">
         <v>4.3480324074074072E-3</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M29" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="N29" s="5">
+        <f t="shared" si="0"/>
+        <v>1.0120370370370368E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B30" s="20">
         <v>9.2361111111110986E-5</v>
@@ -4611,7 +5348,7 @@
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="17" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J30" s="20">
         <v>7.2048611111111098E-4</v>
@@ -4619,10 +5356,17 @@
       <c r="K30" s="20">
         <v>4.5697916666666664E-3</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M30" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="N30" s="5">
+        <f t="shared" si="0"/>
+        <v>1.3026620370370371E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B31" s="20">
         <v>2.7604166666666662E-4</v>
@@ -4632,7 +5376,7 @@
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="17" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F31" s="20">
         <v>3.0613425925925947E-4</v>
@@ -4642,7 +5386,7 @@
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="17" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="J31" s="20">
         <v>7.95023148148148E-4</v>
@@ -4650,8 +5394,9 @@
       <c r="K31" s="20">
         <v>4.6443287037037035E-3</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N31" s="5"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B32" s="20"/>
       <c r="C32" s="20"/>
       <c r="D32" s="5"/>
@@ -4661,8 +5406,9 @@
       <c r="H32" s="7"/>
       <c r="J32" s="20"/>
       <c r="K32" s="20"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N32" s="5"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
       <c r="D33" s="5"/>
@@ -4672,8 +5418,9 @@
       <c r="H33" s="7"/>
       <c r="J33" s="20"/>
       <c r="K33" s="20"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N33" s="5"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="20"/>
       <c r="C34" s="20"/>
       <c r="D34" s="5"/>
@@ -4683,8 +5430,9 @@
       <c r="H34" s="7"/>
       <c r="J34" s="20"/>
       <c r="K34" s="20"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N34" s="5"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="20"/>
       <c r="C35" s="20"/>
       <c r="D35" s="5"/>
@@ -4694,8 +5442,9 @@
       <c r="H35" s="7"/>
       <c r="J35" s="20"/>
       <c r="K35" s="20"/>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N35" s="5"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="20"/>
       <c r="C36" s="20"/>
       <c r="D36" s="5"/>
@@ -4705,8 +5454,9 @@
       <c r="H36" s="7"/>
       <c r="J36" s="20"/>
       <c r="K36" s="20"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N36" s="5"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="20"/>
       <c r="C37" s="20"/>
       <c r="D37" s="5"/>
@@ -4715,8 +5465,9 @@
       <c r="G37" s="20"/>
       <c r="J37" s="20"/>
       <c r="K37" s="20"/>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N37" s="5"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="20"/>
       <c r="C38" s="20"/>
       <c r="D38" s="5"/>
@@ -4724,8 +5475,9 @@
       <c r="G38" s="20"/>
       <c r="J38" s="20"/>
       <c r="K38" s="20"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N38" s="5"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="20"/>
       <c r="C39" s="20"/>
       <c r="D39" s="5"/>
@@ -4733,8 +5485,9 @@
       <c r="G39" s="20"/>
       <c r="J39" s="20"/>
       <c r="K39" s="20"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N39" s="5"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="20"/>
       <c r="C40" s="20"/>
       <c r="D40" s="5"/>
@@ -4742,8 +5495,9 @@
       <c r="G40" s="20"/>
       <c r="J40" s="20"/>
       <c r="K40" s="20"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N40" s="5"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="20"/>
       <c r="C41" s="20"/>
       <c r="D41" s="5"/>
@@ -4751,8 +5505,9 @@
       <c r="G41" s="20"/>
       <c r="J41" s="20"/>
       <c r="K41" s="20"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N41" s="5"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
       <c r="D42" s="5"/>
@@ -4760,8 +5515,9 @@
       <c r="G42" s="20"/>
       <c r="J42" s="20"/>
       <c r="K42" s="20"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N42" s="5"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
       <c r="D43" s="5"/>
@@ -4769,8 +5525,9 @@
       <c r="G43" s="20"/>
       <c r="J43" s="20"/>
       <c r="K43" s="20"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N43" s="5"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="20"/>
       <c r="C44" s="20"/>
       <c r="D44" s="5"/>
@@ -4778,8 +5535,9 @@
       <c r="G44" s="20"/>
       <c r="J44" s="20"/>
       <c r="K44" s="20"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N44" s="5"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
       <c r="D45" s="5"/>
@@ -4787,8 +5545,9 @@
       <c r="G45" s="20"/>
       <c r="J45" s="20"/>
       <c r="K45" s="20"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N45" s="5"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="20"/>
       <c r="C46" s="20"/>
       <c r="D46" s="5"/>
@@ -4796,8 +5555,9 @@
       <c r="G46" s="20"/>
       <c r="J46" s="20"/>
       <c r="K46" s="20"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N46" s="5"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>
       <c r="D47" s="5"/>
@@ -4805,8 +5565,9 @@
       <c r="G47" s="20"/>
       <c r="J47" s="20"/>
       <c r="K47" s="20"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N47" s="5"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="20"/>
       <c r="C48" s="20"/>
       <c r="D48" s="5"/>
@@ -4814,8 +5575,9 @@
       <c r="G48" s="20"/>
       <c r="J48" s="20"/>
       <c r="K48" s="20"/>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N48" s="5"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="20"/>
       <c r="C49" s="20"/>
       <c r="D49" s="5"/>
@@ -4823,8 +5585,9 @@
       <c r="G49" s="20"/>
       <c r="J49" s="20"/>
       <c r="K49" s="20"/>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N49" s="5"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="20"/>
       <c r="C50" s="20"/>
       <c r="D50" s="5"/>
@@ -4832,8 +5595,9 @@
       <c r="G50" s="20"/>
       <c r="J50" s="20"/>
       <c r="K50" s="20"/>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N50" s="5"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
       <c r="D51" s="5"/>
@@ -4841,8 +5605,9 @@
       <c r="G51" s="20"/>
       <c r="J51" s="20"/>
       <c r="K51" s="20"/>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N51" s="5"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="20"/>
       <c r="C52" s="20"/>
       <c r="D52" s="5"/>
@@ -4850,8 +5615,9 @@
       <c r="G52" s="20"/>
       <c r="J52" s="20"/>
       <c r="K52" s="20"/>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N52" s="5"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="20"/>
       <c r="C53" s="20"/>
       <c r="D53" s="5"/>
@@ -4859,8 +5625,9 @@
       <c r="G53" s="20"/>
       <c r="J53" s="20"/>
       <c r="K53" s="20"/>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N53" s="5"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="20"/>
       <c r="C54" s="20"/>
       <c r="D54" s="5"/>
@@ -4868,8 +5635,9 @@
       <c r="G54" s="20"/>
       <c r="J54" s="20"/>
       <c r="K54" s="20"/>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N54" s="5"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="20"/>
       <c r="C55" s="20"/>
       <c r="D55" s="5"/>
@@ -4877,8 +5645,9 @@
       <c r="G55" s="20"/>
       <c r="J55" s="20"/>
       <c r="K55" s="20"/>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N55" s="5"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="20"/>
       <c r="C56" s="20"/>
       <c r="D56" s="5"/>
@@ -4886,8 +5655,9 @@
       <c r="G56" s="20"/>
       <c r="J56" s="20"/>
       <c r="K56" s="20"/>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N56" s="5"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="20"/>
       <c r="C57" s="20"/>
       <c r="D57" s="5"/>
@@ -4895,8 +5665,9 @@
       <c r="G57" s="20"/>
       <c r="J57" s="20"/>
       <c r="K57" s="20"/>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N57" s="5"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="20"/>
       <c r="C58" s="20"/>
       <c r="D58" s="5"/>
@@ -4904,8 +5675,9 @@
       <c r="G58" s="20"/>
       <c r="J58" s="20"/>
       <c r="K58" s="20"/>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N58" s="5"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="20"/>
       <c r="C59" s="20"/>
       <c r="D59" s="5"/>
@@ -4913,8 +5685,9 @@
       <c r="G59" s="20"/>
       <c r="J59" s="20"/>
       <c r="K59" s="20"/>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N59" s="5"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="20"/>
       <c r="C60" s="20"/>
       <c r="D60" s="5"/>
@@ -4922,8 +5695,9 @@
       <c r="G60" s="20"/>
       <c r="J60" s="20"/>
       <c r="K60" s="20"/>
-    </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N60" s="5"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="20"/>
       <c r="C61" s="20"/>
       <c r="D61" s="5"/>
@@ -4931,8 +5705,9 @@
       <c r="G61" s="20"/>
       <c r="J61" s="20"/>
       <c r="K61" s="20"/>
-    </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N61" s="5"/>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="20"/>
       <c r="C62" s="20"/>
       <c r="D62" s="5"/>
@@ -4940,8 +5715,9 @@
       <c r="G62" s="20"/>
       <c r="J62" s="20"/>
       <c r="K62" s="20"/>
-    </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N62" s="5"/>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="20"/>
       <c r="C63" s="20"/>
       <c r="D63" s="5"/>
@@ -4949,8 +5725,9 @@
       <c r="G63" s="20"/>
       <c r="J63" s="20"/>
       <c r="K63" s="20"/>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N63" s="5"/>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="20"/>
       <c r="C64" s="20"/>
       <c r="D64" s="5"/>
@@ -4958,8 +5735,9 @@
       <c r="G64" s="20"/>
       <c r="J64" s="20"/>
       <c r="K64" s="20"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N64" s="5"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="20"/>
       <c r="C65" s="20"/>
       <c r="D65" s="5"/>
@@ -4967,190 +5745,194 @@
       <c r="G65" s="20"/>
       <c r="J65" s="20"/>
       <c r="K65" s="20"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N65" s="5"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
     </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M2:N30">
+    <sortCondition ref="N2:N30"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5161,32 +5943,37 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:H110"/>
+  <dimension ref="A1:J110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.7109375" style="6" customWidth="1"/>
-    <col min="2" max="4" width="7.5703125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.7109375" style="6" customWidth="1"/>
-    <col min="6" max="8" width="7.5703125" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="6"/>
+    <col min="1" max="1" width="41.6640625" style="6" customWidth="1"/>
+    <col min="2" max="4" width="7.5546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.6640625" style="6" customWidth="1"/>
+    <col min="6" max="8" width="7.5546875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="41.77734375" style="6" customWidth="1"/>
+    <col min="10" max="10" width="7.5546875" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>255</v>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>253</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
-      <c r="E1" s="11" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E1" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
@@ -5194,7 +5981,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="2" t="s">
@@ -5204,11 +5991,18 @@
         <v>0</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="J2" s="5">
+        <f t="shared" ref="J2:J33" si="0">SUMIF($A$3:$A$65,I2,$B$3:$B$65)+SUMIF($E$3:$E$65,I2,$F$3:$F$65)</f>
+        <v>1.7430555555555515E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>24</v>
       </c>
@@ -5216,29 +6010,36 @@
         <v>9.6643518518518476E-5</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="16" t="s">
-        <v>28</v>
+        <v>277</v>
       </c>
       <c r="F3" s="19">
         <v>7.6967592592592452E-5</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="5">
+        <f t="shared" si="0"/>
+        <v>1.753472222222217E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
-        <v>28</v>
+        <v>277</v>
       </c>
       <c r="B4" s="19">
         <v>9.7337962962962699E-5</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="16" t="s">
@@ -5248,19 +6049,26 @@
         <v>7.8703703703703227E-5</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <f t="shared" si="0"/>
+        <v>1.8194444444444464E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B5" s="19">
         <v>9.9074074074073908E-5</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="16" t="s">
@@ -5270,11 +6078,18 @@
         <v>8.0092592592592542E-5</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="J5" s="5">
+        <f t="shared" si="0"/>
+        <v>1.8414351851851795E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>0</v>
       </c>
@@ -5282,7 +6097,7 @@
         <v>1.0127314814814851E-4</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="16" t="s">
@@ -5292,11 +6107,18 @@
         <v>8.0671296296296133E-5</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5">
+        <f t="shared" si="0"/>
+        <v>1.8923611111111094E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>20</v>
       </c>
@@ -5304,7 +6126,7 @@
         <v>1.0138888888888914E-4</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="16" t="s">
@@ -5314,11 +6136,18 @@
         <v>8.2986111111110934E-5</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" si="0"/>
+        <v>1.9016203703703686E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>1</v>
       </c>
@@ -5326,7 +6155,7 @@
         <v>1.0509259259259239E-4</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="16" t="s">
@@ -5336,11 +6165,18 @@
         <v>8.4143518518518551E-5</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="5">
+        <f t="shared" si="0"/>
+        <v>1.9629629629629641E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>15</v>
       </c>
@@ -5348,21 +6184,28 @@
         <v>1.0740740740740719E-4</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F9" s="19">
         <v>8.5069444444444038E-5</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="5">
+        <f t="shared" si="0"/>
+        <v>2.0057870370370412E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>25</v>
       </c>
@@ -5370,7 +6213,7 @@
         <v>1.0891203703703714E-4</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="16" t="s">
@@ -5380,19 +6223,26 @@
         <v>8.7384259259259273E-5</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="5">
+        <f t="shared" si="0"/>
+        <v>2.0196759259259256E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B11" s="19">
         <v>1.0891203703703714E-4</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="16" t="s">
@@ -5402,11 +6252,18 @@
         <v>8.8773148148147719E-5</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="5">
+        <f t="shared" si="0"/>
+        <v>2.0277777777777785E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>23</v>
       </c>
@@ -5414,21 +6271,28 @@
         <v>1.0972222222222243E-4</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="16" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F12" s="19">
         <v>8.9930555555555337E-5</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="5">
+        <f t="shared" si="0"/>
+        <v>2.0335648148148144E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>9</v>
       </c>
@@ -5436,7 +6300,7 @@
         <v>1.1053240740740771E-4</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="16" t="s">
@@ -5446,11 +6310,18 @@
         <v>9.0856481481481691E-5</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="5">
+        <f t="shared" si="0"/>
+        <v>2.0439814814814843E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>18</v>
       </c>
@@ -5458,7 +6329,7 @@
         <v>1.1122685185185194E-4</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="16" t="s">
@@ -5468,11 +6339,18 @@
         <v>9.2824074074073729E-5</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="5">
+        <f t="shared" si="0"/>
+        <v>2.1122685185185177E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>22</v>
       </c>
@@ -5480,7 +6358,7 @@
         <v>1.1759259259259275E-4</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="16" t="s">
@@ -5490,11 +6368,18 @@
         <v>9.3055555555555426E-5</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="5">
+        <f t="shared" si="0"/>
+        <v>2.1250000000000002E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>10</v>
       </c>
@@ -5502,7 +6387,7 @@
         <v>1.2013888888888881E-4</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="16" t="s">
@@ -5512,11 +6397,18 @@
         <v>9.3171296296296491E-5</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" s="5">
+        <f t="shared" si="0"/>
+        <v>2.1319444444444424E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>21</v>
       </c>
@@ -5524,7 +6416,7 @@
         <v>1.2187500000000002E-4</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="16" t="s">
@@ -5534,11 +6426,18 @@
         <v>9.4907407407407267E-5</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="J17" s="5">
+        <f t="shared" si="0"/>
+        <v>2.1331018518518487E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>7</v>
       </c>
@@ -5546,7 +6445,7 @@
         <v>1.2824074074074083E-4</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="16" t="s">
@@ -5556,11 +6455,18 @@
         <v>9.5370370370370661E-5</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="5">
+        <f t="shared" si="0"/>
+        <v>2.3692129629629627E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>8</v>
       </c>
@@ -5568,7 +6474,7 @@
         <v>1.2939814814814802E-4</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="16" t="s">
@@ -5578,19 +6484,26 @@
         <v>1.0358796296296244E-4</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="J19" s="5">
+        <f t="shared" si="0"/>
+        <v>2.468749999999997E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B20" s="19">
         <v>1.3946759259259251E-4</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="16" t="s">
@@ -5600,11 +6513,18 @@
         <v>1.0416666666666647E-4</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="5">
+        <f t="shared" si="0"/>
+        <v>2.5057870370370338E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>12</v>
       </c>
@@ -5612,29 +6532,36 @@
         <v>1.4212962962962964E-4</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="16" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F21" s="19">
         <v>1.0439814814814773E-4</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="J21" s="5">
+        <f t="shared" si="0"/>
+        <v>2.5115740740740697E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B22" s="19">
         <v>1.4756944444444453E-4</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="16" t="s">
@@ -5644,11 +6571,18 @@
         <v>1.0613425925925894E-4</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" s="5">
+        <f t="shared" si="0"/>
+        <v>2.540509259259258E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>19</v>
       </c>
@@ -5656,7 +6590,7 @@
         <v>1.4988425925925933E-4</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="16" t="s">
@@ -5666,11 +6600,18 @@
         <v>1.0752314814814826E-4</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="J23" s="5">
+        <f t="shared" si="0"/>
+        <v>2.5624999999999997E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>26</v>
       </c>
@@ -5678,7 +6619,7 @@
         <v>1.5451388888888893E-4</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="16" t="s">
@@ -5688,41 +6629,55 @@
         <v>1.0844907407407374E-4</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J24" s="5">
+        <f t="shared" si="0"/>
+        <v>2.6064814814814787E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B25" s="19">
         <v>1.5694444444444436E-4</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F25" s="19">
         <v>1.0868055555555544E-4</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J25" s="5">
+        <f t="shared" si="0"/>
+        <v>2.6874999999999989E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26" s="19">
         <v>1.5694444444444436E-4</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="16" t="s">
@@ -5732,11 +6687,18 @@
         <v>1.1157407407407383E-4</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="5">
+        <f t="shared" si="0"/>
+        <v>2.7662037037037065E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="17" t="s">
         <v>3</v>
       </c>
@@ -5744,21 +6706,28 @@
         <v>1.5717592592592606E-4</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F27" s="19">
         <v>1.1168981481481446E-4</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J27" s="5">
+        <f t="shared" si="0"/>
+        <v>2.9351851851851848E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
         <v>13</v>
       </c>
@@ -5766,7 +6735,7 @@
         <v>1.5752314814814839E-4</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="16" t="s">
@@ -5776,13 +6745,20 @@
         <v>1.1620370370370387E-4</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="J28" s="5">
+        <f t="shared" si="0"/>
+        <v>3.1018518518518461E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B29" s="19">
         <v>1.8379629629629605E-4</v>
@@ -5798,13 +6774,20 @@
         <v>1.1909722222222226E-4</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="J29" s="5">
+        <f t="shared" si="0"/>
+        <v>3.3773148148148182E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B30" s="19">
         <v>2.0266203703703722E-4</v>
@@ -5814,7 +6797,7 @@
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="17" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F30" s="19">
         <v>1.2638888888888856E-4</v>
@@ -5823,8 +6806,15 @@
         <v>2.6944444444444442E-3</v>
       </c>
       <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="J30" s="5">
+        <f t="shared" si="0"/>
+        <v>5.3148148148148174E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
         <v>11</v>
       </c>
@@ -5832,11 +6822,11 @@
         <v>4.1527777777777787E-4</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="17" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F31" s="19">
         <v>1.350694444444446E-4</v>
@@ -5845,8 +6835,15 @@
         <v>2.7031250000000002E-3</v>
       </c>
       <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="J31" s="5">
+        <f t="shared" si="0"/>
+        <v>5.364583333333328E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
         <v>4</v>
       </c>
@@ -5854,11 +6851,11 @@
         <v>4.3287037037037035E-4</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F32" s="19">
         <v>1.3657407407407412E-4</v>
@@ -5867,8 +6864,15 @@
         <v>2.7046296296296297E-3</v>
       </c>
       <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32" s="5">
+        <f t="shared" si="0"/>
+        <v>6.429398148148145E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
         <v>14</v>
       </c>
@@ -5876,7 +6880,7 @@
         <v>4.8796296296296305E-4</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="17" t="s">
@@ -5886,23 +6890,30 @@
         <v>1.5497685185185146E-4</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="J33" s="5">
+        <f t="shared" si="0"/>
+        <v>6.6493055555555533E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B34" s="19">
         <v>4.8796296296296305E-4</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="6" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F34" s="19">
         <v>1.7696759259259228E-4</v>
@@ -5911,8 +6922,9 @@
         <v>2.7450231481481479E-3</v>
       </c>
       <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B35" s="19"/>
       <c r="C35" s="20"/>
       <c r="D35" s="5"/>
@@ -5920,8 +6932,9 @@
       <c r="F35" s="20"/>
       <c r="G35" s="20"/>
       <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J35" s="5"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B36" s="19"/>
       <c r="C36" s="20"/>
       <c r="D36" s="5"/>
@@ -5929,8 +6942,9 @@
       <c r="F36" s="20"/>
       <c r="G36" s="20"/>
       <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J36" s="5"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B37" s="19"/>
       <c r="C37" s="20"/>
       <c r="D37" s="5"/>
@@ -5938,415 +6952,447 @@
       <c r="F37" s="20"/>
       <c r="G37" s="20"/>
       <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B38" s="19"/>
       <c r="C38" s="20"/>
       <c r="D38" s="5"/>
       <c r="F38" s="20"/>
       <c r="G38" s="20"/>
       <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B39" s="19"/>
       <c r="C39" s="20"/>
       <c r="D39" s="5"/>
       <c r="F39" s="20"/>
       <c r="G39" s="20"/>
       <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B40" s="19"/>
       <c r="C40" s="20"/>
       <c r="D40" s="5"/>
       <c r="F40" s="20"/>
       <c r="G40" s="20"/>
       <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J40" s="5"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B41" s="19"/>
       <c r="C41" s="20"/>
       <c r="D41" s="5"/>
       <c r="F41" s="20"/>
       <c r="G41" s="20"/>
       <c r="H41" s="1"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J41" s="5"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B42" s="19"/>
       <c r="C42" s="20"/>
       <c r="D42" s="5"/>
       <c r="F42" s="20"/>
       <c r="G42" s="20"/>
       <c r="H42" s="1"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J42" s="5"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B43" s="19"/>
       <c r="C43" s="20"/>
       <c r="D43" s="5"/>
       <c r="F43" s="20"/>
       <c r="G43" s="20"/>
       <c r="H43" s="1"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J43" s="5"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B44" s="19"/>
       <c r="C44" s="20"/>
       <c r="D44" s="5"/>
       <c r="F44" s="20"/>
       <c r="G44" s="20"/>
       <c r="H44" s="1"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J44" s="5"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B45" s="19"/>
       <c r="C45" s="20"/>
       <c r="D45" s="5"/>
       <c r="F45" s="20"/>
       <c r="G45" s="20"/>
       <c r="H45" s="1"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J45" s="5"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B46" s="19"/>
       <c r="C46" s="20"/>
       <c r="D46" s="5"/>
       <c r="F46" s="20"/>
       <c r="G46" s="20"/>
       <c r="H46" s="1"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J46" s="5"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B47" s="19"/>
       <c r="C47" s="20"/>
       <c r="D47" s="5"/>
       <c r="F47" s="20"/>
       <c r="G47" s="20"/>
       <c r="H47" s="1"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J47" s="5"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B48" s="19"/>
       <c r="C48" s="20"/>
       <c r="D48" s="5"/>
       <c r="F48" s="20"/>
       <c r="G48" s="20"/>
       <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J48" s="5"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B49" s="19"/>
       <c r="C49" s="20"/>
       <c r="D49" s="5"/>
       <c r="F49" s="20"/>
       <c r="G49" s="20"/>
       <c r="H49" s="1"/>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J49" s="5"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B50" s="19"/>
       <c r="C50" s="20"/>
       <c r="D50" s="5"/>
       <c r="F50" s="20"/>
       <c r="G50" s="20"/>
       <c r="H50" s="1"/>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J50" s="5"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B51" s="19"/>
       <c r="C51" s="20"/>
       <c r="D51" s="5"/>
       <c r="F51" s="20"/>
       <c r="G51" s="20"/>
       <c r="H51" s="1"/>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J51" s="5"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B52" s="19"/>
       <c r="C52" s="20"/>
       <c r="D52" s="5"/>
       <c r="F52" s="20"/>
       <c r="G52" s="20"/>
       <c r="H52" s="1"/>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J52" s="5"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B53" s="19"/>
       <c r="C53" s="20"/>
       <c r="D53" s="5"/>
       <c r="F53" s="20"/>
       <c r="G53" s="20"/>
       <c r="H53" s="1"/>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J53" s="5"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B54" s="19"/>
       <c r="C54" s="20"/>
       <c r="D54" s="5"/>
       <c r="F54" s="20"/>
       <c r="G54" s="20"/>
       <c r="H54" s="1"/>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J54" s="5"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B55" s="19"/>
       <c r="C55" s="20"/>
       <c r="D55" s="5"/>
       <c r="F55" s="20"/>
       <c r="G55" s="20"/>
       <c r="H55" s="1"/>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J55" s="5"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B56" s="19"/>
       <c r="C56" s="20"/>
       <c r="D56" s="5"/>
       <c r="F56" s="20"/>
       <c r="G56" s="20"/>
       <c r="H56" s="1"/>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J56" s="5"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B57" s="19"/>
       <c r="C57" s="20"/>
       <c r="D57" s="5"/>
       <c r="F57" s="20"/>
       <c r="G57" s="20"/>
       <c r="H57" s="1"/>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J57" s="5"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B58" s="19"/>
       <c r="C58" s="20"/>
       <c r="D58" s="5"/>
       <c r="F58" s="20"/>
       <c r="G58" s="20"/>
       <c r="H58" s="1"/>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J58" s="5"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B59" s="19"/>
       <c r="C59" s="20"/>
       <c r="D59" s="5"/>
       <c r="F59" s="20"/>
       <c r="G59" s="20"/>
       <c r="H59" s="1"/>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J59" s="5"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B60" s="19"/>
       <c r="C60" s="20"/>
       <c r="D60" s="5"/>
       <c r="F60" s="20"/>
       <c r="G60" s="20"/>
       <c r="H60" s="1"/>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J60" s="5"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B61" s="19"/>
       <c r="C61" s="20"/>
       <c r="D61" s="5"/>
       <c r="F61" s="20"/>
       <c r="G61" s="20"/>
       <c r="H61" s="1"/>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J61" s="5"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B62" s="19"/>
       <c r="C62" s="20"/>
       <c r="D62" s="5"/>
       <c r="F62" s="20"/>
       <c r="G62" s="20"/>
       <c r="H62" s="1"/>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J62" s="5"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B63" s="19"/>
       <c r="C63" s="20"/>
       <c r="D63" s="5"/>
       <c r="F63" s="20"/>
       <c r="G63" s="20"/>
       <c r="H63" s="1"/>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J63" s="5"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B64" s="19"/>
       <c r="C64" s="20"/>
       <c r="D64" s="5"/>
       <c r="F64" s="20"/>
       <c r="G64" s="20"/>
       <c r="H64" s="1"/>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J64" s="5"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B65" s="19"/>
       <c r="C65" s="20"/>
       <c r="D65" s="5"/>
       <c r="F65" s="20"/>
       <c r="G65" s="20"/>
       <c r="H65" s="1"/>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J65" s="5"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I2:J33">
+    <sortCondition ref="J2:J33"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6360,22 +7406,22 @@
   <dimension ref="A1:D66"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.7109375" style="6" customWidth="1"/>
-    <col min="2" max="4" width="7.5703125" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="6"/>
+    <col min="1" max="1" width="41.6640625" style="6" customWidth="1"/>
+    <col min="2" max="4" width="7.5546875" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
@@ -6383,23 +7429,23 @@
         <v>0</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>28</v>
+        <v>277</v>
       </c>
       <c r="B3" s="19">
         <v>3.4803240740740736E-4</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>21</v>
       </c>
@@ -6407,11 +7453,11 @@
         <v>3.7604166666666667E-4</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>7</v>
       </c>
@@ -6419,11 +7465,11 @@
         <v>3.9143518518518542E-4</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>24</v>
       </c>
@@ -6431,11 +7477,11 @@
         <v>3.997685185185187E-4</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>20</v>
       </c>
@@ -6443,11 +7489,11 @@
         <v>4.021990740740737E-4</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>0</v>
       </c>
@@ -6455,11 +7501,11 @@
         <v>4.0277777777777773E-4</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>9</v>
       </c>
@@ -6467,23 +7513,23 @@
         <v>4.072916666666667E-4</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B10" s="19">
         <v>4.1053240740740698E-4</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>1</v>
       </c>
@@ -6491,11 +7537,11 @@
         <v>4.2499999999999981E-4</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>25</v>
       </c>
@@ -6503,11 +7549,11 @@
         <v>4.2523148148148151E-4</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>15</v>
       </c>
@@ -6515,11 +7561,11 @@
         <v>4.2847222222222223E-4</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>23</v>
       </c>
@@ -6527,11 +7573,11 @@
         <v>4.3518518518518494E-4</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>18</v>
       </c>
@@ -6539,11 +7585,11 @@
         <v>4.4502314814814817E-4</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>4</v>
       </c>
@@ -6551,11 +7597,11 @@
         <v>4.5277777777777786E-4</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>10</v>
       </c>
@@ -6563,23 +7609,23 @@
         <v>4.6643518518518497E-4</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B18" s="19">
         <v>4.8229166666666668E-4</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>26</v>
       </c>
@@ -6587,11 +7633,11 @@
         <v>4.8773148148148113E-4</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>8</v>
       </c>
@@ -6599,23 +7645,23 @@
         <v>4.9131944444444418E-4</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" s="19">
         <v>5.0104166666666635E-4</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
         <v>19</v>
       </c>
@@ -6627,7 +7673,7 @@
       </c>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
         <v>12</v>
       </c>
@@ -6635,11 +7681,11 @@
         <v>5.2164351851851829E-4</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
         <v>22</v>
       </c>
@@ -6651,7 +7697,7 @@
       </c>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="17" t="s">
         <v>14</v>
       </c>
@@ -6659,11 +7705,11 @@
         <v>5.3379629629629632E-4</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
         <v>13</v>
       </c>
@@ -6675,7 +7721,7 @@
       </c>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="17" t="s">
         <v>3</v>
       </c>
@@ -6687,7 +7733,7 @@
       </c>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
         <v>11</v>
       </c>
@@ -6699,9 +7745,9 @@
       </c>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B29" s="19">
         <v>7.3842592592592558E-4</v>
@@ -6711,195 +7757,195 @@
       </c>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="20"/>
       <c r="C30" s="20"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
       <c r="B31" s="20"/>
       <c r="C31" s="20"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="20"/>
       <c r="C32" s="20"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
       <c r="B34" s="20"/>
       <c r="C34" s="20"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
       <c r="B35" s="20"/>
       <c r="C35" s="20"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
       <c r="B36" s="20"/>
       <c r="C36" s="20"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
       <c r="B37" s="20"/>
       <c r="C37" s="20"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B38" s="20"/>
       <c r="C38" s="20"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B39" s="20"/>
       <c r="C39" s="20"/>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B40" s="20"/>
       <c r="C40" s="20"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B41" s="20"/>
       <c r="C41" s="20"/>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B44" s="20"/>
       <c r="C44" s="20"/>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B46" s="20"/>
       <c r="C46" s="20"/>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B48" s="20"/>
       <c r="C48" s="20"/>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B49" s="20"/>
       <c r="C49" s="20"/>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B50" s="20"/>
       <c r="C50" s="20"/>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B52" s="20"/>
       <c r="C52" s="20"/>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B53" s="20"/>
       <c r="C53" s="20"/>
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B54" s="20"/>
       <c r="C54" s="20"/>
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B55" s="20"/>
       <c r="C55" s="20"/>
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B56" s="20"/>
       <c r="C56" s="20"/>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B57" s="20"/>
       <c r="C57" s="20"/>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B58" s="20"/>
       <c r="C58" s="20"/>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B59" s="20"/>
       <c r="C59" s="20"/>
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B60" s="20"/>
       <c r="C60" s="20"/>
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B61" s="20"/>
       <c r="C61" s="20"/>
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B62" s="20"/>
       <c r="C62" s="20"/>
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B63" s="20"/>
       <c r="C63" s="20"/>
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B64" s="20"/>
       <c r="C64" s="20"/>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B65" s="20"/>
       <c r="C65" s="20"/>
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
     </row>
@@ -6918,22 +7964,26 @@
   <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.140625" style="6" customWidth="1"/>
-    <col min="2" max="4" width="7.5703125" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="6"/>
+    <col min="1" max="1" width="42.109375" style="6" customWidth="1"/>
+    <col min="2" max="4" width="7.5546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
@@ -6941,38 +7991,38 @@
         <v>0</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="6" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>28</v>
+        <v>277</v>
       </c>
       <c r="B3" s="19">
         <v>3.1585648148148163E-4</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="19">
         <v>3.2314814814814793E-4</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>21</v>
       </c>
@@ -6980,11 +8030,11 @@
         <v>3.2627314814814802E-4</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>0</v>
       </c>
@@ -6992,23 +8042,23 @@
         <v>3.4606481481481424E-4</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B7" s="19">
         <v>3.5034722222222195E-4</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
@@ -7016,11 +8066,11 @@
         <v>3.6689814814814788E-4</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>25</v>
       </c>
@@ -7028,11 +8078,11 @@
         <v>3.7083333333333326E-4</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>9</v>
       </c>
@@ -7040,11 +8090,11 @@
         <v>3.7662037037037048E-4</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>1</v>
       </c>
@@ -7052,11 +8102,11 @@
         <v>3.7951388888888887E-4</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>20</v>
       </c>
@@ -7064,11 +8114,11 @@
         <v>3.8564814814814798E-4</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>22</v>
       </c>
@@ -7076,11 +8126,11 @@
         <v>4.0624999999999993E-4</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>15</v>
       </c>
@@ -7088,11 +8138,11 @@
         <v>4.1168981481481482E-4</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
         <v>4</v>
       </c>
@@ -7100,11 +8150,11 @@
         <v>4.3252314814814802E-4</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>26</v>
       </c>
@@ -7112,11 +8162,11 @@
         <v>4.8321759259259281E-4</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
         <v>19</v>
       </c>
@@ -7124,35 +8174,35 @@
         <v>4.9386574074074133E-4</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B18" s="19">
         <v>4.9409722222222173E-4</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B19" s="19">
         <v>5.196759259259256E-4</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>13</v>
       </c>
@@ -7164,7 +8214,7 @@
       </c>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
         <v>11</v>
       </c>
@@ -7176,7 +8226,7 @@
       </c>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
         <v>14</v>
       </c>
@@ -7184,13 +8234,13 @@
         <v>5.6527777777777783E-4</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B23" s="19">
         <v>7.8263888888888871E-4</v>
@@ -7200,231 +8250,231 @@
       </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="13"/>
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="13"/>
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="13"/>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="13"/>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="20"/>
       <c r="C29" s="20"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="20"/>
       <c r="C30" s="20"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
       <c r="B31" s="20"/>
       <c r="C31" s="20"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="20"/>
       <c r="C32" s="20"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
       <c r="B34" s="20"/>
       <c r="C34" s="20"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
       <c r="B35" s="20"/>
       <c r="C35" s="20"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
       <c r="B36" s="20"/>
       <c r="C36" s="20"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
       <c r="B37" s="20"/>
       <c r="C37" s="20"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B38" s="20"/>
       <c r="C38" s="20"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B39" s="20"/>
       <c r="C39" s="20"/>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B40" s="20"/>
       <c r="C40" s="20"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B41" s="20"/>
       <c r="C41" s="20"/>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B44" s="20"/>
       <c r="C44" s="20"/>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B46" s="20"/>
       <c r="C46" s="20"/>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B48" s="20"/>
       <c r="C48" s="20"/>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B49" s="20"/>
       <c r="C49" s="20"/>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B50" s="20"/>
       <c r="C50" s="20"/>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B52" s="20"/>
       <c r="C52" s="20"/>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B53" s="20"/>
       <c r="C53" s="20"/>
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B54" s="20"/>
       <c r="C54" s="20"/>
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B55" s="20"/>
       <c r="C55" s="20"/>
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B56" s="20"/>
       <c r="C56" s="20"/>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B57" s="20"/>
       <c r="C57" s="20"/>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B58" s="20"/>
       <c r="C58" s="20"/>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B59" s="20"/>
       <c r="C59" s="20"/>
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B60" s="20"/>
       <c r="C60" s="20"/>
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B61" s="20"/>
       <c r="C61" s="20"/>
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B62" s="20"/>
       <c r="C62" s="20"/>
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B63" s="20"/>
       <c r="C63" s="20"/>
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B64" s="20"/>
       <c r="C64" s="20"/>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B65" s="20"/>
       <c r="C65" s="20"/>
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
     </row>
@@ -7440,73 +8490,68 @@
   <sheetPr>
     <tabColor theme="0" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:W82"/>
+  <dimension ref="A1:S82"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.140625" style="6" customWidth="1"/>
-    <col min="2" max="11" width="7.5703125" style="6" customWidth="1"/>
-    <col min="12" max="12" width="8.5703125" style="6" customWidth="1"/>
-    <col min="13" max="13" width="7.5703125" style="6" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="6"/>
+    <col min="1" max="1" width="44.109375" style="6" customWidth="1"/>
+    <col min="2" max="11" width="7.5546875" style="6" customWidth="1"/>
+    <col min="12" max="12" width="8.5546875" style="6" customWidth="1"/>
+    <col min="13" max="14" width="7.5546875" style="6" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="11"/>
       <c r="B1" s="10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="F1" s="10" t="s">
+      <c r="J1" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="L1" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="I1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>263</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>265</v>
       </c>
       <c r="N1" s="18"/>
       <c r="O1" s="18"/>
       <c r="P1" s="18"/>
       <c r="Q1" s="18"/>
       <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="B2" s="20">
         <f>SUM(C2:M2)</f>
@@ -7549,19 +8594,14 @@
       <c r="O2" s="20"/>
       <c r="P2" s="20"/>
       <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="18"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R2" s="18"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="20">
-        <f t="shared" ref="B3:B23" si="0">SUM(C3:M3)</f>
+        <f t="shared" ref="B3:B21" si="0">SUM(C3:M3)</f>
         <v>1.4629629629629619E-3</v>
       </c>
       <c r="C3" s="19">
@@ -7601,14 +8641,9 @@
       <c r="O3" s="20"/>
       <c r="P3" s="20"/>
       <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="18"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R3" s="18"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>7</v>
       </c>
@@ -7653,14 +8688,9 @@
       <c r="O4" s="20"/>
       <c r="P4" s="20"/>
       <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="18"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R4" s="18"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
         <v>21</v>
       </c>
@@ -7705,16 +8735,11 @@
       <c r="O5" s="20"/>
       <c r="P5" s="20"/>
       <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="18"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R5" s="18"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B6" s="20">
         <f t="shared" si="0"/>
@@ -7757,14 +8782,9 @@
       <c r="O6" s="20"/>
       <c r="P6" s="20"/>
       <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="18"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R6" s="18"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>9</v>
       </c>
@@ -7809,14 +8829,9 @@
       <c r="O7" s="20"/>
       <c r="P7" s="20"/>
       <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="18"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R7" s="18"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
         <v>20</v>
       </c>
@@ -7861,16 +8876,11 @@
       <c r="O8" s="20"/>
       <c r="P8" s="20"/>
       <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
-      <c r="W8" s="18"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R8" s="18"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B9" s="20">
         <f t="shared" si="0"/>
@@ -7913,14 +8923,9 @@
       <c r="O9" s="20"/>
       <c r="P9" s="20"/>
       <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20"/>
-      <c r="W9" s="18"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R9" s="18"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
         <v>25</v>
       </c>
@@ -7965,16 +8970,11 @@
       <c r="O10" s="20"/>
       <c r="P10" s="20"/>
       <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
-      <c r="W10" s="18"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R10" s="18"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B11" s="20">
         <f t="shared" si="0"/>
@@ -8017,14 +9017,9 @@
       <c r="O11" s="20"/>
       <c r="P11" s="20"/>
       <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="20"/>
-      <c r="W11" s="18"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R11" s="18"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
         <v>15</v>
       </c>
@@ -8069,16 +9064,11 @@
       <c r="O12" s="20"/>
       <c r="P12" s="20"/>
       <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="18"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R12" s="18"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B13" s="20">
         <f t="shared" si="0"/>
@@ -8121,14 +9111,9 @@
       <c r="O13" s="20"/>
       <c r="P13" s="20"/>
       <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
-      <c r="W13" s="18"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R13" s="18"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
         <v>4</v>
       </c>
@@ -8173,14 +9158,9 @@
       <c r="O14" s="20"/>
       <c r="P14" s="20"/>
       <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="18"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R14" s="18"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
         <v>26</v>
       </c>
@@ -8225,14 +9205,9 @@
       <c r="O15" s="20"/>
       <c r="P15" s="20"/>
       <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="20"/>
-      <c r="V15" s="20"/>
-      <c r="W15" s="18"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R15" s="18"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>19</v>
       </c>
@@ -8277,14 +9252,9 @@
       <c r="O16" s="20"/>
       <c r="P16" s="20"/>
       <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="20"/>
-      <c r="W16" s="18"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R16" s="18"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
         <v>22</v>
       </c>
@@ -8329,14 +9299,9 @@
       <c r="O17" s="20"/>
       <c r="P17" s="20"/>
       <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="20"/>
-      <c r="U17" s="20"/>
-      <c r="V17" s="20"/>
-      <c r="W17" s="18"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R17" s="18"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>12</v>
       </c>
@@ -8381,14 +9346,9 @@
       <c r="O18" s="20"/>
       <c r="P18" s="20"/>
       <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="20"/>
-      <c r="U18" s="20"/>
-      <c r="V18" s="20"/>
-      <c r="W18" s="18"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R18" s="18"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
         <v>13</v>
       </c>
@@ -8432,14 +9392,9 @@
       <c r="N19" s="20"/>
       <c r="O19" s="20"/>
       <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="20"/>
-      <c r="V19" s="18"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Q19" s="18"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>14</v>
       </c>
@@ -8483,14 +9438,9 @@
       <c r="N20" s="20"/>
       <c r="O20" s="20"/>
       <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="20"/>
-      <c r="U20" s="20"/>
-      <c r="V20" s="18"/>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Q20" s="18"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
         <v>11</v>
       </c>
@@ -8534,14 +9484,9 @@
       <c r="N21" s="20"/>
       <c r="O21" s="20"/>
       <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="20"/>
-      <c r="T21" s="20"/>
-      <c r="U21" s="20"/>
-      <c r="V21" s="18"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Q21" s="18"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
       <c r="B22" s="20"/>
       <c r="C22" s="19"/>
@@ -8560,12 +9505,9 @@
       <c r="P22" s="20"/>
       <c r="Q22" s="20"/>
       <c r="R22" s="20"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="20"/>
-      <c r="U22" s="20"/>
-      <c r="V22" s="18"/>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="S22" s="18"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
       <c r="B23" s="20"/>
       <c r="C23" s="19"/>
@@ -8584,12 +9526,9 @@
       <c r="P23" s="20"/>
       <c r="Q23" s="20"/>
       <c r="R23" s="20"/>
-      <c r="S23" s="20"/>
-      <c r="T23" s="20"/>
-      <c r="U23" s="20"/>
-      <c r="V23" s="18"/>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="S23" s="18"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
@@ -8608,12 +9547,9 @@
       <c r="P24" s="20"/>
       <c r="Q24" s="20"/>
       <c r="R24" s="20"/>
-      <c r="S24" s="20"/>
-      <c r="T24" s="20"/>
-      <c r="U24" s="20"/>
-      <c r="V24" s="18"/>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="S24" s="18"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="17"/>
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
@@ -8632,12 +9568,9 @@
       <c r="P25" s="20"/>
       <c r="Q25" s="20"/>
       <c r="R25" s="20"/>
-      <c r="S25" s="20"/>
-      <c r="T25" s="20"/>
-      <c r="U25" s="20"/>
-      <c r="V25" s="18"/>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="S25" s="18"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
@@ -8656,12 +9589,9 @@
       <c r="P26" s="20"/>
       <c r="Q26" s="20"/>
       <c r="R26" s="20"/>
-      <c r="S26" s="20"/>
-      <c r="T26" s="20"/>
-      <c r="U26" s="20"/>
-      <c r="V26" s="18"/>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="S26" s="18"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="17"/>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
@@ -8680,12 +9610,9 @@
       <c r="P27" s="20"/>
       <c r="Q27" s="20"/>
       <c r="R27" s="20"/>
-      <c r="S27" s="20"/>
-      <c r="T27" s="20"/>
-      <c r="U27" s="20"/>
-      <c r="V27" s="18"/>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="S27" s="18"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="17"/>
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>
@@ -8704,12 +9631,9 @@
       <c r="P28" s="20"/>
       <c r="Q28" s="20"/>
       <c r="R28" s="20"/>
-      <c r="S28" s="20"/>
-      <c r="T28" s="20"/>
-      <c r="U28" s="20"/>
-      <c r="V28" s="18"/>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="S28" s="18"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="17"/>
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>
@@ -8728,12 +9652,9 @@
       <c r="P29" s="20"/>
       <c r="Q29" s="20"/>
       <c r="R29" s="20"/>
-      <c r="S29" s="20"/>
-      <c r="T29" s="20"/>
-      <c r="U29" s="20"/>
-      <c r="V29" s="18"/>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="S29" s="18"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
@@ -8752,12 +9673,9 @@
       <c r="P30" s="20"/>
       <c r="Q30" s="20"/>
       <c r="R30" s="20"/>
-      <c r="S30" s="20"/>
-      <c r="T30" s="20"/>
-      <c r="U30" s="20"/>
-      <c r="V30" s="18"/>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="S30" s="18"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="17"/>
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
@@ -8776,12 +9694,9 @@
       <c r="P31" s="20"/>
       <c r="Q31" s="20"/>
       <c r="R31" s="20"/>
-      <c r="S31" s="20"/>
-      <c r="T31" s="20"/>
-      <c r="U31" s="20"/>
-      <c r="V31" s="18"/>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="S31" s="18"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="17"/>
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
@@ -8800,12 +9715,9 @@
       <c r="P32" s="20"/>
       <c r="Q32" s="20"/>
       <c r="R32" s="20"/>
-      <c r="S32" s="20"/>
-      <c r="T32" s="20"/>
-      <c r="U32" s="20"/>
-      <c r="V32" s="18"/>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S32" s="18"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
@@ -8824,12 +9736,9 @@
       <c r="P33" s="20"/>
       <c r="Q33" s="20"/>
       <c r="R33" s="20"/>
-      <c r="S33" s="20"/>
-      <c r="T33" s="20"/>
-      <c r="U33" s="20"/>
-      <c r="V33" s="18"/>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S33" s="18"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="17"/>
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
@@ -8848,12 +9757,9 @@
       <c r="P34" s="20"/>
       <c r="Q34" s="20"/>
       <c r="R34" s="20"/>
-      <c r="S34" s="20"/>
-      <c r="T34" s="20"/>
-      <c r="U34" s="20"/>
-      <c r="V34" s="18"/>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S34" s="18"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="17"/>
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
@@ -8872,12 +9778,9 @@
       <c r="P35" s="20"/>
       <c r="Q35" s="20"/>
       <c r="R35" s="20"/>
-      <c r="S35" s="20"/>
-      <c r="T35" s="20"/>
-      <c r="U35" s="20"/>
-      <c r="V35" s="18"/>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S35" s="18"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="17"/>
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
@@ -8896,12 +9799,9 @@
       <c r="P36" s="20"/>
       <c r="Q36" s="20"/>
       <c r="R36" s="20"/>
-      <c r="S36" s="20"/>
-      <c r="T36" s="20"/>
-      <c r="U36" s="20"/>
-      <c r="V36" s="18"/>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S36" s="18"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="17"/>
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
@@ -8920,12 +9820,9 @@
       <c r="P37" s="20"/>
       <c r="Q37" s="20"/>
       <c r="R37" s="20"/>
-      <c r="S37" s="20"/>
-      <c r="T37" s="20"/>
-      <c r="U37" s="20"/>
-      <c r="V37" s="18"/>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S37" s="18"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="17"/>
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
@@ -8944,12 +9841,9 @@
       <c r="P38" s="20"/>
       <c r="Q38" s="20"/>
       <c r="R38" s="20"/>
-      <c r="S38" s="20"/>
-      <c r="T38" s="20"/>
-      <c r="U38" s="20"/>
-      <c r="V38" s="18"/>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S38" s="18"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="17"/>
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
@@ -8968,12 +9862,9 @@
       <c r="P39" s="20"/>
       <c r="Q39" s="20"/>
       <c r="R39" s="20"/>
-      <c r="S39" s="20"/>
-      <c r="T39" s="20"/>
-      <c r="U39" s="20"/>
-      <c r="V39" s="18"/>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S39" s="18"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="17"/>
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
@@ -8992,12 +9883,9 @@
       <c r="P40" s="20"/>
       <c r="Q40" s="20"/>
       <c r="R40" s="20"/>
-      <c r="S40" s="20"/>
-      <c r="T40" s="20"/>
-      <c r="U40" s="20"/>
-      <c r="V40" s="18"/>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S40" s="18"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" s="17"/>
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
@@ -9016,12 +9904,9 @@
       <c r="P41" s="20"/>
       <c r="Q41" s="20"/>
       <c r="R41" s="20"/>
-      <c r="S41" s="20"/>
-      <c r="T41" s="20"/>
-      <c r="U41" s="20"/>
-      <c r="V41" s="18"/>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S41" s="18"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="17"/>
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
@@ -9040,12 +9925,9 @@
       <c r="P42" s="20"/>
       <c r="Q42" s="20"/>
       <c r="R42" s="20"/>
-      <c r="S42" s="20"/>
-      <c r="T42" s="20"/>
-      <c r="U42" s="20"/>
-      <c r="V42" s="18"/>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S42" s="18"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" s="17"/>
       <c r="B43" s="19"/>
       <c r="C43" s="19"/>
@@ -9064,12 +9946,9 @@
       <c r="P43" s="20"/>
       <c r="Q43" s="20"/>
       <c r="R43" s="20"/>
-      <c r="S43" s="20"/>
-      <c r="T43" s="20"/>
-      <c r="U43" s="20"/>
-      <c r="V43" s="18"/>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S43" s="18"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44" s="20"/>
       <c r="C44" s="20"/>
@@ -9088,12 +9967,9 @@
       <c r="P44" s="20"/>
       <c r="Q44" s="20"/>
       <c r="R44" s="20"/>
-      <c r="S44" s="20"/>
-      <c r="T44" s="20"/>
-      <c r="U44" s="20"/>
-      <c r="V44" s="18"/>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S44" s="18"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
@@ -9112,12 +9988,9 @@
       <c r="P45" s="20"/>
       <c r="Q45" s="20"/>
       <c r="R45" s="20"/>
-      <c r="S45" s="20"/>
-      <c r="T45" s="20"/>
-      <c r="U45" s="20"/>
-      <c r="V45" s="18"/>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S45" s="18"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
       <c r="B46" s="20"/>
       <c r="C46" s="20"/>
@@ -9136,12 +10009,9 @@
       <c r="P46" s="20"/>
       <c r="Q46" s="20"/>
       <c r="R46" s="20"/>
-      <c r="S46" s="20"/>
-      <c r="T46" s="20"/>
-      <c r="U46" s="20"/>
-      <c r="V46" s="18"/>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S46" s="18"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>
@@ -9160,12 +10030,9 @@
       <c r="P47" s="20"/>
       <c r="Q47" s="20"/>
       <c r="R47" s="20"/>
-      <c r="S47" s="20"/>
-      <c r="T47" s="20"/>
-      <c r="U47" s="20"/>
-      <c r="V47" s="18"/>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S47" s="18"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
       <c r="B48" s="20"/>
       <c r="C48" s="20"/>
@@ -9184,12 +10051,9 @@
       <c r="P48" s="20"/>
       <c r="Q48" s="20"/>
       <c r="R48" s="20"/>
-      <c r="S48" s="20"/>
-      <c r="T48" s="20"/>
-      <c r="U48" s="20"/>
-      <c r="V48" s="18"/>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S48" s="18"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
       <c r="B49" s="20"/>
       <c r="C49" s="20"/>
@@ -9208,12 +10072,9 @@
       <c r="P49" s="20"/>
       <c r="Q49" s="20"/>
       <c r="R49" s="20"/>
-      <c r="S49" s="20"/>
-      <c r="T49" s="20"/>
-      <c r="U49" s="20"/>
-      <c r="V49" s="18"/>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S49" s="18"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" s="7"/>
       <c r="B50" s="20"/>
       <c r="C50" s="20"/>
@@ -9232,12 +10093,9 @@
       <c r="P50" s="20"/>
       <c r="Q50" s="20"/>
       <c r="R50" s="20"/>
-      <c r="S50" s="20"/>
-      <c r="T50" s="20"/>
-      <c r="U50" s="20"/>
-      <c r="V50" s="18"/>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S50" s="18"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" s="7"/>
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
@@ -9256,12 +10114,9 @@
       <c r="P51" s="20"/>
       <c r="Q51" s="20"/>
       <c r="R51" s="20"/>
-      <c r="S51" s="20"/>
-      <c r="T51" s="20"/>
-      <c r="U51" s="20"/>
-      <c r="V51" s="18"/>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S51" s="18"/>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
       <c r="B52" s="20"/>
       <c r="C52" s="20"/>
@@ -9280,12 +10135,9 @@
       <c r="P52" s="20"/>
       <c r="Q52" s="20"/>
       <c r="R52" s="20"/>
-      <c r="S52" s="20"/>
-      <c r="T52" s="20"/>
-      <c r="U52" s="20"/>
-      <c r="V52" s="18"/>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S52" s="18"/>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" s="7"/>
       <c r="B53" s="20"/>
       <c r="C53" s="20"/>
@@ -9304,12 +10156,9 @@
       <c r="P53" s="20"/>
       <c r="Q53" s="20"/>
       <c r="R53" s="20"/>
-      <c r="S53" s="20"/>
-      <c r="T53" s="20"/>
-      <c r="U53" s="20"/>
-      <c r="V53" s="18"/>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S53" s="18"/>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B54" s="20"/>
       <c r="C54" s="20"/>
       <c r="D54" s="20"/>
@@ -9327,12 +10176,9 @@
       <c r="P54" s="20"/>
       <c r="Q54" s="20"/>
       <c r="R54" s="20"/>
-      <c r="S54" s="20"/>
-      <c r="T54" s="20"/>
-      <c r="U54" s="20"/>
-      <c r="V54" s="18"/>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S54" s="18"/>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B55" s="20"/>
       <c r="C55" s="20"/>
       <c r="D55" s="20"/>
@@ -9350,12 +10196,9 @@
       <c r="P55" s="20"/>
       <c r="Q55" s="20"/>
       <c r="R55" s="20"/>
-      <c r="S55" s="20"/>
-      <c r="T55" s="20"/>
-      <c r="U55" s="20"/>
-      <c r="V55" s="18"/>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S55" s="18"/>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B56" s="20"/>
       <c r="C56" s="20"/>
       <c r="D56" s="20"/>
@@ -9373,12 +10216,9 @@
       <c r="P56" s="20"/>
       <c r="Q56" s="20"/>
       <c r="R56" s="20"/>
-      <c r="S56" s="20"/>
-      <c r="T56" s="20"/>
-      <c r="U56" s="20"/>
-      <c r="V56" s="18"/>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S56" s="18"/>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B57" s="20"/>
       <c r="C57" s="20"/>
       <c r="D57" s="20"/>
@@ -9396,12 +10236,9 @@
       <c r="P57" s="20"/>
       <c r="Q57" s="20"/>
       <c r="R57" s="20"/>
-      <c r="S57" s="20"/>
-      <c r="T57" s="20"/>
-      <c r="U57" s="20"/>
-      <c r="V57" s="18"/>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S57" s="18"/>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B58" s="20"/>
       <c r="C58" s="20"/>
       <c r="D58" s="20"/>
@@ -9419,12 +10256,9 @@
       <c r="P58" s="20"/>
       <c r="Q58" s="20"/>
       <c r="R58" s="20"/>
-      <c r="S58" s="20"/>
-      <c r="T58" s="20"/>
-      <c r="U58" s="20"/>
-      <c r="V58" s="18"/>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S58" s="18"/>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B59" s="20"/>
       <c r="C59" s="20"/>
       <c r="D59" s="20"/>
@@ -9442,12 +10276,9 @@
       <c r="P59" s="20"/>
       <c r="Q59" s="20"/>
       <c r="R59" s="20"/>
-      <c r="S59" s="20"/>
-      <c r="T59" s="20"/>
-      <c r="U59" s="20"/>
-      <c r="V59" s="18"/>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S59" s="18"/>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B60" s="20"/>
       <c r="C60" s="20"/>
       <c r="D60" s="20"/>
@@ -9465,12 +10296,9 @@
       <c r="P60" s="20"/>
       <c r="Q60" s="20"/>
       <c r="R60" s="20"/>
-      <c r="S60" s="20"/>
-      <c r="T60" s="20"/>
-      <c r="U60" s="20"/>
-      <c r="V60" s="18"/>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S60" s="18"/>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B61" s="20"/>
       <c r="C61" s="20"/>
       <c r="D61" s="20"/>
@@ -9488,12 +10316,9 @@
       <c r="P61" s="20"/>
       <c r="Q61" s="20"/>
       <c r="R61" s="20"/>
-      <c r="S61" s="20"/>
-      <c r="T61" s="20"/>
-      <c r="U61" s="20"/>
-      <c r="V61" s="18"/>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S61" s="18"/>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B62" s="20"/>
       <c r="C62" s="20"/>
       <c r="D62" s="20"/>
@@ -9511,12 +10336,9 @@
       <c r="P62" s="20"/>
       <c r="Q62" s="20"/>
       <c r="R62" s="20"/>
-      <c r="S62" s="20"/>
-      <c r="T62" s="20"/>
-      <c r="U62" s="20"/>
-      <c r="V62" s="18"/>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S62" s="18"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B63" s="20"/>
       <c r="C63" s="20"/>
       <c r="D63" s="20"/>
@@ -9534,12 +10356,9 @@
       <c r="P63" s="20"/>
       <c r="Q63" s="20"/>
       <c r="R63" s="20"/>
-      <c r="S63" s="20"/>
-      <c r="T63" s="20"/>
-      <c r="U63" s="20"/>
-      <c r="V63" s="18"/>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S63" s="18"/>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B64" s="20"/>
       <c r="C64" s="20"/>
       <c r="D64" s="20"/>
@@ -9557,12 +10376,9 @@
       <c r="P64" s="20"/>
       <c r="Q64" s="20"/>
       <c r="R64" s="20"/>
-      <c r="S64" s="20"/>
-      <c r="T64" s="20"/>
-      <c r="U64" s="20"/>
-      <c r="V64" s="18"/>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="S64" s="18"/>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B65" s="20"/>
       <c r="C65" s="20"/>
       <c r="D65" s="20"/>
@@ -9580,12 +10396,9 @@
       <c r="P65" s="20"/>
       <c r="Q65" s="20"/>
       <c r="R65" s="20"/>
-      <c r="S65" s="20"/>
-      <c r="T65" s="20"/>
-      <c r="U65" s="20"/>
-      <c r="V65" s="18"/>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="S65" s="18"/>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B66" s="20"/>
       <c r="C66" s="20"/>
       <c r="D66" s="20"/>
@@ -9599,7 +10412,7 @@
       <c r="L66" s="20"/>
       <c r="M66" s="20"/>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B67" s="20"/>
       <c r="C67" s="20"/>
       <c r="D67" s="20"/>
@@ -9613,7 +10426,7 @@
       <c r="L67" s="20"/>
       <c r="M67" s="20"/>
     </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B68" s="20"/>
       <c r="C68" s="20"/>
       <c r="D68" s="20"/>
@@ -9627,7 +10440,7 @@
       <c r="L68" s="20"/>
       <c r="M68" s="20"/>
     </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B69" s="20"/>
       <c r="C69" s="20"/>
       <c r="D69" s="20"/>
@@ -9641,7 +10454,7 @@
       <c r="L69" s="20"/>
       <c r="M69" s="20"/>
     </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B70" s="20"/>
       <c r="C70" s="20"/>
       <c r="D70" s="20"/>
@@ -9655,7 +10468,7 @@
       <c r="L70" s="20"/>
       <c r="M70" s="20"/>
     </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B71" s="20"/>
       <c r="C71" s="20"/>
       <c r="D71" s="20"/>
@@ -9669,7 +10482,7 @@
       <c r="L71" s="20"/>
       <c r="M71" s="20"/>
     </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B72" s="20"/>
       <c r="C72" s="20"/>
       <c r="D72" s="20"/>
@@ -9683,7 +10496,7 @@
       <c r="L72" s="20"/>
       <c r="M72" s="20"/>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B73" s="20"/>
       <c r="C73" s="20"/>
       <c r="D73" s="20"/>
@@ -9697,7 +10510,7 @@
       <c r="L73" s="20"/>
       <c r="M73" s="20"/>
     </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B74" s="20"/>
       <c r="C74" s="20"/>
       <c r="D74" s="20"/>
@@ -9711,7 +10524,7 @@
       <c r="L74" s="20"/>
       <c r="M74" s="20"/>
     </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B75" s="20"/>
       <c r="C75" s="20"/>
       <c r="D75" s="20"/>
@@ -9725,7 +10538,7 @@
       <c r="L75" s="20"/>
       <c r="M75" s="20"/>
     </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B76" s="20"/>
       <c r="C76" s="20"/>
       <c r="D76" s="20"/>
@@ -9739,7 +10552,7 @@
       <c r="L76" s="20"/>
       <c r="M76" s="20"/>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B77" s="20"/>
       <c r="C77" s="20"/>
       <c r="D77" s="20"/>
@@ -9753,7 +10566,7 @@
       <c r="L77" s="20"/>
       <c r="M77" s="20"/>
     </row>
-    <row r="78" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B78" s="20"/>
       <c r="C78" s="20"/>
       <c r="D78" s="20"/>
@@ -9767,7 +10580,7 @@
       <c r="L78" s="20"/>
       <c r="M78" s="20"/>
     </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B79" s="20"/>
       <c r="C79" s="20"/>
       <c r="D79" s="20"/>
@@ -9781,7 +10594,7 @@
       <c r="L79" s="20"/>
       <c r="M79" s="20"/>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B80" s="20"/>
       <c r="C80" s="20"/>
       <c r="D80" s="20"/>
@@ -9795,7 +10608,7 @@
       <c r="L80" s="20"/>
       <c r="M80" s="20"/>
     </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B81" s="20"/>
       <c r="C81" s="20"/>
       <c r="D81" s="20"/>
@@ -9809,7 +10622,7 @@
       <c r="L81" s="20"/>
       <c r="M81" s="20"/>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
     </row>

--- a/Stats.xlsx
+++ b/Stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s-kwongal\Downloads\Projects\1 - 2019 Mega Comparison\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AL\Documents\2019 Mega Comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850B6334-695F-49AF-9757-6D0534EC87B3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E784C194-46D5-4DCC-987E-A259B13A6334}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{E6171133-BC82-453F-AA1B-A983A9E75A15}"/>
+    <workbookView xWindow="-35280" yWindow="3120" windowWidth="28800" windowHeight="15315" activeTab="3" xr2:uid="{E6171133-BC82-453F-AA1B-A983A9E75A15}"/>
   </bookViews>
   <sheets>
     <sheet name="Tau" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="279">
   <si>
     <t>Carlos S. M.: R5 3600 @ 4.2 GHz</t>
   </si>
@@ -774,9 +774,6 @@
     <t>3:52.17</t>
   </si>
   <si>
-    <t>3:55.27</t>
-  </si>
-  <si>
     <t>Hans5958: i3-8130U @ Stock (3.4 GHz)</t>
   </si>
   <si>
@@ -874,6 +871,9 @@
   </si>
   <si>
     <t>Yuzu: R7 2700X @ 4.475-4.5 GHz</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
@@ -1346,31 +1346,31 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.6640625" style="6" customWidth="1"/>
-    <col min="2" max="4" width="7.5546875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.6640625" style="6" customWidth="1"/>
-    <col min="6" max="8" width="7.5546875" style="6" customWidth="1"/>
-    <col min="9" max="9" width="41.77734375" style="6" customWidth="1"/>
-    <col min="10" max="10" width="7.5546875" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="41.7109375" style="6" customWidth="1"/>
+    <col min="2" max="4" width="7.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.7109375" style="6" customWidth="1"/>
+    <col min="6" max="8" width="7.5703125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="41.7109375" style="6" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
       <c r="E1" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
@@ -1392,16 +1392,16 @@
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J2" s="5">
         <f t="shared" ref="J2:J32" si="0">SUMIF($A$3:$A$65,I2,$B$3:$B$65)+SUMIF($E$3:$E$65,I2,$F$3:$F$65)</f>
         <v>2.0717592592592532E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B3" s="19">
         <v>6.9444444444444024E-5</v>
@@ -1411,7 +1411,7 @@
       </c>
       <c r="D3" s="8"/>
       <c r="E3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F3" s="19">
         <v>1.377314814814813E-4</v>
@@ -1428,7 +1428,7 @@
         <v>2.2337962962962936E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>2.252314814814812E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>2.3414351851851764E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>2.4479166666666616E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>2.4872685185185111E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>2.5902777777777773E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>2.6377314814814709E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>2.6817129629629587E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>2.7627314814814745E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>2.8564814814814729E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>2.873842592592585E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>2.9467592592592566E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>2.9699074074073959E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1805,7 +1805,7 @@
         <v>2.9699074074074046E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>2.9733796296296322E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>3.0243055555555535E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>3.2187499999999968E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>3.2314814814814749E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>3.2673611111111098E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -1979,7 +1979,7 @@
         <v>3.2986111111111063E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>3.4016203703703682E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>3.484953703703701E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>3.7071759259259263E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>3.7418981481481418E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>3.7974537037037013E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
         <v>13</v>
       </c>
@@ -2146,14 +2146,14 @@
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J28" s="5">
         <f t="shared" si="0"/>
         <v>4.1145833333333312E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>3</v>
       </c>
@@ -2165,7 +2165,7 @@
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F29" s="19">
         <v>2.7083333333333343E-4</v>
@@ -2182,9 +2182,9 @@
         <v>4.1805555555555476E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B30" s="19">
         <v>1.4062499999999969E-4</v>
@@ -2194,7 +2194,7 @@
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F30" s="19">
         <v>2.8136574074074045E-4</v>
@@ -2204,16 +2204,16 @@
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J30" s="5">
         <f t="shared" si="0"/>
         <v>4.2789351851851799E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B31" s="19">
         <v>1.4652777777777754E-4</v>
@@ -2233,16 +2233,16 @@
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J31" s="5">
         <f t="shared" si="0"/>
         <v>4.7268518518518493E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B32" s="19">
         <v>1.6296296296296284E-4</v>
@@ -2252,7 +2252,7 @@
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F32" s="19">
         <v>3.0972222222222208E-4</v>
@@ -2262,16 +2262,16 @@
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J32" s="5">
         <f t="shared" si="0"/>
         <v>8.8958333333333294E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B33" s="19">
         <v>3.4259259259259225E-4</v>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F33" s="19">
         <v>5.4699074074074068E-4</v>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="19"/>
       <c r="C34" s="20"/>
       <c r="D34" s="9"/>
@@ -2300,7 +2300,7 @@
       <c r="G34" s="20"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B35" s="19"/>
       <c r="C35" s="20"/>
       <c r="D35" s="9"/>
@@ -2309,7 +2309,7 @@
       <c r="G35" s="20"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B36" s="19"/>
       <c r="C36" s="20"/>
       <c r="D36" s="9"/>
@@ -2318,7 +2318,7 @@
       <c r="G36" s="20"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="19"/>
       <c r="C37" s="20"/>
       <c r="D37" s="9"/>
@@ -2327,7 +2327,7 @@
       <c r="G37" s="20"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" s="19"/>
       <c r="C38" s="20"/>
       <c r="D38" s="9"/>
@@ -2335,7 +2335,7 @@
       <c r="G38" s="20"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="19"/>
       <c r="C39" s="20"/>
       <c r="D39" s="9"/>
@@ -2343,7 +2343,7 @@
       <c r="G39" s="20"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="19"/>
       <c r="C40" s="20"/>
       <c r="D40" s="9"/>
@@ -2351,7 +2351,7 @@
       <c r="G40" s="20"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" s="19"/>
       <c r="C41" s="20"/>
       <c r="D41" s="9"/>
@@ -2359,7 +2359,7 @@
       <c r="G41" s="20"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42" s="19"/>
       <c r="C42" s="20"/>
       <c r="D42" s="9"/>
@@ -2367,7 +2367,7 @@
       <c r="G42" s="20"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" s="19"/>
       <c r="C43" s="20"/>
       <c r="D43" s="9"/>
@@ -2375,7 +2375,7 @@
       <c r="G43" s="20"/>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" s="19"/>
       <c r="C44" s="20"/>
       <c r="D44" s="9"/>
@@ -2383,7 +2383,7 @@
       <c r="G44" s="20"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="19"/>
       <c r="C45" s="20"/>
       <c r="D45" s="9"/>
@@ -2391,7 +2391,7 @@
       <c r="G45" s="20"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B46" s="19"/>
       <c r="C46" s="20"/>
       <c r="D46" s="9"/>
@@ -2399,7 +2399,7 @@
       <c r="G46" s="20"/>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B47" s="19"/>
       <c r="C47" s="20"/>
       <c r="D47" s="9"/>
@@ -2407,7 +2407,7 @@
       <c r="G47" s="20"/>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B48" s="19"/>
       <c r="C48" s="20"/>
       <c r="D48" s="9"/>
@@ -2415,7 +2415,7 @@
       <c r="G48" s="20"/>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="19"/>
       <c r="C49" s="20"/>
       <c r="D49" s="9"/>
@@ -2423,7 +2423,7 @@
       <c r="G49" s="20"/>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="19"/>
       <c r="C50" s="20"/>
       <c r="D50" s="9"/>
@@ -2431,7 +2431,7 @@
       <c r="G50" s="20"/>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="19"/>
       <c r="C51" s="20"/>
       <c r="D51" s="9"/>
@@ -2439,7 +2439,7 @@
       <c r="G51" s="20"/>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="19"/>
       <c r="C52" s="20"/>
       <c r="D52" s="9"/>
@@ -2447,7 +2447,7 @@
       <c r="G52" s="20"/>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="19"/>
       <c r="C53" s="20"/>
       <c r="D53" s="9"/>
@@ -2455,7 +2455,7 @@
       <c r="G53" s="20"/>
       <c r="H53" s="1"/>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="19"/>
       <c r="C54" s="20"/>
       <c r="D54" s="9"/>
@@ -2463,7 +2463,7 @@
       <c r="G54" s="20"/>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="19"/>
       <c r="C55" s="20"/>
       <c r="D55" s="9"/>
@@ -2471,7 +2471,7 @@
       <c r="G55" s="20"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="19"/>
       <c r="C56" s="20"/>
       <c r="D56" s="9"/>
@@ -2479,7 +2479,7 @@
       <c r="G56" s="20"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="19"/>
       <c r="C57" s="20"/>
       <c r="D57" s="9"/>
@@ -2487,7 +2487,7 @@
       <c r="G57" s="20"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="19"/>
       <c r="C58" s="20"/>
       <c r="D58" s="9"/>
@@ -2495,7 +2495,7 @@
       <c r="G58" s="20"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="19"/>
       <c r="C59" s="20"/>
       <c r="D59" s="9"/>
@@ -2503,7 +2503,7 @@
       <c r="G59" s="20"/>
       <c r="H59" s="1"/>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" s="19"/>
       <c r="C60" s="20"/>
       <c r="D60" s="9"/>
@@ -2511,7 +2511,7 @@
       <c r="G60" s="20"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" s="19"/>
       <c r="C61" s="20"/>
       <c r="D61" s="9"/>
@@ -2519,7 +2519,7 @@
       <c r="G61" s="20"/>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" s="19"/>
       <c r="C62" s="20"/>
       <c r="D62" s="9"/>
@@ -2527,7 +2527,7 @@
       <c r="G62" s="20"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="19"/>
       <c r="C63" s="20"/>
       <c r="D63" s="9"/>
@@ -2535,7 +2535,7 @@
       <c r="G63" s="20"/>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" s="19"/>
       <c r="C64" s="20"/>
       <c r="D64" s="9"/>
@@ -2543,7 +2543,7 @@
       <c r="G64" s="20"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" s="19"/>
       <c r="C65" s="20"/>
       <c r="D65" s="9"/>
@@ -2551,185 +2551,185 @@
       <c r="G65" s="20"/>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
     </row>
@@ -2754,37 +2754,37 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.6640625" style="6" customWidth="1"/>
-    <col min="2" max="4" width="7.5546875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.6640625" style="6" customWidth="1"/>
-    <col min="6" max="7" width="7.5546875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="41.77734375" style="6" customWidth="1"/>
-    <col min="10" max="10" width="7.5546875" style="6" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="6"/>
-    <col min="12" max="12" width="37.109375" style="6" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="41.7109375" style="6" customWidth="1"/>
+    <col min="2" max="4" width="7.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.7109375" style="6" customWidth="1"/>
+    <col min="6" max="7" width="7.5703125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="41.7109375" style="6" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="6"/>
+    <col min="12" max="12" width="37.140625" style="6" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
       <c r="E1" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L1" s="27" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
@@ -2806,7 +2806,7 @@
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J2" s="1">
         <f>SUMIF($A$3:$A$65,I2,$B$3:$B$65)+SUMIF($E$3:$E$65,I2,$F$3:$F$65)</f>
@@ -2814,12 +2814,12 @@
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B3" s="19">
         <v>4.2361111111111072E-5</v>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F3" s="19">
         <v>5.7291666666666428E-5</v>
@@ -2846,7 +2846,7 @@
         <v>1.140046296296297E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>21</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>1.1296296296296271E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>7</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>1.118055555555551E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>106</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>1.1967592592592585E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>107</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>1.1574074074074047E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>0</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>1.2083333333333304E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>9</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>1.2395833333333313E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>108</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>1.2743055555555554E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>84</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>1.2847222222222253E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>83</v>
       </c>
@@ -3107,7 +3107,7 @@
         <v>1.3703703703703664E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>18</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>1.3402777777777762E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>20</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>1.398148148148144E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>15</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>1.3194444444444408E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>10</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>1.4074074074074076E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>109</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>1.3888888888888892E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>4</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>1.4282407407407386E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>23</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>1.4629629629629628E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>22</v>
       </c>
@@ -3339,7 +3339,7 @@
         <v>1.4143518518518541E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>110</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>1.3877314814814785E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>25</v>
       </c>
@@ -3397,7 +3397,7 @@
         <v>1.5798611111111091E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>26</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>1.6331018518518561E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>8</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>1.5914351851851766E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>12</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>1.7071759259259254E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>19</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>1.8182870370370315E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>3</v>
       </c>
@@ -3542,7 +3542,7 @@
         <v>1.9224537037036997E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>14</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v>1.9641203703703704E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>11</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>1.9166666666666637E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
         <v>13</v>
       </c>
@@ -3612,7 +3612,7 @@
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F30" s="19">
         <v>1.068287037037036E-4</v>
@@ -3629,7 +3629,7 @@
         <v>2.1215277777777725E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>30</v>
       </c>
@@ -3651,16 +3651,16 @@
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J31" s="1">
         <f t="shared" si="0"/>
         <v>2.1307870370370317E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B32" s="19">
         <v>1.0624999999999957E-4</v>
@@ -3680,16 +3680,16 @@
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J32" s="1">
         <f t="shared" si="0"/>
         <v>2.2777777777777813E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B33" s="19">
         <v>1.1319444444444441E-4</v>
@@ -3699,7 +3699,7 @@
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F33" s="19">
         <v>1.1458333333333372E-4</v>
@@ -3710,7 +3710,7 @@
       <c r="H33" s="1"/>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B34" s="19"/>
       <c r="C34" s="20"/>
       <c r="D34" s="5"/>
@@ -3720,7 +3720,7 @@
       <c r="H34" s="1"/>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B35" s="19"/>
       <c r="C35" s="20"/>
       <c r="D35" s="5"/>
@@ -3730,7 +3730,7 @@
       <c r="H35" s="1"/>
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B36" s="19"/>
       <c r="C36" s="20"/>
       <c r="D36" s="5"/>
@@ -3740,7 +3740,7 @@
       <c r="H36" s="1"/>
       <c r="J36" s="5"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B37" s="19"/>
       <c r="C37" s="20"/>
       <c r="D37" s="5"/>
@@ -3750,7 +3750,7 @@
       <c r="H37" s="1"/>
       <c r="J37" s="5"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B38" s="19"/>
       <c r="C38" s="20"/>
       <c r="D38" s="5"/>
@@ -3759,7 +3759,7 @@
       <c r="H38" s="1"/>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B39" s="19"/>
       <c r="C39" s="20"/>
       <c r="D39" s="5"/>
@@ -3768,7 +3768,7 @@
       <c r="H39" s="1"/>
       <c r="J39" s="5"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B40" s="19"/>
       <c r="C40" s="20"/>
       <c r="D40" s="5"/>
@@ -3777,7 +3777,7 @@
       <c r="H40" s="1"/>
       <c r="J40" s="5"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B41" s="19"/>
       <c r="C41" s="20"/>
       <c r="D41" s="5"/>
@@ -3786,7 +3786,7 @@
       <c r="H41" s="1"/>
       <c r="J41" s="5"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B42" s="19"/>
       <c r="C42" s="20"/>
       <c r="D42" s="5"/>
@@ -3795,7 +3795,7 @@
       <c r="H42" s="1"/>
       <c r="J42" s="5"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B43" s="19"/>
       <c r="C43" s="20"/>
       <c r="D43" s="5"/>
@@ -3804,7 +3804,7 @@
       <c r="H43" s="1"/>
       <c r="J43" s="5"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B44" s="19"/>
       <c r="C44" s="20"/>
       <c r="D44" s="5"/>
@@ -3813,7 +3813,7 @@
       <c r="H44" s="1"/>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B45" s="19"/>
       <c r="C45" s="20"/>
       <c r="D45" s="5"/>
@@ -3822,7 +3822,7 @@
       <c r="H45" s="1"/>
       <c r="J45" s="5"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B46" s="19"/>
       <c r="C46" s="20"/>
       <c r="D46" s="5"/>
@@ -3831,7 +3831,7 @@
       <c r="H46" s="1"/>
       <c r="J46" s="5"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B47" s="19"/>
       <c r="C47" s="20"/>
       <c r="D47" s="5"/>
@@ -3840,7 +3840,7 @@
       <c r="H47" s="1"/>
       <c r="J47" s="5"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B48" s="19"/>
       <c r="C48" s="20"/>
       <c r="D48" s="5"/>
@@ -3849,7 +3849,7 @@
       <c r="H48" s="1"/>
       <c r="J48" s="5"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" s="19"/>
       <c r="C49" s="20"/>
       <c r="D49" s="5"/>
@@ -3858,7 +3858,7 @@
       <c r="H49" s="1"/>
       <c r="J49" s="5"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50" s="19"/>
       <c r="C50" s="20"/>
       <c r="D50" s="5"/>
@@ -3867,7 +3867,7 @@
       <c r="H50" s="1"/>
       <c r="J50" s="5"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51" s="19"/>
       <c r="C51" s="20"/>
       <c r="D51" s="5"/>
@@ -3876,7 +3876,7 @@
       <c r="H51" s="1"/>
       <c r="J51" s="5"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52" s="19"/>
       <c r="C52" s="20"/>
       <c r="D52" s="5"/>
@@ -3885,7 +3885,7 @@
       <c r="H52" s="1"/>
       <c r="J52" s="5"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53" s="19"/>
       <c r="C53" s="20"/>
       <c r="D53" s="5"/>
@@ -3894,7 +3894,7 @@
       <c r="H53" s="1"/>
       <c r="J53" s="5"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54" s="19"/>
       <c r="C54" s="20"/>
       <c r="D54" s="5"/>
@@ -3903,7 +3903,7 @@
       <c r="H54" s="1"/>
       <c r="J54" s="5"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B55" s="19"/>
       <c r="C55" s="20"/>
       <c r="D55" s="5"/>
@@ -3912,7 +3912,7 @@
       <c r="H55" s="1"/>
       <c r="J55" s="5"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B56" s="19"/>
       <c r="C56" s="20"/>
       <c r="D56" s="5"/>
@@ -3921,7 +3921,7 @@
       <c r="H56" s="1"/>
       <c r="J56" s="5"/>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B57" s="19"/>
       <c r="C57" s="20"/>
       <c r="D57" s="5"/>
@@ -3930,7 +3930,7 @@
       <c r="H57" s="1"/>
       <c r="J57" s="5"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B58" s="19"/>
       <c r="C58" s="20"/>
       <c r="D58" s="5"/>
@@ -3939,7 +3939,7 @@
       <c r="H58" s="1"/>
       <c r="J58" s="5"/>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B59" s="19"/>
       <c r="C59" s="20"/>
       <c r="D59" s="5"/>
@@ -3948,7 +3948,7 @@
       <c r="H59" s="1"/>
       <c r="J59" s="5"/>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B60" s="19"/>
       <c r="C60" s="20"/>
       <c r="D60" s="5"/>
@@ -3957,7 +3957,7 @@
       <c r="H60" s="1"/>
       <c r="J60" s="5"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B61" s="19"/>
       <c r="C61" s="20"/>
       <c r="D61" s="5"/>
@@ -3966,7 +3966,7 @@
       <c r="H61" s="1"/>
       <c r="J61" s="5"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B62" s="19"/>
       <c r="C62" s="20"/>
       <c r="D62" s="5"/>
@@ -3975,7 +3975,7 @@
       <c r="H62" s="1"/>
       <c r="J62" s="5"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B63" s="19"/>
       <c r="C63" s="20"/>
       <c r="D63" s="5"/>
@@ -3984,7 +3984,7 @@
       <c r="H63" s="1"/>
       <c r="J63" s="5"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B64" s="19"/>
       <c r="C64" s="20"/>
       <c r="D64" s="5"/>
@@ -3993,7 +3993,7 @@
       <c r="H64" s="1"/>
       <c r="J64" s="5"/>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B65" s="19"/>
       <c r="C65" s="20"/>
       <c r="D65" s="5"/>
@@ -4002,185 +4002,185 @@
       <c r="H65" s="1"/>
       <c r="J65" s="5"/>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
     </row>
@@ -4199,43 +4199,43 @@
   <dimension ref="A1:N110"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.6640625" style="6" customWidth="1"/>
-    <col min="2" max="4" width="7.5546875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.6640625" style="6" customWidth="1"/>
-    <col min="6" max="8" width="7.5546875" style="6" customWidth="1"/>
-    <col min="9" max="9" width="41.88671875" style="6" customWidth="1"/>
-    <col min="10" max="10" width="7.5546875" style="6" customWidth="1"/>
-    <col min="11" max="12" width="7.6640625" style="6" customWidth="1"/>
-    <col min="13" max="13" width="41.88671875" style="6" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="41.7109375" style="6" customWidth="1"/>
+    <col min="2" max="4" width="7.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.7109375" style="6" customWidth="1"/>
+    <col min="6" max="8" width="7.5703125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="41.85546875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" style="6" customWidth="1"/>
+    <col min="11" max="12" width="7.7109375" style="6" customWidth="1"/>
+    <col min="13" max="13" width="41.85546875" style="6" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
       <c r="E1" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H1" s="7"/>
       <c r="I1" s="25" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N1" s="5"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>1.7164351851851867E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>21</v>
       </c>
@@ -4286,7 +4286,7 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F3" s="20">
         <v>4.2013888888888743E-5</v>
@@ -4306,16 +4306,16 @@
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N3" s="5">
         <f t="shared" si="0"/>
         <v>1.8182870370370358E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B4" s="20">
         <v>4.1550925925925783E-5</v>
@@ -4335,7 +4335,7 @@
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J4" s="20">
         <v>9.8263888888889053E-5</v>
@@ -4352,7 +4352,7 @@
         <v>2.0856481481481464E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
@@ -4391,7 +4391,7 @@
         <v>2.3206018518518584E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
@@ -4430,7 +4430,7 @@
         <v>2.6354166666666648E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
@@ -4469,7 +4469,7 @@
         <v>2.813657407407411E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>0</v>
       </c>
@@ -4508,7 +4508,7 @@
         <v>2.8437499999999926E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>1</v>
       </c>
@@ -4547,7 +4547,7 @@
         <v>2.9583333333333328E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>24</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>3.0231481481481515E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>20</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>3.0312499999999979E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>18</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>3.2893518518518493E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>25</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>3.311342592592591E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>9</v>
       </c>
@@ -4742,7 +4742,7 @@
         <v>3.3287037037037096E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>15</v>
       </c>
@@ -4781,7 +4781,7 @@
         <v>3.3472222222222302E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>10</v>
       </c>
@@ -4820,7 +4820,7 @@
         <v>3.3865740740740753E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>23</v>
       </c>
@@ -4859,7 +4859,7 @@
         <v>3.6481481481481456E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>22</v>
       </c>
@@ -4898,7 +4898,7 @@
         <v>3.7627314814814771E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>8</v>
       </c>
@@ -4937,7 +4937,7 @@
         <v>3.7951388888888887E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
@@ -4976,7 +4976,7 @@
         <v>4.0266203703703666E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>2</v>
       </c>
@@ -5015,7 +5015,7 @@
         <v>4.2407407407407389E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>4</v>
       </c>
@@ -5054,7 +5054,7 @@
         <v>4.3842592592592631E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>26</v>
       </c>
@@ -5093,7 +5093,7 @@
         <v>4.4976851851851905E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>3</v>
       </c>
@@ -5132,7 +5132,7 @@
         <v>4.5648148148148154E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>11</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>5.2546296296296325E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>12</v>
       </c>
@@ -5210,7 +5210,7 @@
         <v>5.2627314814814854E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>14</v>
       </c>
@@ -5249,7 +5249,7 @@
         <v>5.3900462962962951E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>13</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>6.9224537037037019E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>30</v>
       </c>
@@ -5300,7 +5300,7 @@
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F29" s="20">
         <v>1.2465277777777778E-4</v>
@@ -5319,16 +5319,16 @@
         <v>4.3480324074074072E-3</v>
       </c>
       <c r="M29" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="N29" s="5">
         <f t="shared" si="0"/>
         <v>1.0120370370370368E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B30" s="20">
         <v>9.2361111111110986E-5</v>
@@ -5348,7 +5348,7 @@
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J30" s="20">
         <v>7.2048611111111098E-4</v>
@@ -5357,16 +5357,16 @@
         <v>4.5697916666666664E-3</v>
       </c>
       <c r="M30" s="17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N30" s="5">
         <f t="shared" si="0"/>
         <v>1.3026620370370371E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B31" s="20">
         <v>2.7604166666666662E-4</v>
@@ -5376,7 +5376,7 @@
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F31" s="20">
         <v>3.0613425925925947E-4</v>
@@ -5386,7 +5386,7 @@
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J31" s="20">
         <v>7.95023148148148E-4</v>
@@ -5396,7 +5396,7 @@
       </c>
       <c r="N31" s="5"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B32" s="20"/>
       <c r="C32" s="20"/>
       <c r="D32" s="5"/>
@@ -5408,7 +5408,7 @@
       <c r="K32" s="20"/>
       <c r="N32" s="5"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
       <c r="D33" s="5"/>
@@ -5420,7 +5420,7 @@
       <c r="K33" s="20"/>
       <c r="N33" s="5"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="20"/>
       <c r="C34" s="20"/>
       <c r="D34" s="5"/>
@@ -5432,7 +5432,7 @@
       <c r="K34" s="20"/>
       <c r="N34" s="5"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="20"/>
       <c r="C35" s="20"/>
       <c r="D35" s="5"/>
@@ -5444,7 +5444,7 @@
       <c r="K35" s="20"/>
       <c r="N35" s="5"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="20"/>
       <c r="C36" s="20"/>
       <c r="D36" s="5"/>
@@ -5456,7 +5456,7 @@
       <c r="K36" s="20"/>
       <c r="N36" s="5"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="20"/>
       <c r="C37" s="20"/>
       <c r="D37" s="5"/>
@@ -5467,7 +5467,7 @@
       <c r="K37" s="20"/>
       <c r="N37" s="5"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="20"/>
       <c r="C38" s="20"/>
       <c r="D38" s="5"/>
@@ -5477,7 +5477,7 @@
       <c r="K38" s="20"/>
       <c r="N38" s="5"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="20"/>
       <c r="C39" s="20"/>
       <c r="D39" s="5"/>
@@ -5487,7 +5487,7 @@
       <c r="K39" s="20"/>
       <c r="N39" s="5"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="20"/>
       <c r="C40" s="20"/>
       <c r="D40" s="5"/>
@@ -5497,7 +5497,7 @@
       <c r="K40" s="20"/>
       <c r="N40" s="5"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="20"/>
       <c r="C41" s="20"/>
       <c r="D41" s="5"/>
@@ -5507,7 +5507,7 @@
       <c r="K41" s="20"/>
       <c r="N41" s="5"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
       <c r="D42" s="5"/>
@@ -5517,7 +5517,7 @@
       <c r="K42" s="20"/>
       <c r="N42" s="5"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
       <c r="D43" s="5"/>
@@ -5527,7 +5527,7 @@
       <c r="K43" s="20"/>
       <c r="N43" s="5"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="20"/>
       <c r="C44" s="20"/>
       <c r="D44" s="5"/>
@@ -5537,7 +5537,7 @@
       <c r="K44" s="20"/>
       <c r="N44" s="5"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
       <c r="D45" s="5"/>
@@ -5547,7 +5547,7 @@
       <c r="K45" s="20"/>
       <c r="N45" s="5"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="20"/>
       <c r="C46" s="20"/>
       <c r="D46" s="5"/>
@@ -5557,7 +5557,7 @@
       <c r="K46" s="20"/>
       <c r="N46" s="5"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>
       <c r="D47" s="5"/>
@@ -5567,7 +5567,7 @@
       <c r="K47" s="20"/>
       <c r="N47" s="5"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="20"/>
       <c r="C48" s="20"/>
       <c r="D48" s="5"/>
@@ -5577,7 +5577,7 @@
       <c r="K48" s="20"/>
       <c r="N48" s="5"/>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="20"/>
       <c r="C49" s="20"/>
       <c r="D49" s="5"/>
@@ -5587,7 +5587,7 @@
       <c r="K49" s="20"/>
       <c r="N49" s="5"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="20"/>
       <c r="C50" s="20"/>
       <c r="D50" s="5"/>
@@ -5597,7 +5597,7 @@
       <c r="K50" s="20"/>
       <c r="N50" s="5"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
       <c r="D51" s="5"/>
@@ -5607,7 +5607,7 @@
       <c r="K51" s="20"/>
       <c r="N51" s="5"/>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="20"/>
       <c r="C52" s="20"/>
       <c r="D52" s="5"/>
@@ -5617,7 +5617,7 @@
       <c r="K52" s="20"/>
       <c r="N52" s="5"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="20"/>
       <c r="C53" s="20"/>
       <c r="D53" s="5"/>
@@ -5627,7 +5627,7 @@
       <c r="K53" s="20"/>
       <c r="N53" s="5"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="20"/>
       <c r="C54" s="20"/>
       <c r="D54" s="5"/>
@@ -5637,7 +5637,7 @@
       <c r="K54" s="20"/>
       <c r="N54" s="5"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="20"/>
       <c r="C55" s="20"/>
       <c r="D55" s="5"/>
@@ -5647,7 +5647,7 @@
       <c r="K55" s="20"/>
       <c r="N55" s="5"/>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="20"/>
       <c r="C56" s="20"/>
       <c r="D56" s="5"/>
@@ -5657,7 +5657,7 @@
       <c r="K56" s="20"/>
       <c r="N56" s="5"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="20"/>
       <c r="C57" s="20"/>
       <c r="D57" s="5"/>
@@ -5667,7 +5667,7 @@
       <c r="K57" s="20"/>
       <c r="N57" s="5"/>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="20"/>
       <c r="C58" s="20"/>
       <c r="D58" s="5"/>
@@ -5677,7 +5677,7 @@
       <c r="K58" s="20"/>
       <c r="N58" s="5"/>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="20"/>
       <c r="C59" s="20"/>
       <c r="D59" s="5"/>
@@ -5687,7 +5687,7 @@
       <c r="K59" s="20"/>
       <c r="N59" s="5"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="20"/>
       <c r="C60" s="20"/>
       <c r="D60" s="5"/>
@@ -5697,7 +5697,7 @@
       <c r="K60" s="20"/>
       <c r="N60" s="5"/>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="20"/>
       <c r="C61" s="20"/>
       <c r="D61" s="5"/>
@@ -5707,7 +5707,7 @@
       <c r="K61" s="20"/>
       <c r="N61" s="5"/>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="20"/>
       <c r="C62" s="20"/>
       <c r="D62" s="5"/>
@@ -5717,7 +5717,7 @@
       <c r="K62" s="20"/>
       <c r="N62" s="5"/>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="20"/>
       <c r="C63" s="20"/>
       <c r="D63" s="5"/>
@@ -5727,7 +5727,7 @@
       <c r="K63" s="20"/>
       <c r="N63" s="5"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="20"/>
       <c r="C64" s="20"/>
       <c r="D64" s="5"/>
@@ -5737,7 +5737,7 @@
       <c r="K64" s="20"/>
       <c r="N64" s="5"/>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="20"/>
       <c r="C65" s="20"/>
       <c r="D65" s="5"/>
@@ -5747,184 +5747,184 @@
       <c r="K65" s="20"/>
       <c r="N65" s="5"/>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
     </row>
@@ -5945,35 +5945,35 @@
   </sheetPr>
   <dimension ref="A1:J110"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.6640625" style="6" customWidth="1"/>
-    <col min="2" max="4" width="7.5546875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.6640625" style="6" customWidth="1"/>
-    <col min="6" max="8" width="7.5546875" style="6" customWidth="1"/>
-    <col min="9" max="9" width="41.77734375" style="6" customWidth="1"/>
-    <col min="10" max="10" width="7.5546875" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="41.7109375" style="6" customWidth="1"/>
+    <col min="2" max="4" width="7.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.7109375" style="6" customWidth="1"/>
+    <col min="6" max="8" width="7.5703125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="41.7109375" style="6" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
       <c r="E1" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
@@ -5995,14 +5995,14 @@
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J2" s="5">
         <f t="shared" ref="J2:J33" si="0">SUMIF($A$3:$A$65,I2,$B$3:$B$65)+SUMIF($E$3:$E$65,I2,$F$3:$F$65)</f>
         <v>1.7430555555555515E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>24</v>
       </c>
@@ -6014,7 +6014,7 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F3" s="19">
         <v>7.6967592592592452E-5</v>
@@ -6031,9 +6031,9 @@
         <v>1.753472222222217E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B4" s="19">
         <v>9.7337962962962699E-5</v>
@@ -6060,7 +6060,7 @@
         <v>1.8194444444444464E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>83</v>
       </c>
@@ -6089,7 +6089,7 @@
         <v>1.8414351851851795E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>0</v>
       </c>
@@ -6118,7 +6118,7 @@
         <v>1.8923611111111094E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>20</v>
       </c>
@@ -6147,7 +6147,7 @@
         <v>1.9016203703703686E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>1</v>
       </c>
@@ -6176,7 +6176,7 @@
         <v>1.9629629629629641E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>15</v>
       </c>
@@ -6205,7 +6205,7 @@
         <v>2.0057870370370412E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>25</v>
       </c>
@@ -6234,7 +6234,7 @@
         <v>2.0196759259259256E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>186</v>
       </c>
@@ -6263,7 +6263,7 @@
         <v>2.0277777777777785E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>23</v>
       </c>
@@ -6292,7 +6292,7 @@
         <v>2.0335648148148144E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>9</v>
       </c>
@@ -6321,7 +6321,7 @@
         <v>2.0439814814814843E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>18</v>
       </c>
@@ -6350,7 +6350,7 @@
         <v>2.1122685185185177E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>22</v>
       </c>
@@ -6379,7 +6379,7 @@
         <v>2.1250000000000002E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>10</v>
       </c>
@@ -6408,7 +6408,7 @@
         <v>2.1319444444444424E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>21</v>
       </c>
@@ -6437,7 +6437,7 @@
         <v>2.1331018518518487E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>7</v>
       </c>
@@ -6466,7 +6466,7 @@
         <v>2.3692129629629627E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>8</v>
       </c>
@@ -6495,7 +6495,7 @@
         <v>2.468749999999997E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>187</v>
       </c>
@@ -6524,7 +6524,7 @@
         <v>2.5057870370370338E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>12</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>2.5115740740740697E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>188</v>
       </c>
@@ -6582,7 +6582,7 @@
         <v>2.540509259259258E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>19</v>
       </c>
@@ -6611,7 +6611,7 @@
         <v>2.5624999999999997E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>26</v>
       </c>
@@ -6640,7 +6640,7 @@
         <v>2.6064814814814787E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>189</v>
       </c>
@@ -6669,7 +6669,7 @@
         <v>2.6874999999999989E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>30</v>
       </c>
@@ -6698,7 +6698,7 @@
         <v>2.7662037037037065E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>3</v>
       </c>
@@ -6727,7 +6727,7 @@
         <v>2.9351851851851848E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
         <v>13</v>
       </c>
@@ -6749,16 +6749,16 @@
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J28" s="5">
         <f t="shared" si="0"/>
         <v>3.1018518518518461E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B29" s="19">
         <v>1.8379629629629605E-4</v>
@@ -6778,16 +6778,16 @@
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J29" s="5">
         <f t="shared" si="0"/>
         <v>3.3773148148148182E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B30" s="19">
         <v>2.0266203703703722E-4</v>
@@ -6797,7 +6797,7 @@
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F30" s="19">
         <v>1.2638888888888856E-4</v>
@@ -6814,7 +6814,7 @@
         <v>5.3148148148148174E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>11</v>
       </c>
@@ -6826,7 +6826,7 @@
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F31" s="19">
         <v>1.350694444444446E-4</v>
@@ -6843,7 +6843,7 @@
         <v>5.364583333333328E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>4</v>
       </c>
@@ -6864,77 +6864,80 @@
         <v>2.7046296296296297E-3</v>
       </c>
       <c r="H32" s="1"/>
-      <c r="I32" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="J32" s="5">
-        <f t="shared" si="0"/>
-        <v>6.429398148148145E-4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I32" s="17"/>
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="19">
-        <v>4.8796296296296305E-4</v>
+      <c r="B33" s="19" t="s">
+        <v>278</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>217</v>
+        <v>278</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="19">
-        <v>1.5497685185185146E-4</v>
+      <c r="F33" s="19" t="s">
+        <v>278</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="H33" s="1"/>
-      <c r="I33" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="J33" s="5">
-        <f t="shared" si="0"/>
-        <v>6.6493055555555533E-4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="B34" s="19">
-        <v>4.8796296296296305E-4</v>
+        <v>269</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>278</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>217</v>
+        <v>278</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="F34" s="19">
-        <v>1.7696759259259228E-4</v>
-      </c>
-      <c r="G34" s="20">
-        <v>2.7450231481481479E-3</v>
+        <v>269</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>278</v>
       </c>
       <c r="H34" s="1"/>
+      <c r="I34" s="17"/>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B35" s="19"/>
-      <c r="C35" s="20"/>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>278</v>
+      </c>
       <c r="D35" s="5"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
+      <c r="E35" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="G35" s="19" t="s">
+        <v>278</v>
+      </c>
       <c r="H35" s="1"/>
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B36" s="19"/>
       <c r="C36" s="20"/>
       <c r="D36" s="5"/>
@@ -6944,7 +6947,7 @@
       <c r="H36" s="1"/>
       <c r="J36" s="5"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B37" s="19"/>
       <c r="C37" s="20"/>
       <c r="D37" s="5"/>
@@ -6954,7 +6957,7 @@
       <c r="H37" s="1"/>
       <c r="J37" s="5"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B38" s="19"/>
       <c r="C38" s="20"/>
       <c r="D38" s="5"/>
@@ -6963,7 +6966,7 @@
       <c r="H38" s="1"/>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B39" s="19"/>
       <c r="C39" s="20"/>
       <c r="D39" s="5"/>
@@ -6972,7 +6975,7 @@
       <c r="H39" s="1"/>
       <c r="J39" s="5"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B40" s="19"/>
       <c r="C40" s="20"/>
       <c r="D40" s="5"/>
@@ -6981,7 +6984,7 @@
       <c r="H40" s="1"/>
       <c r="J40" s="5"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B41" s="19"/>
       <c r="C41" s="20"/>
       <c r="D41" s="5"/>
@@ -6990,7 +6993,7 @@
       <c r="H41" s="1"/>
       <c r="J41" s="5"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B42" s="19"/>
       <c r="C42" s="20"/>
       <c r="D42" s="5"/>
@@ -6999,7 +7002,7 @@
       <c r="H42" s="1"/>
       <c r="J42" s="5"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B43" s="19"/>
       <c r="C43" s="20"/>
       <c r="D43" s="5"/>
@@ -7008,7 +7011,7 @@
       <c r="H43" s="1"/>
       <c r="J43" s="5"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B44" s="19"/>
       <c r="C44" s="20"/>
       <c r="D44" s="5"/>
@@ -7017,7 +7020,7 @@
       <c r="H44" s="1"/>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B45" s="19"/>
       <c r="C45" s="20"/>
       <c r="D45" s="5"/>
@@ -7026,7 +7029,7 @@
       <c r="H45" s="1"/>
       <c r="J45" s="5"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B46" s="19"/>
       <c r="C46" s="20"/>
       <c r="D46" s="5"/>
@@ -7035,7 +7038,7 @@
       <c r="H46" s="1"/>
       <c r="J46" s="5"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B47" s="19"/>
       <c r="C47" s="20"/>
       <c r="D47" s="5"/>
@@ -7044,7 +7047,7 @@
       <c r="H47" s="1"/>
       <c r="J47" s="5"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B48" s="19"/>
       <c r="C48" s="20"/>
       <c r="D48" s="5"/>
@@ -7053,7 +7056,7 @@
       <c r="H48" s="1"/>
       <c r="J48" s="5"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" s="19"/>
       <c r="C49" s="20"/>
       <c r="D49" s="5"/>
@@ -7062,7 +7065,7 @@
       <c r="H49" s="1"/>
       <c r="J49" s="5"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50" s="19"/>
       <c r="C50" s="20"/>
       <c r="D50" s="5"/>
@@ -7071,7 +7074,7 @@
       <c r="H50" s="1"/>
       <c r="J50" s="5"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51" s="19"/>
       <c r="C51" s="20"/>
       <c r="D51" s="5"/>
@@ -7080,7 +7083,7 @@
       <c r="H51" s="1"/>
       <c r="J51" s="5"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52" s="19"/>
       <c r="C52" s="20"/>
       <c r="D52" s="5"/>
@@ -7089,7 +7092,7 @@
       <c r="H52" s="1"/>
       <c r="J52" s="5"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53" s="19"/>
       <c r="C53" s="20"/>
       <c r="D53" s="5"/>
@@ -7098,7 +7101,7 @@
       <c r="H53" s="1"/>
       <c r="J53" s="5"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54" s="19"/>
       <c r="C54" s="20"/>
       <c r="D54" s="5"/>
@@ -7107,7 +7110,7 @@
       <c r="H54" s="1"/>
       <c r="J54" s="5"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B55" s="19"/>
       <c r="C55" s="20"/>
       <c r="D55" s="5"/>
@@ -7116,7 +7119,7 @@
       <c r="H55" s="1"/>
       <c r="J55" s="5"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B56" s="19"/>
       <c r="C56" s="20"/>
       <c r="D56" s="5"/>
@@ -7125,7 +7128,7 @@
       <c r="H56" s="1"/>
       <c r="J56" s="5"/>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B57" s="19"/>
       <c r="C57" s="20"/>
       <c r="D57" s="5"/>
@@ -7134,7 +7137,7 @@
       <c r="H57" s="1"/>
       <c r="J57" s="5"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B58" s="19"/>
       <c r="C58" s="20"/>
       <c r="D58" s="5"/>
@@ -7143,7 +7146,7 @@
       <c r="H58" s="1"/>
       <c r="J58" s="5"/>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B59" s="19"/>
       <c r="C59" s="20"/>
       <c r="D59" s="5"/>
@@ -7152,7 +7155,7 @@
       <c r="H59" s="1"/>
       <c r="J59" s="5"/>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B60" s="19"/>
       <c r="C60" s="20"/>
       <c r="D60" s="5"/>
@@ -7161,7 +7164,7 @@
       <c r="H60" s="1"/>
       <c r="J60" s="5"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B61" s="19"/>
       <c r="C61" s="20"/>
       <c r="D61" s="5"/>
@@ -7170,7 +7173,7 @@
       <c r="H61" s="1"/>
       <c r="J61" s="5"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B62" s="19"/>
       <c r="C62" s="20"/>
       <c r="D62" s="5"/>
@@ -7179,7 +7182,7 @@
       <c r="H62" s="1"/>
       <c r="J62" s="5"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B63" s="19"/>
       <c r="C63" s="20"/>
       <c r="D63" s="5"/>
@@ -7188,7 +7191,7 @@
       <c r="H63" s="1"/>
       <c r="J63" s="5"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B64" s="19"/>
       <c r="C64" s="20"/>
       <c r="D64" s="5"/>
@@ -7197,7 +7200,7 @@
       <c r="H64" s="1"/>
       <c r="J64" s="5"/>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B65" s="19"/>
       <c r="C65" s="20"/>
       <c r="D65" s="5"/>
@@ -7206,185 +7209,185 @@
       <c r="H65" s="1"/>
       <c r="J65" s="5"/>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
     </row>
@@ -7409,19 +7412,19 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.6640625" style="6" customWidth="1"/>
-    <col min="2" max="4" width="7.5546875" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="41.7109375" style="6" customWidth="1"/>
+    <col min="2" max="4" width="7.5703125" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
@@ -7433,9 +7436,9 @@
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B3" s="19">
         <v>3.4803240740740736E-4</v>
@@ -7445,7 +7448,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>21</v>
       </c>
@@ -7457,7 +7460,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>7</v>
       </c>
@@ -7469,7 +7472,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>24</v>
       </c>
@@ -7481,7 +7484,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>20</v>
       </c>
@@ -7493,7 +7496,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>0</v>
       </c>
@@ -7505,7 +7508,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>9</v>
       </c>
@@ -7517,7 +7520,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>83</v>
       </c>
@@ -7529,7 +7532,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>1</v>
       </c>
@@ -7541,7 +7544,7 @@
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>25</v>
       </c>
@@ -7553,7 +7556,7 @@
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>15</v>
       </c>
@@ -7565,7 +7568,7 @@
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>23</v>
       </c>
@@ -7577,7 +7580,7 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>18</v>
       </c>
@@ -7589,7 +7592,7 @@
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>4</v>
       </c>
@@ -7601,7 +7604,7 @@
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>10</v>
       </c>
@@ -7613,7 +7616,7 @@
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>84</v>
       </c>
@@ -7625,7 +7628,7 @@
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>26</v>
       </c>
@@ -7637,7 +7640,7 @@
       </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>8</v>
       </c>
@@ -7649,7 +7652,7 @@
       </c>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>30</v>
       </c>
@@ -7661,7 +7664,7 @@
       </c>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>19</v>
       </c>
@@ -7673,7 +7676,7 @@
       </c>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>12</v>
       </c>
@@ -7685,7 +7688,7 @@
       </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>22</v>
       </c>
@@ -7697,7 +7700,7 @@
       </c>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>14</v>
       </c>
@@ -7709,7 +7712,7 @@
       </c>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>13</v>
       </c>
@@ -7721,7 +7724,7 @@
       </c>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>3</v>
       </c>
@@ -7733,7 +7736,7 @@
       </c>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
         <v>11</v>
       </c>
@@ -7745,9 +7748,9 @@
       </c>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B29" s="19">
         <v>7.3842592592592558E-4</v>
@@ -7757,195 +7760,195 @@
       </c>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="20"/>
       <c r="C30" s="20"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="20"/>
       <c r="C31" s="20"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="20"/>
       <c r="C32" s="20"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="20"/>
       <c r="C34" s="20"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="20"/>
       <c r="C35" s="20"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="20"/>
       <c r="C36" s="20"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="20"/>
       <c r="C37" s="20"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B38" s="20"/>
       <c r="C38" s="20"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B39" s="20"/>
       <c r="C39" s="20"/>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B40" s="20"/>
       <c r="C40" s="20"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B41" s="20"/>
       <c r="C41" s="20"/>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B44" s="20"/>
       <c r="C44" s="20"/>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B46" s="20"/>
       <c r="C46" s="20"/>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B48" s="20"/>
       <c r="C48" s="20"/>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="20"/>
       <c r="C49" s="20"/>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="20"/>
       <c r="C50" s="20"/>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" s="20"/>
       <c r="C52" s="20"/>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" s="20"/>
       <c r="C53" s="20"/>
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" s="20"/>
       <c r="C54" s="20"/>
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" s="20"/>
       <c r="C55" s="20"/>
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" s="20"/>
       <c r="C56" s="20"/>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" s="20"/>
       <c r="C57" s="20"/>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" s="20"/>
       <c r="C58" s="20"/>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" s="20"/>
       <c r="C59" s="20"/>
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" s="20"/>
       <c r="C60" s="20"/>
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" s="20"/>
       <c r="C61" s="20"/>
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" s="20"/>
       <c r="C62" s="20"/>
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" s="20"/>
       <c r="C63" s="20"/>
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" s="20"/>
       <c r="C64" s="20"/>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" s="20"/>
       <c r="C65" s="20"/>
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
     </row>
@@ -7967,23 +7970,23 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.109375" style="6" customWidth="1"/>
-    <col min="2" max="4" width="7.5546875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="42.140625" style="6" customWidth="1"/>
+    <col min="2" max="4" width="7.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
@@ -7995,12 +7998,12 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B3" s="19">
         <v>3.1585648148148163E-4</v>
@@ -8010,7 +8013,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>29</v>
       </c>
@@ -8022,7 +8025,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>21</v>
       </c>
@@ -8034,7 +8037,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>0</v>
       </c>
@@ -8046,7 +8049,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>83</v>
       </c>
@@ -8058,7 +8061,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
@@ -8070,7 +8073,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>25</v>
       </c>
@@ -8082,7 +8085,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>9</v>
       </c>
@@ -8094,7 +8097,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>1</v>
       </c>
@@ -8106,7 +8109,7 @@
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>20</v>
       </c>
@@ -8118,7 +8121,7 @@
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>22</v>
       </c>
@@ -8130,7 +8133,7 @@
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>15</v>
       </c>
@@ -8142,7 +8145,7 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>4</v>
       </c>
@@ -8154,7 +8157,7 @@
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>26</v>
       </c>
@@ -8166,7 +8169,7 @@
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>19</v>
       </c>
@@ -8178,7 +8181,7 @@
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>165</v>
       </c>
@@ -8190,7 +8193,7 @@
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>166</v>
       </c>
@@ -8202,7 +8205,7 @@
       </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>13</v>
       </c>
@@ -8214,7 +8217,7 @@
       </c>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>11</v>
       </c>
@@ -8226,7 +8229,7 @@
       </c>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>14</v>
       </c>
@@ -8238,9 +8241,9 @@
       </c>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B23" s="19">
         <v>7.8263888888888871E-4</v>
@@ -8250,231 +8253,231 @@
       </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="20"/>
       <c r="C29" s="20"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="20"/>
       <c r="C30" s="20"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="20"/>
       <c r="C31" s="20"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="20"/>
       <c r="C32" s="20"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="20"/>
       <c r="C34" s="20"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="20"/>
       <c r="C35" s="20"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="20"/>
       <c r="C36" s="20"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="20"/>
       <c r="C37" s="20"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B38" s="20"/>
       <c r="C38" s="20"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B39" s="20"/>
       <c r="C39" s="20"/>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B40" s="20"/>
       <c r="C40" s="20"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B41" s="20"/>
       <c r="C41" s="20"/>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B44" s="20"/>
       <c r="C44" s="20"/>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B46" s="20"/>
       <c r="C46" s="20"/>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B48" s="20"/>
       <c r="C48" s="20"/>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="20"/>
       <c r="C49" s="20"/>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="20"/>
       <c r="C50" s="20"/>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" s="20"/>
       <c r="C52" s="20"/>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" s="20"/>
       <c r="C53" s="20"/>
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" s="20"/>
       <c r="C54" s="20"/>
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" s="20"/>
       <c r="C55" s="20"/>
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" s="20"/>
       <c r="C56" s="20"/>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" s="20"/>
       <c r="C57" s="20"/>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" s="20"/>
       <c r="C58" s="20"/>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" s="20"/>
       <c r="C59" s="20"/>
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" s="20"/>
       <c r="C60" s="20"/>
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" s="20"/>
       <c r="C61" s="20"/>
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" s="20"/>
       <c r="C62" s="20"/>
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" s="20"/>
       <c r="C63" s="20"/>
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" s="20"/>
       <c r="C64" s="20"/>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" s="20"/>
       <c r="C65" s="20"/>
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
     </row>
@@ -8490,58 +8493,58 @@
   <sheetPr>
     <tabColor theme="0" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:S82"/>
+  <dimension ref="A1:S81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.109375" style="6" customWidth="1"/>
-    <col min="2" max="11" width="7.5546875" style="6" customWidth="1"/>
-    <col min="12" max="12" width="8.5546875" style="6" customWidth="1"/>
-    <col min="13" max="14" width="7.5546875" style="6" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="44.140625" style="6" customWidth="1"/>
+    <col min="2" max="11" width="7.5703125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" style="6" customWidth="1"/>
+    <col min="13" max="14" width="7.5703125" style="6" customWidth="1"/>
+    <col min="15" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="11"/>
       <c r="B1" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="H1" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="H1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="K1" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="L1" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="J1" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>262</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>263</v>
       </c>
       <c r="N1" s="18"/>
       <c r="O1" s="18"/>
@@ -8549,9 +8552,9 @@
       <c r="Q1" s="18"/>
       <c r="R1" s="18"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B2" s="20">
         <f>SUM(C2:M2)</f>
@@ -8596,12 +8599,12 @@
       <c r="Q2" s="20"/>
       <c r="R2" s="18"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="20">
-        <f t="shared" ref="B3:B21" si="0">SUM(C3:M3)</f>
+        <f t="shared" ref="B3:B20" si="0">SUM(C3:M3)</f>
         <v>1.4629629629629619E-3</v>
       </c>
       <c r="C3" s="19">
@@ -8643,7 +8646,7 @@
       <c r="Q3" s="20"/>
       <c r="R3" s="18"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>7</v>
       </c>
@@ -8690,7 +8693,7 @@
       <c r="Q4" s="20"/>
       <c r="R4" s="18"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>21</v>
       </c>
@@ -8737,9 +8740,9 @@
       <c r="Q5" s="20"/>
       <c r="R5" s="18"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B6" s="20">
         <f t="shared" si="0"/>
@@ -8784,7 +8787,7 @@
       <c r="Q6" s="20"/>
       <c r="R6" s="18"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>9</v>
       </c>
@@ -8831,7 +8834,7 @@
       <c r="Q7" s="20"/>
       <c r="R7" s="18"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>20</v>
       </c>
@@ -8878,9 +8881,9 @@
       <c r="Q8" s="20"/>
       <c r="R8" s="18"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B9" s="20">
         <f t="shared" si="0"/>
@@ -8925,7 +8928,7 @@
       <c r="Q9" s="20"/>
       <c r="R9" s="18"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>25</v>
       </c>
@@ -8972,9 +8975,9 @@
       <c r="Q10" s="20"/>
       <c r="R10" s="18"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B11" s="20">
         <f t="shared" si="0"/>
@@ -9019,7 +9022,7 @@
       <c r="Q11" s="20"/>
       <c r="R11" s="18"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>15</v>
       </c>
@@ -9066,9 +9069,9 @@
       <c r="Q12" s="20"/>
       <c r="R12" s="18"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B13" s="20">
         <f t="shared" si="0"/>
@@ -9113,7 +9116,7 @@
       <c r="Q13" s="20"/>
       <c r="R13" s="18"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>4</v>
       </c>
@@ -9160,7 +9163,7 @@
       <c r="Q14" s="20"/>
       <c r="R14" s="18"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>26</v>
       </c>
@@ -9207,7 +9210,7 @@
       <c r="Q15" s="20"/>
       <c r="R15" s="18"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>19</v>
       </c>
@@ -9254,7 +9257,7 @@
       <c r="Q16" s="20"/>
       <c r="R16" s="18"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>22</v>
       </c>
@@ -9301,7 +9304,7 @@
       <c r="Q17" s="20"/>
       <c r="R17" s="18"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>12</v>
       </c>
@@ -9348,7 +9351,7 @@
       <c r="Q18" s="20"/>
       <c r="R18" s="18"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
         <v>13</v>
       </c>
@@ -9394,99 +9397,72 @@
       <c r="P19" s="20"/>
       <c r="Q19" s="18"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="21" t="s">
-        <v>14</v>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
+        <v>11</v>
       </c>
       <c r="B20" s="20">
         <f t="shared" si="0"/>
-        <v>2.5902777777777768E-3</v>
+        <v>2.7141203703703706E-3</v>
       </c>
       <c r="C20" s="19">
-        <v>1.135416666666663E-4</v>
+        <v>1.1782407407407401E-4</v>
       </c>
       <c r="D20" s="19">
-        <v>2.0960648148148119E-4</v>
+        <v>2.2233796296296281E-4</v>
       </c>
       <c r="E20" s="19">
-        <v>8.5995370370369958E-5</v>
+        <v>8.7962962962962864E-5</v>
       </c>
       <c r="F20" s="19">
-        <v>1.0625000000000001E-4</v>
+        <v>1.0844907407407418E-4</v>
       </c>
       <c r="G20" s="20">
-        <v>7.2800925925925811E-5</v>
+        <v>6.8171296296296209E-5</v>
       </c>
       <c r="H20" s="20">
-        <v>8.2407407407407342E-5</v>
+        <v>8.449074074074088E-5</v>
       </c>
       <c r="I20" s="20">
-        <v>1.7766203703703781E-4</v>
+        <v>2.8576388888888922E-4</v>
       </c>
       <c r="J20" s="19">
-        <v>4.8796296296296305E-4</v>
+        <v>4.1527777777777787E-4</v>
       </c>
       <c r="K20" s="19">
-        <v>1.5497685185185146E-4</v>
+        <v>1.1620370370370387E-4</v>
       </c>
       <c r="L20" s="19">
-        <v>5.3379629629629632E-4</v>
+        <v>6.6134259259259249E-4</v>
       </c>
       <c r="M20" s="19">
-        <v>5.6527777777777783E-4</v>
+        <v>5.4629629629629603E-4</v>
       </c>
       <c r="N20" s="20"/>
       <c r="O20" s="20"/>
       <c r="P20" s="20"/>
       <c r="Q20" s="18"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="20">
-        <f t="shared" si="0"/>
-        <v>2.7141203703703706E-3</v>
-      </c>
-      <c r="C21" s="19">
-        <v>1.1782407407407401E-4</v>
-      </c>
-      <c r="D21" s="19">
-        <v>2.2233796296296281E-4</v>
-      </c>
-      <c r="E21" s="19">
-        <v>8.7962962962962864E-5</v>
-      </c>
-      <c r="F21" s="19">
-        <v>1.0844907407407418E-4</v>
-      </c>
-      <c r="G21" s="20">
-        <v>6.8171296296296209E-5</v>
-      </c>
-      <c r="H21" s="20">
-        <v>8.449074074074088E-5</v>
-      </c>
-      <c r="I21" s="20">
-        <v>2.8576388888888922E-4</v>
-      </c>
-      <c r="J21" s="19">
-        <v>4.1527777777777787E-4</v>
-      </c>
-      <c r="K21" s="19">
-        <v>1.1620370370370387E-4</v>
-      </c>
-      <c r="L21" s="19">
-        <v>6.6134259259259249E-4</v>
-      </c>
-      <c r="M21" s="19">
-        <v>5.4629629629629603E-4</v>
-      </c>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="17"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
       <c r="N21" s="20"/>
       <c r="O21" s="20"/>
       <c r="P21" s="20"/>
       <c r="Q21" s="18"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
       <c r="B22" s="20"/>
       <c r="C22" s="19"/>
@@ -9507,20 +9483,20 @@
       <c r="R22" s="20"/>
       <c r="S22" s="18"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
-      <c r="B23" s="20"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
       <c r="G23" s="20"/>
       <c r="H23" s="20"/>
       <c r="I23" s="20"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
       <c r="N23" s="20"/>
       <c r="O23" s="20"/>
       <c r="P23" s="20"/>
@@ -9528,7 +9504,7 @@
       <c r="R23" s="20"/>
       <c r="S23" s="18"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="17"/>
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
@@ -9549,7 +9525,7 @@
       <c r="R24" s="20"/>
       <c r="S24" s="18"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
@@ -9570,7 +9546,7 @@
       <c r="R25" s="20"/>
       <c r="S25" s="18"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
@@ -9591,7 +9567,7 @@
       <c r="R26" s="20"/>
       <c r="S26" s="18"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="17"/>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
@@ -9612,7 +9588,7 @@
       <c r="R27" s="20"/>
       <c r="S27" s="18"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="17"/>
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>
@@ -9633,7 +9609,7 @@
       <c r="R28" s="20"/>
       <c r="S28" s="18"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="17"/>
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>
@@ -9654,7 +9630,7 @@
       <c r="R29" s="20"/>
       <c r="S29" s="18"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
@@ -9675,7 +9651,7 @@
       <c r="R30" s="20"/>
       <c r="S30" s="18"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="17"/>
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
@@ -9696,7 +9672,7 @@
       <c r="R31" s="20"/>
       <c r="S31" s="18"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="17"/>
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
@@ -9717,7 +9693,7 @@
       <c r="R32" s="20"/>
       <c r="S32" s="18"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
@@ -9738,7 +9714,7 @@
       <c r="R33" s="20"/>
       <c r="S33" s="18"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="17"/>
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
@@ -9759,7 +9735,7 @@
       <c r="R34" s="20"/>
       <c r="S34" s="18"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="17"/>
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
@@ -9780,7 +9756,7 @@
       <c r="R35" s="20"/>
       <c r="S35" s="18"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="17"/>
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
@@ -9801,7 +9777,7 @@
       <c r="R36" s="20"/>
       <c r="S36" s="18"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="17"/>
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
@@ -9822,7 +9798,7 @@
       <c r="R37" s="20"/>
       <c r="S37" s="18"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="17"/>
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
@@ -9843,7 +9819,7 @@
       <c r="R38" s="20"/>
       <c r="S38" s="18"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="17"/>
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
@@ -9864,7 +9840,7 @@
       <c r="R39" s="20"/>
       <c r="S39" s="18"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="17"/>
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
@@ -9885,7 +9861,7 @@
       <c r="R40" s="20"/>
       <c r="S40" s="18"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="17"/>
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
@@ -9906,7 +9882,7 @@
       <c r="R41" s="20"/>
       <c r="S41" s="18"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="17"/>
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
@@ -9927,10 +9903,10 @@
       <c r="R42" s="20"/>
       <c r="S42" s="18"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A43" s="17"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
       <c r="D43" s="20"/>
       <c r="E43" s="20"/>
       <c r="F43" s="20"/>
@@ -9948,7 +9924,7 @@
       <c r="R43" s="20"/>
       <c r="S43" s="18"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="20"/>
       <c r="C44" s="20"/>
@@ -9969,8 +9945,8 @@
       <c r="R44" s="20"/>
       <c r="S44" s="18"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A45" s="2"/>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" s="7"/>
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
       <c r="D45" s="20"/>
@@ -9990,7 +9966,7 @@
       <c r="R45" s="20"/>
       <c r="S45" s="18"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="20"/>
       <c r="C46" s="20"/>
@@ -10011,7 +9987,7 @@
       <c r="R46" s="20"/>
       <c r="S46" s="18"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>
@@ -10032,7 +10008,7 @@
       <c r="R47" s="20"/>
       <c r="S47" s="18"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="20"/>
       <c r="C48" s="20"/>
@@ -10053,7 +10029,7 @@
       <c r="R48" s="20"/>
       <c r="S48" s="18"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49" s="20"/>
       <c r="C49" s="20"/>
@@ -10074,7 +10050,7 @@
       <c r="R49" s="20"/>
       <c r="S49" s="18"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="20"/>
       <c r="C50" s="20"/>
@@ -10095,7 +10071,7 @@
       <c r="R50" s="20"/>
       <c r="S50" s="18"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
@@ -10116,7 +10092,7 @@
       <c r="R51" s="20"/>
       <c r="S51" s="18"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="B52" s="20"/>
       <c r="C52" s="20"/>
@@ -10137,8 +10113,7 @@
       <c r="R52" s="20"/>
       <c r="S52" s="18"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A53" s="7"/>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B53" s="20"/>
       <c r="C53" s="20"/>
       <c r="D53" s="20"/>
@@ -10158,7 +10133,7 @@
       <c r="R53" s="20"/>
       <c r="S53" s="18"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B54" s="20"/>
       <c r="C54" s="20"/>
       <c r="D54" s="20"/>
@@ -10178,7 +10153,7 @@
       <c r="R54" s="20"/>
       <c r="S54" s="18"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B55" s="20"/>
       <c r="C55" s="20"/>
       <c r="D55" s="20"/>
@@ -10198,7 +10173,7 @@
       <c r="R55" s="20"/>
       <c r="S55" s="18"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B56" s="20"/>
       <c r="C56" s="20"/>
       <c r="D56" s="20"/>
@@ -10218,7 +10193,7 @@
       <c r="R56" s="20"/>
       <c r="S56" s="18"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B57" s="20"/>
       <c r="C57" s="20"/>
       <c r="D57" s="20"/>
@@ -10238,7 +10213,7 @@
       <c r="R57" s="20"/>
       <c r="S57" s="18"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B58" s="20"/>
       <c r="C58" s="20"/>
       <c r="D58" s="20"/>
@@ -10258,7 +10233,7 @@
       <c r="R58" s="20"/>
       <c r="S58" s="18"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B59" s="20"/>
       <c r="C59" s="20"/>
       <c r="D59" s="20"/>
@@ -10278,7 +10253,7 @@
       <c r="R59" s="20"/>
       <c r="S59" s="18"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B60" s="20"/>
       <c r="C60" s="20"/>
       <c r="D60" s="20"/>
@@ -10298,7 +10273,7 @@
       <c r="R60" s="20"/>
       <c r="S60" s="18"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B61" s="20"/>
       <c r="C61" s="20"/>
       <c r="D61" s="20"/>
@@ -10318,7 +10293,7 @@
       <c r="R61" s="20"/>
       <c r="S61" s="18"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B62" s="20"/>
       <c r="C62" s="20"/>
       <c r="D62" s="20"/>
@@ -10338,7 +10313,7 @@
       <c r="R62" s="20"/>
       <c r="S62" s="18"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B63" s="20"/>
       <c r="C63" s="20"/>
       <c r="D63" s="20"/>
@@ -10358,7 +10333,7 @@
       <c r="R63" s="20"/>
       <c r="S63" s="18"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B64" s="20"/>
       <c r="C64" s="20"/>
       <c r="D64" s="20"/>
@@ -10378,7 +10353,7 @@
       <c r="R64" s="20"/>
       <c r="S64" s="18"/>
     </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B65" s="20"/>
       <c r="C65" s="20"/>
       <c r="D65" s="20"/>
@@ -10398,7 +10373,7 @@
       <c r="R65" s="20"/>
       <c r="S65" s="18"/>
     </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B66" s="20"/>
       <c r="C66" s="20"/>
       <c r="D66" s="20"/>
@@ -10412,7 +10387,7 @@
       <c r="L66" s="20"/>
       <c r="M66" s="20"/>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B67" s="20"/>
       <c r="C67" s="20"/>
       <c r="D67" s="20"/>
@@ -10426,7 +10401,7 @@
       <c r="L67" s="20"/>
       <c r="M67" s="20"/>
     </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B68" s="20"/>
       <c r="C68" s="20"/>
       <c r="D68" s="20"/>
@@ -10440,7 +10415,7 @@
       <c r="L68" s="20"/>
       <c r="M68" s="20"/>
     </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B69" s="20"/>
       <c r="C69" s="20"/>
       <c r="D69" s="20"/>
@@ -10454,7 +10429,7 @@
       <c r="L69" s="20"/>
       <c r="M69" s="20"/>
     </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B70" s="20"/>
       <c r="C70" s="20"/>
       <c r="D70" s="20"/>
@@ -10468,7 +10443,7 @@
       <c r="L70" s="20"/>
       <c r="M70" s="20"/>
     </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B71" s="20"/>
       <c r="C71" s="20"/>
       <c r="D71" s="20"/>
@@ -10482,7 +10457,7 @@
       <c r="L71" s="20"/>
       <c r="M71" s="20"/>
     </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B72" s="20"/>
       <c r="C72" s="20"/>
       <c r="D72" s="20"/>
@@ -10496,7 +10471,7 @@
       <c r="L72" s="20"/>
       <c r="M72" s="20"/>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B73" s="20"/>
       <c r="C73" s="20"/>
       <c r="D73" s="20"/>
@@ -10510,7 +10485,7 @@
       <c r="L73" s="20"/>
       <c r="M73" s="20"/>
     </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B74" s="20"/>
       <c r="C74" s="20"/>
       <c r="D74" s="20"/>
@@ -10524,7 +10499,7 @@
       <c r="L74" s="20"/>
       <c r="M74" s="20"/>
     </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B75" s="20"/>
       <c r="C75" s="20"/>
       <c r="D75" s="20"/>
@@ -10538,7 +10513,7 @@
       <c r="L75" s="20"/>
       <c r="M75" s="20"/>
     </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B76" s="20"/>
       <c r="C76" s="20"/>
       <c r="D76" s="20"/>
@@ -10552,7 +10527,7 @@
       <c r="L76" s="20"/>
       <c r="M76" s="20"/>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B77" s="20"/>
       <c r="C77" s="20"/>
       <c r="D77" s="20"/>
@@ -10566,7 +10541,7 @@
       <c r="L77" s="20"/>
       <c r="M77" s="20"/>
     </row>
-    <row r="78" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B78" s="20"/>
       <c r="C78" s="20"/>
       <c r="D78" s="20"/>
@@ -10580,7 +10555,7 @@
       <c r="L78" s="20"/>
       <c r="M78" s="20"/>
     </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B79" s="20"/>
       <c r="C79" s="20"/>
       <c r="D79" s="20"/>
@@ -10594,7 +10569,7 @@
       <c r="L79" s="20"/>
       <c r="M79" s="20"/>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B80" s="20"/>
       <c r="C80" s="20"/>
       <c r="D80" s="20"/>
@@ -10608,23 +10583,9 @@
       <c r="L80" s="20"/>
       <c r="M80" s="20"/>
     </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B81" s="20"/>
-      <c r="C81" s="20"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="20"/>
-      <c r="F81" s="20"/>
-      <c r="G81" s="20"/>
-      <c r="H81" s="20"/>
-      <c r="I81" s="20"/>
-      <c r="J81" s="20"/>
-      <c r="K81" s="20"/>
-      <c r="L81" s="20"/>
-      <c r="M81" s="20"/>
-    </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
+    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>

--- a/Stats.xlsx
+++ b/Stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AL\Documents\2019 Mega Comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E784C194-46D5-4DCC-987E-A259B13A6334}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA1FB7B-B43E-4F3F-837E-BC7DE9D4A215}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35280" yWindow="3120" windowWidth="28800" windowHeight="15315" activeTab="3" xr2:uid="{E6171133-BC82-453F-AA1B-A983A9E75A15}"/>
+    <workbookView xWindow="-33330" yWindow="5070" windowWidth="28800" windowHeight="15315" activeTab="6" xr2:uid="{E6171133-BC82-453F-AA1B-A983A9E75A15}"/>
   </bookViews>
   <sheets>
     <sheet name="Tau" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="283">
   <si>
     <t>Carlos S. M.: R5 3600 @ 4.2 GHz</t>
   </si>
@@ -873,7 +873,19 @@
     <t>Yuzu: R7 2700X @ 4.475-4.5 GHz</t>
   </si>
   <si>
-    <t>FAIL</t>
+    <t>Carlos S. M.: Celeron G1840 @ 2.8 GHz</t>
+  </si>
+  <si>
+    <t>Failed Runs (Lag Times)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>MusiMasta: i5-4300U @ Stock (2.9 GHz)</t>
+  </si>
+  <si>
+    <t>*MusiMasta: i5-4300U @ Stock (2.9 GHz)</t>
   </si>
 </sst>
 </file>
@@ -1343,7 +1355,7 @@
   <dimension ref="A1:J110"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2262,54 +2274,94 @@
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="17" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="J32" s="5">
         <f t="shared" si="0"/>
-        <v>8.8958333333333294E-4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5.200231481481475E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="B33" s="19">
-        <v>3.4259259259259225E-4</v>
+        <v>1.9849537037036971E-4</v>
       </c>
       <c r="C33" s="20">
-        <v>2.4817129629629629E-3</v>
+        <v>2.3376157407407404E-3</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="F33" s="19">
+        <v>3.2152777777777778E-4</v>
+      </c>
+      <c r="G33" s="20">
+        <v>4.0532407407407409E-3</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="F33" s="19">
+      <c r="J33" s="5">
+        <f t="shared" ref="J33:J34" si="1">SUMIF($A$3:$A$65,I33,$B$3:$B$65)+SUMIF($E$3:$E$65,I33,$F$3:$F$65)</f>
+        <v>8.8958333333333294E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="B34" s="19">
+        <v>3.4259259259259225E-4</v>
+      </c>
+      <c r="C34" s="20">
+        <v>2.4817129629629629E-3</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="F34" s="19">
         <v>5.4699074074074068E-4</v>
       </c>
-      <c r="G33" s="20">
+      <c r="G34" s="20">
         <v>4.2787037037037038E-3</v>
       </c>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="19"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="20"/>
       <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="19"/>
-      <c r="C35" s="20"/>
+      <c r="I34" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="J34" s="5">
+        <f t="shared" si="1"/>
+        <v>1.3494212962962956E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="B35" s="19">
+        <v>4.9953703703703662E-4</v>
+      </c>
+      <c r="C35" s="20">
+        <v>2.6386574074074073E-3</v>
+      </c>
       <c r="D35" s="9"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="20"/>
+      <c r="E35" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="F35" s="19">
+        <v>8.49884259259259E-4</v>
+      </c>
+      <c r="G35" s="20">
+        <v>4.5815972222222221E-3</v>
+      </c>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B36" s="19"/>
       <c r="C36" s="20"/>
       <c r="D36" s="9"/>
@@ -2318,7 +2370,7 @@
       <c r="G36" s="20"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B37" s="19"/>
       <c r="C37" s="20"/>
       <c r="D37" s="9"/>
@@ -2327,7 +2379,7 @@
       <c r="G37" s="20"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B38" s="19"/>
       <c r="C38" s="20"/>
       <c r="D38" s="9"/>
@@ -2335,7 +2387,7 @@
       <c r="G38" s="20"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B39" s="19"/>
       <c r="C39" s="20"/>
       <c r="D39" s="9"/>
@@ -2343,7 +2395,7 @@
       <c r="G39" s="20"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B40" s="19"/>
       <c r="C40" s="20"/>
       <c r="D40" s="9"/>
@@ -2351,7 +2403,7 @@
       <c r="G40" s="20"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B41" s="19"/>
       <c r="C41" s="20"/>
       <c r="D41" s="9"/>
@@ -2359,7 +2411,7 @@
       <c r="G41" s="20"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B42" s="19"/>
       <c r="C42" s="20"/>
       <c r="D42" s="9"/>
@@ -2367,7 +2419,7 @@
       <c r="G42" s="20"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B43" s="19"/>
       <c r="C43" s="20"/>
       <c r="D43" s="9"/>
@@ -2375,7 +2427,7 @@
       <c r="G43" s="20"/>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B44" s="19"/>
       <c r="C44" s="20"/>
       <c r="D44" s="9"/>
@@ -2383,7 +2435,7 @@
       <c r="G44" s="20"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B45" s="19"/>
       <c r="C45" s="20"/>
       <c r="D45" s="9"/>
@@ -2391,7 +2443,7 @@
       <c r="G45" s="20"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B46" s="19"/>
       <c r="C46" s="20"/>
       <c r="D46" s="9"/>
@@ -2399,7 +2451,7 @@
       <c r="G46" s="20"/>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B47" s="19"/>
       <c r="C47" s="20"/>
       <c r="D47" s="9"/>
@@ -2407,7 +2459,7 @@
       <c r="G47" s="20"/>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B48" s="19"/>
       <c r="C48" s="20"/>
       <c r="D48" s="9"/>
@@ -2751,7 +2803,7 @@
   <dimension ref="A1:L110"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3583,13 +3635,13 @@
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="17" t="s">
-        <v>14</v>
+        <v>278</v>
       </c>
       <c r="F29" s="19">
         <v>1.0625000000000001E-4</v>
       </c>
-      <c r="G29" s="19" t="s">
-        <v>163</v>
+      <c r="G29" s="19">
+        <v>3.1670138888888889E-3</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="17" t="s">
@@ -3612,13 +3664,13 @@
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="17" t="s">
-        <v>248</v>
+        <v>14</v>
       </c>
       <c r="F30" s="19">
-        <v>1.068287037037036E-4</v>
-      </c>
-      <c r="G30" s="19">
-        <v>3.1699074074074073E-3</v>
+        <v>1.0625000000000001E-4</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>163</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="17" t="s">
@@ -3641,13 +3693,13 @@
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="17" t="s">
-        <v>11</v>
+        <v>248</v>
       </c>
       <c r="F31" s="19">
-        <v>1.0844907407407418E-4</v>
-      </c>
-      <c r="G31" s="19" t="s">
-        <v>164</v>
+        <v>1.068287037037036E-4</v>
+      </c>
+      <c r="G31" s="19">
+        <v>3.1699074074074073E-3</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="17" t="s">
@@ -3670,21 +3722,21 @@
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="17" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F32" s="19">
-        <v>1.1435185185185159E-4</v>
-      </c>
-      <c r="G32" s="20">
-        <v>3.1774305555555553E-3</v>
+        <v>1.0844907407407418E-4</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>164</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="17" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="J32" s="1">
         <f t="shared" si="0"/>
-        <v>2.2777777777777813E-4</v>
+        <v>2.2083333333333286E-4</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -3699,34 +3751,72 @@
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="19">
+        <v>1.1435185185185159E-4</v>
+      </c>
+      <c r="G33" s="20">
+        <v>3.1774305555555553E-3</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="F33" s="19">
+      <c r="J33" s="1">
+        <f t="shared" ref="J33:J34" si="1">SUMIF($A$3:$A$65,I33,$B$3:$B$65)+SUMIF($E$3:$E$65,I33,$F$3:$F$65)</f>
+        <v>2.2777777777777813E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="B34" s="19">
+        <v>1.1458333333333286E-4</v>
+      </c>
+      <c r="C34" s="20">
+        <v>2.180208333333333E-3</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="E34" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="F34" s="19">
         <v>1.1458333333333372E-4</v>
       </c>
-      <c r="G33" s="20">
+      <c r="G34" s="20">
         <v>3.1776620370370374E-3</v>
       </c>
-      <c r="H33" s="1"/>
-      <c r="J33" s="5"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="19"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
       <c r="H34" s="1"/>
-      <c r="J34" s="5"/>
+      <c r="I34" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="J34" s="1">
+        <f t="shared" si="1"/>
+        <v>6.3055555555555608E-4</v>
+      </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="19"/>
-      <c r="C35" s="20"/>
+      <c r="A35" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="B35" s="19">
+        <v>3.2615740740740739E-4</v>
+      </c>
+      <c r="C35" s="20">
+        <v>2.3917824074074076E-3</v>
+      </c>
       <c r="D35" s="5"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
+      <c r="E35" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="F35" s="19">
+        <v>3.0439814814814869E-4</v>
+      </c>
+      <c r="G35" s="20">
+        <v>3.3674768518518524E-3</v>
+      </c>
       <c r="H35" s="1"/>
       <c r="J35" s="5"/>
     </row>
@@ -4199,7 +4289,7 @@
   <dimension ref="A1:N110"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4212,7 +4302,8 @@
     <col min="10" max="10" width="7.5703125" style="6" customWidth="1"/>
     <col min="11" max="12" width="7.7109375" style="6" customWidth="1"/>
     <col min="13" max="13" width="41.85546875" style="6" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="6"/>
+    <col min="14" max="14" width="7.7109375" style="6" customWidth="1"/>
+    <col min="15" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5357,32 +5448,32 @@
         <v>4.5697916666666664E-3</v>
       </c>
       <c r="M30" s="17" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="N30" s="5">
         <f t="shared" si="0"/>
-        <v>1.3026620370370371E-3</v>
+        <v>1.1341435185185183E-3</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="B31" s="20">
-        <v>2.7604166666666662E-4</v>
+        <v>1.1979166666666648E-4</v>
       </c>
       <c r="C31" s="20">
-        <v>1.7966435185185186E-3</v>
+        <v>1.6403935185185185E-3</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="17" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="F31" s="20">
-        <v>3.0613425925925947E-4</v>
+        <v>1.5682870370370373E-4</v>
       </c>
       <c r="G31" s="20">
-        <v>2.8333333333333335E-3</v>
+        <v>2.6840277777777778E-3</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="17" t="s">
@@ -5394,33 +5485,85 @@
       <c r="K31" s="20">
         <v>4.6443287037037035E-3</v>
       </c>
-      <c r="N31" s="5"/>
+      <c r="M31" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="N31" s="5">
+        <f t="shared" ref="N31:N32" si="1">SUMIF($A$3:$A$65,M31,$B$3:$B$65)+SUMIF($E$3:$E$65,M31,$F$3:$F$65)+SUMIF($I$3:$I$65,M31,$J$3:$J$65)</f>
+        <v>1.3026620370370371E-3</v>
+      </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
+      <c r="A32" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="B32" s="20">
+        <v>2.7604166666666662E-4</v>
+      </c>
+      <c r="C32" s="20">
+        <v>1.7966435185185186E-3</v>
+      </c>
       <c r="D32" s="5"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
+      <c r="E32" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="F32" s="20">
+        <v>3.0613425925925947E-4</v>
+      </c>
+      <c r="G32" s="20">
+        <v>2.8333333333333335E-3</v>
+      </c>
       <c r="H32" s="7"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="N32" s="5"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
+      <c r="I32" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="J32" s="20">
+        <v>8.5752314814814806E-4</v>
+      </c>
+      <c r="K32" s="20">
+        <v>4.7068287037037035E-3</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="N32" s="5">
+        <f t="shared" si="1"/>
+        <v>2.9177083333333334E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="B33" s="20">
+        <v>5.4398148148148123E-4</v>
+      </c>
+      <c r="C33" s="20">
+        <v>2.0645833333333332E-3</v>
+      </c>
       <c r="D33" s="5"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
+      <c r="E33" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="F33" s="20">
+        <v>5.8761574074074055E-4</v>
+      </c>
+      <c r="G33" s="20">
+        <v>3.1148148148148146E-3</v>
+      </c>
       <c r="H33" s="7"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
+      <c r="I33" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="J33" s="20">
+        <v>1.7861111111111116E-3</v>
+      </c>
+      <c r="K33" s="20">
+        <v>5.635416666666667E-3</v>
+      </c>
       <c r="N33" s="5"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B34" s="20"/>
       <c r="C34" s="20"/>
       <c r="D34" s="5"/>
@@ -5432,7 +5575,7 @@
       <c r="K34" s="20"/>
       <c r="N34" s="5"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B35" s="20"/>
       <c r="C35" s="20"/>
       <c r="D35" s="5"/>
@@ -5444,7 +5587,7 @@
       <c r="K35" s="20"/>
       <c r="N35" s="5"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B36" s="20"/>
       <c r="C36" s="20"/>
       <c r="D36" s="5"/>
@@ -5456,7 +5599,7 @@
       <c r="K36" s="20"/>
       <c r="N36" s="5"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B37" s="20"/>
       <c r="C37" s="20"/>
       <c r="D37" s="5"/>
@@ -5467,7 +5610,7 @@
       <c r="K37" s="20"/>
       <c r="N37" s="5"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B38" s="20"/>
       <c r="C38" s="20"/>
       <c r="D38" s="5"/>
@@ -5477,7 +5620,7 @@
       <c r="K38" s="20"/>
       <c r="N38" s="5"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B39" s="20"/>
       <c r="C39" s="20"/>
       <c r="D39" s="5"/>
@@ -5487,7 +5630,7 @@
       <c r="K39" s="20"/>
       <c r="N39" s="5"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B40" s="20"/>
       <c r="C40" s="20"/>
       <c r="D40" s="5"/>
@@ -5497,7 +5640,7 @@
       <c r="K40" s="20"/>
       <c r="N40" s="5"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B41" s="20"/>
       <c r="C41" s="20"/>
       <c r="D41" s="5"/>
@@ -5507,7 +5650,7 @@
       <c r="K41" s="20"/>
       <c r="N41" s="5"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
       <c r="D42" s="5"/>
@@ -5517,7 +5660,7 @@
       <c r="K42" s="20"/>
       <c r="N42" s="5"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
       <c r="D43" s="5"/>
@@ -5527,7 +5670,7 @@
       <c r="K43" s="20"/>
       <c r="N43" s="5"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B44" s="20"/>
       <c r="C44" s="20"/>
       <c r="D44" s="5"/>
@@ -5537,7 +5680,7 @@
       <c r="K44" s="20"/>
       <c r="N44" s="5"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
       <c r="D45" s="5"/>
@@ -5547,7 +5690,7 @@
       <c r="K45" s="20"/>
       <c r="N45" s="5"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B46" s="20"/>
       <c r="C46" s="20"/>
       <c r="D46" s="5"/>
@@ -5557,7 +5700,7 @@
       <c r="K46" s="20"/>
       <c r="N46" s="5"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>
       <c r="D47" s="5"/>
@@ -5567,7 +5710,7 @@
       <c r="K47" s="20"/>
       <c r="N47" s="5"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B48" s="20"/>
       <c r="C48" s="20"/>
       <c r="D48" s="5"/>
@@ -5943,10 +6086,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:J110"/>
+  <dimension ref="A1:N110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5957,10 +6100,13 @@
     <col min="6" max="8" width="7.5703125" style="6" customWidth="1"/>
     <col min="9" max="9" width="41.7109375" style="6" customWidth="1"/>
     <col min="10" max="10" width="7.5703125" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="6"/>
+    <col min="11" max="11" width="8.85546875" style="6"/>
+    <col min="12" max="12" width="41.7109375" style="6" customWidth="1"/>
+    <col min="13" max="14" width="7.5703125" style="6" customWidth="1"/>
+    <col min="15" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>252</v>
       </c>
@@ -5972,8 +6118,11 @@
       <c r="I1" s="10" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L1" s="10" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
@@ -5998,11 +6147,20 @@
         <v>276</v>
       </c>
       <c r="J2" s="5">
-        <f t="shared" ref="J2:J33" si="0">SUMIF($A$3:$A$65,I2,$B$3:$B$65)+SUMIF($E$3:$E$65,I2,$F$3:$F$65)</f>
+        <f t="shared" ref="J2:J31" si="0">SUMIF($A$3:$A$65,I2,$B$3:$B$65)+SUMIF($E$3:$E$65,I2,$F$3:$F$65)</f>
         <v>1.7430555555555515E-4</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L2" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="19">
+        <v>6.429398148148145E-4</v>
+      </c>
+      <c r="N2" s="19">
+        <v>2.7230324074074071E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>24</v>
       </c>
@@ -6030,8 +6188,17 @@
         <f t="shared" si="0"/>
         <v>1.753472222222217E-4</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L3" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="M3" s="19">
+        <v>6.6493055555555533E-4</v>
+      </c>
+      <c r="N3" s="19">
+        <v>2.7450231481481479E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>276</v>
       </c>
@@ -6059,8 +6226,17 @@
         <f t="shared" si="0"/>
         <v>1.8194444444444464E-4</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L4" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="M4" s="19">
+        <v>6.8611111111111086E-4</v>
+      </c>
+      <c r="N4" s="19">
+        <v>2.7662037037037034E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>83</v>
       </c>
@@ -6088,8 +6264,17 @@
         <f t="shared" si="0"/>
         <v>1.8414351851851795E-4</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L5" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="M5" s="19">
+        <v>1.2567129629629625E-3</v>
+      </c>
+      <c r="N5" s="20">
+        <v>3.3368055555555551E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>0</v>
       </c>
@@ -6117,8 +6302,17 @@
         <f t="shared" si="0"/>
         <v>1.8923611111111094E-4</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L6" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="M6" s="19">
+        <v>1.6725694444444444E-3</v>
+      </c>
+      <c r="N6" s="20">
+        <v>3.752662037037037E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>20</v>
       </c>
@@ -6146,8 +6340,10 @@
         <f t="shared" si="0"/>
         <v>1.9016203703703686E-4</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>1</v>
       </c>
@@ -6175,8 +6371,10 @@
         <f t="shared" si="0"/>
         <v>1.9629629629629641E-4</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>15</v>
       </c>
@@ -6204,8 +6402,10 @@
         <f t="shared" si="0"/>
         <v>2.0057870370370412E-4</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>25</v>
       </c>
@@ -6233,8 +6433,10 @@
         <f t="shared" si="0"/>
         <v>2.0196759259259256E-4</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>186</v>
       </c>
@@ -6262,8 +6464,10 @@
         <f t="shared" si="0"/>
         <v>2.0277777777777785E-4</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>23</v>
       </c>
@@ -6291,8 +6495,10 @@
         <f t="shared" si="0"/>
         <v>2.0335648148148144E-4</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>9</v>
       </c>
@@ -6320,8 +6526,10 @@
         <f t="shared" si="0"/>
         <v>2.0439814814814843E-4</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>18</v>
       </c>
@@ -6349,8 +6557,10 @@
         <f t="shared" si="0"/>
         <v>2.1122685185185177E-4</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>22</v>
       </c>
@@ -6378,8 +6588,10 @@
         <f t="shared" si="0"/>
         <v>2.1250000000000002E-4</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>10</v>
       </c>
@@ -6407,8 +6619,10 @@
         <f t="shared" si="0"/>
         <v>2.1319444444444424E-4</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>21</v>
       </c>
@@ -6436,8 +6650,10 @@
         <f t="shared" si="0"/>
         <v>2.1331018518518487E-4</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>7</v>
       </c>
@@ -6465,8 +6681,10 @@
         <f t="shared" si="0"/>
         <v>2.3692129629629627E-4</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>8</v>
       </c>
@@ -6494,8 +6712,10 @@
         <f t="shared" si="0"/>
         <v>2.468749999999997E-4</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>187</v>
       </c>
@@ -6523,8 +6743,10 @@
         <f t="shared" si="0"/>
         <v>2.5057870370370338E-4</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>12</v>
       </c>
@@ -6552,8 +6774,10 @@
         <f t="shared" si="0"/>
         <v>2.5115740740740697E-4</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>188</v>
       </c>
@@ -6581,8 +6805,10 @@
         <f t="shared" si="0"/>
         <v>2.540509259259258E-4</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>19</v>
       </c>
@@ -6610,8 +6836,10 @@
         <f t="shared" si="0"/>
         <v>2.5624999999999997E-4</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>26</v>
       </c>
@@ -6639,8 +6867,10 @@
         <f t="shared" si="0"/>
         <v>2.6064814814814787E-4</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>189</v>
       </c>
@@ -6668,8 +6898,10 @@
         <f t="shared" si="0"/>
         <v>2.6874999999999989E-4</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>30</v>
       </c>
@@ -6697,8 +6929,10 @@
         <f t="shared" si="0"/>
         <v>2.7662037037037065E-4</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>3</v>
       </c>
@@ -6726,8 +6960,10 @@
         <f t="shared" si="0"/>
         <v>2.9351851851851848E-4</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
         <v>13</v>
       </c>
@@ -6755,8 +6991,10 @@
         <f t="shared" si="0"/>
         <v>3.1018518518518461E-4</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>248</v>
       </c>
@@ -6784,8 +7022,10 @@
         <f t="shared" si="0"/>
         <v>3.3773148148148182E-4</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
         <v>268</v>
       </c>
@@ -6813,8 +7053,10 @@
         <f t="shared" si="0"/>
         <v>5.3148148148148174E-4</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>11</v>
       </c>
@@ -6842,8 +7084,10 @@
         <f t="shared" si="0"/>
         <v>5.364583333333328E-4</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>4</v>
       </c>
@@ -6866,88 +7110,61 @@
       <c r="H32" s="1"/>
       <c r="I32" s="17"/>
       <c r="J32" s="5"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>278</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>278</v>
-      </c>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="17"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
       <c r="D33" s="5"/>
-      <c r="E33" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="19" t="s">
-        <v>278</v>
-      </c>
-      <c r="G33" s="19" t="s">
-        <v>278</v>
-      </c>
+      <c r="E33" s="17"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
       <c r="H33" s="1"/>
       <c r="J33" s="5"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>278</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>278</v>
-      </c>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="17"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
       <c r="D34" s="5"/>
-      <c r="E34" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="F34" s="19" t="s">
-        <v>278</v>
-      </c>
-      <c r="G34" s="19" t="s">
-        <v>278</v>
-      </c>
+      <c r="E34" s="17"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
       <c r="H34" s="1"/>
       <c r="I34" s="17"/>
       <c r="J34" s="5"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>278</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>278</v>
-      </c>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
       <c r="D35" s="5"/>
-      <c r="E35" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="F35" s="19" t="s">
-        <v>278</v>
-      </c>
-      <c r="G35" s="19" t="s">
-        <v>278</v>
-      </c>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
       <c r="H35" s="1"/>
       <c r="J35" s="5"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M35" s="20"/>
+      <c r="N35" s="20"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="17"/>
       <c r="B36" s="19"/>
-      <c r="C36" s="20"/>
+      <c r="C36" s="19"/>
       <c r="D36" s="5"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
       <c r="H36" s="1"/>
       <c r="J36" s="5"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M36" s="20"/>
+      <c r="N36" s="20"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B37" s="19"/>
       <c r="C37" s="20"/>
       <c r="D37" s="5"/>
@@ -6956,8 +7173,10 @@
       <c r="G37" s="20"/>
       <c r="H37" s="1"/>
       <c r="J37" s="5"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M37" s="20"/>
+      <c r="N37" s="20"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B38" s="19"/>
       <c r="C38" s="20"/>
       <c r="D38" s="5"/>
@@ -6965,8 +7184,10 @@
       <c r="G38" s="20"/>
       <c r="H38" s="1"/>
       <c r="J38" s="5"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B39" s="19"/>
       <c r="C39" s="20"/>
       <c r="D39" s="5"/>
@@ -6974,8 +7195,10 @@
       <c r="G39" s="20"/>
       <c r="H39" s="1"/>
       <c r="J39" s="5"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M39" s="20"/>
+      <c r="N39" s="20"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B40" s="19"/>
       <c r="C40" s="20"/>
       <c r="D40" s="5"/>
@@ -6983,8 +7206,10 @@
       <c r="G40" s="20"/>
       <c r="H40" s="1"/>
       <c r="J40" s="5"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B41" s="19"/>
       <c r="C41" s="20"/>
       <c r="D41" s="5"/>
@@ -6992,8 +7217,10 @@
       <c r="G41" s="20"/>
       <c r="H41" s="1"/>
       <c r="J41" s="5"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M41" s="20"/>
+      <c r="N41" s="20"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B42" s="19"/>
       <c r="C42" s="20"/>
       <c r="D42" s="5"/>
@@ -7001,8 +7228,10 @@
       <c r="G42" s="20"/>
       <c r="H42" s="1"/>
       <c r="J42" s="5"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M42" s="20"/>
+      <c r="N42" s="20"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B43" s="19"/>
       <c r="C43" s="20"/>
       <c r="D43" s="5"/>
@@ -7010,8 +7239,10 @@
       <c r="G43" s="20"/>
       <c r="H43" s="1"/>
       <c r="J43" s="5"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M43" s="20"/>
+      <c r="N43" s="20"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B44" s="19"/>
       <c r="C44" s="20"/>
       <c r="D44" s="5"/>
@@ -7019,8 +7250,10 @@
       <c r="G44" s="20"/>
       <c r="H44" s="1"/>
       <c r="J44" s="5"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M44" s="20"/>
+      <c r="N44" s="20"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B45" s="19"/>
       <c r="C45" s="20"/>
       <c r="D45" s="5"/>
@@ -7028,8 +7261,10 @@
       <c r="G45" s="20"/>
       <c r="H45" s="1"/>
       <c r="J45" s="5"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M45" s="20"/>
+      <c r="N45" s="20"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B46" s="19"/>
       <c r="C46" s="20"/>
       <c r="D46" s="5"/>
@@ -7037,8 +7272,10 @@
       <c r="G46" s="20"/>
       <c r="H46" s="1"/>
       <c r="J46" s="5"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M46" s="20"/>
+      <c r="N46" s="20"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B47" s="19"/>
       <c r="C47" s="20"/>
       <c r="D47" s="5"/>
@@ -7046,8 +7283,10 @@
       <c r="G47" s="20"/>
       <c r="H47" s="1"/>
       <c r="J47" s="5"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M47" s="20"/>
+      <c r="N47" s="20"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B48" s="19"/>
       <c r="C48" s="20"/>
       <c r="D48" s="5"/>
@@ -7055,8 +7294,10 @@
       <c r="G48" s="20"/>
       <c r="H48" s="1"/>
       <c r="J48" s="5"/>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M48" s="20"/>
+      <c r="N48" s="20"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="19"/>
       <c r="C49" s="20"/>
       <c r="D49" s="5"/>
@@ -7064,8 +7305,10 @@
       <c r="G49" s="20"/>
       <c r="H49" s="1"/>
       <c r="J49" s="5"/>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M49" s="20"/>
+      <c r="N49" s="20"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="19"/>
       <c r="C50" s="20"/>
       <c r="D50" s="5"/>
@@ -7073,8 +7316,10 @@
       <c r="G50" s="20"/>
       <c r="H50" s="1"/>
       <c r="J50" s="5"/>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M50" s="20"/>
+      <c r="N50" s="20"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="19"/>
       <c r="C51" s="20"/>
       <c r="D51" s="5"/>
@@ -7082,8 +7327,10 @@
       <c r="G51" s="20"/>
       <c r="H51" s="1"/>
       <c r="J51" s="5"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M51" s="20"/>
+      <c r="N51" s="20"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="19"/>
       <c r="C52" s="20"/>
       <c r="D52" s="5"/>
@@ -7091,8 +7338,10 @@
       <c r="G52" s="20"/>
       <c r="H52" s="1"/>
       <c r="J52" s="5"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M52" s="20"/>
+      <c r="N52" s="20"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="19"/>
       <c r="C53" s="20"/>
       <c r="D53" s="5"/>
@@ -7100,8 +7349,10 @@
       <c r="G53" s="20"/>
       <c r="H53" s="1"/>
       <c r="J53" s="5"/>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M53" s="20"/>
+      <c r="N53" s="20"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="19"/>
       <c r="C54" s="20"/>
       <c r="D54" s="5"/>
@@ -7109,8 +7360,10 @@
       <c r="G54" s="20"/>
       <c r="H54" s="1"/>
       <c r="J54" s="5"/>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M54" s="20"/>
+      <c r="N54" s="20"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="19"/>
       <c r="C55" s="20"/>
       <c r="D55" s="5"/>
@@ -7118,8 +7371,10 @@
       <c r="G55" s="20"/>
       <c r="H55" s="1"/>
       <c r="J55" s="5"/>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M55" s="20"/>
+      <c r="N55" s="20"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="19"/>
       <c r="C56" s="20"/>
       <c r="D56" s="5"/>
@@ -7127,8 +7382,10 @@
       <c r="G56" s="20"/>
       <c r="H56" s="1"/>
       <c r="J56" s="5"/>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M56" s="20"/>
+      <c r="N56" s="20"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="19"/>
       <c r="C57" s="20"/>
       <c r="D57" s="5"/>
@@ -7136,8 +7393,10 @@
       <c r="G57" s="20"/>
       <c r="H57" s="1"/>
       <c r="J57" s="5"/>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M57" s="20"/>
+      <c r="N57" s="20"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="19"/>
       <c r="C58" s="20"/>
       <c r="D58" s="5"/>
@@ -7145,8 +7404,10 @@
       <c r="G58" s="20"/>
       <c r="H58" s="1"/>
       <c r="J58" s="5"/>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M58" s="20"/>
+      <c r="N58" s="20"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="19"/>
       <c r="C59" s="20"/>
       <c r="D59" s="5"/>
@@ -7154,8 +7415,10 @@
       <c r="G59" s="20"/>
       <c r="H59" s="1"/>
       <c r="J59" s="5"/>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M59" s="20"/>
+      <c r="N59" s="20"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="19"/>
       <c r="C60" s="20"/>
       <c r="D60" s="5"/>
@@ -7163,8 +7426,10 @@
       <c r="G60" s="20"/>
       <c r="H60" s="1"/>
       <c r="J60" s="5"/>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M60" s="20"/>
+      <c r="N60" s="20"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="19"/>
       <c r="C61" s="20"/>
       <c r="D61" s="5"/>
@@ -7172,8 +7437,10 @@
       <c r="G61" s="20"/>
       <c r="H61" s="1"/>
       <c r="J61" s="5"/>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M61" s="20"/>
+      <c r="N61" s="20"/>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="19"/>
       <c r="C62" s="20"/>
       <c r="D62" s="5"/>
@@ -7181,8 +7448,10 @@
       <c r="G62" s="20"/>
       <c r="H62" s="1"/>
       <c r="J62" s="5"/>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M62" s="20"/>
+      <c r="N62" s="20"/>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="19"/>
       <c r="C63" s="20"/>
       <c r="D63" s="5"/>
@@ -7190,8 +7459,10 @@
       <c r="G63" s="20"/>
       <c r="H63" s="1"/>
       <c r="J63" s="5"/>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M63" s="20"/>
+      <c r="N63" s="20"/>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="19"/>
       <c r="C64" s="20"/>
       <c r="D64" s="5"/>
@@ -7199,8 +7470,10 @@
       <c r="G64" s="20"/>
       <c r="H64" s="1"/>
       <c r="J64" s="5"/>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M64" s="20"/>
+      <c r="N64" s="20"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="19"/>
       <c r="C65" s="20"/>
       <c r="D65" s="5"/>
@@ -7208,66 +7481,68 @@
       <c r="G65" s="20"/>
       <c r="H65" s="1"/>
       <c r="J65" s="5"/>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M65" s="20"/>
+      <c r="N65" s="20"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
     </row>
@@ -7409,7 +7684,7 @@
   <dimension ref="A1:D66"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7761,15 +8036,27 @@
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
+      <c r="A30" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="B30" s="19">
+        <v>8.8067129629629585E-4</v>
+      </c>
+      <c r="C30" s="20">
+        <v>2.7230324074074071E-3</v>
+      </c>
       <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
+      <c r="A31" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="B31" s="19">
+        <v>2.0942129629629627E-3</v>
+      </c>
+      <c r="C31" s="20">
+        <v>3.9365740740740741E-3</v>
+      </c>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -7967,7 +8254,7 @@
   <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8243,26 +8530,38 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="B23" s="19">
+        <v>6.8217592592592592E-4</v>
+      </c>
+      <c r="C23" s="19">
+        <v>3.2322916666666667E-3</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B24" s="19">
         <v>7.8263888888888871E-4</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C24" s="19">
         <v>3.3327546296296295E-3</v>
       </c>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
+      <c r="A25" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="B25" s="19">
+        <v>2.6810185185185183E-3</v>
+      </c>
+      <c r="C25" s="19">
+        <v>5.2311342592592592E-3</v>
+      </c>
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -8495,14 +8794,15 @@
   </sheetPr>
   <dimension ref="A1:S81"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:M20"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.140625" style="6" customWidth="1"/>
-    <col min="2" max="11" width="7.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="6" customWidth="1"/>
+    <col min="3" max="11" width="7.5703125" style="6" customWidth="1"/>
     <col min="12" max="12" width="8.5703125" style="6" customWidth="1"/>
     <col min="13" max="14" width="7.5703125" style="6" customWidth="1"/>
     <col min="15" max="16384" width="8.85546875" style="6"/>
@@ -9399,44 +9699,44 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B20" s="20">
         <f t="shared" si="0"/>
-        <v>2.7141203703703706E-3</v>
+        <v>2.5902777777777768E-3</v>
       </c>
       <c r="C20" s="19">
-        <v>1.1782407407407401E-4</v>
+        <v>1.135416666666663E-4</v>
       </c>
       <c r="D20" s="19">
-        <v>2.2233796296296281E-4</v>
+        <v>2.0960648148148119E-4</v>
       </c>
       <c r="E20" s="19">
-        <v>8.7962962962962864E-5</v>
+        <v>8.5995370370369958E-5</v>
       </c>
       <c r="F20" s="19">
-        <v>1.0844907407407418E-4</v>
+        <v>1.0625000000000001E-4</v>
       </c>
       <c r="G20" s="20">
-        <v>6.8171296296296209E-5</v>
+        <v>7.2800925925925811E-5</v>
       </c>
       <c r="H20" s="20">
-        <v>8.449074074074088E-5</v>
+        <v>8.2407407407407342E-5</v>
       </c>
       <c r="I20" s="20">
-        <v>2.8576388888888922E-4</v>
-      </c>
-      <c r="J20" s="19">
-        <v>4.1527777777777787E-4</v>
+        <v>1.7766203703703781E-4</v>
+      </c>
+      <c r="J20" s="19" t="s">
+        <v>280</v>
       </c>
       <c r="K20" s="19">
-        <v>1.1620370370370387E-4</v>
+        <v>6.429398148148145E-4</v>
       </c>
       <c r="L20" s="19">
-        <v>6.6134259259259249E-4</v>
+        <v>5.3379629629629632E-4</v>
       </c>
       <c r="M20" s="19">
-        <v>5.4629629629629603E-4</v>
+        <v>5.6527777777777783E-4</v>
       </c>
       <c r="N20" s="20"/>
       <c r="O20" s="20"/>
@@ -9444,38 +9744,92 @@
       <c r="Q20" s="18"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
+      <c r="A21" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="20">
+        <f t="shared" ref="B21:B23" si="3">SUM(C21:M21)</f>
+        <v>2.7141203703703706E-3</v>
+      </c>
+      <c r="C21" s="19">
+        <v>1.1782407407407401E-4</v>
+      </c>
+      <c r="D21" s="19">
+        <v>2.2233796296296281E-4</v>
+      </c>
+      <c r="E21" s="19">
+        <v>8.7962962962962864E-5</v>
+      </c>
+      <c r="F21" s="19">
+        <v>1.0844907407407418E-4</v>
+      </c>
+      <c r="G21" s="20">
+        <v>6.8171296296296209E-5</v>
+      </c>
+      <c r="H21" s="20">
+        <v>8.449074074074088E-5</v>
+      </c>
+      <c r="I21" s="20">
+        <v>2.8576388888888922E-4</v>
+      </c>
+      <c r="J21" s="19">
+        <v>4.1527777777777787E-4</v>
+      </c>
+      <c r="K21" s="19">
+        <v>1.1620370370370387E-4</v>
+      </c>
+      <c r="L21" s="19">
+        <v>6.6134259259259249E-4</v>
+      </c>
+      <c r="M21" s="19">
+        <v>5.4629629629629603E-4</v>
+      </c>
       <c r="N21" s="20"/>
       <c r="O21" s="20"/>
       <c r="P21" s="20"/>
       <c r="Q21" s="18"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
+      <c r="A22" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="B22" s="20">
+        <f t="shared" si="3"/>
+        <v>4.1239583333333319E-3</v>
+      </c>
+      <c r="C22" s="19">
+        <v>1.9849537037036971E-4</v>
+      </c>
+      <c r="D22" s="19">
+        <v>3.2152777777777778E-4</v>
+      </c>
+      <c r="E22" s="19">
+        <v>1.1458333333333286E-4</v>
+      </c>
+      <c r="F22" s="19">
+        <v>1.0625000000000001E-4</v>
+      </c>
+      <c r="G22" s="20">
+        <v>1.1979166666666648E-4</v>
+      </c>
+      <c r="H22" s="20">
+        <v>1.5682870370370373E-4</v>
+      </c>
+      <c r="I22" s="20">
+        <v>8.5752314814814806E-4</v>
+      </c>
+      <c r="J22" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="K22" s="19">
+        <v>6.8611111111111086E-4</v>
+      </c>
+      <c r="L22" s="19">
+        <v>8.8067129629629585E-4</v>
+      </c>
+      <c r="M22" s="19">
+        <v>6.8217592592592592E-4</v>
+      </c>
       <c r="N22" s="20"/>
       <c r="O22" s="20"/>
       <c r="P22" s="20"/>
@@ -9484,19 +9838,46 @@
       <c r="S22" s="18"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
+      <c r="A23" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="B23" s="20">
+        <f t="shared" si="3"/>
+        <v>1.0929629629629629E-2</v>
+      </c>
+      <c r="C23" s="19">
+        <v>4.9953703703703662E-4</v>
+      </c>
+      <c r="D23" s="19">
+        <v>8.49884259259259E-4</v>
+      </c>
+      <c r="E23" s="19">
+        <v>3.2615740740740739E-4</v>
+      </c>
+      <c r="F23" s="19">
+        <v>3.0439814814814869E-4</v>
+      </c>
+      <c r="G23" s="20">
+        <v>5.4398148148148123E-4</v>
+      </c>
+      <c r="H23" s="20">
+        <v>5.8761574074074055E-4</v>
+      </c>
+      <c r="I23" s="20">
+        <v>1.7861111111111116E-3</v>
+      </c>
+      <c r="J23" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="K23" s="19">
+        <v>1.2567129629629625E-3</v>
+      </c>
+      <c r="L23" s="19">
+        <v>2.0942129629629627E-3</v>
+      </c>
+      <c r="M23" s="19">
+        <v>2.6810185185185183E-3</v>
+      </c>
       <c r="N23" s="20"/>
       <c r="O23" s="20"/>
       <c r="P23" s="20"/>

--- a/Stats.xlsx
+++ b/Stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AL\Documents\2019 Mega Comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA1FB7B-B43E-4F3F-837E-BC7DE9D4A215}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A347185C-C683-4C23-83E3-922A1C4FD9E7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33330" yWindow="5070" windowWidth="28800" windowHeight="15315" activeTab="6" xr2:uid="{E6171133-BC82-453F-AA1B-A983A9E75A15}"/>
+    <workbookView xWindow="-30360" yWindow="2610" windowWidth="28800" windowHeight="15315" activeTab="5" xr2:uid="{E6171133-BC82-453F-AA1B-A983A9E75A15}"/>
   </bookViews>
   <sheets>
     <sheet name="Tau" sheetId="6" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Tartarus" sheetId="10" r:id="rId5"/>
     <sheet name="Reptilian Dark Ritual" sheetId="17" r:id="rId6"/>
     <sheet name="Composite" sheetId="21" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="22" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="284">
   <si>
     <t>Carlos S. M.: R5 3600 @ 4.2 GHz</t>
   </si>
@@ -886,6 +887,9 @@
   </si>
   <si>
     <t>*MusiMasta: i5-4300U @ Stock (2.9 GHz)</t>
+  </si>
+  <si>
+    <t>Carlos S. M.: i3-3220 @ 3.3 GHz</t>
   </si>
 </sst>
 </file>
@@ -1355,7 +1359,7 @@
   <dimension ref="A1:J110"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2254,23 +2258,23 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="B32" s="19">
-        <v>1.6296296296296284E-4</v>
+        <v>1.5601851851851844E-4</v>
       </c>
       <c r="C32" s="20">
-        <v>2.3020833333333335E-3</v>
+        <v>2.2951388888888891E-3</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="17" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="F32" s="19">
-        <v>3.0972222222222208E-4</v>
+        <v>2.8796296296296252E-4</v>
       </c>
       <c r="G32" s="20">
-        <v>4.0414351851851852E-3</v>
+        <v>4.0196759259259257E-3</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="17" t="s">
@@ -2283,52 +2287,52 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="B33" s="19">
-        <v>1.9849537037036971E-4</v>
+        <v>1.6296296296296284E-4</v>
       </c>
       <c r="C33" s="20">
-        <v>2.3376157407407404E-3</v>
+        <v>2.3020833333333335E-3</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="17" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="F33" s="19">
-        <v>3.2152777777777778E-4</v>
+        <v>3.0972222222222208E-4</v>
       </c>
       <c r="G33" s="20">
-        <v>4.0532407407407409E-3</v>
+        <v>4.0414351851851852E-3</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="17" t="s">
         <v>247</v>
       </c>
       <c r="J33" s="5">
-        <f t="shared" ref="J33:J34" si="1">SUMIF($A$3:$A$65,I33,$B$3:$B$65)+SUMIF($E$3:$E$65,I33,$F$3:$F$65)</f>
+        <f t="shared" ref="J33:J35" si="1">SUMIF($A$3:$A$65,I33,$B$3:$B$65)+SUMIF($E$3:$E$65,I33,$F$3:$F$65)</f>
         <v>8.8958333333333294E-4</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="B34" s="19">
-        <v>3.4259259259259225E-4</v>
+        <v>1.9849537037036971E-4</v>
       </c>
       <c r="C34" s="20">
-        <v>2.4817129629629629E-3</v>
+        <v>2.3376157407407404E-3</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="17" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="F34" s="19">
-        <v>5.4699074074074068E-4</v>
+        <v>3.2152777777777778E-4</v>
       </c>
       <c r="G34" s="20">
-        <v>4.2787037037037038E-3</v>
+        <v>4.0532407407407409E-3</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="6" t="s">
@@ -2340,34 +2344,54 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="B35" s="19">
+        <v>3.4259259259259225E-4</v>
+      </c>
+      <c r="C35" s="20">
+        <v>2.4817129629629629E-3</v>
+      </c>
+      <c r="D35" s="9"/>
+      <c r="E35" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="F35" s="19">
+        <v>5.4699074074074068E-4</v>
+      </c>
+      <c r="G35" s="20">
+        <v>4.2787037037037038E-3</v>
+      </c>
+      <c r="H35" s="1"/>
+      <c r="I35" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="J35" s="5">
+        <f t="shared" si="1"/>
+        <v>4.4398148148148096E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="B35" s="19">
+      <c r="B36" s="19">
         <v>4.9953703703703662E-4</v>
       </c>
-      <c r="C35" s="20">
+      <c r="C36" s="20">
         <v>2.6386574074074073E-3</v>
       </c>
-      <c r="D35" s="9"/>
-      <c r="E35" s="6" t="s">
+      <c r="D36" s="9"/>
+      <c r="E36" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="F35" s="19">
+      <c r="F36" s="19">
         <v>8.49884259259259E-4</v>
       </c>
-      <c r="G35" s="20">
+      <c r="G36" s="20">
         <v>4.5815972222222221E-3</v>
       </c>
-      <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="19"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="20"/>
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -2803,7 +2827,7 @@
   <dimension ref="A1:L110"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3712,13 +3736,13 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
-        <v>248</v>
+        <v>283</v>
       </c>
       <c r="B32" s="19">
-        <v>1.0624999999999957E-4</v>
+        <v>1.0138888888888871E-4</v>
       </c>
       <c r="C32" s="20">
-        <v>2.1718749999999998E-3</v>
+        <v>2.1670138888888889E-3</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="17" t="s">
@@ -3741,13 +3765,13 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="B33" s="19">
-        <v>1.1319444444444441E-4</v>
+        <v>1.0624999999999957E-4</v>
       </c>
       <c r="C33" s="20">
-        <v>2.1788194444444446E-3</v>
+        <v>2.1718749999999998E-3</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="17" t="s">
@@ -3770,13 +3794,13 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="B34" s="19">
-        <v>1.1458333333333286E-4</v>
+        <v>1.1319444444444441E-4</v>
       </c>
       <c r="C34" s="20">
-        <v>2.180208333333333E-3</v>
+        <v>2.1788194444444446E-3</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="17" t="s">
@@ -3798,14 +3822,14 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>281</v>
+      <c r="A35" s="17" t="s">
+        <v>278</v>
       </c>
       <c r="B35" s="19">
-        <v>3.2615740740740739E-4</v>
+        <v>1.1458333333333286E-4</v>
       </c>
       <c r="C35" s="20">
-        <v>2.3917824074074076E-3</v>
+        <v>2.180208333333333E-3</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="6" t="s">
@@ -3821,8 +3845,15 @@
       <c r="J35" s="5"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="19"/>
-      <c r="C36" s="20"/>
+      <c r="A36" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="B36" s="19">
+        <v>3.2615740740740739E-4</v>
+      </c>
+      <c r="C36" s="20">
+        <v>2.3917824074074076E-3</v>
+      </c>
       <c r="D36" s="5"/>
       <c r="E36" s="7"/>
       <c r="F36" s="20"/>
@@ -3836,7 +3867,9 @@
       <c r="D37" s="5"/>
       <c r="E37" s="7"/>
       <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
+      <c r="G37" s="20">
+        <v>3.1604166666666668E-3</v>
+      </c>
       <c r="H37" s="1"/>
       <c r="J37" s="5"/>
     </row>
@@ -4289,7 +4322,7 @@
   <dimension ref="A1:N110"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5381,23 +5414,23 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
-        <v>30</v>
+        <v>283</v>
       </c>
       <c r="B29" s="20">
-        <v>8.7615740740740536E-5</v>
+        <v>8.3912037037037071E-5</v>
       </c>
       <c r="C29" s="20">
-        <v>1.6082175925925925E-3</v>
+        <v>1.604513888888889E-3</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="17" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="F29" s="20">
-        <v>1.2465277777777778E-4</v>
+        <v>1.11342592592593E-4</v>
       </c>
       <c r="G29" s="20">
-        <v>2.6518518518518519E-3</v>
+        <v>2.6385416666666671E-3</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="2" t="s">
@@ -5419,23 +5452,23 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="20">
+        <v>8.7615740740740536E-5</v>
+      </c>
+      <c r="C30" s="20">
+        <v>1.6082175925925925E-3</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="B30" s="20">
-        <v>9.2361111111110986E-5</v>
-      </c>
-      <c r="C30" s="20">
-        <v>1.612962962962963E-3</v>
-      </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="F30" s="20">
-        <v>1.3865740740740722E-4</v>
+        <v>1.2465277777777778E-4</v>
       </c>
       <c r="G30" s="20">
-        <v>2.6658564814814813E-3</v>
+        <v>2.6518518518518519E-3</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="17" t="s">
@@ -5448,32 +5481,32 @@
         <v>4.5697916666666664E-3</v>
       </c>
       <c r="M30" s="17" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="N30" s="5">
         <f t="shared" si="0"/>
-        <v>1.1341435185185183E-3</v>
+        <v>1.0137731481481488E-3</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="B31" s="20">
-        <v>1.1979166666666648E-4</v>
+        <v>9.2361111111110986E-5</v>
       </c>
       <c r="C31" s="20">
-        <v>1.6403935185185185E-3</v>
+        <v>1.612962962962963E-3</v>
       </c>
       <c r="D31" s="5"/>
-      <c r="E31" s="17" t="s">
-        <v>278</v>
+      <c r="E31" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="F31" s="20">
-        <v>1.5682870370370373E-4</v>
+        <v>1.3865740740740722E-4</v>
       </c>
       <c r="G31" s="20">
-        <v>2.6840277777777778E-3</v>
+        <v>2.6658564814814813E-3</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="17" t="s">
@@ -5486,93 +5519,120 @@
         <v>4.6443287037037035E-3</v>
       </c>
       <c r="M31" s="17" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="N31" s="5">
-        <f t="shared" ref="N31:N32" si="1">SUMIF($A$3:$A$65,M31,$B$3:$B$65)+SUMIF($E$3:$E$65,M31,$F$3:$F$65)+SUMIF($I$3:$I$65,M31,$J$3:$J$65)</f>
-        <v>1.3026620370370371E-3</v>
+        <f t="shared" ref="N31:N34" si="1">SUMIF($A$3:$A$65,M31,$B$3:$B$65)+SUMIF($E$3:$E$65,M31,$F$3:$F$65)+SUMIF($I$3:$I$65,M31,$J$3:$J$65)</f>
+        <v>1.1341435185185183E-3</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="B32" s="20">
-        <v>2.7604166666666662E-4</v>
+        <v>1.1979166666666648E-4</v>
       </c>
       <c r="C32" s="20">
-        <v>1.7966435185185186E-3</v>
+        <v>1.6403935185185185E-3</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="17" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="F32" s="20">
-        <v>3.0613425925925947E-4</v>
+        <v>1.5682870370370373E-4</v>
       </c>
       <c r="G32" s="20">
-        <v>2.8333333333333335E-3</v>
+        <v>2.6840277777777778E-3</v>
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="17" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="J32" s="20">
-        <v>8.5752314814814806E-4</v>
+        <v>8.1851851851851877E-4</v>
       </c>
       <c r="K32" s="20">
-        <v>4.7068287037037035E-3</v>
-      </c>
-      <c r="M32" s="6" t="s">
-        <v>281</v>
+        <v>4.6678240740740742E-3</v>
+      </c>
+      <c r="M32" s="17" t="s">
+        <v>247</v>
       </c>
       <c r="N32" s="5">
         <f t="shared" si="1"/>
+        <v>1.3026620370370371E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="B33" s="20">
+        <v>2.7604166666666662E-4</v>
+      </c>
+      <c r="C33" s="20">
+        <v>1.7966435185185186E-3</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="F33" s="20">
+        <v>3.0613425925925947E-4</v>
+      </c>
+      <c r="G33" s="20">
+        <v>2.8333333333333335E-3</v>
+      </c>
+      <c r="H33" s="7"/>
+      <c r="I33" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="J33" s="20">
+        <v>8.5752314814814806E-4</v>
+      </c>
+      <c r="K33" s="20">
+        <v>4.7068287037037035E-3</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="N33" s="5">
+        <f t="shared" si="1"/>
         <v>2.9177083333333334E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="B33" s="20">
+      <c r="B34" s="20">
         <v>5.4398148148148123E-4</v>
       </c>
-      <c r="C33" s="20">
+      <c r="C34" s="20">
         <v>2.0645833333333332E-3</v>
       </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="6" t="s">
+      <c r="D34" s="5"/>
+      <c r="E34" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="F33" s="20">
+      <c r="F34" s="20">
         <v>5.8761574074074055E-4</v>
       </c>
-      <c r="G33" s="20">
+      <c r="G34" s="20">
         <v>3.1148148148148146E-3</v>
       </c>
-      <c r="H33" s="7"/>
-      <c r="I33" s="6" t="s">
+      <c r="H34" s="7"/>
+      <c r="I34" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="J33" s="20">
+      <c r="J34" s="20">
         <v>1.7861111111111116E-3</v>
       </c>
-      <c r="K33" s="20">
+      <c r="K34" s="20">
         <v>5.635416666666667E-3</v>
       </c>
-      <c r="N33" s="5"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="7"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
+      <c r="M34" s="17"/>
       <c r="N34" s="5"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -6088,8 +6148,8 @@
   </sheetPr>
   <dimension ref="A1:N110"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7129,11 +7189,15 @@
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="17"/>
       <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
+      <c r="C34" s="20">
+        <v>2.3652777777777778E-3</v>
+      </c>
       <c r="D34" s="5"/>
       <c r="E34" s="17"/>
       <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
+      <c r="G34" s="19">
+        <v>2.6875000000000002E-3</v>
+      </c>
       <c r="H34" s="1"/>
       <c r="I34" s="17"/>
       <c r="J34" s="5"/>
@@ -7684,7 +7748,7 @@
   <dimension ref="A1:D66"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8068,7 +8132,9 @@
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
+      <c r="C33" s="20">
+        <v>2.5958333333333332E-3</v>
+      </c>
       <c r="D33" s="1"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -8253,8 +8319,8 @@
   </sheetPr>
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8573,7 +8639,9 @@
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
+      <c r="C27" s="19">
+        <v>3.1185185185185187E-3</v>
+      </c>
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -8794,7 +8862,7 @@
   </sheetPr>
   <dimension ref="A1:S81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
@@ -10973,4 +11041,742 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D50799B2-471E-4044-83F5-3DF569028F95}">
+  <dimension ref="A1:C60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="17">
+        <v>1</v>
+      </c>
+      <c r="B1" s="17">
+        <v>60</v>
+      </c>
+      <c r="C1" s="17">
+        <f>A1/B1</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="17">
+        <v>2</v>
+      </c>
+      <c r="B2" s="17">
+        <v>60</v>
+      </c>
+      <c r="C2" s="17">
+        <f>A2/B2</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
+        <v>3</v>
+      </c>
+      <c r="B3" s="17">
+        <v>60</v>
+      </c>
+      <c r="C3" s="17">
+        <f>A3/B3</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
+        <v>4</v>
+      </c>
+      <c r="B4" s="17">
+        <v>60</v>
+      </c>
+      <c r="C4" s="17">
+        <f>A4/B4</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="17">
+        <v>5</v>
+      </c>
+      <c r="B5" s="17">
+        <v>60</v>
+      </c>
+      <c r="C5" s="17">
+        <f>A5/B5</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
+        <v>6</v>
+      </c>
+      <c r="B6" s="17">
+        <v>60</v>
+      </c>
+      <c r="C6" s="17">
+        <f>A6/B6</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
+        <v>7</v>
+      </c>
+      <c r="B7" s="17">
+        <v>60</v>
+      </c>
+      <c r="C7" s="17">
+        <f>A7/B7</f>
+        <v>0.11666666666666667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
+        <v>8</v>
+      </c>
+      <c r="B8" s="17">
+        <v>60</v>
+      </c>
+      <c r="C8" s="17">
+        <f>A8/B8</f>
+        <v>0.13333333333333333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
+        <v>9</v>
+      </c>
+      <c r="B9" s="17">
+        <v>60</v>
+      </c>
+      <c r="C9" s="17">
+        <f>A9/B9</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
+        <v>10</v>
+      </c>
+      <c r="B10" s="17">
+        <v>60</v>
+      </c>
+      <c r="C10" s="17">
+        <f>A10/B10</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
+        <v>11</v>
+      </c>
+      <c r="B11" s="17">
+        <v>60</v>
+      </c>
+      <c r="C11" s="17">
+        <f>A11/B11</f>
+        <v>0.18333333333333332</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
+        <v>12</v>
+      </c>
+      <c r="B12" s="17">
+        <v>60</v>
+      </c>
+      <c r="C12" s="17">
+        <f>A12/B12</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
+        <v>13</v>
+      </c>
+      <c r="B13" s="17">
+        <v>60</v>
+      </c>
+      <c r="C13" s="17">
+        <f>A13/B13</f>
+        <v>0.21666666666666667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
+        <v>14</v>
+      </c>
+      <c r="B14" s="17">
+        <v>60</v>
+      </c>
+      <c r="C14" s="17">
+        <f>A14/B14</f>
+        <v>0.23333333333333334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="17">
+        <v>15</v>
+      </c>
+      <c r="B15" s="17">
+        <v>60</v>
+      </c>
+      <c r="C15" s="17">
+        <f>A15/B15</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="17">
+        <v>16</v>
+      </c>
+      <c r="B16" s="17">
+        <v>60</v>
+      </c>
+      <c r="C16" s="17">
+        <f>A16/B16</f>
+        <v>0.26666666666666666</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="17">
+        <v>17</v>
+      </c>
+      <c r="B17" s="17">
+        <v>60</v>
+      </c>
+      <c r="C17" s="17">
+        <f>A17/B17</f>
+        <v>0.28333333333333333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="17">
+        <v>18</v>
+      </c>
+      <c r="B18" s="17">
+        <v>60</v>
+      </c>
+      <c r="C18" s="17">
+        <f>A18/B18</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
+        <v>19</v>
+      </c>
+      <c r="B19" s="17">
+        <v>60</v>
+      </c>
+      <c r="C19" s="17">
+        <f>A19/B19</f>
+        <v>0.31666666666666665</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
+        <v>20</v>
+      </c>
+      <c r="B20" s="17">
+        <v>60</v>
+      </c>
+      <c r="C20" s="17">
+        <f>A20/B20</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="17">
+        <v>21</v>
+      </c>
+      <c r="B21" s="17">
+        <v>60</v>
+      </c>
+      <c r="C21" s="17">
+        <f>A21/B21</f>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="17">
+        <v>22</v>
+      </c>
+      <c r="B22" s="17">
+        <v>60</v>
+      </c>
+      <c r="C22" s="17">
+        <f>A22/B22</f>
+        <v>0.36666666666666664</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="17">
+        <v>23</v>
+      </c>
+      <c r="B23" s="17">
+        <v>60</v>
+      </c>
+      <c r="C23" s="17">
+        <f>A23/B23</f>
+        <v>0.38333333333333336</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="17">
+        <v>24</v>
+      </c>
+      <c r="B24" s="17">
+        <v>60</v>
+      </c>
+      <c r="C24" s="17">
+        <f>A24/B24</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="17">
+        <v>25</v>
+      </c>
+      <c r="B25" s="17">
+        <v>60</v>
+      </c>
+      <c r="C25" s="17">
+        <f>A25/B25</f>
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="17">
+        <v>26</v>
+      </c>
+      <c r="B26" s="17">
+        <v>60</v>
+      </c>
+      <c r="C26" s="17">
+        <f>A26/B26</f>
+        <v>0.43333333333333335</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="17">
+        <v>27</v>
+      </c>
+      <c r="B27" s="17">
+        <v>60</v>
+      </c>
+      <c r="C27" s="17">
+        <f>A27/B27</f>
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="17">
+        <v>28</v>
+      </c>
+      <c r="B28" s="17">
+        <v>60</v>
+      </c>
+      <c r="C28" s="17">
+        <f>A28/B28</f>
+        <v>0.46666666666666667</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="17">
+        <v>29</v>
+      </c>
+      <c r="B29" s="17">
+        <v>60</v>
+      </c>
+      <c r="C29" s="17">
+        <f>A29/B29</f>
+        <v>0.48333333333333334</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="17">
+        <v>30</v>
+      </c>
+      <c r="B30" s="17">
+        <v>60</v>
+      </c>
+      <c r="C30" s="17">
+        <f>A30/B30</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="17">
+        <v>31</v>
+      </c>
+      <c r="B31" s="17">
+        <v>60</v>
+      </c>
+      <c r="C31" s="17">
+        <f>A31/B31</f>
+        <v>0.51666666666666672</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="17">
+        <v>32</v>
+      </c>
+      <c r="B32" s="17">
+        <v>60</v>
+      </c>
+      <c r="C32" s="17">
+        <f>A32/B32</f>
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="17">
+        <v>33</v>
+      </c>
+      <c r="B33" s="17">
+        <v>60</v>
+      </c>
+      <c r="C33" s="17">
+        <f>A33/B33</f>
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="17">
+        <v>34</v>
+      </c>
+      <c r="B34" s="17">
+        <v>60</v>
+      </c>
+      <c r="C34" s="17">
+        <f>A34/B34</f>
+        <v>0.56666666666666665</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="17">
+        <v>35</v>
+      </c>
+      <c r="B35" s="17">
+        <v>60</v>
+      </c>
+      <c r="C35" s="17">
+        <f>A35/B35</f>
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="17">
+        <v>36</v>
+      </c>
+      <c r="B36" s="17">
+        <v>60</v>
+      </c>
+      <c r="C36" s="17">
+        <f>A36/B36</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="17">
+        <v>37</v>
+      </c>
+      <c r="B37" s="17">
+        <v>60</v>
+      </c>
+      <c r="C37" s="17">
+        <f>A37/B37</f>
+        <v>0.6166666666666667</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="17">
+        <v>38</v>
+      </c>
+      <c r="B38" s="17">
+        <v>60</v>
+      </c>
+      <c r="C38" s="17">
+        <f>A38/B38</f>
+        <v>0.6333333333333333</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="17">
+        <v>39</v>
+      </c>
+      <c r="B39" s="17">
+        <v>60</v>
+      </c>
+      <c r="C39" s="17">
+        <f>A39/B39</f>
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="17">
+        <v>40</v>
+      </c>
+      <c r="B40" s="17">
+        <v>60</v>
+      </c>
+      <c r="C40" s="17">
+        <f>A40/B40</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="17">
+        <v>41</v>
+      </c>
+      <c r="B41" s="17">
+        <v>60</v>
+      </c>
+      <c r="C41" s="17">
+        <f>A41/B41</f>
+        <v>0.68333333333333335</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="17">
+        <v>42</v>
+      </c>
+      <c r="B42" s="17">
+        <v>60</v>
+      </c>
+      <c r="C42" s="17">
+        <f>A42/B42</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="17">
+        <v>43</v>
+      </c>
+      <c r="B43" s="17">
+        <v>60</v>
+      </c>
+      <c r="C43" s="17">
+        <f>A43/B43</f>
+        <v>0.71666666666666667</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="17">
+        <v>44</v>
+      </c>
+      <c r="B44" s="17">
+        <v>60</v>
+      </c>
+      <c r="C44" s="17">
+        <f>A44/B44</f>
+        <v>0.73333333333333328</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="17">
+        <v>45</v>
+      </c>
+      <c r="B45" s="17">
+        <v>60</v>
+      </c>
+      <c r="C45" s="17">
+        <f>A45/B45</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="17">
+        <v>46</v>
+      </c>
+      <c r="B46" s="17">
+        <v>60</v>
+      </c>
+      <c r="C46" s="17">
+        <f>A46/B46</f>
+        <v>0.76666666666666672</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="17">
+        <v>47</v>
+      </c>
+      <c r="B47" s="17">
+        <v>60</v>
+      </c>
+      <c r="C47" s="17">
+        <f>A47/B47</f>
+        <v>0.78333333333333333</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="17">
+        <v>48</v>
+      </c>
+      <c r="B48" s="17">
+        <v>60</v>
+      </c>
+      <c r="C48" s="17">
+        <f>A48/B48</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="17">
+        <v>49</v>
+      </c>
+      <c r="B49" s="17">
+        <v>60</v>
+      </c>
+      <c r="C49" s="17">
+        <f>A49/B49</f>
+        <v>0.81666666666666665</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="17">
+        <v>50</v>
+      </c>
+      <c r="B50" s="17">
+        <v>60</v>
+      </c>
+      <c r="C50" s="17">
+        <f>A50/B50</f>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="17">
+        <v>51</v>
+      </c>
+      <c r="B51" s="17">
+        <v>60</v>
+      </c>
+      <c r="C51" s="17">
+        <f>A51/B51</f>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="17">
+        <v>52</v>
+      </c>
+      <c r="B52" s="17">
+        <v>60</v>
+      </c>
+      <c r="C52" s="17">
+        <f>A52/B52</f>
+        <v>0.8666666666666667</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="17">
+        <v>53</v>
+      </c>
+      <c r="B53" s="17">
+        <v>60</v>
+      </c>
+      <c r="C53" s="17">
+        <f>A53/B53</f>
+        <v>0.8833333333333333</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="17">
+        <v>54</v>
+      </c>
+      <c r="B54" s="17">
+        <v>60</v>
+      </c>
+      <c r="C54" s="17">
+        <f>A54/B54</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="17">
+        <v>55</v>
+      </c>
+      <c r="B55" s="17">
+        <v>60</v>
+      </c>
+      <c r="C55" s="17">
+        <f>A55/B55</f>
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="17">
+        <v>56</v>
+      </c>
+      <c r="B56" s="17">
+        <v>60</v>
+      </c>
+      <c r="C56" s="17">
+        <f>A56/B56</f>
+        <v>0.93333333333333335</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="17">
+        <v>57</v>
+      </c>
+      <c r="B57" s="17">
+        <v>60</v>
+      </c>
+      <c r="C57" s="17">
+        <f>A57/B57</f>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="17">
+        <v>58</v>
+      </c>
+      <c r="B58" s="17">
+        <v>60</v>
+      </c>
+      <c r="C58" s="17">
+        <f>A58/B58</f>
+        <v>0.96666666666666667</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="17">
+        <v>59</v>
+      </c>
+      <c r="B59" s="17">
+        <v>60</v>
+      </c>
+      <c r="C59" s="17">
+        <f>A59/B59</f>
+        <v>0.98333333333333328</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="17">
+        <v>60</v>
+      </c>
+      <c r="B60" s="17">
+        <v>60</v>
+      </c>
+      <c r="C60" s="17">
+        <f>A60/B60</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Stats.xlsx
+++ b/Stats.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Senko\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AL\Documents\2019 Mega Comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5B77B6-AB09-477A-94C8-13716E858EF8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE2356F-C9C0-499C-9FDB-45EEF206C9C7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="7" xr2:uid="{E6171133-BC82-453F-AA1B-A983A9E75A15}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="6" xr2:uid="{E6171133-BC82-453F-AA1B-A983A9E75A15}"/>
   </bookViews>
   <sheets>
     <sheet name="FPS Timecode" sheetId="22" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="289">
   <si>
     <t>Carlos S. M.: R5 3600 @ 4.2 GHz</t>
   </si>
@@ -893,6 +893,18 @@
   </si>
   <si>
     <t>Yuzu R7 2700X: Only has 8GB RAM</t>
+  </si>
+  <si>
+    <t>ymi</t>
+  </si>
+  <si>
+    <t>hdsq 7600</t>
+  </si>
+  <si>
+    <t>hdsq i7-870 4.1 ghz</t>
+  </si>
+  <si>
+    <t>hdsq 7600 4.1 ghz</t>
   </si>
 </sst>
 </file>
@@ -1380,7 +1392,7 @@
         <v>60</v>
       </c>
       <c r="C1" s="28">
-        <f t="shared" ref="C1:C32" si="0">A1/B1</f>
+        <f t="shared" ref="C1" si="0">A1/B1</f>
         <v>0</v>
       </c>
       <c r="E1" s="27"/>
@@ -2119,7 +2131,7 @@
   <dimension ref="A1:J110"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3234,19 +3246,39 @@
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>288</v>
+      </c>
       <c r="B38" s="19"/>
-      <c r="C38" s="20"/>
+      <c r="C38" s="20">
+        <v>2.2731481481481483E-3</v>
+      </c>
       <c r="D38" s="9"/>
+      <c r="E38" s="6" t="s">
+        <v>288</v>
+      </c>
       <c r="F38" s="18"/>
-      <c r="G38" s="20"/>
+      <c r="G38" s="20">
+        <v>4.0052083333333337E-3</v>
+      </c>
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>287</v>
+      </c>
       <c r="B39" s="19"/>
-      <c r="C39" s="20"/>
+      <c r="C39" s="20">
+        <v>2.3537037037037038E-3</v>
+      </c>
       <c r="D39" s="9"/>
+      <c r="E39" s="6" t="s">
+        <v>287</v>
+      </c>
       <c r="F39" s="18"/>
-      <c r="G39" s="20"/>
+      <c r="G39" s="20">
+        <v>4.1576388888888887E-3</v>
+      </c>
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -3657,7 +3689,7 @@
   <dimension ref="A1:L110"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3752,7 +3784,7 @@
         <v>21</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" ref="J3:J32" si="1">SUMIF($A$3:$A$65,I3,$B$3:$B$65)+SUMIF($E$3:$E$65,I3,$F$3:$F$65)</f>
+        <f t="shared" ref="J3:J29" si="1">SUMIF($A$3:$A$65,I3,$B$3:$B$65)+SUMIF($E$3:$E$65,I3,$F$3:$F$65)</f>
         <v>1.140046296296297E-4</v>
       </c>
       <c r="L3" s="6" t="s">
@@ -4622,7 +4654,7 @@
         <v>30</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" ref="J31:J36" si="3">SUMIF($A$3:$A$65,I31,$B$3:$B$65)+SUMIF($E$3:$E$65,I31,$F$3:$F$65)</f>
+        <f t="shared" ref="J31:J35" si="3">SUMIF($A$3:$A$65,I31,$B$3:$B$65)+SUMIF($E$3:$E$65,I31,$F$3:$F$65)</f>
         <v>2.1215277777777725E-4</v>
       </c>
     </row>
@@ -4787,11 +4819,18 @@
       <c r="J37" s="5"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>286</v>
+      </c>
       <c r="B38" s="19"/>
-      <c r="C38" s="20"/>
+      <c r="C38" s="20">
+        <v>2.1467592592592593E-3</v>
+      </c>
       <c r="D38" s="5"/>
       <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
+      <c r="G38" s="20">
+        <v>3.1502314814814813E-3</v>
+      </c>
       <c r="H38" s="1"/>
       <c r="J38" s="5"/>
     </row>
@@ -5235,7 +5274,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5338,7 +5377,7 @@
         <v>280</v>
       </c>
       <c r="F3" s="20">
-        <f t="shared" ref="F3:F36" si="1">G3-$G$2</f>
+        <f t="shared" ref="F3:F34" si="1">G3-$G$2</f>
         <v>4.2013888888888743E-5</v>
       </c>
       <c r="G3" s="20">
@@ -5411,7 +5450,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="19">
-        <f t="shared" ref="B5:B36" si="3">C5-$C$2</f>
+        <f t="shared" ref="B5:B34" si="3">C5-$C$2</f>
         <v>4.3402777777777624E-5</v>
       </c>
       <c r="C5" s="20">
@@ -6668,26 +6707,41 @@
       <c r="N35" s="5"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>286</v>
+      </c>
       <c r="B36" s="19"/>
-      <c r="C36" s="20"/>
+      <c r="C36" s="20">
+        <v>1.600925925925926E-3</v>
+      </c>
       <c r="D36" s="5"/>
       <c r="E36" s="7"/>
       <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
+      <c r="G36" s="20">
+        <v>2.6208333333333331E-3</v>
+      </c>
       <c r="H36" s="7"/>
       <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
+      <c r="K36" s="20">
+        <v>4.1462962962962964E-3</v>
+      </c>
       <c r="N36" s="5"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
+      <c r="C37" s="20">
+        <v>1.763773148148148E-3</v>
+      </c>
       <c r="D37" s="5"/>
       <c r="E37" s="7"/>
       <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
+      <c r="G37" s="20">
+        <v>2.8126157407407405E-3</v>
+      </c>
       <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
+      <c r="K37" s="20">
+        <v>4.5317129629629631E-3</v>
+      </c>
       <c r="N37" s="5"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -7169,7 +7223,7 @@
   <dimension ref="A1:N110"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7229,7 +7283,7 @@
         <v>280</v>
       </c>
       <c r="J2" s="5">
-        <f t="shared" ref="J2:J32" si="0">SUMIF($A$3:$A$65,I2,$B$3:$B$65)+SUMIF($E$3:$E$65,I2,$F$3:$F$65)</f>
+        <f t="shared" ref="J2:J30" si="0">SUMIF($A$3:$A$65,I2,$B$3:$B$65)+SUMIF($E$3:$E$65,I2,$F$3:$F$65)</f>
         <v>1.7430555555555515E-4</v>
       </c>
       <c r="L2" s="17" t="s">
@@ -7259,7 +7313,7 @@
         <v>280</v>
       </c>
       <c r="F3" s="20">
-        <f t="shared" ref="F3:F34" si="1">G3-$G$2</f>
+        <f t="shared" ref="F3:F33" si="1">G3-$G$2</f>
         <v>7.6967592592592452E-5</v>
       </c>
       <c r="G3" s="19" t="s">
@@ -7330,7 +7384,7 @@
         <v>83</v>
       </c>
       <c r="B5" s="19">
-        <f t="shared" ref="B5:B34" si="3">C5-$C$2</f>
+        <f t="shared" ref="B5:B33" si="3">C5-$C$2</f>
         <v>9.9074074074073908E-5</v>
       </c>
       <c r="C5" s="19" t="s">
@@ -8232,7 +8286,7 @@
         <v>11</v>
       </c>
       <c r="J31" s="5">
-        <f t="shared" ref="J31:J33" si="4">SUMIF($A$3:$A$65,I31,$B$3:$B$65)+SUMIF($E$3:$E$65,I31,$F$3:$F$65)</f>
+        <f t="shared" ref="J31:J32" si="4">SUMIF($A$3:$A$65,I31,$B$3:$B$65)+SUMIF($E$3:$E$65,I31,$F$3:$F$65)</f>
         <v>5.3148148148148174E-4</v>
       </c>
       <c r="M31" s="20"/>
@@ -8857,7 +8911,7 @@
   <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8923,7 +8977,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="19">
-        <f t="shared" ref="B5:B33" si="0">C5-$C$2</f>
+        <f t="shared" ref="B5:B32" si="0">C5-$C$2</f>
         <v>3.9143518518518542E-4</v>
       </c>
       <c r="C5" s="19" t="s">
@@ -9291,13 +9345,17 @@
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
+      <c r="C34" s="20">
+        <v>2.3655092592592595E-3</v>
+      </c>
       <c r="D34" s="1"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
+      <c r="C35" s="20">
+        <v>3.1063657407407407E-3</v>
+      </c>
       <c r="D35" s="1"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -9470,8 +9528,8 @@
   </sheetPr>
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9537,7 +9595,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="19">
-        <f t="shared" ref="B5:B32" si="0">C5-$C$2</f>
+        <f t="shared" ref="B5:B26" si="0">C5-$C$2</f>
         <v>3.2627314814814802E-4</v>
       </c>
       <c r="C5" s="19" t="s">
@@ -9825,9 +9883,13 @@
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
+      <c r="A28" s="2" t="s">
+        <v>285</v>
+      </c>
       <c r="B28" s="19"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20">
+        <v>3.0953703703703703E-3</v>
+      </c>
       <c r="D28" s="1"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -10042,7 +10104,7 @@
   </sheetPr>
   <dimension ref="A1:S81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>

--- a/Stats.xlsx
+++ b/Stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Senko\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s-kwongal\Downloads\Projects\1 - 2019 Mega Comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B33CDC-808E-4C16-9F6F-2AF82602ED18}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D37C48-7D6F-40B4-896C-76423B44402A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="7" xr2:uid="{E6171133-BC82-453F-AA1B-A983A9E75A15}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{E6171133-BC82-453F-AA1B-A983A9E75A15}"/>
   </bookViews>
   <sheets>
     <sheet name="FPS Timecode" sheetId="22" r:id="rId1"/>
@@ -1379,16 +1379,16 @@
   <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="17" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="17"/>
+    <col min="1" max="1" width="9.109375" style="17" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="17">
         <v>0</v>
       </c>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="E1" s="26"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>1.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="17">
         <v>4</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="17">
         <v>5</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
         <v>6</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="17">
         <v>7</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>0.11666666666666667</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
         <v>8</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>0.13333333333333333</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <v>9</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
         <v>10</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <v>11</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>0.18333333333333332</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
         <v>12</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="17">
         <v>13</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>0.21666666666666667</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="17">
         <v>14</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>0.23333333333333334</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="17">
         <v>15</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="17">
         <v>16</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>0.26666666666666666</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
         <v>17</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v>0.28333333333333333</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
         <v>18</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="17">
         <v>19</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>0.31666666666666665</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="17">
         <v>20</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="17">
         <v>21</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="17">
         <v>22</v>
       </c>
@@ -1665,7 +1665,7 @@
         <v>0.36666666666666664</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="17">
         <v>23</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>0.38333333333333336</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="17">
         <v>24</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="17">
         <v>25</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="17">
         <v>26</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>0.43333333333333335</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="17">
         <v>27</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="17">
         <v>28</v>
       </c>
@@ -1737,7 +1737,7 @@
         <v>0.46666666666666667</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="17">
         <v>29</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>0.48333333333333334</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="17">
         <v>30</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="17">
         <v>31</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>0.51666666666666672</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="17">
         <v>32</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>0.53333333333333333</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="17">
         <v>33</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="17">
         <v>34</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>0.56666666666666665</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="17">
         <v>35</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="17">
         <v>36</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="17">
         <v>37</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>0.6166666666666667</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="17">
         <v>38</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>0.6333333333333333</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="17">
         <v>39</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="17">
         <v>40</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="17">
         <v>41</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>0.68333333333333335</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="17">
         <v>42</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="17">
         <v>43</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>0.71666666666666667</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="17">
         <v>44</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>0.73333333333333328</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="17">
         <v>45</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="17">
         <v>46</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>0.76666666666666672</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="17">
         <v>47</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>0.78333333333333333</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="17">
         <v>48</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="17">
         <v>49</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>0.81666666666666665</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="17">
         <v>50</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="17">
         <v>51</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="17">
         <v>52</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>0.8666666666666667</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="17">
         <v>53</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>0.8833333333333333</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="17">
         <v>54</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="17">
         <v>55</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="17">
         <v>56</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>0.93333333333333335</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="17">
         <v>57</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="17">
         <v>58</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>0.96666666666666667</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="17">
         <v>59</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>0.98333333333333328</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="17">
         <v>60</v>
       </c>
@@ -2134,24 +2134,24 @@
   </sheetPr>
   <dimension ref="A1:L110"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.7109375" style="6" customWidth="1"/>
-    <col min="2" max="4" width="7.5703125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.7109375" style="6" customWidth="1"/>
-    <col min="6" max="8" width="7.5703125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="41.7109375" style="6" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="6"/>
-    <col min="12" max="12" width="39.42578125" style="6" customWidth="1"/>
-    <col min="13" max="16384" width="8.85546875" style="6"/>
+    <col min="1" max="1" width="41.6640625" style="6" customWidth="1"/>
+    <col min="2" max="4" width="7.5546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.6640625" style="6" customWidth="1"/>
+    <col min="6" max="8" width="7.5546875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="41.6640625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="7.5546875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="6"/>
+    <col min="12" max="12" width="39.44140625" style="6" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>242</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>261</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="L5" s="17"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>101</v>
       </c>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="L6" s="17"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -2363,7 +2363,7 @@
       </c>
       <c r="L7" s="17"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -2395,7 +2395,7 @@
       </c>
       <c r="L8" s="17"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>78</v>
       </c>
@@ -2427,7 +2427,7 @@
       </c>
       <c r="L9" s="17"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -2459,7 +2459,7 @@
       </c>
       <c r="L10" s="17"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -2491,7 +2491,7 @@
       </c>
       <c r="L11" s="17"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>102</v>
       </c>
@@ -2523,7 +2523,7 @@
       </c>
       <c r="L12" s="17"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2555,7 +2555,7 @@
       </c>
       <c r="L13" s="17"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -2587,7 +2587,7 @@
       </c>
       <c r="L14" s="17"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -2619,7 +2619,7 @@
       </c>
       <c r="L15" s="17"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="L16" s="17"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2683,7 +2683,7 @@
       </c>
       <c r="L17" s="17"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -2715,7 +2715,7 @@
       </c>
       <c r="L18" s="17"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -2747,7 +2747,7 @@
       </c>
       <c r="L19" s="17"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -2779,7 +2779,7 @@
       </c>
       <c r="L20" s="17"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="L21" s="17"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -2843,7 +2843,7 @@
       </c>
       <c r="L22" s="17"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -2875,7 +2875,7 @@
       </c>
       <c r="L23" s="17"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -2907,7 +2907,7 @@
       </c>
       <c r="L24" s="17"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -2939,7 +2939,7 @@
       </c>
       <c r="L25" s="17"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -2971,7 +2971,7 @@
       </c>
       <c r="L26" s="17"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -3003,7 +3003,7 @@
       </c>
       <c r="L27" s="17"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
         <v>279</v>
       </c>
@@ -3035,7 +3035,7 @@
       </c>
       <c r="L28" s="17"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
         <v>1</v>
       </c>
@@ -3067,7 +3067,7 @@
       </c>
       <c r="L29" s="17"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
         <v>181</v>
       </c>
@@ -3099,7 +3099,7 @@
       </c>
       <c r="L30" s="17"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
         <v>238</v>
       </c>
@@ -3131,7 +3131,7 @@
       </c>
       <c r="L31" s="17"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
         <v>241</v>
       </c>
@@ -3163,7 +3163,7 @@
       </c>
       <c r="L32" s="17"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
         <v>265</v>
       </c>
@@ -3195,7 +3195,7 @@
       </c>
       <c r="L33" s="17"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
         <v>257</v>
       </c>
@@ -3227,7 +3227,7 @@
       </c>
       <c r="L34" s="17"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="17" t="s">
         <v>262</v>
       </c>
@@ -3259,7 +3259,7 @@
       </c>
       <c r="L35" s="17"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="17" t="s">
         <v>267</v>
       </c>
@@ -3291,7 +3291,7 @@
       </c>
       <c r="L36" s="17"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="17" t="s">
         <v>240</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>1.3494212962962956E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>277</v>
       </c>
@@ -3348,7 +3348,7 @@
       <c r="I38" s="17"/>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B39" s="19"/>
       <c r="C39" s="20"/>
       <c r="D39" s="9"/>
@@ -3356,7 +3356,7 @@
       <c r="G39" s="20"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B40" s="19"/>
       <c r="C40" s="20"/>
       <c r="D40" s="9"/>
@@ -3366,7 +3366,7 @@
       <c r="I40" s="17"/>
       <c r="J40" s="5"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B41" s="19"/>
       <c r="C41" s="20"/>
       <c r="D41" s="9"/>
@@ -3376,7 +3376,7 @@
       <c r="I41" s="17"/>
       <c r="J41" s="5"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B42" s="19"/>
       <c r="C42" s="20"/>
       <c r="D42" s="9"/>
@@ -3384,7 +3384,7 @@
       <c r="G42" s="20"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B43" s="19"/>
       <c r="C43" s="20"/>
       <c r="D43" s="9"/>
@@ -3392,7 +3392,7 @@
       <c r="G43" s="20"/>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B44" s="19"/>
       <c r="C44" s="20"/>
       <c r="D44" s="9"/>
@@ -3400,7 +3400,7 @@
       <c r="G44" s="20"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B45" s="19"/>
       <c r="C45" s="20"/>
       <c r="D45" s="9"/>
@@ -3408,7 +3408,7 @@
       <c r="G45" s="20"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B46" s="19"/>
       <c r="C46" s="20"/>
       <c r="D46" s="9"/>
@@ -3416,7 +3416,7 @@
       <c r="G46" s="20"/>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B47" s="19"/>
       <c r="C47" s="20"/>
       <c r="D47" s="9"/>
@@ -3424,7 +3424,7 @@
       <c r="G47" s="20"/>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B48" s="19"/>
       <c r="C48" s="20"/>
       <c r="D48" s="9"/>
@@ -3432,7 +3432,7 @@
       <c r="G48" s="20"/>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" s="19"/>
       <c r="C49" s="20"/>
       <c r="D49" s="9"/>
@@ -3440,7 +3440,7 @@
       <c r="G49" s="20"/>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="19"/>
       <c r="C50" s="20"/>
       <c r="D50" s="9"/>
@@ -3448,7 +3448,7 @@
       <c r="G50" s="20"/>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="19"/>
       <c r="C51" s="20"/>
       <c r="D51" s="9"/>
@@ -3456,7 +3456,7 @@
       <c r="G51" s="20"/>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="19"/>
       <c r="C52" s="20"/>
       <c r="D52" s="9"/>
@@ -3464,7 +3464,7 @@
       <c r="G52" s="20"/>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="19"/>
       <c r="C53" s="20"/>
       <c r="D53" s="9"/>
@@ -3472,7 +3472,7 @@
       <c r="G53" s="20"/>
       <c r="H53" s="1"/>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="19"/>
       <c r="C54" s="20"/>
       <c r="D54" s="9"/>
@@ -3480,7 +3480,7 @@
       <c r="G54" s="20"/>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B55" s="19"/>
       <c r="C55" s="20"/>
       <c r="D55" s="9"/>
@@ -3488,7 +3488,7 @@
       <c r="G55" s="20"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="19"/>
       <c r="C56" s="20"/>
       <c r="D56" s="9"/>
@@ -3496,7 +3496,7 @@
       <c r="G56" s="20"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="19"/>
       <c r="C57" s="20"/>
       <c r="D57" s="9"/>
@@ -3504,7 +3504,7 @@
       <c r="G57" s="20"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" s="19"/>
       <c r="C58" s="20"/>
       <c r="D58" s="9"/>
@@ -3512,7 +3512,7 @@
       <c r="G58" s="20"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" s="19"/>
       <c r="C59" s="20"/>
       <c r="D59" s="9"/>
@@ -3520,7 +3520,7 @@
       <c r="G59" s="20"/>
       <c r="H59" s="1"/>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B60" s="19"/>
       <c r="C60" s="20"/>
       <c r="D60" s="9"/>
@@ -3528,7 +3528,7 @@
       <c r="G60" s="20"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B61" s="19"/>
       <c r="C61" s="20"/>
       <c r="D61" s="9"/>
@@ -3536,7 +3536,7 @@
       <c r="G61" s="20"/>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B62" s="19"/>
       <c r="C62" s="20"/>
       <c r="D62" s="9"/>
@@ -3544,7 +3544,7 @@
       <c r="G62" s="20"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B63" s="19"/>
       <c r="C63" s="20"/>
       <c r="D63" s="9"/>
@@ -3552,7 +3552,7 @@
       <c r="G63" s="20"/>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B64" s="19"/>
       <c r="C64" s="20"/>
       <c r="D64" s="9"/>
@@ -3560,7 +3560,7 @@
       <c r="G64" s="20"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B65" s="19"/>
       <c r="C65" s="20"/>
       <c r="D65" s="9"/>
@@ -3568,185 +3568,185 @@
       <c r="G65" s="20"/>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
     </row>
@@ -3771,21 +3771,21 @@
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.7109375" style="6" customWidth="1"/>
-    <col min="2" max="4" width="7.5703125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.7109375" style="6" customWidth="1"/>
-    <col min="6" max="7" width="7.5703125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" style="6" customWidth="1"/>
-    <col min="9" max="9" width="41.7109375" style="6" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="6"/>
-    <col min="12" max="12" width="75.5703125" style="6" customWidth="1"/>
-    <col min="13" max="16384" width="8.85546875" style="6"/>
+    <col min="1" max="1" width="41.6640625" style="6" customWidth="1"/>
+    <col min="2" max="4" width="7.5546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.6640625" style="6" customWidth="1"/>
+    <col min="6" max="7" width="7.5546875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="41.6640625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="7.5546875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="6"/>
+    <col min="12" max="12" width="75.5546875" style="6" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>242</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>261</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>18</v>
       </c>
@@ -3899,7 +3899,7 @@
         <v>1.1296296296296271E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>5</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>1.118055555555551E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>101</v>
       </c>
@@ -3961,7 +3961,7 @@
         <v>1.1967592592592585E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>24</v>
       </c>
@@ -3992,7 +3992,7 @@
         <v>1.1574074074074047E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>0</v>
       </c>
@@ -4023,7 +4023,7 @@
         <v>1.2083333333333304E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>7</v>
       </c>
@@ -4054,7 +4054,7 @@
         <v>1.2395833333333313E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>102</v>
       </c>
@@ -4085,7 +4085,7 @@
         <v>1.2743055555555554E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>79</v>
       </c>
@@ -4116,7 +4116,7 @@
         <v>1.2847222222222253E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>78</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>1.3703703703703664E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>15</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>1.3402777777777762E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>17</v>
       </c>
@@ -4209,7 +4209,7 @@
         <v>1.398148148148144E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
         <v>12</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>1.3194444444444408E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>8</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>1.4074074074074076E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
         <v>103</v>
       </c>
@@ -4302,7 +4302,7 @@
         <v>1.3888888888888892E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
         <v>2</v>
       </c>
@@ -4333,7 +4333,7 @@
         <v>1.4282407407407386E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
         <v>20</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>1.4629629629629628E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
         <v>19</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>1.4143518518518541E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
         <v>104</v>
       </c>
@@ -4426,7 +4426,7 @@
         <v>1.3877314814814785E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
         <v>21</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>1.5798611111111091E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
         <v>22</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>1.6331018518518561E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
         <v>6</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>1.5914351851851766E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
         <v>10</v>
       </c>
@@ -4550,7 +4550,7 @@
         <v>1.7071759259259254E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
         <v>16</v>
       </c>
@@ -4581,7 +4581,7 @@
         <v>1.7337962962962923E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="17" t="s">
         <v>181</v>
       </c>
@@ -4612,7 +4612,7 @@
         <v>1.8182870370370315E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
         <v>1</v>
       </c>
@@ -4643,7 +4643,7 @@
         <v>1.9224537037036997E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
         <v>11</v>
       </c>
@@ -4674,7 +4674,7 @@
         <v>1.9641203703703704E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
         <v>9</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>1.9166666666666637E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
         <v>279</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>2.0011574074074072E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
         <v>25</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>2.1215277777777725E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
         <v>265</v>
       </c>
@@ -4797,7 +4797,7 @@
         <v>2.1307870370370317E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
         <v>241</v>
       </c>
@@ -4828,7 +4828,7 @@
         <v>2.1851851851851806E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="17" t="s">
         <v>257</v>
       </c>
@@ -4859,7 +4859,7 @@
         <v>2.2777777777777813E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="17" t="s">
         <v>262</v>
       </c>
@@ -4890,7 +4890,7 @@
         <v>6.3055555555555608E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>277</v>
       </c>
@@ -4916,7 +4916,7 @@
       <c r="I37" s="17"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B38" s="19"/>
       <c r="C38" s="20"/>
       <c r="D38" s="5"/>
@@ -4925,7 +4925,7 @@
       <c r="H38" s="1"/>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B39" s="19"/>
       <c r="C39" s="20"/>
       <c r="D39" s="5"/>
@@ -4934,7 +4934,7 @@
       <c r="H39" s="1"/>
       <c r="J39" s="5"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B40" s="19"/>
       <c r="C40" s="20"/>
       <c r="D40" s="5"/>
@@ -4943,7 +4943,7 @@
       <c r="H40" s="1"/>
       <c r="J40" s="5"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B41" s="19"/>
       <c r="C41" s="20"/>
       <c r="D41" s="5"/>
@@ -4952,7 +4952,7 @@
       <c r="H41" s="1"/>
       <c r="J41" s="5"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B42" s="19"/>
       <c r="C42" s="20"/>
       <c r="D42" s="5"/>
@@ -4961,7 +4961,7 @@
       <c r="H42" s="1"/>
       <c r="J42" s="5"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B43" s="19"/>
       <c r="C43" s="20"/>
       <c r="D43" s="5"/>
@@ -4970,7 +4970,7 @@
       <c r="H43" s="1"/>
       <c r="J43" s="5"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B44" s="19"/>
       <c r="C44" s="20"/>
       <c r="D44" s="5"/>
@@ -4979,7 +4979,7 @@
       <c r="H44" s="1"/>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B45" s="19"/>
       <c r="C45" s="20"/>
       <c r="D45" s="5"/>
@@ -4988,7 +4988,7 @@
       <c r="H45" s="1"/>
       <c r="J45" s="5"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B46" s="19"/>
       <c r="C46" s="20"/>
       <c r="D46" s="5"/>
@@ -4997,7 +4997,7 @@
       <c r="H46" s="1"/>
       <c r="J46" s="5"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B47" s="19"/>
       <c r="C47" s="20"/>
       <c r="D47" s="5"/>
@@ -5006,7 +5006,7 @@
       <c r="H47" s="1"/>
       <c r="J47" s="5"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B48" s="19"/>
       <c r="C48" s="20"/>
       <c r="D48" s="5"/>
@@ -5015,7 +5015,7 @@
       <c r="H48" s="1"/>
       <c r="J48" s="5"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B49" s="19"/>
       <c r="C49" s="20"/>
       <c r="D49" s="5"/>
@@ -5024,7 +5024,7 @@
       <c r="H49" s="1"/>
       <c r="J49" s="5"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B50" s="19"/>
       <c r="C50" s="20"/>
       <c r="D50" s="5"/>
@@ -5033,7 +5033,7 @@
       <c r="H50" s="1"/>
       <c r="J50" s="5"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B51" s="19"/>
       <c r="C51" s="20"/>
       <c r="D51" s="5"/>
@@ -5042,7 +5042,7 @@
       <c r="H51" s="1"/>
       <c r="J51" s="5"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B52" s="19"/>
       <c r="C52" s="20"/>
       <c r="D52" s="5"/>
@@ -5051,7 +5051,7 @@
       <c r="H52" s="1"/>
       <c r="J52" s="5"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B53" s="19"/>
       <c r="C53" s="20"/>
       <c r="D53" s="5"/>
@@ -5060,7 +5060,7 @@
       <c r="H53" s="1"/>
       <c r="J53" s="5"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B54" s="19"/>
       <c r="C54" s="20"/>
       <c r="D54" s="5"/>
@@ -5069,7 +5069,7 @@
       <c r="H54" s="1"/>
       <c r="J54" s="5"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B55" s="19"/>
       <c r="C55" s="20"/>
       <c r="D55" s="5"/>
@@ -5078,7 +5078,7 @@
       <c r="H55" s="1"/>
       <c r="J55" s="5"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B56" s="19"/>
       <c r="C56" s="20"/>
       <c r="D56" s="5"/>
@@ -5087,7 +5087,7 @@
       <c r="H56" s="1"/>
       <c r="J56" s="5"/>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B57" s="19"/>
       <c r="C57" s="20"/>
       <c r="D57" s="5"/>
@@ -5096,7 +5096,7 @@
       <c r="H57" s="1"/>
       <c r="J57" s="5"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B58" s="19"/>
       <c r="C58" s="20"/>
       <c r="D58" s="5"/>
@@ -5105,7 +5105,7 @@
       <c r="H58" s="1"/>
       <c r="J58" s="5"/>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B59" s="19"/>
       <c r="C59" s="20"/>
       <c r="D59" s="5"/>
@@ -5114,7 +5114,7 @@
       <c r="H59" s="1"/>
       <c r="J59" s="5"/>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B60" s="19"/>
       <c r="C60" s="20"/>
       <c r="D60" s="5"/>
@@ -5123,7 +5123,7 @@
       <c r="H60" s="1"/>
       <c r="J60" s="5"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B61" s="19"/>
       <c r="C61" s="20"/>
       <c r="D61" s="5"/>
@@ -5132,7 +5132,7 @@
       <c r="H61" s="1"/>
       <c r="J61" s="5"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B62" s="19"/>
       <c r="C62" s="20"/>
       <c r="D62" s="5"/>
@@ -5141,7 +5141,7 @@
       <c r="H62" s="1"/>
       <c r="J62" s="5"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B63" s="19"/>
       <c r="C63" s="20"/>
       <c r="D63" s="5"/>
@@ -5150,7 +5150,7 @@
       <c r="H63" s="1"/>
       <c r="J63" s="5"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B64" s="19"/>
       <c r="C64" s="20"/>
       <c r="D64" s="5"/>
@@ -5159,7 +5159,7 @@
       <c r="H64" s="1"/>
       <c r="J64" s="5"/>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B65" s="19"/>
       <c r="C65" s="20"/>
       <c r="D65" s="5"/>
@@ -5168,185 +5168,185 @@
       <c r="H65" s="1"/>
       <c r="J65" s="5"/>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
     </row>
@@ -5364,27 +5364,27 @@
   </sheetPr>
   <dimension ref="A1:P110"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.7109375" style="6" customWidth="1"/>
-    <col min="2" max="4" width="7.5703125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.7109375" style="6" customWidth="1"/>
-    <col min="6" max="8" width="7.5703125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="41.85546875" style="6" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" style="6" customWidth="1"/>
-    <col min="11" max="12" width="7.7109375" style="6" customWidth="1"/>
-    <col min="13" max="13" width="41.85546875" style="6" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" style="6" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" style="6"/>
-    <col min="16" max="16" width="38.85546875" style="6" customWidth="1"/>
-    <col min="17" max="16384" width="8.85546875" style="6"/>
+    <col min="1" max="1" width="41.6640625" style="6" customWidth="1"/>
+    <col min="2" max="4" width="7.5546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.6640625" style="6" customWidth="1"/>
+    <col min="6" max="8" width="7.5546875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="41.88671875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="7.5546875" style="6" customWidth="1"/>
+    <col min="11" max="12" width="7.6640625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="41.88671875" style="6" customWidth="1"/>
+    <col min="14" max="14" width="7.6640625" style="6" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" style="6"/>
+    <col min="16" max="16" width="38.88671875" style="6" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>242</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
@@ -5494,7 +5494,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>261</v>
       </c>
@@ -5535,11 +5535,11 @@
         <f t="shared" si="0"/>
         <v>2.0856481481481464E-4</v>
       </c>
-      <c r="P4" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P4" s="17" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
@@ -5584,7 +5584,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -5626,7 +5626,7 @@
         <v>2.6354166666666648E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -5668,7 +5668,7 @@
         <v>2.813657407407411E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>0</v>
       </c>
@@ -5710,7 +5710,7 @@
         <v>2.8437499999999926E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>102</v>
       </c>
@@ -5752,7 +5752,7 @@
         <v>2.9583333333333328E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>24</v>
       </c>
@@ -5794,7 +5794,7 @@
         <v>3.0231481481481515E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>17</v>
       </c>
@@ -5836,7 +5836,7 @@
         <v>3.0312499999999979E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>15</v>
       </c>
@@ -5878,7 +5878,7 @@
         <v>3.2893518518518493E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>21</v>
       </c>
@@ -5920,7 +5920,7 @@
         <v>3.311342592592591E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>7</v>
       </c>
@@ -5962,7 +5962,7 @@
         <v>3.3287037037037096E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>12</v>
       </c>
@@ -6004,7 +6004,7 @@
         <v>3.3472222222222302E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>8</v>
       </c>
@@ -6046,7 +6046,7 @@
         <v>3.3865740740740753E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>20</v>
       </c>
@@ -6088,7 +6088,7 @@
         <v>3.6481481481481456E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>19</v>
       </c>
@@ -6130,7 +6130,7 @@
         <v>3.7627314814814771E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>6</v>
       </c>
@@ -6172,7 +6172,7 @@
         <v>3.7951388888888887E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>16</v>
       </c>
@@ -6214,7 +6214,7 @@
         <v>4.0266203703703666E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>78</v>
       </c>
@@ -6256,7 +6256,7 @@
         <v>4.2407407407407389E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>2</v>
       </c>
@@ -6298,7 +6298,7 @@
         <v>4.3842592592592631E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>22</v>
       </c>
@@ -6340,7 +6340,7 @@
         <v>4.4976851851851905E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>1</v>
       </c>
@@ -6382,7 +6382,7 @@
         <v>4.5648148148148154E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>9</v>
       </c>
@@ -6424,7 +6424,7 @@
         <v>4.7858796296296299E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>10</v>
       </c>
@@ -6466,7 +6466,7 @@
         <v>5.2546296296296325E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>11</v>
       </c>
@@ -6508,7 +6508,7 @@
         <v>5.2627314814814854E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>279</v>
       </c>
@@ -6550,7 +6550,7 @@
         <v>5.3900462962962951E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
         <v>181</v>
       </c>
@@ -6591,7 +6591,7 @@
         <v>6.9224537037037019E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
         <v>265</v>
       </c>
@@ -6632,7 +6632,7 @@
         <v>1.0120370370370368E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
         <v>25</v>
       </c>
@@ -6673,7 +6673,7 @@
         <v>1.0137731481481488E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
         <v>257</v>
       </c>
@@ -6714,7 +6714,7 @@
         <v>1.1341435185185183E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
         <v>262</v>
       </c>
@@ -6755,7 +6755,7 @@
         <v>1.2182870370370366E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>268</v>
       </c>
@@ -6796,7 +6796,7 @@
         <v>1.3026620370370371E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="17" t="s">
         <v>240</v>
       </c>
@@ -6837,7 +6837,7 @@
         <v>2.9177083333333334E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>277</v>
       </c>
@@ -6872,7 +6872,7 @@
       </c>
       <c r="N36" s="5"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B37" s="20"/>
       <c r="C37" s="20"/>
       <c r="D37" s="5"/>
@@ -6883,7 +6883,7 @@
       <c r="K37" s="20"/>
       <c r="N37" s="5"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B38" s="20"/>
       <c r="C38" s="20"/>
       <c r="D38" s="5"/>
@@ -6893,7 +6893,7 @@
       <c r="K38" s="20"/>
       <c r="N38" s="5"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B39" s="20"/>
       <c r="C39" s="20"/>
       <c r="D39" s="5"/>
@@ -6903,7 +6903,7 @@
       <c r="K39" s="20"/>
       <c r="N39" s="5"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B40" s="20"/>
       <c r="C40" s="20"/>
       <c r="D40" s="5"/>
@@ -6913,7 +6913,7 @@
       <c r="K40" s="20"/>
       <c r="N40" s="5"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B41" s="20"/>
       <c r="C41" s="20"/>
       <c r="D41" s="5"/>
@@ -6923,7 +6923,7 @@
       <c r="K41" s="20"/>
       <c r="N41" s="5"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
       <c r="D42" s="5"/>
@@ -6933,7 +6933,7 @@
       <c r="K42" s="20"/>
       <c r="N42" s="5"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
       <c r="D43" s="5"/>
@@ -6943,7 +6943,7 @@
       <c r="K43" s="20"/>
       <c r="N43" s="5"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B44" s="20"/>
       <c r="C44" s="20"/>
       <c r="D44" s="5"/>
@@ -6953,7 +6953,7 @@
       <c r="K44" s="20"/>
       <c r="N44" s="5"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
       <c r="D45" s="5"/>
@@ -6963,7 +6963,7 @@
       <c r="K45" s="20"/>
       <c r="N45" s="5"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B46" s="20"/>
       <c r="C46" s="20"/>
       <c r="D46" s="5"/>
@@ -6973,7 +6973,7 @@
       <c r="K46" s="20"/>
       <c r="N46" s="5"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>
       <c r="D47" s="5"/>
@@ -6983,7 +6983,7 @@
       <c r="K47" s="20"/>
       <c r="N47" s="5"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B48" s="20"/>
       <c r="C48" s="20"/>
       <c r="D48" s="5"/>
@@ -6993,7 +6993,7 @@
       <c r="K48" s="20"/>
       <c r="N48" s="5"/>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="20"/>
       <c r="C49" s="20"/>
       <c r="D49" s="5"/>
@@ -7003,7 +7003,7 @@
       <c r="K49" s="20"/>
       <c r="N49" s="5"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="20"/>
       <c r="C50" s="20"/>
       <c r="D50" s="5"/>
@@ -7013,7 +7013,7 @@
       <c r="K50" s="20"/>
       <c r="N50" s="5"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
       <c r="D51" s="5"/>
@@ -7023,7 +7023,7 @@
       <c r="K51" s="20"/>
       <c r="N51" s="5"/>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="20"/>
       <c r="C52" s="20"/>
       <c r="D52" s="5"/>
@@ -7033,7 +7033,7 @@
       <c r="K52" s="20"/>
       <c r="N52" s="5"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="20"/>
       <c r="C53" s="20"/>
       <c r="D53" s="5"/>
@@ -7043,7 +7043,7 @@
       <c r="K53" s="20"/>
       <c r="N53" s="5"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="20"/>
       <c r="C54" s="20"/>
       <c r="D54" s="5"/>
@@ -7053,7 +7053,7 @@
       <c r="K54" s="20"/>
       <c r="N54" s="5"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="20"/>
       <c r="C55" s="20"/>
       <c r="D55" s="5"/>
@@ -7063,7 +7063,7 @@
       <c r="K55" s="20"/>
       <c r="N55" s="5"/>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="20"/>
       <c r="C56" s="20"/>
       <c r="D56" s="5"/>
@@ -7073,7 +7073,7 @@
       <c r="K56" s="20"/>
       <c r="N56" s="5"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="20"/>
       <c r="C57" s="20"/>
       <c r="D57" s="5"/>
@@ -7083,7 +7083,7 @@
       <c r="K57" s="20"/>
       <c r="N57" s="5"/>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="20"/>
       <c r="C58" s="20"/>
       <c r="D58" s="5"/>
@@ -7093,7 +7093,7 @@
       <c r="K58" s="20"/>
       <c r="N58" s="5"/>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="20"/>
       <c r="C59" s="20"/>
       <c r="D59" s="5"/>
@@ -7103,7 +7103,7 @@
       <c r="K59" s="20"/>
       <c r="N59" s="5"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="20"/>
       <c r="C60" s="20"/>
       <c r="D60" s="5"/>
@@ -7113,7 +7113,7 @@
       <c r="K60" s="20"/>
       <c r="N60" s="5"/>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="20"/>
       <c r="C61" s="20"/>
       <c r="D61" s="5"/>
@@ -7123,7 +7123,7 @@
       <c r="K61" s="20"/>
       <c r="N61" s="5"/>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="20"/>
       <c r="C62" s="20"/>
       <c r="D62" s="5"/>
@@ -7133,7 +7133,7 @@
       <c r="K62" s="20"/>
       <c r="N62" s="5"/>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="20"/>
       <c r="C63" s="20"/>
       <c r="D63" s="5"/>
@@ -7143,7 +7143,7 @@
       <c r="K63" s="20"/>
       <c r="N63" s="5"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="20"/>
       <c r="C64" s="20"/>
       <c r="D64" s="5"/>
@@ -7153,7 +7153,7 @@
       <c r="K64" s="20"/>
       <c r="N64" s="5"/>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="20"/>
       <c r="C65" s="20"/>
       <c r="D65" s="5"/>
@@ -7163,184 +7163,184 @@
       <c r="K65" s="20"/>
       <c r="N65" s="5"/>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
     </row>
@@ -7362,24 +7362,24 @@
   <dimension ref="A1:N110"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.7109375" style="6" customWidth="1"/>
-    <col min="2" max="4" width="7.5703125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.7109375" style="6" customWidth="1"/>
-    <col min="6" max="8" width="7.5703125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="41.7109375" style="6" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="6"/>
-    <col min="12" max="12" width="41.7109375" style="6" customWidth="1"/>
-    <col min="13" max="14" width="7.5703125" style="6" customWidth="1"/>
-    <col min="15" max="16384" width="8.85546875" style="6"/>
+    <col min="1" max="1" width="41.6640625" style="6" customWidth="1"/>
+    <col min="2" max="4" width="7.5546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.6640625" style="6" customWidth="1"/>
+    <col min="6" max="8" width="7.5546875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="41.6640625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="7.5546875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="6"/>
+    <col min="12" max="12" width="41.6640625" style="6" customWidth="1"/>
+    <col min="13" max="14" width="7.5546875" style="6" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>245</v>
       </c>
@@ -7395,7 +7395,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -7434,7 +7434,7 @@
         <v>2.7230324074074071E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>24</v>
       </c>
@@ -7475,7 +7475,7 @@
         <v>2.7450231481481479E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>261</v>
       </c>
@@ -7516,7 +7516,7 @@
         <v>2.7662037037037034E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>78</v>
       </c>
@@ -7557,7 +7557,7 @@
         <v>3.3368055555555551E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>0</v>
       </c>
@@ -7598,7 +7598,7 @@
         <v>3.752662037037037E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>17</v>
       </c>
@@ -7631,7 +7631,7 @@
       <c r="M7" s="20"/>
       <c r="N7" s="20"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>102</v>
       </c>
@@ -7667,7 +7667,7 @@
       <c r="M8" s="20"/>
       <c r="N8" s="20"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>12</v>
       </c>
@@ -7703,7 +7703,7 @@
       <c r="M9" s="20"/>
       <c r="N9" s="20"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>21</v>
       </c>
@@ -7739,7 +7739,7 @@
       <c r="M10" s="20"/>
       <c r="N10" s="20"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>179</v>
       </c>
@@ -7775,7 +7775,7 @@
       <c r="M11" s="20"/>
       <c r="N11" s="20"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>20</v>
       </c>
@@ -7808,7 +7808,7 @@
       <c r="M12" s="20"/>
       <c r="N12" s="20"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>7</v>
       </c>
@@ -7841,7 +7841,7 @@
       <c r="M13" s="20"/>
       <c r="N13" s="20"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>15</v>
       </c>
@@ -7874,7 +7874,7 @@
       <c r="M14" s="20"/>
       <c r="N14" s="20"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>19</v>
       </c>
@@ -7907,7 +7907,7 @@
       <c r="M15" s="20"/>
       <c r="N15" s="20"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>8</v>
       </c>
@@ -7940,7 +7940,7 @@
       <c r="M16" s="20"/>
       <c r="N16" s="20"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>18</v>
       </c>
@@ -7973,7 +7973,7 @@
       <c r="M17" s="20"/>
       <c r="N17" s="20"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>5</v>
       </c>
@@ -8006,7 +8006,7 @@
       <c r="M18" s="20"/>
       <c r="N18" s="20"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>6</v>
       </c>
@@ -8039,7 +8039,7 @@
       <c r="M19" s="20"/>
       <c r="N19" s="20"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>180</v>
       </c>
@@ -8072,7 +8072,7 @@
       <c r="M20" s="20"/>
       <c r="N20" s="20"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>10</v>
       </c>
@@ -8105,7 +8105,7 @@
       <c r="M21" s="20"/>
       <c r="N21" s="20"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>181</v>
       </c>
@@ -8138,7 +8138,7 @@
       <c r="M22" s="20"/>
       <c r="N22" s="20"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>16</v>
       </c>
@@ -8171,7 +8171,7 @@
       <c r="M23" s="20"/>
       <c r="N23" s="20"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>22</v>
       </c>
@@ -8204,7 +8204,7 @@
       <c r="M24" s="20"/>
       <c r="N24" s="20"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
         <v>182</v>
       </c>
@@ -8237,7 +8237,7 @@
       <c r="M25" s="20"/>
       <c r="N25" s="20"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
         <v>25</v>
       </c>
@@ -8270,7 +8270,7 @@
       <c r="M26" s="20"/>
       <c r="N26" s="20"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="17" t="s">
         <v>1</v>
       </c>
@@ -8303,7 +8303,7 @@
       <c r="M27" s="20"/>
       <c r="N27" s="20"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
         <v>279</v>
       </c>
@@ -8336,7 +8336,7 @@
       <c r="M28" s="20"/>
       <c r="N28" s="20"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
         <v>241</v>
       </c>
@@ -8369,7 +8369,7 @@
       <c r="M29" s="20"/>
       <c r="N29" s="20"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
         <v>257</v>
       </c>
@@ -8402,7 +8402,7 @@
       <c r="M30" s="20"/>
       <c r="N30" s="20"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
         <v>265</v>
       </c>
@@ -8435,7 +8435,7 @@
       <c r="M31" s="20"/>
       <c r="N31" s="20"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
         <v>9</v>
       </c>
@@ -8468,7 +8468,7 @@
       <c r="M32" s="20"/>
       <c r="N32" s="20"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
         <v>2</v>
       </c>
@@ -8496,7 +8496,7 @@
       <c r="M33" s="20"/>
       <c r="N33" s="20"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="17"/>
       <c r="B34" s="19"/>
       <c r="C34" s="20"/>
@@ -8510,7 +8510,7 @@
       <c r="M34" s="20"/>
       <c r="N34" s="20"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
       <c r="D35" s="5"/>
@@ -8521,7 +8521,7 @@
       <c r="M35" s="20"/>
       <c r="N35" s="20"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="17"/>
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
@@ -8534,7 +8534,7 @@
       <c r="M36" s="20"/>
       <c r="N36" s="20"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B37" s="19"/>
       <c r="C37" s="20"/>
       <c r="D37" s="5"/>
@@ -8546,7 +8546,7 @@
       <c r="M37" s="20"/>
       <c r="N37" s="20"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B38" s="19"/>
       <c r="C38" s="20"/>
       <c r="D38" s="5"/>
@@ -8557,7 +8557,7 @@
       <c r="M38" s="20"/>
       <c r="N38" s="20"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B39" s="19"/>
       <c r="C39" s="20"/>
       <c r="D39" s="5"/>
@@ -8568,7 +8568,7 @@
       <c r="M39" s="20"/>
       <c r="N39" s="20"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B40" s="19"/>
       <c r="C40" s="20"/>
       <c r="D40" s="5"/>
@@ -8579,7 +8579,7 @@
       <c r="M40" s="20"/>
       <c r="N40" s="20"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B41" s="19"/>
       <c r="C41" s="20"/>
       <c r="D41" s="5"/>
@@ -8590,7 +8590,7 @@
       <c r="M41" s="20"/>
       <c r="N41" s="20"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B42" s="19"/>
       <c r="C42" s="20"/>
       <c r="D42" s="5"/>
@@ -8601,7 +8601,7 @@
       <c r="M42" s="20"/>
       <c r="N42" s="20"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B43" s="19"/>
       <c r="C43" s="20"/>
       <c r="D43" s="5"/>
@@ -8612,7 +8612,7 @@
       <c r="M43" s="20"/>
       <c r="N43" s="20"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B44" s="19"/>
       <c r="C44" s="20"/>
       <c r="D44" s="5"/>
@@ -8623,7 +8623,7 @@
       <c r="M44" s="20"/>
       <c r="N44" s="20"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B45" s="19"/>
       <c r="C45" s="20"/>
       <c r="D45" s="5"/>
@@ -8634,7 +8634,7 @@
       <c r="M45" s="20"/>
       <c r="N45" s="20"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B46" s="19"/>
       <c r="C46" s="20"/>
       <c r="D46" s="5"/>
@@ -8645,7 +8645,7 @@
       <c r="M46" s="20"/>
       <c r="N46" s="20"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B47" s="19"/>
       <c r="C47" s="20"/>
       <c r="D47" s="5"/>
@@ -8656,7 +8656,7 @@
       <c r="M47" s="20"/>
       <c r="N47" s="20"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B48" s="19"/>
       <c r="C48" s="20"/>
       <c r="D48" s="5"/>
@@ -8667,7 +8667,7 @@
       <c r="M48" s="20"/>
       <c r="N48" s="20"/>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="19"/>
       <c r="C49" s="20"/>
       <c r="D49" s="5"/>
@@ -8678,7 +8678,7 @@
       <c r="M49" s="20"/>
       <c r="N49" s="20"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="19"/>
       <c r="C50" s="20"/>
       <c r="D50" s="5"/>
@@ -8689,7 +8689,7 @@
       <c r="M50" s="20"/>
       <c r="N50" s="20"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="19"/>
       <c r="C51" s="20"/>
       <c r="D51" s="5"/>
@@ -8700,7 +8700,7 @@
       <c r="M51" s="20"/>
       <c r="N51" s="20"/>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="19"/>
       <c r="C52" s="20"/>
       <c r="D52" s="5"/>
@@ -8711,7 +8711,7 @@
       <c r="M52" s="20"/>
       <c r="N52" s="20"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="19"/>
       <c r="C53" s="20"/>
       <c r="D53" s="5"/>
@@ -8722,7 +8722,7 @@
       <c r="M53" s="20"/>
       <c r="N53" s="20"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="19"/>
       <c r="C54" s="20"/>
       <c r="D54" s="5"/>
@@ -8733,7 +8733,7 @@
       <c r="M54" s="20"/>
       <c r="N54" s="20"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="19"/>
       <c r="C55" s="20"/>
       <c r="D55" s="5"/>
@@ -8744,7 +8744,7 @@
       <c r="M55" s="20"/>
       <c r="N55" s="20"/>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="19"/>
       <c r="C56" s="20"/>
       <c r="D56" s="5"/>
@@ -8755,7 +8755,7 @@
       <c r="M56" s="20"/>
       <c r="N56" s="20"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="19"/>
       <c r="C57" s="20"/>
       <c r="D57" s="5"/>
@@ -8766,7 +8766,7 @@
       <c r="M57" s="20"/>
       <c r="N57" s="20"/>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="19"/>
       <c r="C58" s="20"/>
       <c r="D58" s="5"/>
@@ -8777,7 +8777,7 @@
       <c r="M58" s="20"/>
       <c r="N58" s="20"/>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="19"/>
       <c r="C59" s="20"/>
       <c r="D59" s="5"/>
@@ -8788,7 +8788,7 @@
       <c r="M59" s="20"/>
       <c r="N59" s="20"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="19"/>
       <c r="C60" s="20"/>
       <c r="D60" s="5"/>
@@ -8799,7 +8799,7 @@
       <c r="M60" s="20"/>
       <c r="N60" s="20"/>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="19"/>
       <c r="C61" s="20"/>
       <c r="D61" s="5"/>
@@ -8810,7 +8810,7 @@
       <c r="M61" s="20"/>
       <c r="N61" s="20"/>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="19"/>
       <c r="C62" s="20"/>
       <c r="D62" s="5"/>
@@ -8821,7 +8821,7 @@
       <c r="M62" s="20"/>
       <c r="N62" s="20"/>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="19"/>
       <c r="C63" s="20"/>
       <c r="D63" s="5"/>
@@ -8832,7 +8832,7 @@
       <c r="M63" s="20"/>
       <c r="N63" s="20"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="19"/>
       <c r="C64" s="20"/>
       <c r="D64" s="5"/>
@@ -8843,7 +8843,7 @@
       <c r="M64" s="20"/>
       <c r="N64" s="20"/>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="19"/>
       <c r="C65" s="20"/>
       <c r="D65" s="5"/>
@@ -8854,185 +8854,185 @@
       <c r="M65" s="20"/>
       <c r="N65" s="20"/>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
     </row>
@@ -9057,15 +9057,15 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.7109375" style="6" customWidth="1"/>
-    <col min="2" max="4" width="7.5703125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="41.6640625" style="6" customWidth="1"/>
+    <col min="2" max="4" width="7.5546875" style="6" customWidth="1"/>
     <col min="5" max="5" width="26" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="6"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>243</v>
       </c>
@@ -9073,7 +9073,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -9088,7 +9088,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>261</v>
       </c>
@@ -9104,7 +9104,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>18</v>
       </c>
@@ -9120,7 +9120,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>5</v>
       </c>
@@ -9133,7 +9133,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>24</v>
       </c>
@@ -9146,7 +9146,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>17</v>
       </c>
@@ -9159,7 +9159,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>0</v>
       </c>
@@ -9172,7 +9172,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>7</v>
       </c>
@@ -9185,7 +9185,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>78</v>
       </c>
@@ -9198,7 +9198,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>102</v>
       </c>
@@ -9211,7 +9211,7 @@
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>21</v>
       </c>
@@ -9224,7 +9224,7 @@
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>12</v>
       </c>
@@ -9237,7 +9237,7 @@
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>20</v>
       </c>
@@ -9250,7 +9250,7 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>15</v>
       </c>
@@ -9263,7 +9263,7 @@
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>2</v>
       </c>
@@ -9276,7 +9276,7 @@
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>8</v>
       </c>
@@ -9289,7 +9289,7 @@
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>79</v>
       </c>
@@ -9302,7 +9302,7 @@
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>22</v>
       </c>
@@ -9315,7 +9315,7 @@
       </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>6</v>
       </c>
@@ -9328,7 +9328,7 @@
       </c>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>25</v>
       </c>
@@ -9341,7 +9341,7 @@
       </c>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
         <v>16</v>
       </c>
@@ -9354,7 +9354,7 @@
       </c>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
         <v>10</v>
       </c>
@@ -9367,7 +9367,7 @@
       </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
         <v>181</v>
       </c>
@@ -9380,7 +9380,7 @@
       </c>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="17" t="s">
         <v>19</v>
       </c>
@@ -9393,7 +9393,7 @@
       </c>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
         <v>11</v>
       </c>
@@ -9406,7 +9406,7 @@
       </c>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="17" t="s">
         <v>279</v>
       </c>
@@ -9419,7 +9419,7 @@
       </c>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
         <v>1</v>
       </c>
@@ -9432,7 +9432,7 @@
       </c>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
         <v>9</v>
       </c>
@@ -9445,7 +9445,7 @@
       </c>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
         <v>257</v>
       </c>
@@ -9458,7 +9458,7 @@
       </c>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
         <v>265</v>
       </c>
@@ -9471,7 +9471,7 @@
       </c>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
         <v>262</v>
       </c>
@@ -9484,7 +9484,7 @@
       </c>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>268</v>
       </c>
@@ -9497,7 +9497,7 @@
       </c>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>277</v>
       </c>
@@ -9510,165 +9510,165 @@
       </c>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
       <c r="B35" s="20"/>
       <c r="C35" s="20"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
       <c r="B36" s="20"/>
       <c r="C36" s="20"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
       <c r="B37" s="20"/>
       <c r="C37" s="20"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B38" s="20"/>
       <c r="C38" s="20"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B39" s="20"/>
       <c r="C39" s="20"/>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B40" s="20"/>
       <c r="C40" s="20"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B41" s="20"/>
       <c r="C41" s="20"/>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B44" s="20"/>
       <c r="C44" s="20"/>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B46" s="20"/>
       <c r="C46" s="20"/>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B48" s="20"/>
       <c r="C48" s="20"/>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B49" s="20"/>
       <c r="C49" s="20"/>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B50" s="20"/>
       <c r="C50" s="20"/>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B52" s="20"/>
       <c r="C52" s="20"/>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B53" s="20"/>
       <c r="C53" s="20"/>
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B54" s="20"/>
       <c r="C54" s="20"/>
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B55" s="20"/>
       <c r="C55" s="20"/>
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B56" s="20"/>
       <c r="C56" s="20"/>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B57" s="20"/>
       <c r="C57" s="20"/>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B58" s="20"/>
       <c r="C58" s="20"/>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B59" s="20"/>
       <c r="C59" s="20"/>
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B60" s="20"/>
       <c r="C60" s="20"/>
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B61" s="20"/>
       <c r="C61" s="20"/>
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B62" s="20"/>
       <c r="C62" s="20"/>
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B63" s="20"/>
       <c r="C63" s="20"/>
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B64" s="20"/>
       <c r="C64" s="20"/>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B65" s="20"/>
       <c r="C65" s="20"/>
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
     </row>
@@ -9690,15 +9690,15 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.140625" style="6" customWidth="1"/>
-    <col min="2" max="4" width="7.5703125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="34.42578125" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="6"/>
+    <col min="1" max="1" width="42.109375" style="6" customWidth="1"/>
+    <col min="2" max="4" width="7.5546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="34.44140625" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>243</v>
       </c>
@@ -9706,7 +9706,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -9721,7 +9721,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>261</v>
       </c>
@@ -9737,7 +9737,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>24</v>
       </c>
@@ -9753,7 +9753,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>18</v>
       </c>
@@ -9769,7 +9769,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>0</v>
       </c>
@@ -9782,7 +9782,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>78</v>
       </c>
@@ -9795,7 +9795,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>5</v>
       </c>
@@ -9808,7 +9808,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>21</v>
       </c>
@@ -9821,7 +9821,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>7</v>
       </c>
@@ -9834,7 +9834,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>102</v>
       </c>
@@ -9847,7 +9847,7 @@
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>17</v>
       </c>
@@ -9860,7 +9860,7 @@
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>19</v>
       </c>
@@ -9873,7 +9873,7 @@
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>12</v>
       </c>
@@ -9886,7 +9886,7 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
         <v>2</v>
       </c>
@@ -9899,7 +9899,7 @@
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>22</v>
       </c>
@@ -9912,7 +9912,7 @@
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
         <v>16</v>
       </c>
@@ -9925,7 +9925,7 @@
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
         <v>159</v>
       </c>
@@ -9938,7 +9938,7 @@
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
         <v>20</v>
       </c>
@@ -9951,7 +9951,7 @@
       </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>279</v>
       </c>
@@ -9964,7 +9964,7 @@
       </c>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
         <v>9</v>
       </c>
@@ -9977,7 +9977,7 @@
       </c>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
         <v>15</v>
       </c>
@@ -9990,7 +9990,7 @@
       </c>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
         <v>11</v>
       </c>
@@ -10003,7 +10003,7 @@
       </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
         <v>265</v>
       </c>
@@ -10016,7 +10016,7 @@
       </c>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="17" t="s">
         <v>262</v>
       </c>
@@ -10029,7 +10029,7 @@
       </c>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
         <v>10</v>
       </c>
@@ -10042,7 +10042,7 @@
       </c>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>277</v>
       </c>
@@ -10055,207 +10055,207 @@
       </c>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="19"/>
       <c r="C28" s="20"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="19"/>
       <c r="C29" s="20"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="19"/>
       <c r="C30" s="20"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
       <c r="B31" s="19"/>
       <c r="C31" s="20"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="19"/>
       <c r="C32" s="20"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
       <c r="B34" s="20"/>
       <c r="C34" s="20"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
       <c r="B35" s="20"/>
       <c r="C35" s="20"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
       <c r="B36" s="20"/>
       <c r="C36" s="20"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
       <c r="B37" s="20"/>
       <c r="C37" s="20"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B38" s="20"/>
       <c r="C38" s="20"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B39" s="20"/>
       <c r="C39" s="20"/>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B40" s="20"/>
       <c r="C40" s="20"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B41" s="20"/>
       <c r="C41" s="20"/>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B44" s="20"/>
       <c r="C44" s="20"/>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B46" s="20"/>
       <c r="C46" s="20"/>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B48" s="20"/>
       <c r="C48" s="20"/>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B49" s="20"/>
       <c r="C49" s="20"/>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B50" s="20"/>
       <c r="C50" s="20"/>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B52" s="20"/>
       <c r="C52" s="20"/>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B53" s="20"/>
       <c r="C53" s="20"/>
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B54" s="20"/>
       <c r="C54" s="20"/>
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B55" s="20"/>
       <c r="C55" s="20"/>
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B56" s="20"/>
       <c r="C56" s="20"/>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B57" s="20"/>
       <c r="C57" s="20"/>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B58" s="20"/>
       <c r="C58" s="20"/>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B59" s="20"/>
       <c r="C59" s="20"/>
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B60" s="20"/>
       <c r="C60" s="20"/>
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B61" s="20"/>
       <c r="C61" s="20"/>
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B62" s="20"/>
       <c r="C62" s="20"/>
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B63" s="20"/>
       <c r="C63" s="20"/>
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B64" s="20"/>
       <c r="C64" s="20"/>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B65" s="20"/>
       <c r="C65" s="20"/>
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
     </row>
@@ -10273,21 +10273,21 @@
   </sheetPr>
   <dimension ref="A1:R81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="6" customWidth="1"/>
-    <col min="3" max="11" width="7.5703125" style="6" customWidth="1"/>
-    <col min="12" max="12" width="8.5703125" style="6" customWidth="1"/>
-    <col min="13" max="14" width="7.5703125" style="6" customWidth="1"/>
-    <col min="15" max="16384" width="8.85546875" style="6"/>
+    <col min="1" max="1" width="44.109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="6" customWidth="1"/>
+    <col min="3" max="11" width="7.5546875" style="6" customWidth="1"/>
+    <col min="12" max="12" width="8.5546875" style="6" customWidth="1"/>
+    <col min="13" max="14" width="7.5546875" style="6" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="11"/>
       <c r="B1" s="10" t="s">
         <v>256</v>
@@ -10330,7 +10330,7 @@
       <c r="P1" s="18"/>
       <c r="Q1" s="18"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>261</v>
       </c>
@@ -10387,7 +10387,7 @@
       <c r="P2" s="20"/>
       <c r="Q2" s="18"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>0</v>
       </c>
@@ -10444,7 +10444,7 @@
       <c r="P3" s="20"/>
       <c r="Q3" s="18"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>5</v>
       </c>
@@ -10501,7 +10501,7 @@
       <c r="P4" s="20"/>
       <c r="Q4" s="18"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
         <v>18</v>
       </c>
@@ -10558,7 +10558,7 @@
       <c r="P5" s="20"/>
       <c r="Q5" s="18"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>24</v>
       </c>
@@ -10615,7 +10615,7 @@
       <c r="P6" s="20"/>
       <c r="Q6" s="18"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>7</v>
       </c>
@@ -10672,7 +10672,7 @@
       <c r="P7" s="20"/>
       <c r="Q7" s="18"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
         <v>17</v>
       </c>
@@ -10729,7 +10729,7 @@
       <c r="P8" s="20"/>
       <c r="Q8" s="18"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
         <v>102</v>
       </c>
@@ -10786,7 +10786,7 @@
       <c r="P9" s="20"/>
       <c r="Q9" s="18"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
         <v>21</v>
       </c>
@@ -10843,7 +10843,7 @@
       <c r="P10" s="20"/>
       <c r="Q10" s="18"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>78</v>
       </c>
@@ -10900,7 +10900,7 @@
       <c r="P11" s="20"/>
       <c r="Q11" s="18"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
         <v>12</v>
       </c>
@@ -10957,7 +10957,7 @@
       <c r="P12" s="20"/>
       <c r="Q12" s="18"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
         <v>20</v>
       </c>
@@ -11014,7 +11014,7 @@
       <c r="P13" s="20"/>
       <c r="Q13" s="18"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>15</v>
       </c>
@@ -11071,7 +11071,7 @@
       <c r="P14" s="20"/>
       <c r="Q14" s="18"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
         <v>2</v>
       </c>
@@ -11128,7 +11128,7 @@
       <c r="P15" s="20"/>
       <c r="Q15" s="18"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
         <v>22</v>
       </c>
@@ -11185,7 +11185,7 @@
       <c r="P16" s="20"/>
       <c r="Q16" s="18"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>16</v>
       </c>
@@ -11242,7 +11242,7 @@
       <c r="P17" s="20"/>
       <c r="Q17" s="18"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
         <v>19</v>
       </c>
@@ -11299,7 +11299,7 @@
       <c r="P18" s="20"/>
       <c r="Q18" s="18"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
         <v>10</v>
       </c>
@@ -11355,7 +11355,7 @@
       <c r="O19" s="20"/>
       <c r="P19" s="18"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>279</v>
       </c>
@@ -11411,7 +11411,7 @@
       <c r="O20" s="20"/>
       <c r="P20" s="18"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
         <v>11</v>
       </c>
@@ -11467,7 +11467,7 @@
       <c r="O21" s="20"/>
       <c r="P21" s="18"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
         <v>9</v>
       </c>
@@ -11525,7 +11525,7 @@
       <c r="Q22" s="20"/>
       <c r="R22" s="18"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
         <v>265</v>
       </c>
@@ -11583,7 +11583,7 @@
       <c r="Q23" s="20"/>
       <c r="R23" s="18"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
         <v>262</v>
       </c>
@@ -11641,7 +11641,7 @@
       <c r="Q24" s="20"/>
       <c r="R24" s="18"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>277</v>
       </c>
@@ -11699,7 +11699,7 @@
       <c r="Q25" s="20"/>
       <c r="R25" s="18"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
@@ -11719,7 +11719,7 @@
       <c r="Q26" s="20"/>
       <c r="R26" s="18"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="17"/>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
@@ -11739,7 +11739,7 @@
       <c r="Q27" s="20"/>
       <c r="R27" s="18"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="17"/>
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>
@@ -11759,7 +11759,7 @@
       <c r="Q28" s="20"/>
       <c r="R28" s="18"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="17"/>
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>
@@ -11779,7 +11779,7 @@
       <c r="Q29" s="20"/>
       <c r="R29" s="18"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
@@ -11799,7 +11799,7 @@
       <c r="Q30" s="20"/>
       <c r="R30" s="18"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="17"/>
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
@@ -11819,7 +11819,7 @@
       <c r="Q31" s="20"/>
       <c r="R31" s="18"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="17"/>
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
@@ -11839,7 +11839,7 @@
       <c r="Q32" s="20"/>
       <c r="R32" s="18"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
@@ -11859,7 +11859,7 @@
       <c r="Q33" s="20"/>
       <c r="R33" s="18"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="17"/>
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
@@ -11879,7 +11879,7 @@
       <c r="Q34" s="20"/>
       <c r="R34" s="18"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="17"/>
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
@@ -11899,7 +11899,7 @@
       <c r="Q35" s="20"/>
       <c r="R35" s="18"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="17"/>
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
@@ -11919,7 +11919,7 @@
       <c r="Q36" s="20"/>
       <c r="R36" s="18"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="17"/>
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
@@ -11939,7 +11939,7 @@
       <c r="Q37" s="20"/>
       <c r="R37" s="18"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="17"/>
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
@@ -11959,7 +11959,7 @@
       <c r="Q38" s="20"/>
       <c r="R38" s="18"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="17"/>
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
@@ -11979,7 +11979,7 @@
       <c r="Q39" s="20"/>
       <c r="R39" s="18"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="17"/>
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
@@ -11999,7 +11999,7 @@
       <c r="Q40" s="20"/>
       <c r="R40" s="18"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="17"/>
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
@@ -12019,7 +12019,7 @@
       <c r="Q41" s="20"/>
       <c r="R41" s="18"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="17"/>
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
@@ -12039,7 +12039,7 @@
       <c r="Q42" s="20"/>
       <c r="R42" s="18"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
@@ -12059,7 +12059,7 @@
       <c r="Q43" s="20"/>
       <c r="R43" s="18"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44" s="20"/>
       <c r="C44" s="20"/>
@@ -12079,7 +12079,7 @@
       <c r="Q44" s="20"/>
       <c r="R44" s="18"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
@@ -12099,7 +12099,7 @@
       <c r="Q45" s="20"/>
       <c r="R45" s="18"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
       <c r="B46" s="20"/>
       <c r="C46" s="20"/>
@@ -12119,7 +12119,7 @@
       <c r="Q46" s="20"/>
       <c r="R46" s="18"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>
@@ -12139,7 +12139,7 @@
       <c r="Q47" s="20"/>
       <c r="R47" s="18"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
       <c r="B48" s="20"/>
       <c r="C48" s="20"/>
@@ -12159,7 +12159,7 @@
       <c r="Q48" s="20"/>
       <c r="R48" s="18"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
       <c r="B49" s="20"/>
       <c r="C49" s="20"/>
@@ -12179,7 +12179,7 @@
       <c r="Q49" s="20"/>
       <c r="R49" s="18"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" s="7"/>
       <c r="B50" s="20"/>
       <c r="C50" s="20"/>
@@ -12199,7 +12199,7 @@
       <c r="Q50" s="20"/>
       <c r="R50" s="18"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" s="7"/>
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
@@ -12219,7 +12219,7 @@
       <c r="Q51" s="20"/>
       <c r="R51" s="18"/>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
       <c r="B52" s="20"/>
       <c r="C52" s="20"/>
@@ -12239,7 +12239,7 @@
       <c r="Q52" s="20"/>
       <c r="R52" s="18"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B53" s="20"/>
       <c r="C53" s="20"/>
       <c r="D53" s="20"/>
@@ -12258,7 +12258,7 @@
       <c r="Q53" s="20"/>
       <c r="R53" s="18"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B54" s="20"/>
       <c r="C54" s="20"/>
       <c r="D54" s="20"/>
@@ -12277,7 +12277,7 @@
       <c r="Q54" s="20"/>
       <c r="R54" s="18"/>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B55" s="20"/>
       <c r="C55" s="20"/>
       <c r="D55" s="20"/>
@@ -12296,7 +12296,7 @@
       <c r="Q55" s="20"/>
       <c r="R55" s="18"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B56" s="20"/>
       <c r="C56" s="20"/>
       <c r="D56" s="20"/>
@@ -12315,7 +12315,7 @@
       <c r="Q56" s="20"/>
       <c r="R56" s="18"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B57" s="20"/>
       <c r="C57" s="20"/>
       <c r="D57" s="20"/>
@@ -12334,7 +12334,7 @@
       <c r="Q57" s="20"/>
       <c r="R57" s="18"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B58" s="20"/>
       <c r="C58" s="20"/>
       <c r="D58" s="20"/>
@@ -12353,7 +12353,7 @@
       <c r="Q58" s="20"/>
       <c r="R58" s="18"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B59" s="20"/>
       <c r="C59" s="20"/>
       <c r="D59" s="20"/>
@@ -12372,7 +12372,7 @@
       <c r="Q59" s="20"/>
       <c r="R59" s="18"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B60" s="20"/>
       <c r="C60" s="20"/>
       <c r="D60" s="20"/>
@@ -12391,7 +12391,7 @@
       <c r="Q60" s="20"/>
       <c r="R60" s="18"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B61" s="20"/>
       <c r="C61" s="20"/>
       <c r="D61" s="20"/>
@@ -12410,7 +12410,7 @@
       <c r="Q61" s="20"/>
       <c r="R61" s="18"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B62" s="20"/>
       <c r="C62" s="20"/>
       <c r="D62" s="20"/>
@@ -12429,7 +12429,7 @@
       <c r="Q62" s="20"/>
       <c r="R62" s="18"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B63" s="20"/>
       <c r="C63" s="20"/>
       <c r="D63" s="20"/>
@@ -12448,7 +12448,7 @@
       <c r="Q63" s="20"/>
       <c r="R63" s="18"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B64" s="20"/>
       <c r="C64" s="20"/>
       <c r="D64" s="20"/>
@@ -12467,7 +12467,7 @@
       <c r="Q64" s="20"/>
       <c r="R64" s="18"/>
     </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B65" s="20"/>
       <c r="C65" s="20"/>
       <c r="D65" s="20"/>
@@ -12486,7 +12486,7 @@
       <c r="Q65" s="20"/>
       <c r="R65" s="18"/>
     </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B66" s="20"/>
       <c r="C66" s="20"/>
       <c r="D66" s="20"/>
@@ -12500,7 +12500,7 @@
       <c r="L66" s="20"/>
       <c r="M66" s="20"/>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B67" s="20"/>
       <c r="C67" s="20"/>
       <c r="D67" s="20"/>
@@ -12514,7 +12514,7 @@
       <c r="L67" s="20"/>
       <c r="M67" s="20"/>
     </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B68" s="20"/>
       <c r="C68" s="20"/>
       <c r="D68" s="20"/>
@@ -12528,7 +12528,7 @@
       <c r="L68" s="20"/>
       <c r="M68" s="20"/>
     </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B69" s="20"/>
       <c r="C69" s="20"/>
       <c r="D69" s="20"/>
@@ -12542,7 +12542,7 @@
       <c r="L69" s="20"/>
       <c r="M69" s="20"/>
     </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B70" s="20"/>
       <c r="C70" s="20"/>
       <c r="D70" s="20"/>
@@ -12556,7 +12556,7 @@
       <c r="L70" s="20"/>
       <c r="M70" s="20"/>
     </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B71" s="20"/>
       <c r="C71" s="20"/>
       <c r="D71" s="20"/>
@@ -12570,7 +12570,7 @@
       <c r="L71" s="20"/>
       <c r="M71" s="20"/>
     </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B72" s="20"/>
       <c r="C72" s="20"/>
       <c r="D72" s="20"/>
@@ -12584,7 +12584,7 @@
       <c r="L72" s="20"/>
       <c r="M72" s="20"/>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B73" s="20"/>
       <c r="C73" s="20"/>
       <c r="D73" s="20"/>
@@ -12598,7 +12598,7 @@
       <c r="L73" s="20"/>
       <c r="M73" s="20"/>
     </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B74" s="20"/>
       <c r="C74" s="20"/>
       <c r="D74" s="20"/>
@@ -12612,7 +12612,7 @@
       <c r="L74" s="20"/>
       <c r="M74" s="20"/>
     </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B75" s="20"/>
       <c r="C75" s="20"/>
       <c r="D75" s="20"/>
@@ -12626,7 +12626,7 @@
       <c r="L75" s="20"/>
       <c r="M75" s="20"/>
     </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B76" s="20"/>
       <c r="C76" s="20"/>
       <c r="D76" s="20"/>
@@ -12640,7 +12640,7 @@
       <c r="L76" s="20"/>
       <c r="M76" s="20"/>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B77" s="20"/>
       <c r="C77" s="20"/>
       <c r="D77" s="20"/>
@@ -12654,7 +12654,7 @@
       <c r="L77" s="20"/>
       <c r="M77" s="20"/>
     </row>
-    <row r="78" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B78" s="20"/>
       <c r="C78" s="20"/>
       <c r="D78" s="20"/>
@@ -12668,7 +12668,7 @@
       <c r="L78" s="20"/>
       <c r="M78" s="20"/>
     </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B79" s="20"/>
       <c r="C79" s="20"/>
       <c r="D79" s="20"/>
@@ -12682,7 +12682,7 @@
       <c r="L79" s="20"/>
       <c r="M79" s="20"/>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B80" s="20"/>
       <c r="C80" s="20"/>
       <c r="D80" s="20"/>
@@ -12696,7 +12696,7 @@
       <c r="L80" s="20"/>
       <c r="M80" s="20"/>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
     </row>

--- a/Stats.xlsx
+++ b/Stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AL\Documents\2019 Mega Comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A45868-0B12-4CBF-9794-5E422123AF60}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E99D811-55B8-4A28-B11A-4A776E0C99FE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{E6171133-BC82-453F-AA1B-A983A9E75A15}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{E6171133-BC82-453F-AA1B-A983A9E75A15}"/>
   </bookViews>
   <sheets>
     <sheet name="FPS Timecode" sheetId="22" r:id="rId1"/>
@@ -883,7 +883,7 @@
     <t>dcsm i7-6700: Stock (4.2 GHz)</t>
   </si>
   <si>
-    <t>Carlos S. M.: i7-930 @ 4.32 GHz</t>
+    <t>Carlos S. M.: i7-930 @ 4.63 GHz</t>
   </si>
 </sst>
 </file>
@@ -2131,8 +2131,8 @@
   </sheetPr>
   <dimension ref="A1:N110"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L62"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2281,7 +2281,7 @@
         <v>54</v>
       </c>
       <c r="I4" s="18">
-        <f t="shared" ref="I4:I39" si="3">H4+$I$1</f>
+        <f t="shared" ref="I4:I38" si="3">H4+$I$1</f>
         <v>3.8862268518518521E-3</v>
       </c>
       <c r="J4" s="1"/>
@@ -4146,7 +4146,7 @@
   <dimension ref="A1:N110"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L62"/>
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5226,7 +5226,7 @@
         <v>1</v>
       </c>
       <c r="G28" s="18">
-        <f>H28-$H$2</f>
+        <f t="shared" ref="G28:G38" si="7">H28-$H$2</f>
         <v>9.606481481481445E-5</v>
       </c>
       <c r="H28" s="17" t="s">
@@ -5265,7 +5265,7 @@
         <v>265</v>
       </c>
       <c r="G29" s="18">
-        <f>H29-$H$2</f>
+        <f t="shared" si="7"/>
         <v>9.7800925925926093E-5</v>
       </c>
       <c r="H29" s="17">
@@ -5304,7 +5304,7 @@
         <v>279</v>
       </c>
       <c r="G30" s="18">
-        <f>H30-$H$2</f>
+        <f t="shared" si="7"/>
         <v>9.872685185185158E-5</v>
       </c>
       <c r="H30" s="17">
@@ -5343,7 +5343,7 @@
         <v>262</v>
       </c>
       <c r="G31" s="18">
-        <f>H31-$H$2</f>
+        <f t="shared" si="7"/>
         <v>1.0393518518518521E-4</v>
       </c>
       <c r="H31" s="17">
@@ -5381,7 +5381,7 @@
         <v>11</v>
       </c>
       <c r="G32" s="18">
-        <f>H32-$H$2</f>
+        <f t="shared" si="7"/>
         <v>1.0625000000000001E-4</v>
       </c>
       <c r="H32" s="17" t="s">
@@ -5393,11 +5393,11 @@
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="15" t="s">
-        <v>25</v>
+        <v>281</v>
       </c>
       <c r="L32" s="18">
-        <f>SUMIF($A$3:$A$65,K32,$B$3:$B$65)+SUMIF($F$3:$F$65,K32,$G$3:$G$65)</f>
-        <v>2.1215277777777725E-4</v>
+        <f t="shared" ref="L32:L37" si="8">SUMIF($A$3:$A$65,K32,$B$3:$B$65)+SUMIF($F$3:$F$65,K32,$G$3:$G$65)</f>
+        <v>2.0844907407407357E-4</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -5417,104 +5417,104 @@
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="15" t="s">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="G33" s="18">
-        <f>H33-$H$2</f>
-        <v>1.068287037037036E-4</v>
+        <f t="shared" si="7"/>
+        <v>1.0590277777777768E-4</v>
       </c>
       <c r="H33" s="17">
-        <v>3.1699074074074073E-3</v>
+        <v>3.1689814814814814E-3</v>
       </c>
       <c r="I33" s="18">
         <f t="shared" si="2"/>
-        <v>3.1797453703703701E-3</v>
+        <v>3.1788194444444442E-3</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="15" t="s">
-        <v>241</v>
+        <v>25</v>
       </c>
       <c r="L33" s="18">
-        <f>SUMIF($A$3:$A$65,K33,$B$3:$B$65)+SUMIF($F$3:$F$65,K33,$G$3:$G$65)</f>
-        <v>2.1307870370370317E-4</v>
+        <f t="shared" si="8"/>
+        <v>2.1215277777777725E-4</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="B34" s="17">
         <f t="shared" si="6"/>
-        <v>1.0624999999999957E-4</v>
+        <v>1.0254629629629589E-4</v>
       </c>
       <c r="C34" s="18">
-        <v>2.1718749999999998E-3</v>
+        <v>2.1681712962962961E-3</v>
       </c>
       <c r="D34" s="18">
         <f t="shared" si="0"/>
-        <v>2.1817129629629626E-3</v>
+        <v>2.1780092592592589E-3</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="15" t="s">
-        <v>9</v>
+        <v>241</v>
       </c>
       <c r="G34" s="18">
-        <f>H34-$H$2</f>
-        <v>1.0844907407407418E-4</v>
-      </c>
-      <c r="H34" s="17" t="s">
-        <v>158</v>
+        <f t="shared" si="7"/>
+        <v>1.068287037037036E-4</v>
+      </c>
+      <c r="H34" s="17">
+        <v>3.1699074074074073E-3</v>
       </c>
       <c r="I34" s="18">
-        <f t="shared" si="2"/>
-        <v>3.1813657407407407E-3</v>
+        <f t="shared" ref="I34:I38" si="9">H34+$I$1</f>
+        <v>3.1797453703703701E-3</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="15" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="L34" s="18">
-        <f>SUMIF($A$3:$A$65,K34,$B$3:$B$65)+SUMIF($F$3:$F$65,K34,$G$3:$G$65)</f>
-        <v>2.1851851851851806E-4</v>
+        <f t="shared" si="8"/>
+        <v>2.1307870370370317E-4</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
-        <v>281</v>
+        <v>241</v>
       </c>
       <c r="B35" s="17">
-        <f t="shared" si="6"/>
-        <v>1.1296296296296315E-4</v>
+        <f t="shared" ref="B35:B39" si="10">C35-$C$2</f>
+        <v>1.0624999999999957E-4</v>
       </c>
       <c r="C35" s="18">
-        <v>2.1785879629629633E-3</v>
+        <v>2.1718749999999998E-3</v>
       </c>
       <c r="D35" s="18">
-        <f t="shared" si="0"/>
-        <v>2.1884259259259261E-3</v>
+        <f t="shared" ref="D35:D39" si="11">C35+$D$1</f>
+        <v>2.1817129629629626E-3</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="15" t="s">
-        <v>281</v>
+        <v>9</v>
       </c>
       <c r="G35" s="18">
-        <f>H35-$H$2</f>
-        <v>1.1249999999999975E-4</v>
-      </c>
-      <c r="H35" s="18">
-        <v>3.1755787037037035E-3</v>
+        <f t="shared" si="7"/>
+        <v>1.0844907407407418E-4</v>
+      </c>
+      <c r="H35" s="17" t="s">
+        <v>158</v>
       </c>
       <c r="I35" s="18">
-        <f t="shared" si="2"/>
-        <v>3.1854166666666663E-3</v>
+        <f t="shared" si="9"/>
+        <v>3.1813657407407407E-3</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="15" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="L35" s="18">
-        <f>SUMIF($A$3:$A$65,K35,$B$3:$B$65)+SUMIF($F$3:$F$65,K35,$G$3:$G$65)</f>
-        <v>2.254629629629629E-4</v>
+        <f t="shared" si="8"/>
+        <v>2.1851851851851806E-4</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -5522,14 +5522,14 @@
         <v>257</v>
       </c>
       <c r="B36" s="17">
-        <f t="shared" ref="B36:B38" si="7">C36-$C$2</f>
+        <f t="shared" ref="B36:B38" si="12">C36-$C$2</f>
         <v>1.1319444444444441E-4</v>
       </c>
       <c r="C36" s="18">
         <v>2.1788194444444446E-3</v>
       </c>
       <c r="D36" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D36:D38" si="13">C36+$D$1</f>
         <v>2.1886574074074074E-3</v>
       </c>
       <c r="E36" s="1"/>
@@ -5537,14 +5537,14 @@
         <v>25</v>
       </c>
       <c r="G36" s="18">
-        <f t="shared" ref="G36:G38" si="8">H36-$H$2</f>
+        <f t="shared" si="7"/>
         <v>1.1435185185185159E-4</v>
       </c>
       <c r="H36" s="18">
         <v>3.1774305555555553E-3</v>
       </c>
       <c r="I36" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>3.1872685185185181E-3</v>
       </c>
       <c r="J36" s="1"/>
@@ -5552,7 +5552,7 @@
         <v>257</v>
       </c>
       <c r="L36" s="18">
-        <f>SUMIF($A$3:$A$65,K36,$B$3:$B$65)+SUMIF($F$3:$F$65,K36,$G$3:$G$65)</f>
+        <f t="shared" si="8"/>
         <v>2.2777777777777813E-4</v>
       </c>
     </row>
@@ -5561,14 +5561,14 @@
         <v>262</v>
       </c>
       <c r="B37" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.1458333333333286E-4</v>
       </c>
       <c r="C37" s="18">
         <v>2.180208333333333E-3</v>
       </c>
       <c r="D37" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>2.1900462962962958E-3</v>
       </c>
       <c r="E37" s="1"/>
@@ -5576,14 +5576,14 @@
         <v>257</v>
       </c>
       <c r="G37" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.1458333333333372E-4</v>
       </c>
       <c r="H37" s="18">
         <v>3.1776620370370374E-3</v>
       </c>
       <c r="I37" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>3.1875000000000002E-3</v>
       </c>
       <c r="J37" s="1"/>
@@ -5591,7 +5591,7 @@
         <v>277</v>
       </c>
       <c r="L37" s="18">
-        <f>SUMIF($A$3:$A$65,K37,$B$3:$B$65)+SUMIF($F$3:$F$65,K37,$G$3:$G$65)</f>
+        <f t="shared" si="8"/>
         <v>6.3055555555555608E-4</v>
       </c>
     </row>
@@ -5600,14 +5600,14 @@
         <v>277</v>
       </c>
       <c r="B38" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>3.2615740740740739E-4</v>
       </c>
       <c r="C38" s="18">
         <v>2.3917824074074076E-3</v>
       </c>
       <c r="D38" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>2.4016203703703704E-3</v>
       </c>
       <c r="E38" s="1"/>
@@ -5615,14 +5615,14 @@
         <v>277</v>
       </c>
       <c r="G38" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3.0439814814814869E-4</v>
       </c>
       <c r="H38" s="18">
         <v>3.3674768518518524E-3</v>
       </c>
       <c r="I38" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>3.3773148148148152E-3</v>
       </c>
       <c r="J38" s="1"/>
@@ -5632,11 +5632,11 @@
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B39" s="17"/>
       <c r="C39" s="18"/>
-      <c r="D39" s="5"/>
+      <c r="D39" s="18"/>
       <c r="E39" s="5"/>
       <c r="G39" s="18"/>
       <c r="H39" s="18"/>
-      <c r="I39" s="1"/>
+      <c r="I39" s="18"/>
       <c r="J39" s="1"/>
       <c r="L39" s="18"/>
     </row>
@@ -6124,7 +6124,7 @@
   <dimension ref="A1:S110"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7531,7 +7531,7 @@
         <v>25</v>
       </c>
       <c r="Q26" s="18">
-        <f t="shared" ref="Q26:Q33" si="8">SUMIF($A$3:$A$65,P26,$B$3:$B$65)+SUMIF($F$3:$F$65,P26,$G$3:$G$65)+SUMIF($K$3:$K$65,P26,$L$3:$L$65)</f>
+        <f t="shared" ref="Q26:Q30" si="8">SUMIF($A$3:$A$65,P26,$B$3:$B$65)+SUMIF($F$3:$F$65,P26,$G$3:$G$65)+SUMIF($K$3:$K$65,P26,$L$3:$L$65)</f>
         <v>5.2546296296296325E-4</v>
       </c>
     </row>
@@ -7663,7 +7663,7 @@
         <v>25</v>
       </c>
       <c r="G29" s="18">
-        <f t="shared" ref="G29:G34" si="9">H29-$H$2</f>
+        <f t="shared" ref="G29:G36" si="9">H29-$H$2</f>
         <v>1.0682870370370403E-4</v>
       </c>
       <c r="H29" s="18">
@@ -7701,7 +7701,7 @@
         <v>265</v>
       </c>
       <c r="B30" s="17">
-        <f t="shared" ref="B30:B34" si="10">C30-$C$2</f>
+        <f t="shared" ref="B30:B33" si="10">C30-$C$2</f>
         <v>8.3912037037037071E-5</v>
       </c>
       <c r="C30" s="18">
@@ -7746,7 +7746,7 @@
       </c>
       <c r="Q30" s="18">
         <f t="shared" si="8"/>
-        <v>8.4710648148148102E-4</v>
+        <v>7.6724537037037061E-4</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
@@ -7766,18 +7766,18 @@
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="15" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="G31" s="18">
         <f t="shared" si="9"/>
-        <v>1.2465277777777778E-4</v>
+        <v>1.1747685185185168E-4</v>
       </c>
       <c r="H31" s="18">
-        <v>2.6518518518518519E-3</v>
+        <v>2.6446759259259258E-3</v>
       </c>
       <c r="I31" s="18">
         <f t="shared" si="3"/>
-        <v>2.6524305555555554E-3</v>
+        <v>2.6452546296296293E-3</v>
       </c>
       <c r="J31" s="7"/>
       <c r="K31" s="15" t="s">
@@ -7785,20 +7785,20 @@
       </c>
       <c r="L31" s="18">
         <f t="shared" si="7"/>
-        <v>6.0706018518518531E-4</v>
+        <v>5.5613425925925969E-4</v>
       </c>
       <c r="M31" s="18">
-        <v>4.4563657407407408E-3</v>
+        <v>4.4054398148148152E-3</v>
       </c>
       <c r="N31" s="18">
         <f t="shared" si="5"/>
-        <v>4.4569444444444448E-3</v>
+        <v>4.4060185185185192E-3</v>
       </c>
       <c r="P31" s="15" t="s">
         <v>257</v>
       </c>
       <c r="Q31" s="18">
-        <f t="shared" ref="Q31:Q37" si="11">SUMIF($A$3:$A$65,P31,$B$3:$B$65)+SUMIF($F$3:$F$65,P31,$G$3:$G$65)+SUMIF($K$3:$K$65,P31,$L$3:$L$65)</f>
+        <f t="shared" ref="Q31:Q36" si="11">SUMIF($A$3:$A$65,P31,$B$3:$B$65)+SUMIF($F$3:$F$65,P31,$G$3:$G$65)+SUMIF($K$3:$K$65,P31,$L$3:$L$65)</f>
         <v>1.0120370370370368E-3</v>
       </c>
     </row>
@@ -7819,25 +7819,25 @@
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="15" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="G32" s="18">
-        <f t="shared" si="9"/>
-        <v>1.3333333333333296E-4</v>
+        <f t="shared" ref="G32:G37" si="12">H32-$H$2</f>
+        <v>1.2465277777777778E-4</v>
       </c>
       <c r="H32" s="18">
-        <v>2.660532407407407E-3</v>
+        <v>2.6518518518518519E-3</v>
       </c>
       <c r="I32" s="18">
-        <f t="shared" si="3"/>
-        <v>2.6611111111111106E-3</v>
+        <f t="shared" ref="I32:I37" si="13">H32+$I$1</f>
+        <v>2.6524305555555554E-3</v>
       </c>
       <c r="J32" s="7"/>
       <c r="K32" s="6" t="s">
         <v>268</v>
       </c>
       <c r="L32" s="18">
-        <f t="shared" ref="L32:L37" si="12">M32-$M$2</f>
+        <f t="shared" ref="L32:L37" si="14">M32-$M$2</f>
         <v>6.8657407407407382E-4</v>
       </c>
       <c r="M32" s="18">
@@ -7861,28 +7861,28 @@
       </c>
       <c r="B33" s="17">
         <f t="shared" si="10"/>
-        <v>1.0671296296296275E-4</v>
+        <v>9.3634259259259235E-5</v>
       </c>
       <c r="C33" s="18">
-        <v>1.6273148148148147E-3</v>
+        <v>1.6142361111111112E-3</v>
       </c>
       <c r="D33" s="18">
         <f t="shared" si="1"/>
-        <v>1.6278935185185185E-3</v>
+        <v>1.614814814814815E-3</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G33" s="18">
-        <f t="shared" ref="G33:G37" si="13">H33-$H$2</f>
+        <f t="shared" si="12"/>
         <v>1.3865740740740722E-4</v>
       </c>
       <c r="H33" s="18">
         <v>2.6658564814814813E-3</v>
       </c>
       <c r="I33" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>2.6664351851851849E-3</v>
       </c>
       <c r="J33" s="7"/>
@@ -7890,7 +7890,7 @@
         <v>240</v>
       </c>
       <c r="L33" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>7.2048611111111098E-4</v>
       </c>
       <c r="M33" s="18">
@@ -7913,7 +7913,7 @@
         <v>262</v>
       </c>
       <c r="B34" s="17">
-        <f t="shared" ref="B34:B37" si="14">C34-$C$2</f>
+        <f t="shared" ref="B34:B37" si="15">C34-$C$2</f>
         <v>1.1979166666666648E-4</v>
       </c>
       <c r="C34" s="18">
@@ -7928,14 +7928,14 @@
         <v>262</v>
       </c>
       <c r="G34" s="18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.5682870370370373E-4</v>
       </c>
       <c r="H34" s="18">
         <v>2.6840277777777778E-3</v>
       </c>
       <c r="I34" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>2.6846064814814814E-3</v>
       </c>
       <c r="J34" s="7"/>
@@ -7943,7 +7943,7 @@
         <v>257</v>
       </c>
       <c r="L34" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>7.95023148148148E-4</v>
       </c>
       <c r="M34" s="18">
@@ -7966,7 +7966,7 @@
         <v>268</v>
       </c>
       <c r="B35" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.4618055555555526E-4</v>
       </c>
       <c r="C35" s="18">
@@ -7981,14 +7981,14 @@
         <v>268</v>
       </c>
       <c r="G35" s="18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>2.8553240740740752E-4</v>
       </c>
       <c r="H35" s="18">
         <v>2.8127314814814816E-3</v>
       </c>
       <c r="I35" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>2.8133101851851852E-3</v>
       </c>
       <c r="J35" s="7"/>
@@ -7996,7 +7996,7 @@
         <v>265</v>
       </c>
       <c r="L35" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>8.1851851851851877E-4</v>
       </c>
       <c r="M35" s="18">
@@ -8019,7 +8019,7 @@
         <v>240</v>
       </c>
       <c r="B36" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.7604166666666662E-4</v>
       </c>
       <c r="C36" s="18">
@@ -8034,14 +8034,14 @@
         <v>240</v>
       </c>
       <c r="G36" s="18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>3.0613425925925947E-4</v>
       </c>
       <c r="H36" s="18">
         <v>2.8333333333333335E-3</v>
       </c>
       <c r="I36" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>2.8339120370370371E-3</v>
       </c>
       <c r="J36" s="7"/>
@@ -8049,7 +8049,7 @@
         <v>262</v>
       </c>
       <c r="L36" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>8.5752314814814806E-4</v>
       </c>
       <c r="M36" s="18">
@@ -8072,7 +8072,7 @@
         <v>277</v>
       </c>
       <c r="B37" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5.4398148148148123E-4</v>
       </c>
       <c r="C37" s="18">
@@ -8087,21 +8087,21 @@
         <v>277</v>
       </c>
       <c r="G37" s="18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>5.8761574074074055E-4</v>
       </c>
       <c r="H37" s="18">
         <v>3.1148148148148146E-3</v>
       </c>
       <c r="I37" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>3.1153935185185182E-3</v>
       </c>
       <c r="K37" s="6" t="s">
         <v>277</v>
       </c>
       <c r="L37" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.7861111111111116E-3</v>
       </c>
       <c r="M37" s="18">
@@ -10698,8 +10698,8 @@
   </sheetPr>
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10753,7 +10753,7 @@
         <v>80</v>
       </c>
       <c r="D3" s="18">
-        <f t="shared" ref="D3:D36" si="0">C3+$D$1</f>
+        <f t="shared" ref="D3:D37" si="0">C3+$D$1</f>
         <v>2.1993055555555555E-3</v>
       </c>
       <c r="E3" s="18"/>
@@ -11126,7 +11126,7 @@
         <v>19</v>
       </c>
       <c r="B25" s="17">
-        <f t="shared" ref="B25:B33" si="2">C25-$C$2</f>
+        <f t="shared" ref="B25:B30" si="2">C25-$C$2</f>
         <v>5.2650462962962915E-4</v>
       </c>
       <c r="C25" s="17">
@@ -11191,35 +11191,35 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="17">
+        <v>281</v>
+      </c>
+      <c r="B29" s="18">
         <f t="shared" si="2"/>
-        <v>6.6134259259259249E-4</v>
-      </c>
-      <c r="C29" s="17">
-        <v>2.5037037037037037E-3</v>
+        <v>6.159722222222224E-4</v>
+      </c>
+      <c r="C29" s="18">
+        <v>2.4583333333333336E-3</v>
       </c>
       <c r="D29" s="18">
         <f t="shared" si="0"/>
-        <v>2.5126157407407406E-3</v>
+        <v>2.4672453703703705E-3</v>
       </c>
       <c r="E29" s="18"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>281</v>
+        <v>9</v>
       </c>
       <c r="B30" s="17">
-        <f t="shared" si="2"/>
-        <v>6.7847222222222202E-4</v>
+        <f t="shared" ref="B30:B38" si="3">C30-$C$2</f>
+        <v>6.6134259259259249E-4</v>
       </c>
       <c r="C30" s="17">
-        <v>2.5208333333333333E-3</v>
+        <v>2.5037037037037037E-3</v>
       </c>
       <c r="D30" s="18">
-        <f t="shared" si="0"/>
-        <v>2.5297453703703701E-3</v>
+        <f t="shared" ref="D30:D38" si="4">C30+$D$1</f>
+        <v>2.5126157407407406E-3</v>
       </c>
       <c r="E30" s="18"/>
     </row>
@@ -11228,14 +11228,14 @@
         <v>257</v>
       </c>
       <c r="B31" s="17">
-        <f t="shared" ref="B31:B36" si="3">C31-$C$2</f>
+        <f t="shared" ref="B31:B36" si="5">C31-$C$2</f>
         <v>7.3842592592592558E-4</v>
       </c>
       <c r="C31" s="17">
         <v>2.5807870370370368E-3</v>
       </c>
       <c r="D31" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D31:D36" si="6">C31+$D$1</f>
         <v>2.5896990740740737E-3</v>
       </c>
       <c r="E31" s="18"/>
@@ -11245,14 +11245,14 @@
         <v>265</v>
       </c>
       <c r="B32" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7.5567129629629617E-4</v>
       </c>
       <c r="C32" s="18">
         <v>2.5980324074074074E-3</v>
       </c>
       <c r="D32" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2.6069444444444443E-3</v>
       </c>
       <c r="E32" s="18"/>
@@ -11262,14 +11262,14 @@
         <v>262</v>
       </c>
       <c r="B33" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8.8067129629629585E-4</v>
       </c>
       <c r="C33" s="18">
         <v>2.7230324074074071E-3</v>
       </c>
       <c r="D33" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2.731944444444444E-3</v>
       </c>
       <c r="E33" s="18"/>
@@ -11279,14 +11279,14 @@
         <v>268</v>
       </c>
       <c r="B34" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.2670138888888885E-3</v>
       </c>
       <c r="C34" s="18">
         <v>3.1093749999999997E-3</v>
       </c>
       <c r="D34" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>3.1182870370370366E-3</v>
       </c>
       <c r="E34" s="18"/>
@@ -11296,14 +11296,14 @@
         <v>277</v>
       </c>
       <c r="B35" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.0942129629629627E-3</v>
       </c>
       <c r="C35" s="18">
         <v>3.9365740740740741E-3</v>
       </c>
       <c r="D35" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>3.9454861111111114E-3</v>
       </c>
       <c r="E35" s="18"/>
@@ -11313,26 +11313,27 @@
         <v>240</v>
       </c>
       <c r="B36" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.2270833333333327E-3</v>
       </c>
       <c r="C36" s="18">
         <v>4.0694444444444441E-3</v>
       </c>
       <c r="D36" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>4.0783564814814814E-3</v>
       </c>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
+      <c r="A37" s="15"/>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
-      <c r="D37" s="1"/>
+      <c r="D37" s="18"/>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="15"/>
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
       <c r="D38" s="1"/>

--- a/Stats.xlsx
+++ b/Stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AL\Documents\2019 Mega Comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E99D811-55B8-4A28-B11A-4A776E0C99FE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CF0990-3994-4129-B175-063892032BF5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{E6171133-BC82-453F-AA1B-A983A9E75A15}"/>
+    <workbookView xWindow="-30210" yWindow="2625" windowWidth="28800" windowHeight="15330" activeTab="3" xr2:uid="{E6171133-BC82-453F-AA1B-A983A9E75A15}"/>
   </bookViews>
   <sheets>
     <sheet name="FPS Timecode" sheetId="22" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="250">
   <si>
     <t>Carlos S. M.: R5 3600 @ 4.2 GHz</t>
   </si>
@@ -124,18 +124,12 @@
     <t>3:10.82</t>
   </si>
   <si>
-    <t>3:11.07</t>
-  </si>
-  <si>
     <t>3:11.32</t>
   </si>
   <si>
     <t>3:11.37</t>
   </si>
   <si>
-    <t>3:11.47</t>
-  </si>
-  <si>
     <t>3:11.65</t>
   </si>
   <si>
@@ -172,18 +166,12 @@
     <t>3:13.70</t>
   </si>
   <si>
-    <t>3:13.82</t>
-  </si>
-  <si>
     <t>3:14.12</t>
   </si>
   <si>
     <t>3:14.27</t>
   </si>
   <si>
-    <t>3:14.28</t>
-  </si>
-  <si>
     <t>3:14.37</t>
   </si>
   <si>
@@ -199,21 +187,12 @@
     <t>5:22.42</t>
   </si>
   <si>
-    <t>5:34.32</t>
-  </si>
-  <si>
     <t>5:35.22</t>
   </si>
   <si>
     <t>5:35.33</t>
   </si>
   <si>
-    <t>5:36.40</t>
-  </si>
-  <si>
-    <t>5:36.70</t>
-  </si>
-  <si>
     <t>5:36.92</t>
   </si>
   <si>
@@ -229,9 +208,6 @@
     <t>5:38.88</t>
   </si>
   <si>
-    <t>5:39.08</t>
-  </si>
-  <si>
     <t>5:39.38</t>
   </si>
   <si>
@@ -250,9 +226,6 @@
     <t>5:40.53</t>
   </si>
   <si>
-    <t>5:40.77</t>
-  </si>
-  <si>
     <t>5:40.92</t>
   </si>
   <si>
@@ -265,9 +238,6 @@
     <t>5:41.77</t>
   </si>
   <si>
-    <t>5:42.98</t>
-  </si>
-  <si>
     <t>5:45.00</t>
   </si>
   <si>
@@ -379,12 +349,6 @@
     <t>3:03.23</t>
   </si>
   <si>
-    <t>3:03.25</t>
-  </si>
-  <si>
-    <t>3:03.30</t>
-  </si>
-  <si>
     <t>3:03.42</t>
   </si>
   <si>
@@ -412,21 +376,12 @@
     <t>3:04.27</t>
   </si>
   <si>
-    <t>3:04.28</t>
-  </si>
-  <si>
     <t>3:05.12</t>
   </si>
   <si>
     <t>3:05.20</t>
   </si>
   <si>
-    <t>3:05.27</t>
-  </si>
-  <si>
-    <t>3:05.67</t>
-  </si>
-  <si>
     <t>3:05.88</t>
   </si>
   <si>
@@ -484,9 +439,6 @@
     <t>4:31.23</t>
   </si>
   <si>
-    <t>4:31.30</t>
-  </si>
-  <si>
     <t>4:31.43</t>
   </si>
   <si>
@@ -496,9 +448,6 @@
     <t>4:31.53</t>
   </si>
   <si>
-    <t>4:31.60</t>
-  </si>
-  <si>
     <t>4:31.65</t>
   </si>
   <si>
@@ -610,51 +559,30 @@
     <t>3:08.80</t>
   </si>
   <si>
-    <t>3:09.00</t>
-  </si>
-  <si>
     <t>3:09.13</t>
   </si>
   <si>
     <t>3:09.20</t>
   </si>
   <si>
-    <t>3:09.27</t>
-  </si>
-  <si>
-    <t>3:09.33</t>
-  </si>
-  <si>
     <t>3:09.88</t>
   </si>
   <si>
     <t>3:10.10</t>
   </si>
   <si>
-    <t>3:10.25</t>
-  </si>
-  <si>
     <t>3:10.80</t>
   </si>
   <si>
     <t>3:10.90</t>
   </si>
   <si>
-    <t>3:11.77</t>
-  </si>
-  <si>
-    <t>3:12.00</t>
-  </si>
-  <si>
     <t>3:12.47</t>
   </si>
   <si>
     <t>3:12.67</t>
   </si>
   <si>
-    <t>3:13.07</t>
-  </si>
-  <si>
     <t>3:13.28</t>
   </si>
   <si>
@@ -664,9 +592,6 @@
     <t>3:13.33</t>
   </si>
   <si>
-    <t>3:35.60</t>
-  </si>
-  <si>
     <t>3:37.12</t>
   </si>
   <si>
@@ -679,18 +604,12 @@
     <t>3:48.68</t>
   </si>
   <si>
-    <t>3:48.80</t>
-  </si>
-  <si>
     <t>3:48.85</t>
   </si>
   <si>
     <t>3:49.05</t>
   </si>
   <si>
-    <t>3:49.15</t>
-  </si>
-  <si>
     <t>3:49.23</t>
   </si>
   <si>
@@ -700,9 +619,6 @@
     <t>3:49.55</t>
   </si>
   <si>
-    <t>3:49.65</t>
-  </si>
-  <si>
     <t>3:49.73</t>
   </si>
   <si>
@@ -730,22 +646,10 @@
     <t>3:50.90</t>
   </si>
   <si>
-    <t>3:51.05</t>
-  </si>
-  <si>
     <t>3:51.17</t>
   </si>
   <si>
-    <t>3:51.25</t>
-  </si>
-  <si>
     <t>3:51.27</t>
-  </si>
-  <si>
-    <t>3:51.52</t>
-  </si>
-  <si>
-    <t>3:51.53</t>
   </si>
   <si>
     <t>3:51.92</t>
@@ -2131,8 +2035,8 @@
   </sheetPr>
   <dimension ref="A1:N110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2150,7 +2054,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
@@ -2159,17 +2063,17 @@
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="21" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="I1" s="18">
         <v>6.3657407407407403E-6</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="L1" s="16"/>
       <c r="N1" s="9" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -2177,7 +2081,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>26</v>
@@ -2191,10 +2095,10 @@
         <v>23</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I2" s="18">
         <f>H2+$I$1</f>
@@ -2202,19 +2106,19 @@
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="15" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="L2" s="18">
-        <f t="shared" ref="L2:L37" si="0">SUMIF($A$3:$A$65,K2,$B$3:$B$65)+SUMIF($F$3:$F$65,K2,$G$3:$G$65)</f>
-        <v>2.0717592592592532E-4</v>
+        <f t="shared" ref="L2:L11" si="0">SUMIF($A$3:$A$65,K2,$B$3:$B$65)+SUMIF($F$3:$F$65,K2,$G$3:$G$65)</f>
+        <v>2.0729166666666639E-4</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="B3" s="17">
         <f>C3-$C$2</f>
@@ -2229,18 +2133,18 @@
       </c>
       <c r="E3" s="1"/>
       <c r="F3" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="G3" s="18">
         <f t="shared" ref="G3:G30" si="2">H3-$H$2</f>
-        <v>1.377314814814813E-4</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>53</v>
+        <v>1.3784722222222236E-4</v>
+      </c>
+      <c r="H3" s="17">
+        <v>3.8695601851851855E-3</v>
       </c>
       <c r="I3" s="18">
         <f>H3+$I$1</f>
-        <v>3.8758101851851853E-3</v>
+        <v>3.8759259259259263E-3</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="15" t="s">
@@ -2251,7 +2155,7 @@
         <v>2.2337962962962936E-4</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2260,14 +2164,14 @@
       </c>
       <c r="B4" s="17">
         <f>C4-$C$2</f>
-        <v>7.2337962962962417E-5</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>28</v>
+        <v>7.2106481481481154E-5</v>
+      </c>
+      <c r="C4" s="17">
+        <v>2.2112268518518518E-3</v>
       </c>
       <c r="D4" s="18">
         <f t="shared" si="1"/>
-        <v>2.2178240740740739E-3</v>
+        <v>2.2175925925925926E-3</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" t="s">
@@ -2278,7 +2182,7 @@
         <v>1.4814814814814812E-4</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I4" s="18">
         <f t="shared" ref="I4:I38" si="3">H4+$I$1</f>
@@ -2286,14 +2190,14 @@
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="15" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="L4" s="18">
         <f t="shared" si="0"/>
         <v>2.252314814814812E-4</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -2301,11 +2205,11 @@
         <v>5</v>
       </c>
       <c r="B5" s="17">
-        <f t="shared" ref="B5:B30" si="4">C5-$C$2</f>
+        <f t="shared" ref="B5:B38" si="4">C5-$C$2</f>
         <v>7.5231481481481243E-5</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="18">
         <f t="shared" si="1"/>
@@ -2313,14 +2217,14 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="15" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="G5" s="18">
         <f t="shared" si="2"/>
         <v>1.4942129629629637E-4</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I5" s="18">
         <f t="shared" si="3"/>
@@ -2332,20 +2236,20 @@
       </c>
       <c r="L5" s="18">
         <f t="shared" si="0"/>
-        <v>2.3414351851851764E-4</v>
+        <v>2.3368055555555512E-4</v>
       </c>
       <c r="N5" s="15"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B6" s="17">
         <f t="shared" si="4"/>
         <v>7.5810185185184835E-5</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="18">
         <f t="shared" si="1"/>
@@ -2357,14 +2261,14 @@
       </c>
       <c r="G6" s="18">
         <f t="shared" si="2"/>
-        <v>1.6180555555555523E-4</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>56</v>
+        <v>1.6157407407407396E-4</v>
+      </c>
+      <c r="H6" s="17">
+        <v>3.8932870370370371E-3</v>
       </c>
       <c r="I6" s="18">
         <f t="shared" si="3"/>
-        <v>3.8998842592592592E-3</v>
+        <v>3.8996527777777779E-3</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="15" t="s">
@@ -2372,7 +2276,7 @@
       </c>
       <c r="L6" s="18">
         <f t="shared" si="0"/>
-        <v>2.4479166666666616E-4</v>
+        <v>2.4490740740740636E-4</v>
       </c>
       <c r="N6" s="15"/>
     </row>
@@ -2382,14 +2286,14 @@
       </c>
       <c r="B7" s="17">
         <f t="shared" si="4"/>
-        <v>7.6967592592592452E-5</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>31</v>
+        <v>7.708333333333265E-5</v>
+      </c>
+      <c r="C7" s="17">
+        <v>2.2162037037037033E-3</v>
       </c>
       <c r="D7" s="18">
         <f t="shared" si="1"/>
-        <v>2.2224537037037039E-3</v>
+        <v>2.2225694444444441E-3</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" t="s">
@@ -2397,14 +2301,14 @@
       </c>
       <c r="G7" s="18">
         <f t="shared" si="2"/>
-        <v>1.6527777777777765E-4</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>57</v>
+        <v>1.6562499999999997E-4</v>
+      </c>
+      <c r="H7" s="17">
+        <v>3.8973379629629631E-3</v>
       </c>
       <c r="I7" s="18">
         <f t="shared" si="3"/>
-        <v>3.9033564814814816E-3</v>
+        <v>3.9037037037037039E-3</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="15" t="s">
@@ -2412,7 +2316,7 @@
       </c>
       <c r="L7" s="18">
         <f t="shared" si="0"/>
-        <v>2.4872685185185111E-4</v>
+        <v>2.4907407407407343E-4</v>
       </c>
       <c r="N7" s="15"/>
     </row>
@@ -2425,7 +2329,7 @@
         <v>7.905092592592599E-5</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D8" s="18">
         <f t="shared" si="1"/>
@@ -2440,7 +2344,7 @@
         <v>1.6782407407407371E-4</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="I8" s="18">
         <f t="shared" si="3"/>
@@ -2458,14 +2362,14 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B9" s="17">
         <f t="shared" si="4"/>
         <v>8.0555555555555502E-5</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D9" s="18">
         <f t="shared" si="1"/>
@@ -2480,7 +2384,7 @@
         <v>1.7025462962962914E-4</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="I9" s="18">
         <f t="shared" si="3"/>
@@ -2505,7 +2409,7 @@
         <v>8.1712962962962685E-5</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D10" s="18">
         <f t="shared" si="1"/>
@@ -2520,7 +2424,7 @@
         <v>1.7997685185185174E-4</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I10" s="18">
         <f t="shared" si="3"/>
@@ -2545,47 +2449,47 @@
         <v>8.3449074074073461E-5</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D11" s="18">
         <f t="shared" si="1"/>
         <v>2.2289351851851849E-3</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" t="s">
-        <v>17</v>
+      <c r="F11" s="15" t="s">
+        <v>3</v>
       </c>
       <c r="G11" s="18">
         <f t="shared" si="2"/>
-        <v>1.8645833333333318E-4</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>61</v>
+        <v>1.8009259259259237E-4</v>
+      </c>
+      <c r="H11" s="17">
+        <v>3.9118055555555555E-3</v>
       </c>
       <c r="I11" s="18">
         <f t="shared" si="3"/>
-        <v>3.9245370370370371E-3</v>
+        <v>3.9181712962962963E-3</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="15" t="s">
-        <v>102</v>
+        <v>3</v>
       </c>
       <c r="L11" s="18">
         <f t="shared" si="0"/>
-        <v>2.7627314814814745E-4</v>
+        <v>2.6979166666666601E-4</v>
       </c>
       <c r="N11" s="15"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B12" s="17">
         <f t="shared" si="4"/>
         <v>8.5763888888888695E-5</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D12" s="18">
         <f t="shared" si="1"/>
@@ -2593,26 +2497,26 @@
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="15" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="G12" s="18">
-        <f t="shared" si="2"/>
-        <v>1.9050925925925876E-4</v>
+        <f t="shared" ref="G12:G13" si="5">H12-$H$2</f>
+        <v>1.8645833333333318E-4</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="I12" s="18">
-        <f t="shared" si="3"/>
-        <v>3.9285879629629627E-3</v>
+        <f t="shared" ref="I12:I13" si="6">H12+$I$1</f>
+        <v>3.9245370370370371E-3</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="15" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="L12" s="18">
-        <f t="shared" si="0"/>
-        <v>2.8564814814814729E-4</v>
+        <f t="shared" ref="L12:L16" si="7">SUMIF($A$3:$A$65,K12,$B$3:$B$65)+SUMIF($F$3:$F$65,K12,$G$3:$G$65)</f>
+        <v>2.7627314814814745E-4</v>
       </c>
       <c r="N12" s="15"/>
     </row>
@@ -2625,34 +2529,34 @@
         <v>8.6574074074073984E-5</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D13" s="18">
         <f t="shared" si="1"/>
         <v>2.2320601851851854E-3</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" t="s">
-        <v>3</v>
+      <c r="F13" s="15" t="s">
+        <v>92</v>
       </c>
       <c r="G13" s="18">
-        <f t="shared" si="2"/>
-        <v>1.9282407407407399E-4</v>
+        <f t="shared" si="5"/>
+        <v>1.9050925925925876E-4</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="I13" s="18">
-        <f t="shared" si="3"/>
-        <v>3.930902777777778E-3</v>
+        <f t="shared" si="6"/>
+        <v>3.9285879629629627E-3</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="15" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L13" s="18">
-        <f t="shared" si="0"/>
-        <v>2.873842592592585E-4</v>
+        <f t="shared" si="7"/>
+        <v>2.8564814814814729E-4</v>
       </c>
       <c r="N13" s="15"/>
     </row>
@@ -2665,7 +2569,7 @@
         <v>8.7731481481481167E-5</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D14" s="18">
         <f t="shared" si="1"/>
@@ -2680,7 +2584,7 @@
         <v>1.9629629629629641E-4</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="I14" s="18">
         <f t="shared" si="3"/>
@@ -2688,11 +2592,11 @@
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="15" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="L14" s="18">
-        <f t="shared" si="0"/>
-        <v>2.9467592592592566E-4</v>
+        <f t="shared" si="7"/>
+        <v>2.873842592592585E-4</v>
       </c>
       <c r="N14" s="15"/>
     </row>
@@ -2705,7 +2609,7 @@
         <v>8.7962962962962431E-5</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D15" s="18">
         <f t="shared" si="1"/>
@@ -2720,7 +2624,7 @@
         <v>1.9768518518518486E-4</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="I15" s="18">
         <f t="shared" si="3"/>
@@ -2728,28 +2632,28 @@
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="15" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="L15" s="18">
-        <f t="shared" si="0"/>
-        <v>2.9699074074073959E-4</v>
+        <f t="shared" si="7"/>
+        <v>2.9467592592592566E-4</v>
       </c>
       <c r="N15" s="15"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>8</v>
+      <c r="A16" s="15" t="s">
+        <v>3</v>
       </c>
       <c r="B16" s="17">
         <f t="shared" si="4"/>
-        <v>9.3518518518517953E-5</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>40</v>
+        <v>8.969907407407364E-5</v>
+      </c>
+      <c r="C16" s="17">
+        <v>2.2288194444444443E-3</v>
       </c>
       <c r="D16" s="18">
         <f t="shared" si="1"/>
-        <v>2.2390046296296294E-3</v>
+        <v>2.2351851851851851E-3</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" t="s">
@@ -2760,7 +2664,7 @@
         <v>2.0081018518518451E-4</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="I16" s="18">
         <f t="shared" si="3"/>
@@ -2768,28 +2672,28 @@
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="15" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="L16" s="18">
-        <f t="shared" si="0"/>
-        <v>2.9699074074074046E-4</v>
+        <f t="shared" si="7"/>
+        <v>2.9699074074073959E-4</v>
       </c>
       <c r="N16" s="15"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>19</v>
+      <c r="A17" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="B17" s="17">
         <f t="shared" si="4"/>
-        <v>1.0046296296296279E-4</v>
+        <v>9.3518518518517953E-5</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D17" s="18">
         <f t="shared" si="1"/>
-        <v>2.2459490740740743E-3</v>
+        <v>2.2390046296296294E-3</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" t="s">
@@ -2800,7 +2704,7 @@
         <v>2.0196759259259256E-4</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="I17" s="18">
         <f t="shared" si="3"/>
@@ -2811,25 +2715,25 @@
         <v>2</v>
       </c>
       <c r="L17" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L17:L37" si="8">SUMIF($A$3:$A$65,K17,$B$3:$B$65)+SUMIF($F$3:$F$65,K17,$G$3:$G$65)</f>
         <v>2.9733796296296322E-4</v>
       </c>
       <c r="N17" s="15"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>2</v>
+      <c r="A18" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="B18" s="17">
         <f t="shared" si="4"/>
-        <v>1.0104166666666681E-4</v>
+        <v>1.0046296296296279E-4</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D18" s="18">
         <f t="shared" si="1"/>
-        <v>2.2465277777777783E-3</v>
+        <v>2.2459490740740743E-3</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" t="s">
@@ -2840,7 +2744,7 @@
         <v>2.0925925925925843E-4</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="I18" s="18">
         <f t="shared" si="3"/>
@@ -2851,25 +2755,25 @@
         <v>19</v>
       </c>
       <c r="L18" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>3.0243055555555535E-4</v>
       </c>
       <c r="N18" s="15"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>6</v>
+      <c r="A19" s="15" t="s">
+        <v>2</v>
       </c>
       <c r="B19" s="17">
         <f t="shared" si="4"/>
-        <v>1.0277777777777759E-4</v>
+        <v>1.0104166666666681E-4</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D19" s="18">
         <f t="shared" si="1"/>
-        <v>2.2482638888888891E-3</v>
+        <v>2.2465277777777783E-3</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" t="s">
@@ -2880,7 +2784,7 @@
         <v>2.0960648148148119E-4</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="I19" s="18">
         <f t="shared" si="3"/>
@@ -2891,25 +2795,25 @@
         <v>10</v>
       </c>
       <c r="L19" s="18">
-        <f t="shared" si="0"/>
-        <v>3.2187499999999968E-4</v>
+        <f t="shared" si="8"/>
+        <v>3.2407407407407341E-4</v>
       </c>
       <c r="N19" s="15"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>3</v>
+      <c r="A20" s="15" t="s">
+        <v>6</v>
       </c>
       <c r="B20" s="17">
         <f t="shared" si="4"/>
-        <v>1.0416666666666647E-4</v>
+        <v>1.0277777777777759E-4</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D20" s="18">
         <f t="shared" si="1"/>
-        <v>2.2496527777777779E-3</v>
+        <v>2.2482638888888891E-3</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" t="s">
@@ -2917,27 +2821,27 @@
       </c>
       <c r="G20" s="18">
         <f t="shared" si="2"/>
-        <v>2.1238425925925895E-4</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>70</v>
+        <v>2.1354166666666613E-4</v>
+      </c>
+      <c r="H20" s="17">
+        <v>3.9452546296296293E-3</v>
       </c>
       <c r="I20" s="18">
         <f t="shared" si="3"/>
-        <v>3.9504629629629629E-3</v>
+        <v>3.9516203703703701E-3</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="15" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>3.2314814814814749E-4</v>
       </c>
       <c r="N20" s="15"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="17">
@@ -2945,7 +2849,7 @@
         <v>1.0763888888888845E-4</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D21" s="18">
         <f t="shared" si="1"/>
@@ -2953,14 +2857,14 @@
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="15" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="G21" s="18">
         <f t="shared" si="2"/>
         <v>2.1412037037037016E-4</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="I21" s="18">
         <f t="shared" si="3"/>
@@ -2971,13 +2875,13 @@
         <v>6</v>
       </c>
       <c r="L21" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>3.2673611111111098E-4</v>
       </c>
       <c r="N21" s="15"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B22" s="17">
@@ -2985,7 +2889,7 @@
         <v>1.0937499999999966E-4</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D22" s="18">
         <f t="shared" si="1"/>
@@ -3000,7 +2904,7 @@
         <v>2.2222222222222218E-4</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="I22" s="18">
         <f t="shared" si="3"/>
@@ -3011,25 +2915,25 @@
         <v>22</v>
       </c>
       <c r="L22" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>3.2986111111111063E-4</v>
       </c>
       <c r="N22" s="15"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="17">
         <f t="shared" si="4"/>
-        <v>1.0949074074074073E-4</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>47</v>
+        <v>1.1053240740740728E-4</v>
+      </c>
+      <c r="C23" s="17">
+        <v>2.2496527777777779E-3</v>
       </c>
       <c r="D23" s="18">
         <f t="shared" si="1"/>
-        <v>2.2549768518518522E-3</v>
+        <v>2.2560185185185187E-3</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" t="s">
@@ -3040,7 +2944,7 @@
         <v>2.2233796296296281E-4</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="I23" s="18">
         <f t="shared" si="3"/>
@@ -3051,25 +2955,25 @@
         <v>9</v>
       </c>
       <c r="L23" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>3.4016203703703682E-4</v>
       </c>
       <c r="N23" s="15"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>16</v>
+      <c r="A24" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="B24" s="17">
         <f t="shared" si="4"/>
-        <v>1.1053240740740728E-4</v>
+        <v>1.1087962962962961E-4</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D24" s="18">
         <f t="shared" si="1"/>
-        <v>2.2560185185185187E-3</v>
+        <v>2.2563657407407411E-3</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" t="s">
@@ -3080,7 +2984,7 @@
         <v>2.2395833333333339E-4</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="I24" s="18">
         <f t="shared" si="3"/>
@@ -3091,25 +2995,25 @@
         <v>16</v>
       </c>
       <c r="L24" s="18">
-        <f t="shared" si="0"/>
-        <v>3.484953703703701E-4</v>
+        <f t="shared" si="8"/>
+        <v>3.5081018518518534E-4</v>
       </c>
       <c r="N24" s="15"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>25</v>
+      <c r="A25" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="B25" s="17">
         <f t="shared" si="4"/>
-        <v>1.1087962962962961E-4</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>49</v>
+        <v>1.114583333333332E-4</v>
+      </c>
+      <c r="C25" s="17">
+        <v>2.2505787037037039E-3</v>
       </c>
       <c r="D25" s="18">
         <f t="shared" si="1"/>
-        <v>2.2563657407407411E-3</v>
+        <v>2.2569444444444447E-3</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" t="s">
@@ -3117,27 +3021,27 @@
       </c>
       <c r="G25" s="18">
         <f t="shared" si="2"/>
-        <v>2.3796296296296282E-4</v>
-      </c>
-      <c r="H25" s="17" t="s">
-        <v>75</v>
+        <v>2.3935185185185214E-4</v>
+      </c>
+      <c r="H25" s="17">
+        <v>3.9710648148148153E-3</v>
       </c>
       <c r="I25" s="18">
         <f t="shared" si="3"/>
-        <v>3.9760416666666668E-3</v>
+        <v>3.9774305555555561E-3</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="15" t="s">
         <v>15</v>
       </c>
       <c r="L25" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>3.7071759259259263E-4</v>
       </c>
       <c r="N25" s="15"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B26" s="17">
@@ -3145,7 +3049,7 @@
         <v>1.135416666666663E-4</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D26" s="18">
         <f t="shared" si="1"/>
@@ -3153,7 +3057,7 @@
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="15" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="G26" s="18">
         <f t="shared" si="2"/>
@@ -3171,13 +3075,13 @@
         <v>25</v>
       </c>
       <c r="L26" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>3.7418981481481418E-4</v>
       </c>
       <c r="N26" s="15"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B27" s="17">
@@ -3185,7 +3089,7 @@
         <v>1.1782407407407401E-4</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D27" s="18">
         <f t="shared" si="1"/>
@@ -3200,7 +3104,7 @@
         <v>2.6134259259259296E-4</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="I27" s="18">
         <f t="shared" si="3"/>
@@ -3208,17 +3112,17 @@
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="15" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="L27" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>3.7974537037037013E-4</v>
       </c>
       <c r="N27" s="15"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="B28" s="17">
         <f t="shared" si="4"/>
@@ -3240,7 +3144,7 @@
         <v>2.6331018518518457E-4</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="I28" s="18">
         <f t="shared" si="3"/>
@@ -3248,10 +3152,10 @@
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="15" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="L28" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>4.1099537037037016E-4</v>
       </c>
       <c r="N28" s="15"/>
@@ -3273,7 +3177,7 @@
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="15" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="G29" s="18">
         <f t="shared" si="2"/>
@@ -3288,17 +3192,17 @@
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="15" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="L29" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>4.1145833333333312E-4</v>
       </c>
       <c r="N29" s="15"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="B30" s="17">
         <f t="shared" si="4"/>
@@ -3313,7 +3217,7 @@
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="15" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="G30" s="18">
         <f t="shared" si="2"/>
@@ -3331,17 +3235,17 @@
         <v>1</v>
       </c>
       <c r="L30" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>4.1805555555555476E-4</v>
       </c>
       <c r="N30" s="15"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="B31" s="17">
-        <f t="shared" ref="B31:B36" si="5">C31-$C$2</f>
+        <f t="shared" si="4"/>
         <v>1.4062499999999969E-4</v>
       </c>
       <c r="C31" s="18">
@@ -3353,10 +3257,10 @@
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="15" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="G31" s="18">
-        <f t="shared" ref="G31:G36" si="6">H31-$H$2</f>
+        <f t="shared" ref="G31:G36" si="9">H31-$H$2</f>
         <v>2.8136574074074045E-4</v>
       </c>
       <c r="H31" s="18">
@@ -3368,20 +3272,20 @@
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="15" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="L31" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>4.2789351851851799E-4</v>
       </c>
       <c r="N31" s="15"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="B32" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.4652777777777754E-4</v>
       </c>
       <c r="C32" s="18">
@@ -3396,7 +3300,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2.8715277777777723E-4</v>
       </c>
       <c r="H32" s="18">
@@ -3408,20 +3312,20 @@
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="15" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="L32" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>4.4398148148148096E-4</v>
       </c>
       <c r="N32" s="15"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="B33" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.5601851851851844E-4</v>
       </c>
       <c r="C33" s="18">
@@ -3433,10 +3337,10 @@
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="15" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="G33" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2.8796296296296252E-4</v>
       </c>
       <c r="H33" s="18">
@@ -3448,20 +3352,20 @@
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="15" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="L33" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>4.7268518518518493E-4</v>
       </c>
       <c r="N33" s="15"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="B34" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.6296296296296284E-4</v>
       </c>
       <c r="C34" s="18">
@@ -3473,10 +3377,10 @@
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="15" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="G34" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3.0972222222222208E-4</v>
       </c>
       <c r="H34" s="18">
@@ -3488,20 +3392,20 @@
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="15" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="L34" s="18">
-        <f t="shared" si="0"/>
-        <v>5.200231481481475E-4</v>
+        <f t="shared" si="8"/>
+        <v>5.5474537037036907E-4</v>
       </c>
       <c r="N34" s="15"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="B35" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.9849537037036971E-4</v>
       </c>
       <c r="C35" s="18">
@@ -3513,35 +3417,35 @@
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="15" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="G35" s="18">
-        <f t="shared" si="6"/>
-        <v>3.2152777777777778E-4</v>
+        <f t="shared" si="9"/>
+        <v>3.5624999999999936E-4</v>
       </c>
       <c r="H35" s="18">
-        <v>4.0532407407407409E-3</v>
+        <v>4.0879629629629625E-3</v>
       </c>
       <c r="I35" s="18">
         <f t="shared" si="3"/>
-        <v>4.0596064814814817E-3</v>
+        <v>4.0943287037037033E-3</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="15" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="L35" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>6.4502314814814761E-4</v>
       </c>
       <c r="N35" s="15"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="B36" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.1736111111111088E-4</v>
       </c>
       <c r="C36" s="18">
@@ -3553,10 +3457,10 @@
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="15" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="G36" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4.2766203703703673E-4</v>
       </c>
       <c r="H36" s="18">
@@ -3568,59 +3472,59 @@
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="15" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="L36" s="18">
-        <f t="shared" si="0"/>
-        <v>8.8958333333333294E-4</v>
+        <f t="shared" si="8"/>
+        <v>8.8761574074074047E-4</v>
       </c>
       <c r="N36" s="15"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="B37" s="17">
-        <f t="shared" ref="B37:B38" si="7">C37-$C$2</f>
-        <v>3.4259259259259225E-4</v>
+        <f t="shared" si="4"/>
+        <v>3.415509259259257E-4</v>
       </c>
       <c r="C37" s="18">
-        <v>2.4817129629629629E-3</v>
+        <v>2.4806712962962964E-3</v>
       </c>
       <c r="D37" s="18">
         <f t="shared" si="1"/>
-        <v>2.4880787037037037E-3</v>
+        <v>2.4870370370370372E-3</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="15" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="G37" s="18">
-        <f t="shared" ref="G37:G38" si="8">H37-$H$2</f>
-        <v>5.4699074074074068E-4</v>
+        <f t="shared" ref="G37:G38" si="10">H37-$H$2</f>
+        <v>5.4606481481481476E-4</v>
       </c>
       <c r="H37" s="18">
-        <v>4.2787037037037038E-3</v>
+        <v>4.2777777777777779E-3</v>
       </c>
       <c r="I37" s="18">
         <f t="shared" si="3"/>
-        <v>4.2850694444444446E-3</v>
+        <v>4.2841435185185187E-3</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="6" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="L37" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>1.3494212962962956E-3</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="B38" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>4.9953703703703662E-4</v>
       </c>
       <c r="C38" s="18">
@@ -3632,10 +3536,10 @@
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="6" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="G38" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>8.49884259259259E-4</v>
       </c>
       <c r="H38" s="18">
@@ -3646,13 +3550,13 @@
         <v>4.587962962962963E-3</v>
       </c>
       <c r="J38" s="1"/>
-      <c r="K38" s="15"/>
       <c r="L38" s="18"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="15"/>
       <c r="B39" s="17"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="5"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="18"/>
       <c r="E39" s="5"/>
       <c r="G39" s="16"/>
       <c r="H39" s="18"/>
@@ -3661,9 +3565,10 @@
       <c r="L39" s="16"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="15"/>
       <c r="B40" s="17"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="8"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="18"/>
       <c r="E40" s="8"/>
       <c r="G40" s="16"/>
       <c r="H40" s="18"/>
@@ -3673,9 +3578,10 @@
       <c r="L40" s="18"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="15"/>
       <c r="B41" s="17"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="8"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="18"/>
       <c r="E41" s="8"/>
       <c r="G41" s="16"/>
       <c r="H41" s="18"/>
@@ -3685,9 +3591,10 @@
       <c r="L41" s="18"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="15"/>
       <c r="B42" s="17"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="8"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="18"/>
       <c r="E42" s="8"/>
       <c r="G42" s="16"/>
       <c r="H42" s="18"/>
@@ -3696,9 +3603,10 @@
       <c r="L42" s="16"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="15"/>
       <c r="B43" s="17"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="8"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="18"/>
       <c r="E43" s="8"/>
       <c r="G43" s="16"/>
       <c r="H43" s="18"/>
@@ -3707,9 +3615,10 @@
       <c r="L43" s="16"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="15"/>
       <c r="B44" s="17"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="8"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="18"/>
       <c r="E44" s="8"/>
       <c r="G44" s="16"/>
       <c r="H44" s="18"/>
@@ -3718,9 +3627,10 @@
       <c r="L44" s="16"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="15"/>
       <c r="B45" s="17"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="8"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="18"/>
       <c r="E45" s="8"/>
       <c r="G45" s="16"/>
       <c r="H45" s="18"/>
@@ -3729,9 +3639,10 @@
       <c r="L45" s="16"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="15"/>
       <c r="B46" s="17"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="8"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="18"/>
       <c r="E46" s="8"/>
       <c r="G46" s="16"/>
       <c r="H46" s="18"/>
@@ -3740,9 +3651,10 @@
       <c r="L46" s="16"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="15"/>
       <c r="B47" s="17"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="8"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="18"/>
       <c r="E47" s="8"/>
       <c r="G47" s="16"/>
       <c r="H47" s="18"/>
@@ -3751,9 +3663,10 @@
       <c r="L47" s="16"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="15"/>
       <c r="B48" s="17"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="8"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="18"/>
       <c r="E48" s="8"/>
       <c r="G48" s="16"/>
       <c r="H48" s="18"/>
@@ -3761,10 +3674,11 @@
       <c r="J48" s="1"/>
       <c r="L48" s="16"/>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="15"/>
       <c r="B49" s="17"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="8"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="18"/>
       <c r="E49" s="8"/>
       <c r="G49" s="16"/>
       <c r="H49" s="18"/>
@@ -3772,10 +3686,11 @@
       <c r="J49" s="1"/>
       <c r="L49" s="16"/>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="15"/>
       <c r="B50" s="17"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="8"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="18"/>
       <c r="E50" s="8"/>
       <c r="G50" s="16"/>
       <c r="H50" s="18"/>
@@ -3783,10 +3698,11 @@
       <c r="J50" s="1"/>
       <c r="L50" s="16"/>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="15"/>
       <c r="B51" s="17"/>
       <c r="C51" s="18"/>
-      <c r="D51" s="8"/>
+      <c r="D51" s="18"/>
       <c r="E51" s="8"/>
       <c r="G51" s="16"/>
       <c r="H51" s="18"/>
@@ -3794,10 +3710,11 @@
       <c r="J51" s="1"/>
       <c r="L51" s="16"/>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="15"/>
       <c r="B52" s="17"/>
       <c r="C52" s="18"/>
-      <c r="D52" s="8"/>
+      <c r="D52" s="18"/>
       <c r="E52" s="8"/>
       <c r="G52" s="16"/>
       <c r="H52" s="18"/>
@@ -3805,10 +3722,11 @@
       <c r="J52" s="1"/>
       <c r="L52" s="16"/>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="15"/>
       <c r="B53" s="17"/>
       <c r="C53" s="18"/>
-      <c r="D53" s="8"/>
+      <c r="D53" s="18"/>
       <c r="E53" s="8"/>
       <c r="G53" s="16"/>
       <c r="H53" s="18"/>
@@ -3816,10 +3734,11 @@
       <c r="J53" s="1"/>
       <c r="L53" s="16"/>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="15"/>
       <c r="B54" s="17"/>
       <c r="C54" s="18"/>
-      <c r="D54" s="8"/>
+      <c r="D54" s="18"/>
       <c r="E54" s="8"/>
       <c r="G54" s="16"/>
       <c r="H54" s="18"/>
@@ -3827,10 +3746,11 @@
       <c r="J54" s="1"/>
       <c r="L54" s="16"/>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="15"/>
       <c r="B55" s="17"/>
       <c r="C55" s="18"/>
-      <c r="D55" s="8"/>
+      <c r="D55" s="18"/>
       <c r="E55" s="8"/>
       <c r="G55" s="16"/>
       <c r="H55" s="18"/>
@@ -3838,10 +3758,11 @@
       <c r="J55" s="1"/>
       <c r="L55" s="16"/>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="15"/>
       <c r="B56" s="17"/>
       <c r="C56" s="18"/>
-      <c r="D56" s="8"/>
+      <c r="D56" s="18"/>
       <c r="E56" s="8"/>
       <c r="G56" s="16"/>
       <c r="H56" s="18"/>
@@ -3849,10 +3770,11 @@
       <c r="J56" s="1"/>
       <c r="L56" s="16"/>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="15"/>
       <c r="B57" s="17"/>
       <c r="C57" s="18"/>
-      <c r="D57" s="8"/>
+      <c r="D57" s="18"/>
       <c r="E57" s="8"/>
       <c r="G57" s="16"/>
       <c r="H57" s="18"/>
@@ -3860,10 +3782,11 @@
       <c r="J57" s="1"/>
       <c r="L57" s="16"/>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="15"/>
       <c r="B58" s="17"/>
       <c r="C58" s="18"/>
-      <c r="D58" s="8"/>
+      <c r="D58" s="18"/>
       <c r="E58" s="8"/>
       <c r="G58" s="16"/>
       <c r="H58" s="18"/>
@@ -3871,10 +3794,11 @@
       <c r="J58" s="1"/>
       <c r="L58" s="16"/>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="15"/>
       <c r="B59" s="17"/>
       <c r="C59" s="18"/>
-      <c r="D59" s="8"/>
+      <c r="D59" s="18"/>
       <c r="E59" s="8"/>
       <c r="G59" s="16"/>
       <c r="H59" s="18"/>
@@ -3882,10 +3806,11 @@
       <c r="J59" s="1"/>
       <c r="L59" s="16"/>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="15"/>
       <c r="B60" s="17"/>
       <c r="C60" s="18"/>
-      <c r="D60" s="8"/>
+      <c r="D60" s="18"/>
       <c r="E60" s="8"/>
       <c r="G60" s="16"/>
       <c r="H60" s="18"/>
@@ -3893,10 +3818,10 @@
       <c r="J60" s="1"/>
       <c r="L60" s="16"/>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B61" s="17"/>
       <c r="C61" s="18"/>
-      <c r="D61" s="8"/>
+      <c r="D61" s="18"/>
       <c r="E61" s="8"/>
       <c r="G61" s="16"/>
       <c r="H61" s="18"/>
@@ -3904,7 +3829,7 @@
       <c r="J61" s="1"/>
       <c r="L61" s="16"/>
     </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B62" s="17"/>
       <c r="C62" s="18"/>
       <c r="D62" s="8"/>
@@ -3915,7 +3840,7 @@
       <c r="J62" s="1"/>
       <c r="L62" s="16"/>
     </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B63" s="17"/>
       <c r="C63" s="18"/>
       <c r="D63" s="8"/>
@@ -3925,7 +3850,7 @@
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
     </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B64" s="17"/>
       <c r="C64" s="18"/>
       <c r="D64" s="8"/>
@@ -4146,7 +4071,7 @@
   <dimension ref="A1:N110"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4165,7 +4090,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
@@ -4174,17 +4099,17 @@
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="21" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="I1" s="18">
         <v>9.8379629629629627E-6</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="L1" s="16"/>
       <c r="N1" s="9" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -4192,10 +4117,10 @@
         <v>23</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D2" s="18">
         <f>C2+$D$1</f>
@@ -4206,10 +4131,10 @@
         <v>23</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="I2" s="18">
         <f>H2+$I$1</f>
@@ -4217,7 +4142,7 @@
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="15" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="L2" s="18">
         <f>SUMIF($A$3:$A$65,K2,$B$3:$B$65)+SUMIF($F$3:$F$65,K2,$G$3:$G$65)</f>
@@ -4225,37 +4150,37 @@
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="6" t="s">
-        <v>266</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="B3" s="17">
         <f>C3-$C$2</f>
         <v>4.2361111111111072E-5</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D3" s="18">
-        <f t="shared" ref="D3:D38" si="0">C3+$D$1</f>
+        <f t="shared" ref="D3:D34" si="0">C3+$D$1</f>
         <v>2.1178240740740741E-3</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="12" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="G3" s="18">
         <f t="shared" ref="G3:G27" si="1">H3-$H$2</f>
         <v>5.7291666666666428E-5</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="I3" s="18">
-        <f t="shared" ref="I3:I38" si="2">H3+$I$1</f>
+        <f t="shared" ref="I3:I32" si="2">H3+$I$1</f>
         <v>3.1302083333333329E-3</v>
       </c>
       <c r="J3" s="1"/>
@@ -4267,7 +4192,7 @@
         <v>1.140046296296297E-4</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>272</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -4279,7 +4204,7 @@
         <v>4.8611111111111251E-5</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D4" s="18">
         <f t="shared" si="0"/>
@@ -4287,14 +4212,14 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="12" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="G4" s="18">
         <f t="shared" si="1"/>
         <v>6.1689814814814333E-5</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="I4" s="18">
         <f t="shared" si="2"/>
@@ -4318,7 +4243,7 @@
         <v>4.9305555555555474E-5</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D5" s="18">
         <f t="shared" si="0"/>
@@ -4333,7 +4258,7 @@
         <v>6.3078703703703647E-5</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="I5" s="18">
         <f t="shared" si="2"/>
@@ -4341,7 +4266,7 @@
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="15" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="L5" s="18">
         <f t="shared" si="3"/>
@@ -4350,14 +4275,14 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B6" s="17">
         <f t="shared" si="4"/>
         <v>5.0115740740740763E-5</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
@@ -4372,7 +4297,7 @@
         <v>6.3657407407407239E-5</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I6" s="18">
         <f t="shared" si="2"/>
@@ -4396,7 +4321,7 @@
         <v>5.0462962962962658E-5</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D7" s="18">
         <f t="shared" si="0"/>
@@ -4411,7 +4336,7 @@
         <v>6.5393518518518448E-5</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="I7" s="18">
         <f t="shared" si="2"/>
@@ -4435,7 +4360,7 @@
         <v>5.2662037037036827E-5</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D8" s="18">
         <f t="shared" si="0"/>
@@ -4450,7 +4375,7 @@
         <v>6.5740740740740343E-5</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="I8" s="18">
         <f t="shared" si="2"/>
@@ -4474,7 +4399,7 @@
         <v>5.5092592592592693E-5</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D9" s="18">
         <f t="shared" si="0"/>
@@ -4482,14 +4407,14 @@
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="12" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G9" s="18">
         <f t="shared" si="1"/>
         <v>6.8634259259259169E-5</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="I9" s="18">
         <f t="shared" si="2"/>
@@ -4497,27 +4422,27 @@
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="15" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="L9" s="18">
         <f t="shared" si="3"/>
-        <v>1.2395833333333313E-4</v>
+        <v>1.2418981481481439E-4</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B10" s="17">
         <f t="shared" si="4"/>
-        <v>5.5324074074073956E-5</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>113</v>
+        <v>5.5555555555555219E-5</v>
+      </c>
+      <c r="C10" s="17">
+        <v>2.1211805555555554E-3</v>
       </c>
       <c r="D10" s="18">
         <f t="shared" si="0"/>
-        <v>2.1307870370370369E-3</v>
+        <v>2.1310185185185182E-3</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="12" t="s">
@@ -4528,7 +4453,7 @@
         <v>6.9212962962963195E-5</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="I10" s="18">
         <f t="shared" si="2"/>
@@ -4536,7 +4461,7 @@
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="15" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="L10" s="18">
         <f t="shared" si="3"/>
@@ -4545,14 +4470,14 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B11" s="17">
         <f t="shared" si="4"/>
         <v>5.5902777777777982E-5</v>
       </c>
-      <c r="C11" s="17" t="s">
-        <v>114</v>
+      <c r="C11" s="17">
+        <v>2.1215277777777782E-3</v>
       </c>
       <c r="D11" s="18">
         <f t="shared" si="0"/>
@@ -4567,7 +4492,7 @@
         <v>6.9675925925926155E-5</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="I11" s="18">
         <f t="shared" si="2"/>
@@ -4575,7 +4500,7 @@
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="15" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="L11" s="18">
         <f t="shared" si="3"/>
@@ -4584,14 +4509,14 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B12" s="17">
         <f t="shared" si="4"/>
         <v>5.7291666666666428E-5</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="D12" s="18">
         <f t="shared" si="0"/>
@@ -4599,14 +4524,14 @@
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="12" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="G12" s="18">
         <f t="shared" si="1"/>
         <v>7.1180555555556101E-5</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="I12" s="18">
         <f t="shared" si="2"/>
@@ -4630,7 +4555,7 @@
         <v>5.8564814814814677E-5</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="D13" s="18">
         <f t="shared" si="0"/>
@@ -4645,7 +4570,7 @@
         <v>7.1527777777777562E-5</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="I13" s="18">
         <f t="shared" si="2"/>
@@ -4669,7 +4594,7 @@
         <v>6.0300925925925453E-5</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="D14" s="18">
         <f t="shared" si="0"/>
@@ -4677,14 +4602,14 @@
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="12" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G14" s="18">
         <f t="shared" si="1"/>
         <v>7.1527777777777562E-5</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="I14" s="18">
         <f t="shared" si="2"/>
@@ -4708,7 +4633,7 @@
         <v>6.1111111111110741E-5</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="D15" s="18">
         <f t="shared" si="0"/>
@@ -4723,7 +4648,7 @@
         <v>7.3148148148148139E-5</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="I15" s="18">
         <f t="shared" si="2"/>
@@ -4747,7 +4672,7 @@
         <v>6.2268518518517925E-5</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="D16" s="18">
         <f t="shared" si="0"/>
@@ -4762,7 +4687,7 @@
         <v>7.3726851851852165E-5</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="I16" s="18">
         <f t="shared" si="2"/>
@@ -4770,23 +4695,23 @@
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="15" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="L16" s="18">
         <f t="shared" si="3"/>
-        <v>1.4074074074074076E-4</v>
+        <v>1.4108796296296265E-4</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B17" s="17">
         <f t="shared" si="4"/>
         <v>6.3773148148147871E-5</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D17" s="18">
         <f t="shared" si="0"/>
@@ -4794,14 +4719,14 @@
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="12" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="G17" s="18">
         <f t="shared" si="1"/>
         <v>7.4305555555555756E-5</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="I17" s="18">
         <f t="shared" si="2"/>
@@ -4825,7 +4750,7 @@
         <v>6.5740740740740777E-5</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="D18" s="18">
         <f t="shared" si="0"/>
@@ -4840,7 +4765,7 @@
         <v>7.6157407407407597E-5</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="I18" s="18">
         <f t="shared" si="2"/>
@@ -4864,7 +4789,7 @@
         <v>6.6666666666666263E-5</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="D19" s="18">
         <f t="shared" si="0"/>
@@ -4872,18 +4797,18 @@
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="12" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="G19" s="18">
         <f t="shared" si="1"/>
-        <v>7.6967592592592886E-5</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>148</v>
+        <v>7.7314814814814781E-5</v>
+      </c>
+      <c r="H19" s="17">
+        <v>3.1403935185185185E-3</v>
       </c>
       <c r="I19" s="18">
         <f t="shared" si="2"/>
-        <v>3.1498842592592594E-3</v>
+        <v>3.1502314814814813E-3</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="15" t="s">
@@ -4903,7 +4828,7 @@
         <v>6.6666666666666263E-5</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
@@ -4918,7 +4843,7 @@
         <v>7.8472222222221964E-5</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="I20" s="18">
         <f t="shared" si="2"/>
@@ -4926,7 +4851,7 @@
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="15" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="L20" s="18">
         <f t="shared" si="3"/>
@@ -4935,14 +4860,14 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B21" s="17">
         <f t="shared" si="4"/>
         <v>6.7129629629629657E-5</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
@@ -4957,7 +4882,7 @@
         <v>7.8703703703703661E-5</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="I21" s="18">
         <f t="shared" si="2"/>
@@ -4969,7 +4894,7 @@
       </c>
       <c r="L21" s="18">
         <f t="shared" si="3"/>
-        <v>1.3877314814814785E-4</v>
+        <v>1.3900462962962911E-4</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -4978,14 +4903,14 @@
       </c>
       <c r="B22" s="17">
         <f t="shared" si="4"/>
-        <v>6.7245370370370289E-5</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>124</v>
+        <v>6.7476851851851552E-5</v>
+      </c>
+      <c r="C22" s="17">
+        <v>2.1331018518518517E-3</v>
       </c>
       <c r="D22" s="18">
         <f t="shared" si="0"/>
-        <v>2.1427083333333333E-3</v>
+        <v>2.1429398148148145E-3</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="12" t="s">
@@ -4996,7 +4921,7 @@
         <v>7.9629629629630015E-5</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="I22" s="18">
         <f t="shared" si="2"/>
@@ -5020,26 +4945,26 @@
         <v>7.6967592592592452E-5</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="D23" s="18">
         <f t="shared" si="0"/>
         <v>2.1524305555555554E-3</v>
       </c>
       <c r="E23" s="1"/>
-      <c r="F23" s="12" t="s">
-        <v>10</v>
+      <c r="F23" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="G23" s="18">
-        <f t="shared" si="1"/>
-        <v>8.0439814814814437E-5</v>
+        <f t="shared" ref="G23" si="5">H23-$H$2</f>
+        <v>8.1018518518518462E-5</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="I23" s="18">
-        <f t="shared" si="2"/>
-        <v>3.1533564814814809E-3</v>
+        <f t="shared" ref="I23" si="6">H23+$I$1</f>
+        <v>3.153935185185185E-3</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="15" t="s">
@@ -5059,26 +4984,26 @@
         <v>7.7893518518518372E-5</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="D24" s="18">
         <f t="shared" si="0"/>
         <v>2.1533564814814814E-3</v>
       </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="12" t="s">
-        <v>22</v>
+      <c r="F24" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="G24" s="18">
         <f t="shared" si="1"/>
-        <v>8.1018518518518462E-5</v>
-      </c>
-      <c r="H24" s="17" t="s">
-        <v>153</v>
+        <v>8.1944444444444382E-5</v>
+      </c>
+      <c r="H24" s="17">
+        <v>3.1450231481481481E-3</v>
       </c>
       <c r="I24" s="18">
         <f t="shared" si="2"/>
-        <v>3.153935185185185E-3</v>
+        <v>3.1548611111111109E-3</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="15" t="s">
@@ -5086,7 +5011,7 @@
       </c>
       <c r="L24" s="18">
         <f t="shared" si="3"/>
-        <v>1.5914351851851766E-4</v>
+        <v>1.6273148148148115E-4</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -5095,14 +5020,14 @@
       </c>
       <c r="B25" s="17">
         <f t="shared" si="4"/>
-        <v>7.8703703703703227E-5</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>127</v>
+        <v>8.0787037037036765E-5</v>
+      </c>
+      <c r="C25" s="17">
+        <v>2.146412037037037E-3</v>
       </c>
       <c r="D25" s="18">
         <f t="shared" si="0"/>
-        <v>2.1541666666666662E-3</v>
+        <v>2.1562499999999997E-3</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="12" t="s">
@@ -5113,7 +5038,7 @@
         <v>8.5416666666667234E-5</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="I25" s="18">
         <f t="shared" si="2"/>
@@ -5136,8 +5061,8 @@
         <f t="shared" si="4"/>
         <v>8.3333333333333263E-5</v>
       </c>
-      <c r="C26" s="17" t="s">
-        <v>128</v>
+      <c r="C26" s="17">
+        <v>2.1489583333333334E-3</v>
       </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
@@ -5152,7 +5077,7 @@
         <v>8.7384259259259273E-5</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="I26" s="18">
         <f t="shared" si="2"/>
@@ -5160,7 +5085,7 @@
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="15" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="L26" s="18">
         <f t="shared" si="3"/>
@@ -5169,7 +5094,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="B27" s="17">
         <f t="shared" si="4"/>
@@ -5184,7 +5109,7 @@
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="15" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="G27" s="18">
         <f t="shared" si="1"/>
@@ -5202,7 +5127,7 @@
         <v>1</v>
       </c>
       <c r="L27" s="18">
-        <f t="shared" ref="L27:L30" si="5">SUMIF($A$3:$A$65,K27,$B$3:$B$65)+SUMIF($F$3:$F$65,K27,$G$3:$G$65)</f>
+        <f t="shared" ref="L27:L30" si="7">SUMIF($A$3:$A$65,K27,$B$3:$B$65)+SUMIF($F$3:$F$65,K27,$G$3:$G$65)</f>
         <v>1.8182870370370315E-4</v>
       </c>
     </row>
@@ -5211,11 +5136,11 @@
         <v>1</v>
       </c>
       <c r="B28" s="17">
-        <f t="shared" ref="B28:B35" si="6">C28-$C$2</f>
+        <f t="shared" ref="B28:B34" si="8">C28-$C$2</f>
         <v>8.5763888888888695E-5</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="D28" s="18">
         <f t="shared" si="0"/>
@@ -5226,11 +5151,11 @@
         <v>1</v>
       </c>
       <c r="G28" s="18">
-        <f t="shared" ref="G28:G38" si="7">H28-$H$2</f>
+        <f t="shared" ref="G28:G38" si="9">H28-$H$2</f>
         <v>9.606481481481445E-5</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="I28" s="18">
         <f t="shared" si="2"/>
@@ -5241,7 +5166,7 @@
         <v>11</v>
       </c>
       <c r="L28" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.9224537037036997E-4</v>
       </c>
     </row>
@@ -5250,11 +5175,11 @@
         <v>11</v>
       </c>
       <c r="B29" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8.5995370370369958E-5</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D29" s="18">
         <f t="shared" si="0"/>
@@ -5262,10 +5187,10 @@
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="15" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="G29" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.7800925925926093E-5</v>
       </c>
       <c r="H29" s="17">
@@ -5280,7 +5205,7 @@
         <v>9</v>
       </c>
       <c r="L29" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.9641203703703704E-4</v>
       </c>
     </row>
@@ -5289,11 +5214,11 @@
         <v>9</v>
       </c>
       <c r="B30" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8.7962962962962864E-5</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="D30" s="18">
         <f t="shared" si="0"/>
@@ -5301,10 +5226,10 @@
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="15" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="G30" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.872685185185158E-5</v>
       </c>
       <c r="H30" s="17">
@@ -5316,34 +5241,34 @@
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="15" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="L30" s="18">
-        <f t="shared" si="5"/>
-        <v>1.9166666666666637E-4</v>
+        <f t="shared" si="7"/>
+        <v>2.2662037037037008E-4</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="B31" s="17">
-        <f t="shared" si="6"/>
-        <v>9.2939814814814795E-5</v>
+        <f t="shared" si="8"/>
+        <v>1.278935185185185E-4</v>
       </c>
       <c r="C31" s="18">
-        <v>2.158564814814815E-3</v>
+        <v>2.1935185185185187E-3</v>
       </c>
       <c r="D31" s="18">
         <f t="shared" si="0"/>
-        <v>2.1684027777777778E-3</v>
+        <v>2.2033564814814815E-3</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="15" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="G31" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.0393518518518521E-4</v>
       </c>
       <c r="H31" s="17">
@@ -5355,7 +5280,7 @@
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="15" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="L31" s="18">
         <v>2.0011574074074072E-4</v>
@@ -5366,7 +5291,7 @@
         <v>25</v>
       </c>
       <c r="B32" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.7800925925925659E-5</v>
       </c>
       <c r="C32" s="18">
@@ -5378,34 +5303,34 @@
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="15" t="s">
-        <v>11</v>
+        <v>249</v>
       </c>
       <c r="G32" s="18">
-        <f t="shared" si="7"/>
-        <v>1.0625000000000001E-4</v>
-      </c>
-      <c r="H32" s="17" t="s">
-        <v>157</v>
+        <f t="shared" si="9"/>
+        <v>1.0590277777777768E-4</v>
+      </c>
+      <c r="H32" s="17">
+        <v>3.1689814814814814E-3</v>
       </c>
       <c r="I32" s="18">
         <f t="shared" si="2"/>
-        <v>3.1791666666666665E-3</v>
+        <v>3.1788194444444442E-3</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="15" t="s">
-        <v>281</v>
+        <v>249</v>
       </c>
       <c r="L32" s="18">
-        <f t="shared" ref="L32:L37" si="8">SUMIF($A$3:$A$65,K32,$B$3:$B$65)+SUMIF($F$3:$F$65,K32,$G$3:$G$65)</f>
+        <f t="shared" ref="L32:L37" si="10">SUMIF($A$3:$A$65,K32,$B$3:$B$65)+SUMIF($F$3:$F$65,K32,$G$3:$G$65)</f>
         <v>2.0844907407407357E-4</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="B33" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.0138888888888871E-4</v>
       </c>
       <c r="C33" s="18">
@@ -5417,34 +5342,34 @@
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="15" t="s">
-        <v>281</v>
+        <v>11</v>
       </c>
       <c r="G33" s="18">
-        <f t="shared" si="7"/>
-        <v>1.0590277777777768E-4</v>
-      </c>
-      <c r="H33" s="17">
-        <v>3.1689814814814814E-3</v>
+        <f t="shared" ref="G33" si="11">H33-$H$2</f>
+        <v>1.0625000000000001E-4</v>
+      </c>
+      <c r="H33" s="17" t="s">
+        <v>140</v>
       </c>
       <c r="I33" s="18">
-        <f t="shared" si="2"/>
-        <v>3.1788194444444442E-3</v>
+        <f t="shared" ref="I33" si="12">H33+$I$1</f>
+        <v>3.1791666666666665E-3</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="15" t="s">
         <v>25</v>
       </c>
       <c r="L33" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.1215277777777725E-4</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
-        <v>281</v>
+        <v>249</v>
       </c>
       <c r="B34" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.0254629629629589E-4</v>
       </c>
       <c r="C34" s="18">
@@ -5456,41 +5381,41 @@
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="15" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="G34" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.068287037037036E-4</v>
       </c>
       <c r="H34" s="17">
         <v>3.1699074074074073E-3</v>
       </c>
       <c r="I34" s="18">
-        <f t="shared" ref="I34:I38" si="9">H34+$I$1</f>
+        <f t="shared" ref="I34:I38" si="13">H34+$I$1</f>
         <v>3.1797453703703701E-3</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="15" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="L34" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.1307870370370317E-4</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="B35" s="17">
-        <f t="shared" ref="B35:B39" si="10">C35-$C$2</f>
+        <f t="shared" ref="B35" si="14">C35-$C$2</f>
         <v>1.0624999999999957E-4</v>
       </c>
       <c r="C35" s="18">
         <v>2.1718749999999998E-3</v>
       </c>
       <c r="D35" s="18">
-        <f t="shared" ref="D35:D39" si="11">C35+$D$1</f>
+        <f t="shared" ref="D35" si="15">C35+$D$1</f>
         <v>2.1817129629629626E-3</v>
       </c>
       <c r="E35" s="1"/>
@@ -5498,38 +5423,38 @@
         <v>9</v>
       </c>
       <c r="G35" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.0844907407407418E-4</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="I35" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3.1813657407407407E-3</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="15" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="L35" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.1851851851851806E-4</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="B36" s="17">
-        <f t="shared" ref="B36:B38" si="12">C36-$C$2</f>
+        <f t="shared" ref="B36:B38" si="16">C36-$C$2</f>
         <v>1.1319444444444441E-4</v>
       </c>
       <c r="C36" s="18">
         <v>2.1788194444444446E-3</v>
       </c>
       <c r="D36" s="18">
-        <f t="shared" ref="D36:D38" si="13">C36+$D$1</f>
+        <f t="shared" ref="D36:D38" si="17">C36+$D$1</f>
         <v>2.1886574074074074E-3</v>
       </c>
       <c r="E36" s="1"/>
@@ -5537,92 +5462,92 @@
         <v>25</v>
       </c>
       <c r="G36" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.1435185185185159E-4</v>
       </c>
       <c r="H36" s="18">
         <v>3.1774305555555553E-3</v>
       </c>
       <c r="I36" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3.1872685185185181E-3</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="15" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="L36" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.2777777777777813E-4</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="B37" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1.1458333333333286E-4</v>
       </c>
       <c r="C37" s="18">
         <v>2.180208333333333E-3</v>
       </c>
       <c r="D37" s="18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>2.1900462962962958E-3</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="15" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="G37" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.1458333333333372E-4</v>
       </c>
       <c r="H37" s="18">
         <v>3.1776620370370374E-3</v>
       </c>
       <c r="I37" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3.1875000000000002E-3</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="6" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="L37" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6.3055555555555608E-4</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="B38" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>3.2615740740740739E-4</v>
       </c>
       <c r="C38" s="18">
         <v>2.3917824074074076E-3</v>
       </c>
       <c r="D38" s="18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>2.4016203703703704E-3</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="6" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="G38" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.0439814814814869E-4</v>
       </c>
       <c r="H38" s="18">
         <v>3.3674768518518524E-3</v>
       </c>
       <c r="I38" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3.3773148148148152E-3</v>
       </c>
       <c r="J38" s="1"/>
@@ -6123,8 +6048,8 @@
   </sheetPr>
   <dimension ref="A1:S110"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6145,7 +6070,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
@@ -6154,14 +6079,14 @@
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="21" t="s">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="I1" s="18">
         <v>5.787037037037037E-7</v>
       </c>
       <c r="J1" s="7"/>
       <c r="K1" s="22" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="L1" s="5"/>
       <c r="N1" s="18">
@@ -6169,11 +6094,11 @@
       </c>
       <c r="O1" s="5"/>
       <c r="P1" s="9" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="Q1" s="18"/>
       <c r="S1" s="9" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -6181,7 +6106,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="C2" s="18">
         <v>1.520601851851852E-3</v>
@@ -6195,7 +6120,7 @@
         <v>23</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>13</v>
@@ -6209,7 +6134,7 @@
         <v>23</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="M2" s="18" t="s">
         <v>14</v>
@@ -6227,7 +6152,7 @@
         <v>1.7164351851851867E-4</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>266</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -6247,7 +6172,7 @@
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="12" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="G3" s="18">
         <f t="shared" ref="G3:G28" si="2">H3-$H$2</f>
@@ -6257,7 +6182,7 @@
         <v>2.5692129629629628E-3</v>
       </c>
       <c r="I3" s="18">
-        <f t="shared" ref="I3:I37" si="3">H3+$I$1</f>
+        <f t="shared" ref="I3:I31" si="3">H3+$I$1</f>
         <v>2.5697916666666664E-3</v>
       </c>
       <c r="J3" s="3"/>
@@ -6277,19 +6202,19 @@
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="15" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="Q3" s="18">
         <f t="shared" si="0"/>
         <v>1.8182870370370358E-4</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="B4" s="17">
         <f>C4-$C$2</f>
@@ -6319,7 +6244,7 @@
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="12" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="L4" s="18">
         <f t="shared" si="4"/>
@@ -6341,7 +6266,7 @@
         <v>2.0856481481481464E-4</v>
       </c>
       <c r="S4" s="15" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -6398,7 +6323,7 @@
         <v>2.3206018518518584E-4</v>
       </c>
       <c r="S5" s="6" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -6565,7 +6490,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B9" s="17">
         <f t="shared" si="6"/>
@@ -6580,7 +6505,7 @@
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G9" s="18">
         <f t="shared" si="2"/>
@@ -6610,7 +6535,7 @@
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="6" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="Q9" s="18">
         <f t="shared" si="0"/>
@@ -6811,7 +6736,7 @@
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="L13" s="18">
         <f t="shared" si="4"/>
@@ -7081,7 +7006,7 @@
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="L18" s="18">
         <f t="shared" si="4"/>
@@ -7096,7 +7021,7 @@
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="Q18" s="18">
         <f t="shared" si="0"/>
@@ -7213,7 +7138,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B21" s="17">
         <f t="shared" si="6"/>
@@ -7282,7 +7207,7 @@
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="G22" s="18">
         <f t="shared" si="2"/>
@@ -7297,7 +7222,7 @@
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="2" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="L22" s="18">
         <f t="shared" si="4"/>
@@ -7420,7 +7345,7 @@
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="6" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="Q24" s="18">
         <f t="shared" si="0"/>
@@ -7459,7 +7384,7 @@
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="15" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="L25" s="18">
         <f t="shared" si="4"/>
@@ -7474,7 +7399,7 @@
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="15" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="Q25" s="18">
         <f t="shared" si="0"/>
@@ -7531,7 +7456,7 @@
         <v>25</v>
       </c>
       <c r="Q26" s="18">
-        <f t="shared" ref="Q26:Q30" si="8">SUMIF($A$3:$A$65,P26,$B$3:$B$65)+SUMIF($F$3:$F$65,P26,$G$3:$G$65)+SUMIF($K$3:$K$65,P26,$L$3:$L$65)</f>
+        <f t="shared" ref="Q26:Q31" si="8">SUMIF($A$3:$A$65,P26,$B$3:$B$65)+SUMIF($F$3:$F$65,P26,$G$3:$G$65)+SUMIF($K$3:$K$65,P26,$L$3:$L$65)</f>
         <v>5.2546296296296325E-4</v>
       </c>
     </row>
@@ -7552,7 +7477,7 @@
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="2" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="G27" s="18">
         <f t="shared" si="2"/>
@@ -7591,7 +7516,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="B28" s="17">
         <f t="shared" si="6"/>
@@ -7606,7 +7531,7 @@
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="15" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="G28" s="18">
         <f t="shared" si="2"/>
@@ -7645,7 +7570,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="B29" s="17">
         <f t="shared" si="6"/>
@@ -7663,7 +7588,7 @@
         <v>25</v>
       </c>
       <c r="G29" s="18">
-        <f t="shared" ref="G29:G36" si="9">H29-$H$2</f>
+        <f t="shared" ref="G29:G31" si="9">H29-$H$2</f>
         <v>1.0682870370370403E-4</v>
       </c>
       <c r="H29" s="18">
@@ -7698,7 +7623,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="B30" s="17">
         <f t="shared" ref="B30:B33" si="10">C30-$C$2</f>
@@ -7713,7 +7638,7 @@
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="15" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="G30" s="18">
         <f t="shared" si="9"/>
@@ -7742,7 +7667,7 @@
         <v>4.3486111111111113E-3</v>
       </c>
       <c r="P30" s="15" t="s">
-        <v>281</v>
+        <v>249</v>
       </c>
       <c r="Q30" s="18">
         <f t="shared" si="8"/>
@@ -7766,7 +7691,7 @@
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="15" t="s">
-        <v>281</v>
+        <v>249</v>
       </c>
       <c r="G31" s="18">
         <f t="shared" si="9"/>
@@ -7781,7 +7706,7 @@
       </c>
       <c r="J31" s="7"/>
       <c r="K31" s="15" t="s">
-        <v>281</v>
+        <v>249</v>
       </c>
       <c r="L31" s="18">
         <f t="shared" si="7"/>
@@ -7795,16 +7720,16 @@
         <v>4.4060185185185192E-3</v>
       </c>
       <c r="P31" s="15" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="Q31" s="18">
-        <f t="shared" ref="Q31:Q36" si="11">SUMIF($A$3:$A$65,P31,$B$3:$B$65)+SUMIF($F$3:$F$65,P31,$G$3:$G$65)+SUMIF($K$3:$K$65,P31,$L$3:$L$65)</f>
-        <v>1.0120370370370368E-3</v>
+        <f t="shared" si="8"/>
+        <v>1.0021990740740742E-3</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="B32" s="17">
         <f t="shared" si="10"/>
@@ -7819,25 +7744,25 @@
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="15" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="G32" s="18">
-        <f t="shared" ref="G32:G37" si="12">H32-$H$2</f>
+        <f t="shared" ref="G32:G37" si="11">H32-$H$2</f>
         <v>1.2465277777777778E-4</v>
       </c>
       <c r="H32" s="18">
         <v>2.6518518518518519E-3</v>
       </c>
       <c r="I32" s="18">
-        <f t="shared" ref="I32:I37" si="13">H32+$I$1</f>
+        <f t="shared" ref="I32:I37" si="12">H32+$I$1</f>
         <v>2.6524305555555554E-3</v>
       </c>
       <c r="J32" s="7"/>
       <c r="K32" s="6" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="L32" s="18">
-        <f t="shared" ref="L32:L37" si="14">M32-$M$2</f>
+        <f t="shared" ref="L32:L37" si="13">M32-$M$2</f>
         <v>6.8657407407407382E-4</v>
       </c>
       <c r="M32" s="18">
@@ -7848,16 +7773,16 @@
         <v>4.5364583333333333E-3</v>
       </c>
       <c r="P32" s="15" t="s">
-        <v>265</v>
+        <v>225</v>
       </c>
       <c r="Q32" s="18">
-        <f t="shared" si="11"/>
-        <v>1.0137731481481488E-3</v>
+        <f t="shared" ref="Q32:Q38" si="14">SUMIF($A$3:$A$65,P32,$B$3:$B$65)+SUMIF($F$3:$F$65,P32,$G$3:$G$65)+SUMIF($K$3:$K$65,P32,$L$3:$L$65)</f>
+        <v>1.0120370370370368E-3</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>281</v>
+        <v>249</v>
       </c>
       <c r="B33" s="17">
         <f t="shared" si="10"/>
@@ -7875,22 +7800,22 @@
         <v>19</v>
       </c>
       <c r="G33" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1.3865740740740722E-4</v>
       </c>
       <c r="H33" s="18">
         <v>2.6658564814814813E-3</v>
       </c>
       <c r="I33" s="18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>2.6664351851851849E-3</v>
       </c>
       <c r="J33" s="7"/>
       <c r="K33" s="15" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="L33" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>7.2048611111111098E-4</v>
       </c>
       <c r="M33" s="18">
@@ -7901,230 +7826,269 @@
         <v>4.5703703703703705E-3</v>
       </c>
       <c r="P33" s="15" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="Q33" s="18">
-        <f t="shared" si="11"/>
-        <v>1.1341435185185183E-3</v>
+        <f t="shared" si="14"/>
+        <v>1.0137731481481488E-3</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
       <c r="B34" s="17">
         <f t="shared" ref="B34:B37" si="15">C34-$C$2</f>
-        <v>1.1979166666666648E-4</v>
+        <v>1.0787037037037015E-4</v>
       </c>
       <c r="C34" s="18">
-        <v>1.6403935185185185E-3</v>
+        <v>1.6284722222222221E-3</v>
       </c>
       <c r="D34" s="18">
         <f t="shared" si="1"/>
-        <v>1.6409722222222223E-3</v>
+        <v>1.6290509259259259E-3</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="15" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
       <c r="G34" s="18">
+        <f t="shared" si="11"/>
+        <v>1.4097222222222245E-4</v>
+      </c>
+      <c r="H34" s="18">
+        <v>2.6681712962962965E-3</v>
+      </c>
+      <c r="I34" s="18">
         <f t="shared" si="12"/>
-        <v>1.5682870370370373E-4</v>
-      </c>
-      <c r="H34" s="18">
-        <v>2.6840277777777778E-3</v>
-      </c>
-      <c r="I34" s="18">
-        <f t="shared" si="13"/>
-        <v>2.6846064814814814E-3</v>
+        <v>2.6687500000000001E-3</v>
       </c>
       <c r="J34" s="7"/>
       <c r="K34" s="15" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="L34" s="18">
-        <f t="shared" si="14"/>
-        <v>7.95023148148148E-4</v>
+        <f t="shared" si="13"/>
+        <v>7.5335648148148159E-4</v>
       </c>
       <c r="M34" s="18">
-        <v>4.6443287037037035E-3</v>
+        <v>4.6026620370370371E-3</v>
       </c>
       <c r="N34" s="18">
         <f t="shared" si="5"/>
-        <v>4.6449074074074075E-3</v>
-      </c>
-      <c r="P34" s="6" t="s">
-        <v>268</v>
+        <v>4.6032407407407411E-3</v>
+      </c>
+      <c r="P34" s="15" t="s">
+        <v>230</v>
       </c>
       <c r="Q34" s="18">
-        <f t="shared" si="11"/>
-        <v>1.2182870370370366E-3</v>
+        <f t="shared" si="14"/>
+        <v>1.1341435185185183E-3</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>268</v>
+      <c r="A35" s="15" t="s">
+        <v>230</v>
       </c>
       <c r="B35" s="17">
-        <f t="shared" si="15"/>
-        <v>2.4618055555555526E-4</v>
+        <f t="shared" ref="B35:B38" si="16">C35-$C$2</f>
+        <v>1.1979166666666648E-4</v>
       </c>
       <c r="C35" s="18">
-        <v>1.7667824074074072E-3</v>
+        <v>1.6403935185185185E-3</v>
       </c>
       <c r="D35" s="18">
-        <f t="shared" si="1"/>
-        <v>1.767361111111111E-3</v>
+        <f t="shared" ref="D35:D38" si="17">C35+$D$1</f>
+        <v>1.6409722222222223E-3</v>
       </c>
       <c r="E35" s="1"/>
-      <c r="F35" s="6" t="s">
-        <v>268</v>
+      <c r="F35" s="15" t="s">
+        <v>230</v>
       </c>
       <c r="G35" s="18">
-        <f t="shared" si="12"/>
-        <v>2.8553240740740752E-4</v>
+        <f t="shared" ref="G35:G38" si="18">H35-$H$2</f>
+        <v>1.5682870370370373E-4</v>
       </c>
       <c r="H35" s="18">
-        <v>2.8127314814814816E-3</v>
+        <v>2.6840277777777778E-3</v>
       </c>
       <c r="I35" s="18">
-        <f t="shared" si="13"/>
-        <v>2.8133101851851852E-3</v>
+        <f t="shared" ref="I35:I38" si="19">H35+$I$1</f>
+        <v>2.6846064814814814E-3</v>
       </c>
       <c r="J35" s="7"/>
       <c r="K35" s="15" t="s">
-        <v>265</v>
+        <v>225</v>
       </c>
       <c r="L35" s="18">
+        <f t="shared" ref="L35:L38" si="20">M35-$M$2</f>
+        <v>7.95023148148148E-4</v>
+      </c>
+      <c r="M35" s="18">
+        <v>4.6443287037037035E-3</v>
+      </c>
+      <c r="N35" s="18">
+        <f t="shared" ref="N35:N38" si="21">M35+$N$1</f>
+        <v>4.6449074074074075E-3</v>
+      </c>
+      <c r="P35" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q35" s="18">
         <f t="shared" si="14"/>
-        <v>8.1851851851851877E-4</v>
-      </c>
-      <c r="M35" s="18">
-        <v>4.6678240740740742E-3</v>
-      </c>
-      <c r="N35" s="18">
-        <f t="shared" si="5"/>
-        <v>4.6684027777777783E-3</v>
-      </c>
-      <c r="P35" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q35" s="18">
-        <f t="shared" si="11"/>
-        <v>1.3026620370370371E-3</v>
+        <v>1.2182870370370366E-3</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
-        <v>240</v>
+      <c r="A36" s="6" t="s">
+        <v>236</v>
       </c>
       <c r="B36" s="17">
-        <f t="shared" si="15"/>
-        <v>2.7604166666666662E-4</v>
+        <f t="shared" si="16"/>
+        <v>2.4618055555555526E-4</v>
       </c>
       <c r="C36" s="18">
-        <v>1.7966435185185186E-3</v>
+        <v>1.7667824074074072E-3</v>
       </c>
       <c r="D36" s="18">
-        <f t="shared" si="1"/>
-        <v>1.7972222222222224E-3</v>
+        <f t="shared" si="17"/>
+        <v>1.767361111111111E-3</v>
       </c>
       <c r="E36" s="1"/>
-      <c r="F36" s="15" t="s">
-        <v>240</v>
+      <c r="F36" s="6" t="s">
+        <v>236</v>
       </c>
       <c r="G36" s="18">
-        <f t="shared" si="12"/>
-        <v>3.0613425925925947E-4</v>
+        <f t="shared" si="18"/>
+        <v>2.8553240740740752E-4</v>
       </c>
       <c r="H36" s="18">
-        <v>2.8333333333333335E-3</v>
+        <v>2.8127314814814816E-3</v>
       </c>
       <c r="I36" s="18">
-        <f t="shared" si="13"/>
-        <v>2.8339120370370371E-3</v>
+        <f t="shared" si="19"/>
+        <v>2.8133101851851852E-3</v>
       </c>
       <c r="J36" s="7"/>
       <c r="K36" s="15" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="L36" s="18">
+        <f t="shared" si="20"/>
+        <v>8.1851851851851877E-4</v>
+      </c>
+      <c r="M36" s="18">
+        <v>4.6678240740740742E-3</v>
+      </c>
+      <c r="N36" s="18">
+        <f t="shared" si="21"/>
+        <v>4.6684027777777783E-3</v>
+      </c>
+      <c r="P36" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q36" s="18">
         <f t="shared" si="14"/>
+        <v>1.3026620370370371E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="B37" s="17">
+        <f t="shared" si="16"/>
+        <v>2.7604166666666662E-4</v>
+      </c>
+      <c r="C37" s="18">
+        <v>1.7966435185185186E-3</v>
+      </c>
+      <c r="D37" s="18">
+        <f t="shared" si="17"/>
+        <v>1.7972222222222224E-3</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G37" s="18">
+        <f t="shared" si="18"/>
+        <v>3.0613425925925947E-4</v>
+      </c>
+      <c r="H37" s="18">
+        <v>2.8333333333333335E-3</v>
+      </c>
+      <c r="I37" s="18">
+        <f t="shared" si="19"/>
+        <v>2.8339120370370371E-3</v>
+      </c>
+      <c r="K37" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="L37" s="18">
+        <f t="shared" si="20"/>
         <v>8.5752314814814806E-4</v>
       </c>
-      <c r="M36" s="18">
+      <c r="M37" s="18">
         <v>4.7068287037037035E-3</v>
       </c>
-      <c r="N36" s="18">
-        <f t="shared" si="5"/>
+      <c r="N37" s="18">
+        <f t="shared" si="21"/>
         <v>4.7074074074074075E-3</v>
       </c>
-      <c r="P36" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q36" s="18">
-        <f t="shared" si="11"/>
+      <c r="P37" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q37" s="18">
+        <f t="shared" si="14"/>
         <v>2.9177083333333334E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="B37" s="17">
-        <f t="shared" si="15"/>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="B38" s="17">
+        <f t="shared" si="16"/>
         <v>5.4398148148148123E-4</v>
       </c>
-      <c r="C37" s="18">
+      <c r="C38" s="18">
         <v>2.0645833333333332E-3</v>
       </c>
-      <c r="D37" s="18">
-        <f t="shared" si="1"/>
+      <c r="D38" s="18">
+        <f t="shared" si="17"/>
         <v>2.0651620370370368E-3</v>
       </c>
-      <c r="E37" s="5"/>
-      <c r="F37" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="G37" s="18">
-        <f t="shared" si="12"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G38" s="18">
+        <f t="shared" si="18"/>
         <v>5.8761574074074055E-4</v>
       </c>
-      <c r="H37" s="18">
+      <c r="H38" s="18">
         <v>3.1148148148148146E-3</v>
       </c>
-      <c r="I37" s="18">
-        <f t="shared" si="13"/>
+      <c r="I38" s="18">
+        <f t="shared" si="19"/>
         <v>3.1153935185185182E-3</v>
       </c>
-      <c r="K37" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="L37" s="18">
-        <f t="shared" si="14"/>
+      <c r="K38" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="L38" s="18">
+        <f t="shared" si="20"/>
         <v>1.7861111111111116E-3</v>
       </c>
-      <c r="M37" s="18">
+      <c r="M38" s="18">
         <v>5.635416666666667E-3</v>
       </c>
-      <c r="N37" s="18">
-        <f t="shared" si="5"/>
+      <c r="N38" s="18">
+        <f t="shared" si="21"/>
         <v>5.6359953703703711E-3</v>
       </c>
-      <c r="P37" s="15"/>
-      <c r="Q37" s="18"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
+      <c r="P38" s="15"/>
       <c r="Q38" s="18"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
@@ -8675,10 +8639,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:P110"/>
+  <dimension ref="A1:Q110"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="P47" sqref="P47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8691,13 +8655,13 @@
     <col min="12" max="12" width="7.5703125" style="6" customWidth="1"/>
     <col min="13" max="13" width="8.85546875" style="6"/>
     <col min="14" max="14" width="41.7109375" style="6" customWidth="1"/>
-    <col min="15" max="16" width="7.5703125" style="6" customWidth="1"/>
-    <col min="17" max="16384" width="8.85546875" style="6"/>
+    <col min="15" max="17" width="7.5703125" style="6" customWidth="1"/>
+    <col min="18" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
@@ -8706,28 +8670,34 @@
       </c>
       <c r="E1" s="18"/>
       <c r="F1" s="21" t="s">
-        <v>243</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
       <c r="I1" s="18">
         <v>1.6550925925925924E-5</v>
       </c>
+      <c r="J1" s="18"/>
       <c r="K1" s="9" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="L1" s="16"/>
       <c r="N1" s="9" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+      <c r="Q1" s="18">
+        <v>1.6550925925925924E-5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="D2" s="18">
         <f>C2+$D$1</f>
@@ -8738,18 +8708,18 @@
         <v>23</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="I2" s="18">
         <f>H2+$I$1</f>
         <v>2.5846064814814816E-3</v>
       </c>
-      <c r="J2" s="3"/>
+      <c r="J2" s="1"/>
       <c r="K2" s="15" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="L2" s="18">
         <f t="shared" ref="L2:L30" si="0">SUMIF($A$3:$A$65,K2,$B$3:$B$65)+SUMIF($F$3:$F$65,K2,$G$3:$G$65)</f>
@@ -8765,8 +8735,12 @@
       <c r="P2" s="17">
         <v>2.7230324074074071E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" s="17">
+        <f>P2+$Q$1</f>
+        <v>2.739583333333333E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>24</v>
       </c>
@@ -8775,7 +8749,7 @@
         <v>9.6643518518518476E-5</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="D3" s="18">
         <f t="shared" ref="D3:D33" si="1">C3+$D$1</f>
@@ -8783,14 +8757,14 @@
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="14" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="G3" s="18">
         <f t="shared" ref="G3:G33" si="2">H3-$H$2</f>
         <v>7.6967592592592452E-5</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="I3" s="18">
         <f t="shared" ref="I3:I33" si="3">H3+$I$1</f>
@@ -8805,26 +8779,30 @@
         <v>1.753472222222217E-4</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="O3" s="17">
         <f t="shared" ref="O3:O6" si="4">P3-$C$2</f>
-        <v>6.6493055555555533E-4</v>
+        <v>6.644675925925928E-4</v>
       </c>
       <c r="P3" s="17">
-        <v>2.7450231481481479E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2.7445601851851854E-3</v>
+      </c>
+      <c r="Q3" s="17">
+        <f t="shared" ref="Q3:Q6" si="5">P3+$Q$1</f>
+        <v>2.7611111111111113E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="B4" s="17">
         <f>C4-$C$2</f>
         <v>9.7337962962962699E-5</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="D4" s="18">
         <f t="shared" si="1"/>
@@ -8839,7 +8817,7 @@
         <v>7.8703703703703227E-5</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="I4" s="18">
         <f t="shared" si="3"/>
@@ -8854,7 +8832,7 @@
         <v>1.8194444444444464E-4</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="O4" s="17">
         <f t="shared" si="4"/>
@@ -8863,17 +8841,21 @@
       <c r="P4" s="17">
         <v>2.7662037037037034E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q4" s="17">
+        <f t="shared" si="5"/>
+        <v>2.7827546296296294E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B5" s="17">
-        <f t="shared" ref="B5:B33" si="5">C5-$C$2</f>
+        <f t="shared" ref="B5:B33" si="6">C5-$C$2</f>
         <v>9.9074074074073908E-5</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="D5" s="18">
         <f t="shared" si="1"/>
@@ -8885,25 +8867,25 @@
       </c>
       <c r="G5" s="18">
         <f t="shared" si="2"/>
-        <v>8.0092592592592542E-5</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>213</v>
+        <v>7.9861111111111278E-5</v>
+      </c>
+      <c r="H5" s="17">
+        <v>2.6479166666666669E-3</v>
       </c>
       <c r="I5" s="18">
         <f t="shared" si="3"/>
-        <v>2.6646990740740741E-3</v>
+        <v>2.6644675925925928E-3</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="15" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="L5" s="18">
         <f t="shared" si="0"/>
         <v>1.8414351851851795E-4</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="O5" s="17">
         <f t="shared" si="4"/>
@@ -8912,17 +8894,21 @@
       <c r="P5" s="18">
         <v>3.3368055555555551E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q5" s="17">
+        <f t="shared" si="5"/>
+        <v>3.353356481481481E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0127314814814851E-4</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="D6" s="18">
         <f t="shared" si="1"/>
@@ -8937,7 +8923,7 @@
         <v>8.0671296296296133E-5</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="I6" s="18">
         <f t="shared" si="3"/>
@@ -8945,33 +8931,37 @@
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="15" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="L6" s="18">
         <f t="shared" si="0"/>
-        <v>1.8923611111111094E-4</v>
+        <v>1.8946759259259221E-4</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="O6" s="17">
         <f t="shared" si="4"/>
-        <v>1.6725694444444444E-3</v>
+        <v>1.6748842592592592E-3</v>
       </c>
       <c r="P6" s="18">
-        <v>3.752662037037037E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3.7549768518518518E-3</v>
+      </c>
+      <c r="Q6" s="17">
+        <f t="shared" si="5"/>
+        <v>3.7715277777777777E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0138888888888914E-4</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="D7" s="18">
         <f t="shared" si="1"/>
@@ -8986,7 +8976,7 @@
         <v>8.2986111111110934E-5</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="I7" s="18">
         <f t="shared" si="3"/>
@@ -9002,17 +8992,18 @@
       </c>
       <c r="O7" s="18"/>
       <c r="P7" s="18"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q7" s="18"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B8" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0509259259259239E-4</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="D8" s="18">
         <f t="shared" si="1"/>
@@ -9020,18 +9011,18 @@
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="14" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G8" s="18">
         <f t="shared" si="2"/>
-        <v>8.4143518518518551E-5</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>216</v>
+        <v>8.4374999999999815E-5</v>
+      </c>
+      <c r="H8" s="17">
+        <v>2.6524305555555554E-3</v>
       </c>
       <c r="I8" s="18">
         <f t="shared" si="3"/>
-        <v>2.6687500000000001E-3</v>
+        <v>2.6689814814814814E-3</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="15" t="s">
@@ -9042,36 +9033,37 @@
         <v>1.9629629629629641E-4</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="O8" s="18"/>
       <c r="P8" s="18"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q8" s="18"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="17">
-        <f t="shared" si="5"/>
-        <v>1.0740740740740719E-4</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>190</v>
+        <f t="shared" si="6"/>
+        <v>1.0775462962962995E-4</v>
+      </c>
+      <c r="C9" s="17">
+        <v>2.1878472222222225E-3</v>
       </c>
       <c r="D9" s="18">
         <f t="shared" si="1"/>
-        <v>2.2040509259259257E-3</v>
+        <v>2.2043981481481485E-3</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="14" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="G9" s="18">
         <f t="shared" si="2"/>
         <v>8.5069444444444038E-5</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="I9" s="18">
         <f t="shared" si="3"/>
@@ -9086,21 +9078,22 @@
         <v>2.0057870370370412E-4</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>266</v>
+        <v>234</v>
       </c>
       <c r="O9" s="18"/>
       <c r="P9" s="18"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q9" s="18"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0891203703703714E-4</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="D10" s="18">
         <f t="shared" si="1"/>
@@ -9115,7 +9108,7 @@
         <v>8.7384259259259273E-5</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="I10" s="18">
         <f t="shared" si="3"/>
@@ -9127,24 +9120,25 @@
       </c>
       <c r="L10" s="18">
         <f t="shared" si="0"/>
-        <v>2.0196759259259256E-4</v>
+        <v>2.0150462962963004E-4</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="O10" s="18"/>
       <c r="P10" s="18"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q10" s="18"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="B11" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0891203703703714E-4</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="D11" s="18">
         <f t="shared" si="1"/>
@@ -9159,7 +9153,7 @@
         <v>8.8773148148147719E-5</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="I11" s="18">
         <f t="shared" si="3"/>
@@ -9171,24 +9165,25 @@
       </c>
       <c r="L11" s="18">
         <f t="shared" si="0"/>
-        <v>2.0277777777777785E-4</v>
+        <v>2.0312500000000061E-4</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="O11" s="18"/>
       <c r="P11" s="18"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q11" s="18"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0972222222222243E-4</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="D12" s="18">
         <f t="shared" si="1"/>
@@ -9196,18 +9191,18 @@
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="14" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="G12" s="18">
         <f t="shared" si="2"/>
-        <v>8.9930555555555337E-5</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>220</v>
+        <v>9.0162037037037034E-5</v>
+      </c>
+      <c r="H12" s="17">
+        <v>2.6582175925925927E-3</v>
       </c>
       <c r="I12" s="18">
         <f t="shared" si="3"/>
-        <v>2.6745370370370369E-3</v>
+        <v>2.6747685185185186E-3</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="15" t="s">
@@ -9215,25 +9210,26 @@
       </c>
       <c r="L12" s="18">
         <f t="shared" si="0"/>
-        <v>2.0335648148148144E-4</v>
+        <v>2.0370370370370334E-4</v>
       </c>
       <c r="O12" s="18"/>
       <c r="P12" s="18"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q12" s="18"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="17">
-        <f t="shared" si="5"/>
-        <v>1.1053240740740771E-4</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>193</v>
+        <f t="shared" si="6"/>
+        <v>1.1087962962962961E-4</v>
+      </c>
+      <c r="C13" s="17">
+        <v>2.1909722222222222E-3</v>
       </c>
       <c r="D13" s="18">
         <f t="shared" si="1"/>
-        <v>2.2071759259259262E-3</v>
+        <v>2.2075231481481481E-3</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="14" t="s">
@@ -9244,7 +9240,7 @@
         <v>9.0856481481481691E-5</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="I13" s="18">
         <f t="shared" si="3"/>
@@ -9256,25 +9252,26 @@
       </c>
       <c r="L13" s="18">
         <f t="shared" si="0"/>
-        <v>2.0439814814814843E-4</v>
+        <v>2.0486111111111139E-4</v>
       </c>
       <c r="O13" s="18"/>
       <c r="P13" s="18"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q13" s="18"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="17">
-        <f t="shared" si="5"/>
-        <v>1.1122685185185194E-4</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>194</v>
+        <f t="shared" si="6"/>
+        <v>1.116898148148149E-4</v>
+      </c>
+      <c r="C14" s="17">
+        <v>2.1917824074074075E-3</v>
       </c>
       <c r="D14" s="18">
         <f t="shared" si="1"/>
-        <v>2.2078703703703705E-3</v>
+        <v>2.2083333333333334E-3</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="14" t="s">
@@ -9285,7 +9282,7 @@
         <v>9.2824074074073729E-5</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="I14" s="18">
         <f t="shared" si="3"/>
@@ -9301,17 +9298,18 @@
       </c>
       <c r="O14" s="18"/>
       <c r="P14" s="18"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q14" s="18"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1759259259259275E-4</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="D15" s="18">
         <f t="shared" si="1"/>
@@ -9326,7 +9324,7 @@
         <v>9.3055555555555426E-5</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="I15" s="18">
         <f t="shared" si="3"/>
@@ -9342,17 +9340,18 @@
       </c>
       <c r="O15" s="18"/>
       <c r="P15" s="18"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q15" s="18"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.2013888888888881E-4</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="D16" s="18">
         <f t="shared" si="1"/>
@@ -9367,7 +9366,7 @@
         <v>9.3171296296296491E-5</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="I16" s="18">
         <f t="shared" si="3"/>
@@ -9383,21 +9382,22 @@
       </c>
       <c r="O16" s="18"/>
       <c r="P16" s="18"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q16" s="18"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="17">
-        <f t="shared" si="5"/>
-        <v>1.2187500000000002E-4</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>197</v>
+        <f t="shared" si="6"/>
+        <v>1.2164351851851876E-4</v>
+      </c>
+      <c r="C17" s="17">
+        <v>2.2017361111111113E-3</v>
       </c>
       <c r="D17" s="18">
         <f t="shared" si="1"/>
-        <v>2.2185185185185185E-3</v>
+        <v>2.2182870370370373E-3</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="14" t="s">
@@ -9408,7 +9408,7 @@
         <v>9.4907407407407267E-5</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="I17" s="18">
         <f t="shared" si="3"/>
@@ -9416,7 +9416,7 @@
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="15" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="L17" s="18">
         <f t="shared" si="0"/>
@@ -9424,17 +9424,18 @@
       </c>
       <c r="O17" s="18"/>
       <c r="P17" s="18"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q17" s="18"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.2824074074074083E-4</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="D18" s="18">
         <f t="shared" si="1"/>
@@ -9449,7 +9450,7 @@
         <v>9.5370370370370661E-5</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="I18" s="18">
         <f t="shared" si="3"/>
@@ -9465,17 +9466,18 @@
       </c>
       <c r="O18" s="18"/>
       <c r="P18" s="18"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q18" s="18"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.2939814814814802E-4</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="D19" s="18">
         <f t="shared" si="1"/>
@@ -9490,7 +9492,7 @@
         <v>1.0358796296296244E-4</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="I19" s="18">
         <f t="shared" si="3"/>
@@ -9498,29 +9500,30 @@
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="15" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="L19" s="18">
         <f t="shared" si="0"/>
-        <v>2.468749999999997E-4</v>
+        <v>2.4733796296296309E-4</v>
       </c>
       <c r="O19" s="18"/>
       <c r="P19" s="18"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q19" s="18"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="B20" s="17">
-        <f t="shared" si="5"/>
-        <v>1.3946759259259251E-4</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>200</v>
+        <f t="shared" si="6"/>
+        <v>1.3900462962962955E-4</v>
+      </c>
+      <c r="C20" s="17">
+        <v>2.2190972222222221E-3</v>
       </c>
       <c r="D20" s="18">
         <f t="shared" si="1"/>
-        <v>2.236111111111111E-3</v>
+        <v>2.2356481481481481E-3</v>
       </c>
       <c r="E20" s="18"/>
       <c r="F20" s="14" t="s">
@@ -9531,7 +9534,7 @@
         <v>1.0416666666666647E-4</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="I20" s="18">
         <f t="shared" si="3"/>
@@ -9543,21 +9546,22 @@
       </c>
       <c r="L20" s="18">
         <f t="shared" si="0"/>
-        <v>2.5057870370370338E-4</v>
+        <v>2.5266203703703692E-4</v>
       </c>
       <c r="O20" s="18"/>
       <c r="P20" s="18"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q20" s="18"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.4212962962962964E-4</v>
       </c>
-      <c r="C21" s="17" t="s">
-        <v>201</v>
+      <c r="C21" s="17">
+        <v>2.2222222222222222E-3</v>
       </c>
       <c r="D21" s="18">
         <f t="shared" si="1"/>
@@ -9565,14 +9569,14 @@
       </c>
       <c r="E21" s="18"/>
       <c r="F21" s="14" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="G21" s="18">
         <f t="shared" si="2"/>
         <v>1.0439814814814773E-4</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="I21" s="18">
         <f t="shared" si="3"/>
@@ -9580,25 +9584,26 @@
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="15" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="L21" s="18">
         <f t="shared" si="0"/>
-        <v>2.5115740740740697E-4</v>
+        <v>2.5034722222222212E-4</v>
       </c>
       <c r="O21" s="18"/>
       <c r="P21" s="18"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q21" s="18"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="B22" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.4756944444444453E-4</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="D22" s="18">
         <f t="shared" si="1"/>
@@ -9610,14 +9615,14 @@
       </c>
       <c r="G22" s="18">
         <f t="shared" si="2"/>
-        <v>1.0613425925925894E-4</v>
-      </c>
-      <c r="H22" s="17" t="s">
-        <v>230</v>
+        <v>1.0590277777777811E-4</v>
+      </c>
+      <c r="H22" s="17">
+        <v>2.6739583333333337E-3</v>
       </c>
       <c r="I22" s="18">
         <f t="shared" si="3"/>
-        <v>2.6907407407407405E-3</v>
+        <v>2.6905092592592597E-3</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="15" t="s">
@@ -9629,17 +9634,18 @@
       </c>
       <c r="O22" s="18"/>
       <c r="P22" s="18"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q22" s="18"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B23" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.4988425925925933E-4</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="D23" s="18">
         <f t="shared" si="1"/>
@@ -9654,7 +9660,7 @@
         <v>1.0752314814814826E-4</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="I23" s="18">
         <f t="shared" si="3"/>
@@ -9662,7 +9668,7 @@
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="15" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="L23" s="18">
         <f t="shared" si="0"/>
@@ -9670,36 +9676,37 @@
       </c>
       <c r="O23" s="18"/>
       <c r="P23" s="18"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q23" s="18"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="17">
-        <f t="shared" si="5"/>
-        <v>1.5451388888888893E-4</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>204</v>
+        <f t="shared" si="6"/>
+        <v>1.5428240740740723E-4</v>
+      </c>
+      <c r="C24" s="17">
+        <v>2.2343749999999998E-3</v>
       </c>
       <c r="D24" s="18">
         <f t="shared" si="1"/>
-        <v>2.2511574074074074E-3</v>
+        <v>2.2509259259259258E-3</v>
       </c>
       <c r="E24" s="18"/>
-      <c r="F24" s="14" t="s">
-        <v>10</v>
+      <c r="F24" s="15" t="s">
+        <v>164</v>
       </c>
       <c r="G24" s="18">
-        <f t="shared" si="2"/>
-        <v>1.0844907407407374E-4</v>
+        <f t="shared" ref="G24:G25" si="7">H24-$H$2</f>
+        <v>1.0868055555555544E-4</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="I24" s="18">
-        <f t="shared" si="3"/>
-        <v>2.6930555555555553E-3</v>
+        <f t="shared" ref="I24:I25" si="8">H24+$I$1</f>
+        <v>2.693287037037037E-3</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="15" t="s">
@@ -9707,40 +9714,41 @@
       </c>
       <c r="L24" s="18">
         <f t="shared" si="0"/>
-        <v>2.6064814814814787E-4</v>
+        <v>2.6018518518518535E-4</v>
       </c>
       <c r="O24" s="18"/>
       <c r="P24" s="18"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>182</v>
+      <c r="Q24" s="18"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="B25" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.5694444444444436E-4</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="D25" s="18">
         <f t="shared" si="1"/>
         <v>2.2535879629629629E-3</v>
       </c>
       <c r="E25" s="18"/>
-      <c r="F25" s="14" t="s">
-        <v>181</v>
+      <c r="F25" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="G25" s="18">
-        <f t="shared" si="2"/>
-        <v>1.0868055555555544E-4</v>
-      </c>
-      <c r="H25" s="17" t="s">
-        <v>233</v>
+        <f t="shared" si="7"/>
+        <v>1.1053240740740728E-4</v>
+      </c>
+      <c r="H25" s="17">
+        <v>2.6785879629629629E-3</v>
       </c>
       <c r="I25" s="18">
-        <f t="shared" si="3"/>
-        <v>2.693287037037037E-3</v>
+        <f t="shared" si="8"/>
+        <v>2.6951388888888888E-3</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="15" t="s">
@@ -9752,40 +9760,41 @@
       </c>
       <c r="O25" s="18"/>
       <c r="P25" s="18"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q25" s="18"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B26" s="17">
-        <f t="shared" si="5"/>
-        <v>1.5694444444444436E-4</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>205</v>
+        <f t="shared" si="6"/>
+        <v>1.5717592592592606E-4</v>
+      </c>
+      <c r="C26" s="17">
+        <v>2.2372685185185186E-3</v>
       </c>
       <c r="D26" s="18">
         <f t="shared" si="1"/>
-        <v>2.2535879629629629E-3</v>
+        <v>2.2538194444444446E-3</v>
       </c>
       <c r="E26" s="18"/>
-      <c r="F26" s="14" t="s">
-        <v>1</v>
+      <c r="F26" s="15" t="s">
+        <v>163</v>
       </c>
       <c r="G26" s="18">
         <f t="shared" si="2"/>
-        <v>1.1157407407407383E-4</v>
-      </c>
-      <c r="H26" s="17" t="s">
-        <v>234</v>
+        <v>1.1134259259259257E-4</v>
+      </c>
+      <c r="H26" s="17">
+        <v>2.6793981481481482E-3</v>
       </c>
       <c r="I26" s="18">
         <f t="shared" si="3"/>
-        <v>2.6961805555555554E-3</v>
+        <v>2.6959490740740741E-3</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="15" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="L26" s="18">
         <f t="shared" si="0"/>
@@ -9793,36 +9802,37 @@
       </c>
       <c r="O26" s="18"/>
       <c r="P26" s="18"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q26" s="18"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="B27" s="17">
+        <f t="shared" si="6"/>
+        <v>1.5717592592592606E-4</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="D27" s="18">
+        <f t="shared" si="1"/>
+        <v>2.2538194444444446E-3</v>
+      </c>
+      <c r="E27" s="18"/>
+      <c r="F27" s="15" t="s">
         <v>1</v>
-      </c>
-      <c r="B27" s="17">
-        <f t="shared" si="5"/>
-        <v>1.5717592592592606E-4</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="D27" s="18">
-        <f t="shared" si="1"/>
-        <v>2.2538194444444446E-3</v>
-      </c>
-      <c r="E27" s="18"/>
-      <c r="F27" s="14" t="s">
-        <v>180</v>
       </c>
       <c r="G27" s="18">
         <f t="shared" si="2"/>
-        <v>1.1168981481481446E-4</v>
-      </c>
-      <c r="H27" s="17" t="s">
-        <v>235</v>
+        <v>1.1157407407407383E-4</v>
+      </c>
+      <c r="H27" s="17">
+        <v>2.6796296296296295E-3</v>
       </c>
       <c r="I27" s="18">
         <f t="shared" si="3"/>
-        <v>2.696296296296296E-3</v>
+        <v>2.6961805555555554E-3</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="15" t="s">
@@ -9834,17 +9844,18 @@
       </c>
       <c r="O27" s="18"/>
       <c r="P27" s="18"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q27" s="18"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="B28" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.5752314814814839E-4</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="D28" s="18">
         <f t="shared" si="1"/>
@@ -9859,7 +9870,7 @@
         <v>1.1620370370370387E-4</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="I28" s="18">
         <f t="shared" si="3"/>
@@ -9867,7 +9878,7 @@
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="15" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="L28" s="18">
         <f t="shared" si="0"/>
@@ -9875,13 +9886,14 @@
       </c>
       <c r="O28" s="18"/>
       <c r="P28" s="18"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q28" s="18"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="B29" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.8379629629629605E-4</v>
       </c>
       <c r="C29" s="17">
@@ -9893,14 +9905,14 @@
       </c>
       <c r="E29" s="18"/>
       <c r="F29" s="14" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="G29" s="18">
         <f t="shared" si="2"/>
         <v>1.1909722222222226E-4</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="I29" s="18">
         <f t="shared" si="3"/>
@@ -9908,33 +9920,34 @@
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="15" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="L29" s="18">
         <f t="shared" si="0"/>
-        <v>3.3773148148148182E-4</v>
+        <v>3.396990740740743E-4</v>
       </c>
       <c r="O29" s="18"/>
       <c r="P29" s="18"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q29" s="18"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="B30" s="17">
-        <f t="shared" si="5"/>
-        <v>2.0266203703703722E-4</v>
+        <f t="shared" si="6"/>
+        <v>2.0462962962962969E-4</v>
       </c>
       <c r="C30" s="17">
-        <v>2.2827546296296298E-3</v>
+        <v>2.2847222222222223E-3</v>
       </c>
       <c r="D30" s="18">
         <f t="shared" si="1"/>
-        <v>2.2993055555555557E-3</v>
+        <v>2.3012731481481482E-3</v>
       </c>
       <c r="E30" s="18"/>
       <c r="F30" s="15" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="G30" s="18">
         <f t="shared" si="2"/>
@@ -9949,7 +9962,7 @@
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="15" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="L30" s="18">
         <f t="shared" si="0"/>
@@ -9957,13 +9970,14 @@
       </c>
       <c r="O30" s="18"/>
       <c r="P30" s="18"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q30" s="18"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="B31" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.8796296296296296E-4</v>
       </c>
       <c r="C31" s="17">
@@ -9975,7 +9989,7 @@
       </c>
       <c r="E31" s="18"/>
       <c r="F31" s="15" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="G31" s="18">
         <f t="shared" si="2"/>
@@ -9993,30 +10007,31 @@
         <v>9</v>
       </c>
       <c r="L31" s="18">
-        <f t="shared" ref="L31:L32" si="6">SUMIF($A$3:$A$65,K31,$B$3:$B$65)+SUMIF($F$3:$F$65,K31,$G$3:$G$65)</f>
-        <v>5.3148148148148174E-4</v>
+        <f t="shared" ref="L31:L32" si="9">SUMIF($A$3:$A$65,K31,$B$3:$B$65)+SUMIF($F$3:$F$65,K31,$G$3:$G$65)</f>
+        <v>5.3159722222222237E-4</v>
       </c>
       <c r="O31" s="18"/>
       <c r="P31" s="18"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q31" s="18"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B32" s="17">
-        <f t="shared" si="5"/>
-        <v>4.1527777777777787E-4</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>208</v>
+        <f t="shared" si="6"/>
+        <v>4.153935185185185E-4</v>
+      </c>
+      <c r="C32" s="17">
+        <v>2.4954861111111111E-3</v>
       </c>
       <c r="D32" s="18">
         <f t="shared" si="1"/>
-        <v>2.5119212962962964E-3</v>
+        <v>2.512037037037037E-3</v>
       </c>
       <c r="E32" s="18"/>
       <c r="F32" s="15" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="G32" s="18">
         <f t="shared" si="2"/>
@@ -10034,22 +10049,23 @@
         <v>2</v>
       </c>
       <c r="L32" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5.364583333333328E-4</v>
       </c>
       <c r="O32" s="18"/>
       <c r="P32" s="18"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q32" s="18"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B33" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.3287037037037035E-4</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="D33" s="18">
         <f t="shared" si="1"/>
@@ -10075,8 +10091,9 @@
       <c r="L33" s="18"/>
       <c r="O33" s="18"/>
       <c r="P33" s="18"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q33" s="18"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="15"/>
       <c r="B34" s="17"/>
       <c r="C34" s="18"/>
@@ -10091,21 +10108,24 @@
       <c r="L34" s="18"/>
       <c r="O34" s="18"/>
       <c r="P34" s="18"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q34" s="18"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
-      <c r="G35" s="17"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="18"/>
       <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
+      <c r="I35" s="18"/>
       <c r="J35" s="1"/>
       <c r="L35" s="18"/>
       <c r="O35" s="18"/>
       <c r="P35" s="18"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q35" s="18"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
@@ -10119,8 +10139,9 @@
       <c r="L36" s="18"/>
       <c r="O36" s="18"/>
       <c r="P36" s="18"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q36" s="18"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B37" s="17"/>
       <c r="C37" s="18"/>
       <c r="D37" s="5"/>
@@ -10133,8 +10154,9 @@
       <c r="L37" s="18"/>
       <c r="O37" s="18"/>
       <c r="P37" s="18"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q37" s="18"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B38" s="17"/>
       <c r="C38" s="18"/>
       <c r="D38" s="5"/>
@@ -10146,8 +10168,9 @@
       <c r="L38" s="18"/>
       <c r="O38" s="18"/>
       <c r="P38" s="18"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q38" s="18"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B39" s="17"/>
       <c r="C39" s="18"/>
       <c r="D39" s="5"/>
@@ -10159,8 +10182,9 @@
       <c r="L39" s="18"/>
       <c r="O39" s="18"/>
       <c r="P39" s="18"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q39" s="18"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B40" s="17"/>
       <c r="C40" s="18"/>
       <c r="D40" s="5"/>
@@ -10172,8 +10196,9 @@
       <c r="L40" s="18"/>
       <c r="O40" s="18"/>
       <c r="P40" s="18"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q40" s="18"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B41" s="17"/>
       <c r="C41" s="18"/>
       <c r="D41" s="5"/>
@@ -10185,8 +10210,9 @@
       <c r="L41" s="18"/>
       <c r="O41" s="18"/>
       <c r="P41" s="18"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q41" s="18"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B42" s="17"/>
       <c r="C42" s="18"/>
       <c r="D42" s="5"/>
@@ -10198,8 +10224,9 @@
       <c r="L42" s="18"/>
       <c r="O42" s="18"/>
       <c r="P42" s="18"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q42" s="18"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B43" s="17"/>
       <c r="C43" s="18"/>
       <c r="D43" s="5"/>
@@ -10211,8 +10238,9 @@
       <c r="L43" s="18"/>
       <c r="O43" s="18"/>
       <c r="P43" s="18"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q43" s="18"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B44" s="17"/>
       <c r="C44" s="18"/>
       <c r="D44" s="5"/>
@@ -10224,8 +10252,9 @@
       <c r="L44" s="18"/>
       <c r="O44" s="18"/>
       <c r="P44" s="18"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q44" s="18"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B45" s="17"/>
       <c r="C45" s="18"/>
       <c r="D45" s="5"/>
@@ -10237,8 +10266,9 @@
       <c r="L45" s="18"/>
       <c r="O45" s="18"/>
       <c r="P45" s="18"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q45" s="18"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B46" s="17"/>
       <c r="C46" s="18"/>
       <c r="D46" s="5"/>
@@ -10250,8 +10280,9 @@
       <c r="L46" s="18"/>
       <c r="O46" s="18"/>
       <c r="P46" s="18"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q46" s="18"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B47" s="17"/>
       <c r="C47" s="18"/>
       <c r="D47" s="5"/>
@@ -10263,8 +10294,9 @@
       <c r="L47" s="18"/>
       <c r="O47" s="18"/>
       <c r="P47" s="18"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q47" s="18"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B48" s="17"/>
       <c r="C48" s="18"/>
       <c r="D48" s="5"/>
@@ -10276,8 +10308,9 @@
       <c r="L48" s="18"/>
       <c r="O48" s="18"/>
       <c r="P48" s="18"/>
-    </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q48" s="18"/>
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B49" s="17"/>
       <c r="C49" s="18"/>
       <c r="D49" s="5"/>
@@ -10289,8 +10322,9 @@
       <c r="L49" s="18"/>
       <c r="O49" s="18"/>
       <c r="P49" s="18"/>
-    </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q49" s="18"/>
+    </row>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B50" s="17"/>
       <c r="C50" s="18"/>
       <c r="D50" s="5"/>
@@ -10302,8 +10336,9 @@
       <c r="L50" s="18"/>
       <c r="O50" s="18"/>
       <c r="P50" s="18"/>
-    </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q50" s="18"/>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B51" s="17"/>
       <c r="C51" s="18"/>
       <c r="D51" s="5"/>
@@ -10315,8 +10350,9 @@
       <c r="L51" s="18"/>
       <c r="O51" s="18"/>
       <c r="P51" s="18"/>
-    </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q51" s="18"/>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B52" s="17"/>
       <c r="C52" s="18"/>
       <c r="D52" s="5"/>
@@ -10328,8 +10364,9 @@
       <c r="L52" s="18"/>
       <c r="O52" s="18"/>
       <c r="P52" s="18"/>
-    </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q52" s="18"/>
+    </row>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B53" s="17"/>
       <c r="C53" s="18"/>
       <c r="D53" s="5"/>
@@ -10341,8 +10378,9 @@
       <c r="L53" s="18"/>
       <c r="O53" s="18"/>
       <c r="P53" s="18"/>
-    </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q53" s="18"/>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B54" s="17"/>
       <c r="C54" s="18"/>
       <c r="D54" s="5"/>
@@ -10354,8 +10392,9 @@
       <c r="L54" s="18"/>
       <c r="O54" s="18"/>
       <c r="P54" s="18"/>
-    </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q54" s="18"/>
+    </row>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B55" s="17"/>
       <c r="C55" s="18"/>
       <c r="D55" s="5"/>
@@ -10367,8 +10406,9 @@
       <c r="L55" s="18"/>
       <c r="O55" s="18"/>
       <c r="P55" s="18"/>
-    </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q55" s="18"/>
+    </row>
+    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B56" s="17"/>
       <c r="C56" s="18"/>
       <c r="D56" s="5"/>
@@ -10380,8 +10420,9 @@
       <c r="L56" s="18"/>
       <c r="O56" s="18"/>
       <c r="P56" s="18"/>
-    </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q56" s="18"/>
+    </row>
+    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B57" s="17"/>
       <c r="C57" s="18"/>
       <c r="D57" s="5"/>
@@ -10393,8 +10434,9 @@
       <c r="L57" s="18"/>
       <c r="O57" s="18"/>
       <c r="P57" s="18"/>
-    </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q57" s="18"/>
+    </row>
+    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B58" s="17"/>
       <c r="C58" s="18"/>
       <c r="D58" s="5"/>
@@ -10406,8 +10448,9 @@
       <c r="L58" s="18"/>
       <c r="O58" s="18"/>
       <c r="P58" s="18"/>
-    </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q58" s="18"/>
+    </row>
+    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B59" s="17"/>
       <c r="C59" s="18"/>
       <c r="D59" s="5"/>
@@ -10419,8 +10462,9 @@
       <c r="L59" s="18"/>
       <c r="O59" s="18"/>
       <c r="P59" s="18"/>
-    </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q59" s="18"/>
+    </row>
+    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B60" s="17"/>
       <c r="C60" s="18"/>
       <c r="D60" s="5"/>
@@ -10432,8 +10476,9 @@
       <c r="L60" s="18"/>
       <c r="O60" s="18"/>
       <c r="P60" s="18"/>
-    </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q60" s="18"/>
+    </row>
+    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B61" s="17"/>
       <c r="C61" s="18"/>
       <c r="D61" s="5"/>
@@ -10445,8 +10490,9 @@
       <c r="L61" s="18"/>
       <c r="O61" s="18"/>
       <c r="P61" s="18"/>
-    </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q61" s="18"/>
+    </row>
+    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B62" s="17"/>
       <c r="C62" s="18"/>
       <c r="D62" s="5"/>
@@ -10458,8 +10504,9 @@
       <c r="L62" s="18"/>
       <c r="O62" s="18"/>
       <c r="P62" s="18"/>
-    </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q62" s="18"/>
+    </row>
+    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B63" s="17"/>
       <c r="C63" s="18"/>
       <c r="D63" s="5"/>
@@ -10471,8 +10518,9 @@
       <c r="L63" s="5"/>
       <c r="O63" s="18"/>
       <c r="P63" s="18"/>
-    </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q63" s="18"/>
+    </row>
+    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B64" s="17"/>
       <c r="C64" s="18"/>
       <c r="D64" s="5"/>
@@ -10484,8 +10532,9 @@
       <c r="L64" s="5"/>
       <c r="O64" s="18"/>
       <c r="P64" s="18"/>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q64" s="18"/>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B65" s="17"/>
       <c r="C65" s="18"/>
       <c r="D65" s="5"/>
@@ -10497,67 +10546,68 @@
       <c r="L65" s="5"/>
       <c r="O65" s="18"/>
       <c r="P65" s="18"/>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q65" s="18"/>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
     </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
     </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
     </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
     </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
     </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
     </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
     </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
     </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
     </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
     </row>
@@ -10712,14 +10762,14 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="D1" s="18">
         <v>8.9120370370370373E-6</v>
       </c>
       <c r="E1" s="18"/>
       <c r="F1" s="9" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -10727,10 +10777,10 @@
         <v>23</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D2" s="18">
         <f>C2+$D$1</f>
@@ -10738,27 +10788,27 @@
       </c>
       <c r="E2" s="18"/>
       <c r="F2" s="6" t="s">
-        <v>266</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="B3" s="17">
         <f>C3-$C$2</f>
         <v>3.4803240740740736E-4</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D3" s="18">
-        <f t="shared" ref="D3:D37" si="0">C3+$D$1</f>
+        <f t="shared" ref="D3:D29" si="0">C3+$D$1</f>
         <v>2.1993055555555555E-3</v>
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="6" t="s">
-        <v>275</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -10770,7 +10820,7 @@
         <v>3.7604166666666667E-4</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D4" s="18">
         <f t="shared" si="0"/>
@@ -10778,7 +10828,7 @@
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="6" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -10790,7 +10840,7 @@
         <v>3.9143518518518542E-4</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D5" s="18">
         <f t="shared" si="0"/>
@@ -10807,7 +10857,7 @@
         <v>3.997685185185187E-4</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
@@ -10824,7 +10874,7 @@
         <v>4.021990740740737E-4</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D7" s="18">
         <f t="shared" si="0"/>
@@ -10841,7 +10891,7 @@
         <v>4.0277777777777773E-4</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D8" s="18">
         <f t="shared" si="0"/>
@@ -10858,7 +10908,7 @@
         <v>4.072916666666667E-4</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D9" s="18">
         <f t="shared" si="0"/>
@@ -10868,14 +10918,14 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B10" s="17">
         <f t="shared" si="1"/>
         <v>4.1053240740740698E-4</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D10" s="18">
         <f t="shared" si="0"/>
@@ -10885,14 +10935,14 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B11" s="17">
         <f t="shared" si="1"/>
         <v>4.2499999999999981E-4</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D11" s="18">
         <f t="shared" si="0"/>
@@ -10909,7 +10959,7 @@
         <v>4.2523148148148151E-4</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D12" s="18">
         <f t="shared" si="0"/>
@@ -10926,7 +10976,7 @@
         <v>4.2847222222222223E-4</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D13" s="18">
         <f t="shared" si="0"/>
@@ -10943,7 +10993,7 @@
         <v>4.3518518518518494E-4</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D14" s="18">
         <f t="shared" si="0"/>
@@ -10960,7 +11010,7 @@
         <v>4.4502314814814817E-4</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D15" s="18">
         <f t="shared" si="0"/>
@@ -10977,7 +11027,7 @@
         <v>4.5277777777777786E-4</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D16" s="18">
         <f t="shared" si="0"/>
@@ -10994,7 +11044,7 @@
         <v>4.6643518518518497E-4</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D17" s="18">
         <f t="shared" si="0"/>
@@ -11004,14 +11054,14 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B18" s="17">
         <f t="shared" si="1"/>
         <v>4.8229166666666668E-4</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D18" s="18">
         <f t="shared" si="0"/>
@@ -11028,7 +11078,7 @@
         <v>4.8773148148148113E-4</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D19" s="18">
         <f t="shared" si="0"/>
@@ -11045,7 +11095,7 @@
         <v>4.9131944444444418E-4</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
@@ -11062,7 +11112,7 @@
         <v>5.0104166666666635E-4</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
@@ -11096,7 +11146,7 @@
         <v>5.2164351851851829E-4</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D23" s="18">
         <f t="shared" si="0"/>
@@ -11106,7 +11156,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="B24" s="17">
         <f t="shared" si="1"/>
@@ -11126,7 +11176,7 @@
         <v>19</v>
       </c>
       <c r="B25" s="17">
-        <f t="shared" ref="B25:B30" si="2">C25-$C$2</f>
+        <f t="shared" ref="B25:B29" si="2">C25-$C$2</f>
         <v>5.2650462962962915E-4</v>
       </c>
       <c r="C25" s="17">
@@ -11147,7 +11197,7 @@
         <v>5.3379629629629632E-4</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
@@ -11157,7 +11207,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="B27" s="17">
         <f t="shared" si="2"/>
@@ -11191,7 +11241,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>281</v>
+        <v>249</v>
       </c>
       <c r="B29" s="18">
         <f t="shared" si="2"/>
@@ -11211,21 +11261,21 @@
         <v>9</v>
       </c>
       <c r="B30" s="17">
-        <f t="shared" ref="B30:B38" si="3">C30-$C$2</f>
+        <f t="shared" ref="B30" si="3">C30-$C$2</f>
         <v>6.6134259259259249E-4</v>
       </c>
       <c r="C30" s="17">
         <v>2.5037037037037037E-3</v>
       </c>
       <c r="D30" s="18">
-        <f t="shared" ref="D30:D38" si="4">C30+$D$1</f>
+        <f t="shared" ref="D30" si="4">C30+$D$1</f>
         <v>2.5126157407407406E-3</v>
       </c>
       <c r="E30" s="18"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="B31" s="17">
         <f t="shared" ref="B31:B36" si="5">C31-$C$2</f>
@@ -11242,7 +11292,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="B32" s="17">
         <f t="shared" si="5"/>
@@ -11259,7 +11309,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="B33" s="17">
         <f t="shared" si="5"/>
@@ -11276,7 +11326,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="B34" s="17">
         <f t="shared" si="5"/>
@@ -11293,7 +11343,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="B35" s="17">
         <f t="shared" si="5"/>
@@ -11310,7 +11360,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="B36" s="18">
         <f t="shared" si="5"/>
@@ -11534,14 +11584,14 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="D1" s="18">
         <v>3.4722222222222224E-7</v>
       </c>
       <c r="E1" s="18"/>
       <c r="F1" s="9" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -11549,10 +11599,10 @@
         <v>23</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="D2" s="18">
         <f>C2+$D$1</f>
@@ -11560,19 +11610,19 @@
       </c>
       <c r="E2" s="18"/>
       <c r="F2" s="6" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="B3" s="17">
         <f>C3-$C$2</f>
         <v>3.1585648148148163E-4</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="D3" s="18">
         <f t="shared" ref="D3:D27" si="0">C3+$D$1</f>
@@ -11580,7 +11630,7 @@
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="6" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -11592,7 +11642,7 @@
         <v>3.2314814814814793E-4</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="D4" s="18">
         <f t="shared" si="0"/>
@@ -11600,7 +11650,7 @@
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="6" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -11612,7 +11662,7 @@
         <v>3.2627314814814802E-4</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="D5" s="18">
         <f t="shared" si="0"/>
@@ -11620,7 +11670,7 @@
       </c>
       <c r="E5" s="18"/>
       <c r="F5" s="6" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -11632,7 +11682,7 @@
         <v>3.4606481481481424E-4</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
@@ -11642,14 +11692,14 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B7" s="17">
         <f t="shared" si="1"/>
         <v>3.5034722222222195E-4</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="D7" s="18">
         <f t="shared" si="0"/>
@@ -11666,7 +11716,7 @@
         <v>3.6689814814814788E-4</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="D8" s="18">
         <f t="shared" si="0"/>
@@ -11683,7 +11733,7 @@
         <v>3.7083333333333326E-4</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="D9" s="18">
         <f t="shared" si="0"/>
@@ -11700,7 +11750,7 @@
         <v>3.7662037037037048E-4</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="D10" s="18">
         <f t="shared" si="0"/>
@@ -11710,14 +11760,14 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B11" s="17">
         <f t="shared" si="1"/>
         <v>3.7951388888888887E-4</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="D11" s="18">
         <f t="shared" si="0"/>
@@ -11734,7 +11784,7 @@
         <v>3.8564814814814798E-4</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="D12" s="18">
         <f t="shared" si="0"/>
@@ -11751,7 +11801,7 @@
         <v>4.0624999999999993E-4</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="D13" s="18">
         <f t="shared" si="0"/>
@@ -11768,7 +11818,7 @@
         <v>4.1168981481481482E-4</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="D14" s="18">
         <f t="shared" si="0"/>
@@ -11785,7 +11835,7 @@
         <v>4.3252314814814802E-4</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="D15" s="18">
         <f t="shared" si="0"/>
@@ -11802,7 +11852,7 @@
         <v>4.8321759259259281E-4</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="D16" s="18">
         <f t="shared" si="0"/>
@@ -11819,7 +11869,7 @@
         <v>4.9386574074074133E-4</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="D17" s="18">
         <f t="shared" si="0"/>
@@ -11829,14 +11879,14 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18" s="17">
+        <f t="shared" si="1"/>
+        <v>4.9409722222222173E-4</v>
+      </c>
+      <c r="C18" s="17" t="s">
         <v>159</v>
-      </c>
-      <c r="B18" s="17">
-        <f t="shared" si="1"/>
-        <v>4.9409722222222173E-4</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>176</v>
       </c>
       <c r="D18" s="18">
         <f t="shared" si="0"/>
@@ -11853,7 +11903,7 @@
         <v>5.196759259259256E-4</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="D19" s="18">
         <f t="shared" si="0"/>
@@ -11863,7 +11913,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="B20" s="17">
         <f t="shared" si="1"/>
@@ -11921,7 +11971,7 @@
         <v>5.6527777777777783E-4</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="D23" s="18">
         <f t="shared" si="0"/>
@@ -11931,7 +11981,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="B24" s="17">
         <f t="shared" si="2"/>
@@ -11948,7 +11998,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="B25" s="17">
         <f t="shared" si="2"/>
@@ -11982,7 +12032,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="B27" s="17">
         <f t="shared" si="2"/>
@@ -12271,40 +12321,40 @@
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="9" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="N1" s="9"/>
       <c r="O1" s="16"/>
@@ -12313,11 +12363,11 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="B2" s="18">
         <f t="shared" ref="B2:B25" si="0">SUM(C2:M2)</f>
-        <v>1.3268518518518505E-3</v>
+        <v>1.3269675925925916E-3</v>
       </c>
       <c r="C2" s="27">
         <f>SUMIF((Tau!$A$3:$A$65),A2,(Tau!$B$3:$B$65))</f>
@@ -12325,7 +12375,7 @@
       </c>
       <c r="D2" s="27">
         <f>SUMIF((Tau!$F$3:$F$65),A2,(Tau!$G$3:$G$65))</f>
-        <v>1.377314814814813E-4</v>
+        <v>1.3784722222222236E-4</v>
       </c>
       <c r="E2" s="27">
         <f>SUMIF((RST!$A$3:$A$65),A2,(RST!$B$3:$B$65))</f>
@@ -12374,11 +12424,11 @@
       </c>
       <c r="B3" s="18">
         <f t="shared" si="0"/>
-        <v>1.4629629629629619E-3</v>
+        <v>1.4630787037037021E-3</v>
       </c>
       <c r="C3" s="17">
         <f>SUMIF((Tau!$A$3:$A$65),A3,(Tau!$B$3:$B$65))</f>
-        <v>7.6967592592592452E-5</v>
+        <v>7.708333333333265E-5</v>
       </c>
       <c r="D3" s="17">
         <f>SUMIF((Tau!$F$3:$F$65),A3,(Tau!$G$3:$G$65))</f>
@@ -12488,15 +12538,15 @@
       </c>
       <c r="B5" s="18">
         <f t="shared" si="0"/>
-        <v>1.5159722222222211E-3</v>
+        <v>1.515046296296296E-3</v>
       </c>
       <c r="C5" s="17">
         <f>SUMIF((Tau!$A$3:$A$65),A5,(Tau!$B$3:$B$65))</f>
-        <v>7.2337962962962417E-5</v>
+        <v>7.2106481481481154E-5</v>
       </c>
       <c r="D5" s="17">
         <f>SUMIF((Tau!$F$3:$F$65),A5,(Tau!$G$3:$G$65))</f>
-        <v>1.6180555555555523E-4</v>
+        <v>1.6157407407407396E-4</v>
       </c>
       <c r="E5" s="17">
         <f>SUMIF((RST!$A$3:$A$65),A5,(RST!$B$3:$B$65))</f>
@@ -12520,11 +12570,11 @@
       </c>
       <c r="J5" s="17">
         <f>IF((SUMIF((TFL!$A$3:$A$65),A5,(TFL!$B$3:$B$65))=0),"-",(SUMIF((TFL!$A$3:$A$65),A5,(TFL!$B$3:$B$65))))</f>
-        <v>1.2187500000000002E-4</v>
+        <v>1.2164351851851876E-4</v>
       </c>
       <c r="K5" s="17">
         <f>SUMIF((TFL!$F$3:$F$65),A5,(TFL!$G$3:$G$65))+SUMIF((TFL!$N$2:$N$65),A5,(TFL!$O$2:$O$65))</f>
-        <v>8.0092592592592542E-5</v>
+        <v>7.9861111111111278E-5</v>
       </c>
       <c r="L5" s="17">
         <f>SUMIF((Tartarus!$A$3:$A$65),A5,(Tartarus!$B$3:$B$65))</f>
@@ -12602,7 +12652,7 @@
       </c>
       <c r="B7" s="18">
         <f t="shared" si="0"/>
-        <v>1.5888888888888886E-3</v>
+        <v>1.5895833333333328E-3</v>
       </c>
       <c r="C7" s="17">
         <f>SUMIF((Tau!$A$3:$A$65),A7,(Tau!$B$3:$B$65))</f>
@@ -12610,7 +12660,7 @@
       </c>
       <c r="D7" s="17">
         <f>SUMIF((Tau!$F$3:$F$65),A7,(Tau!$G$3:$G$65))</f>
-        <v>1.6527777777777765E-4</v>
+        <v>1.6562499999999997E-4</v>
       </c>
       <c r="E7" s="17">
         <f>SUMIF((RST!$A$3:$A$65),A7,(RST!$B$3:$B$65))</f>
@@ -12634,7 +12684,7 @@
       </c>
       <c r="J7" s="17">
         <f>IF((SUMIF((TFL!$A$3:$A$65),A7,(TFL!$B$3:$B$65))=0),"-",(SUMIF((TFL!$A$3:$A$65),A7,(TFL!$B$3:$B$65))))</f>
-        <v>1.1053240740740771E-4</v>
+        <v>1.1087962962962961E-4</v>
       </c>
       <c r="K7" s="17">
         <f>SUMIF((TFL!$F$3:$F$65),A7,(TFL!$G$3:$G$65))+SUMIF((TFL!$N$2:$N$65),A7,(TFL!$O$2:$O$65))</f>
@@ -12712,11 +12762,11 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B9" s="18">
         <f t="shared" si="0"/>
-        <v>1.6898148148148135E-3</v>
+        <v>1.690277777777776E-3</v>
       </c>
       <c r="C9" s="17">
         <f>SUMIF((Tau!$A$3:$A$65),A9,(Tau!$B$3:$B$65))</f>
@@ -12728,7 +12778,7 @@
       </c>
       <c r="E9" s="17">
         <f>SUMIF((RST!$A$3:$A$65),A9,(RST!$B$3:$B$65))</f>
-        <v>5.5324074074073956E-5</v>
+        <v>5.5555555555555219E-5</v>
       </c>
       <c r="F9" s="17">
         <f>SUMIF((RST!$F$3:$F$65),A9,(RST!$G$3:$G$65))</f>
@@ -12752,7 +12802,7 @@
       </c>
       <c r="K9" s="17">
         <f>SUMIF((TFL!$F$3:$F$65),A9,(TFL!$G$3:$G$65))+SUMIF((TFL!$N$2:$N$65),A9,(TFL!$O$2:$O$65))</f>
-        <v>8.4143518518518551E-5</v>
+        <v>8.4374999999999815E-5</v>
       </c>
       <c r="L9" s="17">
         <f>SUMIF((Tartarus!$A$3:$A$65),A9,(Tartarus!$B$3:$B$65))</f>
@@ -12773,7 +12823,7 @@
       </c>
       <c r="B10" s="18">
         <f t="shared" si="0"/>
-        <v>1.7304398148148138E-3</v>
+        <v>1.730671296296295E-3</v>
       </c>
       <c r="C10" s="17">
         <f>SUMIF((Tau!$A$3:$A$65),A10,(Tau!$B$3:$B$65))</f>
@@ -12785,7 +12835,7 @@
       </c>
       <c r="E10" s="17">
         <f>SUMIF((RST!$A$3:$A$65),A10,(RST!$B$3:$B$65))</f>
-        <v>6.7245370370370289E-5</v>
+        <v>6.7476851851851552E-5</v>
       </c>
       <c r="F10" s="17">
         <f>SUMIF((RST!$F$3:$F$65),A10,(RST!$G$3:$G$65))</f>
@@ -12826,7 +12876,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B11" s="18">
         <f t="shared" si="0"/>
@@ -12887,7 +12937,7 @@
       </c>
       <c r="B12" s="18">
         <f t="shared" si="0"/>
-        <v>1.8012731481481469E-3</v>
+        <v>1.8016203703703697E-3</v>
       </c>
       <c r="C12" s="17">
         <f>SUMIF((Tau!$A$3:$A$65),A12,(Tau!$B$3:$B$65))</f>
@@ -12919,7 +12969,7 @@
       </c>
       <c r="J12" s="17">
         <f>IF((SUMIF((TFL!$A$3:$A$65),A12,(TFL!$B$3:$B$65))=0),"-",(SUMIF((TFL!$A$3:$A$65),A12,(TFL!$B$3:$B$65))))</f>
-        <v>1.0740740740740719E-4</v>
+        <v>1.0775462962962995E-4</v>
       </c>
       <c r="K12" s="17">
         <f>SUMIF((TFL!$F$3:$F$65),A12,(TFL!$G$3:$G$65))+SUMIF((TFL!$N$2:$N$65),A12,(TFL!$O$2:$O$65))</f>
@@ -13001,7 +13051,7 @@
       </c>
       <c r="B14" s="18">
         <f t="shared" si="0"/>
-        <v>2.0444444444444447E-3</v>
+        <v>2.0449074074074076E-3</v>
       </c>
       <c r="C14" s="17">
         <f>SUMIF((Tau!$A$3:$A$65),A14,(Tau!$B$3:$B$65))</f>
@@ -13033,7 +13083,7 @@
       </c>
       <c r="J14" s="17">
         <f>IF((SUMIF((TFL!$A$3:$A$65),A14,(TFL!$B$3:$B$65))=0),"-",(SUMIF((TFL!$A$3:$A$65),A14,(TFL!$B$3:$B$65))))</f>
-        <v>1.1122685185185194E-4</v>
+        <v>1.116898148148149E-4</v>
       </c>
       <c r="K14" s="17">
         <f>SUMIF((TFL!$F$3:$F$65),A14,(TFL!$G$3:$G$65))+SUMIF((TFL!$N$2:$N$65),A14,(TFL!$O$2:$O$65))</f>
@@ -13115,7 +13165,7 @@
       </c>
       <c r="B16" s="18">
         <f t="shared" si="0"/>
-        <v>2.1435185185185173E-3</v>
+        <v>2.1430555555555547E-3</v>
       </c>
       <c r="C16" s="17">
         <f>SUMIF((Tau!$A$3:$A$65),A16,(Tau!$B$3:$B$65))</f>
@@ -13147,11 +13197,11 @@
       </c>
       <c r="J16" s="17">
         <f>IF((SUMIF((TFL!$A$3:$A$65),A16,(TFL!$B$3:$B$65))=0),"-",(SUMIF((TFL!$A$3:$A$65),A16,(TFL!$B$3:$B$65))))</f>
-        <v>1.5451388888888893E-4</v>
+        <v>1.5428240740740723E-4</v>
       </c>
       <c r="K16" s="17">
         <f>SUMIF((TFL!$F$3:$F$65),A16,(TFL!$G$3:$G$65))+SUMIF((TFL!$N$2:$N$65),A16,(TFL!$O$2:$O$65))</f>
-        <v>1.0613425925925894E-4</v>
+        <v>1.0590277777777811E-4</v>
       </c>
       <c r="L16" s="17">
         <f>SUMIF((Tartarus!$A$3:$A$65),A16,(Tartarus!$B$3:$B$65))</f>
@@ -13172,15 +13222,15 @@
       </c>
       <c r="B17" s="18">
         <f t="shared" si="0"/>
-        <v>2.183680555555555E-3</v>
+        <v>2.1859953703703703E-3</v>
       </c>
       <c r="C17" s="17">
         <f>SUMIF((Tau!$A$3:$A$65),A17,(Tau!$B$3:$B$65))</f>
-        <v>1.1053240740740728E-4</v>
+        <v>1.114583333333332E-4</v>
       </c>
       <c r="D17" s="17">
         <f>SUMIF((Tau!$F$3:$F$65),A17,(Tau!$G$3:$G$65))</f>
-        <v>2.3796296296296282E-4</v>
+        <v>2.3935185185185214E-4</v>
       </c>
       <c r="E17" s="17">
         <f>SUMIF((RST!$A$3:$A$65),A17,(RST!$B$3:$B$65))</f>
@@ -13286,23 +13336,23 @@
       </c>
       <c r="B19" s="18">
         <f t="shared" si="0"/>
-        <v>2.3706018518518507E-3</v>
+        <v>2.3784722222222215E-3</v>
       </c>
       <c r="C19" s="17">
         <f>SUMIF((Tau!$A$3:$A$65),A19,(Tau!$B$3:$B$65))</f>
-        <v>1.0949074074074073E-4</v>
+        <v>1.1053240740740728E-4</v>
       </c>
       <c r="D19" s="17">
         <f>SUMIF((Tau!$F$3:$F$65),A19,(Tau!$G$3:$G$65))</f>
-        <v>2.1238425925925895E-4</v>
+        <v>2.1354166666666613E-4</v>
       </c>
       <c r="E19" s="17">
         <f>SUMIF((RST!$A$3:$A$65),A19,(RST!$B$3:$B$65))</f>
-        <v>7.8703703703703227E-5</v>
+        <v>8.0787037037036765E-5</v>
       </c>
       <c r="F19" s="17">
         <f>SUMIF((RST!$F$3:$F$65),A19,(RST!$G$3:$G$65))</f>
-        <v>8.0439814814814437E-5</v>
+        <v>8.1944444444444382E-5</v>
       </c>
       <c r="G19" s="17">
         <f>SUMIF(('9KX2'!$A$3:$A$65),A19,('9KX2'!$B$3:$B$65))</f>
@@ -13322,7 +13372,7 @@
       </c>
       <c r="K19" s="17">
         <f>SUMIF((TFL!$F$3:$F$65),A19,(TFL!$G$3:$G$65))+SUMIF((TFL!$N$2:$N$65),A19,(TFL!$O$2:$O$65))</f>
-        <v>1.0844907407407374E-4</v>
+        <v>1.1053240740740728E-4</v>
       </c>
       <c r="L19" s="17">
         <f>SUMIF((Tartarus!$A$3:$A$65),A19,(Tartarus!$B$3:$B$65))</f>
@@ -13338,11 +13388,11 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="B20" s="18">
         <f t="shared" si="0"/>
-        <v>2.3791666666666666E-3</v>
+        <v>2.4141203703703703E-3</v>
       </c>
       <c r="C20" s="17">
         <f>SUMIF((Tau!$A$3:$A$65),A20,(Tau!$B$3:$B$65))</f>
@@ -13354,7 +13404,7 @@
       </c>
       <c r="E20" s="17">
         <f>SUMIF((RST!$A$3:$A$65),A20,(RST!$B$3:$B$65))</f>
-        <v>9.2939814814814795E-5</v>
+        <v>1.278935185185185E-4</v>
       </c>
       <c r="F20" s="17">
         <f>SUMIF((RST!$F$3:$F$65),A20,(RST!$G$3:$G$65))</f>
@@ -13454,7 +13504,7 @@
       </c>
       <c r="B22" s="18">
         <f t="shared" si="0"/>
-        <v>2.7141203703703706E-3</v>
+        <v>2.7142361111111113E-3</v>
       </c>
       <c r="C22" s="17">
         <f>SUMIF((Tau!$A$3:$A$65),A22,(Tau!$B$3:$B$65))</f>
@@ -13486,7 +13536,7 @@
       </c>
       <c r="J22" s="17">
         <f>IF((SUMIF((TFL!$A$3:$A$65),A22,(TFL!$B$3:$B$65))=0),"-",(SUMIF((TFL!$A$3:$A$65),A22,(TFL!$B$3:$B$65))))</f>
-        <v>4.1527777777777787E-4</v>
+        <v>4.153935185185185E-4</v>
       </c>
       <c r="K22" s="17">
         <f>SUMIF((TFL!$F$3:$F$65),A22,(TFL!$G$3:$G$65))+SUMIF((TFL!$N$2:$N$65),A22,(TFL!$O$2:$O$65))</f>
@@ -13508,7 +13558,7 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="B23" s="18">
         <f t="shared" si="0"/>
@@ -13566,11 +13616,11 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="B24" s="18">
         <f t="shared" si="0"/>
-        <v>4.1216435185185158E-3</v>
+        <v>4.1563657407407383E-3</v>
       </c>
       <c r="C24" s="17">
         <f>SUMIF((Tau!$A$3:$A$65),A24,(Tau!$B$3:$B$65))</f>
@@ -13578,7 +13628,7 @@
       </c>
       <c r="D24" s="17">
         <f>SUMIF((Tau!$F$3:$F$65),A24,(Tau!$G$3:$G$65))</f>
-        <v>3.2152777777777778E-4</v>
+        <v>3.5624999999999936E-4</v>
       </c>
       <c r="E24" s="17">
         <f>SUMIF((RST!$A$3:$A$65),A24,(RST!$B$3:$B$65))</f>
@@ -13624,7 +13674,7 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="B25" s="18">
         <f t="shared" si="0"/>

--- a/Stats.xlsx
+++ b/Stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AL\Documents\2019 Mega Comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CF0990-3994-4129-B175-063892032BF5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD027B9-0BA0-4389-9F9C-06F0680A2583}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30210" yWindow="2625" windowWidth="28800" windowHeight="15330" activeTab="3" xr2:uid="{E6171133-BC82-453F-AA1B-A983A9E75A15}"/>
+    <workbookView xWindow="-38400" yWindow="4410" windowWidth="28800" windowHeight="15330" activeTab="5" xr2:uid="{E6171133-BC82-453F-AA1B-A983A9E75A15}"/>
   </bookViews>
   <sheets>
     <sheet name="FPS Timecode" sheetId="22" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="251">
   <si>
     <t>Carlos S. M.: R5 3600 @ 4.2 GHz</t>
   </si>
@@ -286,9 +286,6 @@
     <t>3:17.63</t>
   </si>
   <si>
-    <t>3:18.30</t>
-  </si>
-  <si>
     <t>3:19.48</t>
   </si>
   <si>
@@ -307,9 +304,6 @@
     <t>3:24.25</t>
   </si>
   <si>
-    <t>3:25.30</t>
-  </si>
-  <si>
     <t>2:39.18</t>
   </si>
   <si>
@@ -788,6 +782,15 @@
   </si>
   <si>
     <t>Carlos S. M.: i7-930 @ 4.63 GHz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Young Yuzu: R7 2700X @ 3.7 GHz</t>
+  </si>
+  <si>
+    <t>Baby Yuzu: R7 2700X @ 3 GHz</t>
   </si>
 </sst>
 </file>
@@ -2035,7 +2038,7 @@
   </sheetPr>
   <dimension ref="A1:N110"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
@@ -2054,7 +2057,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
@@ -2063,17 +2066,17 @@
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="21" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I1" s="18">
         <v>6.3657407407407403E-6</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="L1" s="16"/>
       <c r="N1" s="9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -2081,7 +2084,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>26</v>
@@ -2095,7 +2098,7 @@
         <v>23</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H2" s="17" t="s">
         <v>48</v>
@@ -2106,19 +2109,19 @@
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="L2" s="18">
         <f t="shared" ref="L2:L11" si="0">SUMIF($A$3:$A$65,K2,$B$3:$B$65)+SUMIF($F$3:$F$65,K2,$G$3:$G$65)</f>
         <v>2.0729166666666639E-4</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B3" s="17">
         <f>C3-$C$2</f>
@@ -2133,7 +2136,7 @@
       </c>
       <c r="E3" s="1"/>
       <c r="F3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G3" s="18">
         <f t="shared" ref="G3:G30" si="2">H3-$H$2</f>
@@ -2155,7 +2158,7 @@
         <v>2.2337962962962936E-4</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2190,14 +2193,14 @@
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L4" s="18">
         <f t="shared" si="0"/>
         <v>2.252314814814812E-4</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -2217,7 +2220,7 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G5" s="18">
         <f t="shared" si="2"/>
@@ -2242,7 +2245,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B6" s="17">
         <f t="shared" si="4"/>
@@ -2482,7 +2485,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B12" s="17">
         <f t="shared" si="4"/>
@@ -2512,7 +2515,7 @@
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L12" s="18">
         <f t="shared" ref="L12:L16" si="7">SUMIF($A$3:$A$65,K12,$B$3:$B$65)+SUMIF($F$3:$F$65,K12,$G$3:$G$65)</f>
@@ -2537,7 +2540,7 @@
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G13" s="18">
         <f t="shared" si="5"/>
@@ -3057,7 +3060,7 @@
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="15" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G26" s="18">
         <f t="shared" si="2"/>
@@ -3112,7 +3115,7 @@
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="15" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L27" s="18">
         <f t="shared" si="8"/>
@@ -3122,7 +3125,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B28" s="17">
         <f t="shared" si="4"/>
@@ -3152,7 +3155,7 @@
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L28" s="18">
         <f t="shared" si="8"/>
@@ -3177,7 +3180,7 @@
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G29" s="18">
         <f t="shared" si="2"/>
@@ -3192,7 +3195,7 @@
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L29" s="18">
         <f t="shared" si="8"/>
@@ -3202,7 +3205,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B30" s="17">
         <f t="shared" si="4"/>
@@ -3217,7 +3220,7 @@
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G30" s="18">
         <f t="shared" si="2"/>
@@ -3242,7 +3245,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B31" s="17">
         <f t="shared" si="4"/>
@@ -3257,7 +3260,7 @@
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G31" s="18">
         <f t="shared" ref="G31:G36" si="9">H31-$H$2</f>
@@ -3272,7 +3275,7 @@
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L31" s="18">
         <f t="shared" si="8"/>
@@ -3282,7 +3285,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B32" s="17">
         <f t="shared" si="4"/>
@@ -3312,7 +3315,7 @@
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="15" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="L32" s="18">
         <f t="shared" si="8"/>
@@ -3322,7 +3325,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B33" s="17">
         <f t="shared" si="4"/>
@@ -3337,7 +3340,7 @@
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="15" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G33" s="18">
         <f t="shared" si="9"/>
@@ -3352,7 +3355,7 @@
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L33" s="18">
         <f t="shared" si="8"/>
@@ -3362,7 +3365,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B34" s="17">
         <f t="shared" si="4"/>
@@ -3377,7 +3380,7 @@
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G34" s="18">
         <f t="shared" si="9"/>
@@ -3392,7 +3395,7 @@
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L34" s="18">
         <f t="shared" si="8"/>
@@ -3402,7 +3405,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B35" s="17">
         <f t="shared" si="4"/>
@@ -3417,7 +3420,7 @@
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G35" s="18">
         <f t="shared" si="9"/>
@@ -3432,7 +3435,7 @@
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="15" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="L35" s="18">
         <f t="shared" si="8"/>
@@ -3442,7 +3445,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B36" s="17">
         <f t="shared" si="4"/>
@@ -3457,7 +3460,7 @@
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="15" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G36" s="18">
         <f t="shared" si="9"/>
@@ -3472,7 +3475,7 @@
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="L36" s="18">
         <f t="shared" si="8"/>
@@ -3482,7 +3485,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B37" s="17">
         <f t="shared" si="4"/>
@@ -3497,7 +3500,7 @@
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G37" s="18">
         <f t="shared" ref="G37:G38" si="10">H37-$H$2</f>
@@ -3512,7 +3515,7 @@
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L37" s="18">
         <f t="shared" si="8"/>
@@ -3521,7 +3524,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B38" s="17">
         <f t="shared" si="4"/>
@@ -3536,7 +3539,7 @@
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G38" s="18">
         <f t="shared" si="10"/>
@@ -4090,7 +4093,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
@@ -4099,17 +4102,17 @@
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="21" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I1" s="18">
         <v>9.8379629629629627E-6</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="L1" s="16"/>
       <c r="N1" s="9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -4117,10 +4120,10 @@
         <v>23</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D2" s="18">
         <f>C2+$D$1</f>
@@ -4131,10 +4134,10 @@
         <v>23</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I2" s="18">
         <f>H2+$I$1</f>
@@ -4142,7 +4145,7 @@
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="L2" s="18">
         <f>SUMIF($A$3:$A$65,K2,$B$3:$B$65)+SUMIF($F$3:$F$65,K2,$G$3:$G$65)</f>
@@ -4150,19 +4153,19 @@
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B3" s="17">
         <f>C3-$C$2</f>
         <v>4.2361111111111072E-5</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D3" s="18">
         <f t="shared" ref="D3:D34" si="0">C3+$D$1</f>
@@ -4170,14 +4173,14 @@
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G3" s="18">
         <f t="shared" ref="G3:G27" si="1">H3-$H$2</f>
         <v>5.7291666666666428E-5</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I3" s="18">
         <f t="shared" ref="I3:I32" si="2">H3+$I$1</f>
@@ -4192,7 +4195,7 @@
         <v>1.140046296296297E-4</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -4204,7 +4207,7 @@
         <v>4.8611111111111251E-5</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D4" s="18">
         <f t="shared" si="0"/>
@@ -4212,14 +4215,14 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G4" s="18">
         <f t="shared" si="1"/>
         <v>6.1689814814814333E-5</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I4" s="18">
         <f t="shared" si="2"/>
@@ -4243,7 +4246,7 @@
         <v>4.9305555555555474E-5</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D5" s="18">
         <f t="shared" si="0"/>
@@ -4258,7 +4261,7 @@
         <v>6.3078703703703647E-5</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I5" s="18">
         <f t="shared" si="2"/>
@@ -4266,7 +4269,7 @@
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L5" s="18">
         <f t="shared" si="3"/>
@@ -4275,14 +4278,14 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B6" s="17">
         <f t="shared" si="4"/>
         <v>5.0115740740740763E-5</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
@@ -4297,7 +4300,7 @@
         <v>6.3657407407407239E-5</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I6" s="18">
         <f t="shared" si="2"/>
@@ -4321,7 +4324,7 @@
         <v>5.0462962962962658E-5</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D7" s="18">
         <f t="shared" si="0"/>
@@ -4336,7 +4339,7 @@
         <v>6.5393518518518448E-5</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I7" s="18">
         <f t="shared" si="2"/>
@@ -4360,7 +4363,7 @@
         <v>5.2662037037036827E-5</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D8" s="18">
         <f t="shared" si="0"/>
@@ -4375,7 +4378,7 @@
         <v>6.5740740740740343E-5</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I8" s="18">
         <f t="shared" si="2"/>
@@ -4399,7 +4402,7 @@
         <v>5.5092592592592693E-5</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D9" s="18">
         <f t="shared" si="0"/>
@@ -4407,14 +4410,14 @@
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G9" s="18">
         <f t="shared" si="1"/>
         <v>6.8634259259259169E-5</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I9" s="18">
         <f t="shared" si="2"/>
@@ -4422,7 +4425,7 @@
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L9" s="18">
         <f t="shared" si="3"/>
@@ -4431,7 +4434,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B10" s="17">
         <f t="shared" si="4"/>
@@ -4453,7 +4456,7 @@
         <v>6.9212962962963195E-5</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I10" s="18">
         <f t="shared" si="2"/>
@@ -4492,7 +4495,7 @@
         <v>6.9675925925926155E-5</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I11" s="18">
         <f t="shared" si="2"/>
@@ -4516,7 +4519,7 @@
         <v>5.7291666666666428E-5</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D12" s="18">
         <f t="shared" si="0"/>
@@ -4531,7 +4534,7 @@
         <v>7.1180555555556101E-5</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I12" s="18">
         <f t="shared" si="2"/>
@@ -4555,7 +4558,7 @@
         <v>5.8564814814814677E-5</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D13" s="18">
         <f t="shared" si="0"/>
@@ -4570,7 +4573,7 @@
         <v>7.1527777777777562E-5</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I13" s="18">
         <f t="shared" si="2"/>
@@ -4594,7 +4597,7 @@
         <v>6.0300925925925453E-5</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D14" s="18">
         <f t="shared" si="0"/>
@@ -4609,7 +4612,7 @@
         <v>7.1527777777777562E-5</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I14" s="18">
         <f t="shared" si="2"/>
@@ -4633,7 +4636,7 @@
         <v>6.1111111111110741E-5</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D15" s="18">
         <f t="shared" si="0"/>
@@ -4648,7 +4651,7 @@
         <v>7.3148148148148139E-5</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I15" s="18">
         <f t="shared" si="2"/>
@@ -4672,7 +4675,7 @@
         <v>6.2268518518517925E-5</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D16" s="18">
         <f t="shared" si="0"/>
@@ -4687,7 +4690,7 @@
         <v>7.3726851851852165E-5</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I16" s="18">
         <f t="shared" si="2"/>
@@ -4695,7 +4698,7 @@
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L16" s="18">
         <f t="shared" si="3"/>
@@ -4704,14 +4707,14 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B17" s="17">
         <f t="shared" si="4"/>
         <v>6.3773148148147871E-5</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D17" s="18">
         <f t="shared" si="0"/>
@@ -4719,14 +4722,14 @@
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G17" s="18">
         <f t="shared" si="1"/>
         <v>7.4305555555555756E-5</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I17" s="18">
         <f t="shared" si="2"/>
@@ -4750,7 +4753,7 @@
         <v>6.5740740740740777E-5</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D18" s="18">
         <f t="shared" si="0"/>
@@ -4765,7 +4768,7 @@
         <v>7.6157407407407597E-5</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I18" s="18">
         <f t="shared" si="2"/>
@@ -4789,7 +4792,7 @@
         <v>6.6666666666666263E-5</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D19" s="18">
         <f t="shared" si="0"/>
@@ -4797,7 +4800,7 @@
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G19" s="18">
         <f t="shared" si="1"/>
@@ -4828,7 +4831,7 @@
         <v>6.6666666666666263E-5</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
@@ -4843,7 +4846,7 @@
         <v>7.8472222222221964E-5</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I20" s="18">
         <f t="shared" si="2"/>
@@ -4851,7 +4854,7 @@
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L20" s="18">
         <f t="shared" si="3"/>
@@ -4860,14 +4863,14 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B21" s="17">
         <f t="shared" si="4"/>
         <v>6.7129629629629657E-5</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
@@ -4882,7 +4885,7 @@
         <v>7.8703703703703661E-5</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I21" s="18">
         <f t="shared" si="2"/>
@@ -4921,7 +4924,7 @@
         <v>7.9629629629630015E-5</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I22" s="18">
         <f t="shared" si="2"/>
@@ -4945,7 +4948,7 @@
         <v>7.6967592592592452E-5</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D23" s="18">
         <f t="shared" si="0"/>
@@ -4960,7 +4963,7 @@
         <v>8.1018518518518462E-5</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I23" s="18">
         <f t="shared" ref="I23" si="6">H23+$I$1</f>
@@ -4984,7 +4987,7 @@
         <v>7.7893518518518372E-5</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D24" s="18">
         <f t="shared" si="0"/>
@@ -5038,7 +5041,7 @@
         <v>8.5416666666667234E-5</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I25" s="18">
         <f t="shared" si="2"/>
@@ -5077,7 +5080,7 @@
         <v>8.7384259259259273E-5</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I26" s="18">
         <f t="shared" si="2"/>
@@ -5085,7 +5088,7 @@
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L26" s="18">
         <f t="shared" si="3"/>
@@ -5094,7 +5097,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B27" s="17">
         <f t="shared" si="4"/>
@@ -5109,7 +5112,7 @@
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G27" s="18">
         <f t="shared" si="1"/>
@@ -5140,7 +5143,7 @@
         <v>8.5763888888888695E-5</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D28" s="18">
         <f t="shared" si="0"/>
@@ -5155,7 +5158,7 @@
         <v>9.606481481481445E-5</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I28" s="18">
         <f t="shared" si="2"/>
@@ -5179,7 +5182,7 @@
         <v>8.5995370370369958E-5</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D29" s="18">
         <f t="shared" si="0"/>
@@ -5187,7 +5190,7 @@
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="15" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G29" s="18">
         <f t="shared" si="9"/>
@@ -5218,7 +5221,7 @@
         <v>8.7962962962962864E-5</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D30" s="18">
         <f t="shared" si="0"/>
@@ -5226,7 +5229,7 @@
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="15" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G30" s="18">
         <f t="shared" si="9"/>
@@ -5241,7 +5244,7 @@
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="15" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L30" s="18">
         <f t="shared" si="7"/>
@@ -5250,7 +5253,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B31" s="17">
         <f t="shared" si="8"/>
@@ -5265,7 +5268,7 @@
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G31" s="18">
         <f t="shared" si="9"/>
@@ -5280,7 +5283,7 @@
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="15" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="L31" s="18">
         <v>2.0011574074074072E-4</v>
@@ -5303,7 +5306,7 @@
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G32" s="18">
         <f t="shared" si="9"/>
@@ -5318,7 +5321,7 @@
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L32" s="18">
         <f t="shared" ref="L32:L37" si="10">SUMIF($A$3:$A$65,K32,$B$3:$B$65)+SUMIF($F$3:$F$65,K32,$G$3:$G$65)</f>
@@ -5327,7 +5330,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B33" s="17">
         <f t="shared" si="8"/>
@@ -5349,7 +5352,7 @@
         <v>1.0625000000000001E-4</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I33" s="18">
         <f t="shared" ref="I33" si="12">H33+$I$1</f>
@@ -5366,7 +5369,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B34" s="17">
         <f t="shared" si="8"/>
@@ -5381,7 +5384,7 @@
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G34" s="18">
         <f t="shared" si="9"/>
@@ -5396,7 +5399,7 @@
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L34" s="18">
         <f t="shared" si="10"/>
@@ -5405,7 +5408,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B35" s="17">
         <f t="shared" ref="B35" si="14">C35-$C$2</f>
@@ -5427,7 +5430,7 @@
         <v>1.0844907407407418E-4</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I35" s="18">
         <f t="shared" si="13"/>
@@ -5435,7 +5438,7 @@
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L35" s="18">
         <f t="shared" si="10"/>
@@ -5444,7 +5447,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B36" s="17">
         <f t="shared" ref="B36:B38" si="16">C36-$C$2</f>
@@ -5474,7 +5477,7 @@
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L36" s="18">
         <f t="shared" si="10"/>
@@ -5483,7 +5486,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B37" s="17">
         <f t="shared" si="16"/>
@@ -5498,7 +5501,7 @@
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G37" s="18">
         <f t="shared" si="9"/>
@@ -5513,7 +5516,7 @@
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L37" s="18">
         <f t="shared" si="10"/>
@@ -5522,7 +5525,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B38" s="17">
         <f t="shared" si="16"/>
@@ -5537,7 +5540,7 @@
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G38" s="18">
         <f t="shared" si="9"/>
@@ -6048,8 +6051,8 @@
   </sheetPr>
   <dimension ref="A1:S110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6070,7 +6073,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
@@ -6079,14 +6082,14 @@
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I1" s="18">
         <v>5.787037037037037E-7</v>
       </c>
       <c r="J1" s="7"/>
       <c r="K1" s="22" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L1" s="5"/>
       <c r="N1" s="18">
@@ -6094,11 +6097,11 @@
       </c>
       <c r="O1" s="5"/>
       <c r="P1" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="Q1" s="18"/>
       <c r="S1" s="9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -6106,7 +6109,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C2" s="18">
         <v>1.520601851851852E-3</v>
@@ -6120,7 +6123,7 @@
         <v>23</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>13</v>
@@ -6134,7 +6137,7 @@
         <v>23</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M2" s="18" t="s">
         <v>14</v>
@@ -6152,7 +6155,7 @@
         <v>1.7164351851851867E-4</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -6167,12 +6170,12 @@
         <v>1.5599537037037038E-3</v>
       </c>
       <c r="D3" s="18">
-        <f t="shared" ref="D3:D37" si="1">C3+$D$1</f>
+        <f t="shared" ref="D3:D34" si="1">C3+$D$1</f>
         <v>1.5605324074074076E-3</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G3" s="18">
         <f t="shared" ref="G3:G28" si="2">H3-$H$2</f>
@@ -6197,24 +6200,24 @@
         <v>3.9290509259259261E-3</v>
       </c>
       <c r="N3" s="18">
-        <f t="shared" ref="N3:N37" si="5">M3+$N$1</f>
+        <f t="shared" ref="N3:N34" si="5">M3+$N$1</f>
         <v>3.9296296296296301E-3</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="Q3" s="18">
         <f t="shared" si="0"/>
         <v>1.8182870370370358E-4</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B4" s="17">
         <f>C4-$C$2</f>
@@ -6244,7 +6247,7 @@
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="L4" s="18">
         <f t="shared" si="4"/>
@@ -6266,7 +6269,7 @@
         <v>2.0856481481481464E-4</v>
       </c>
       <c r="S4" s="15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -6323,7 +6326,7 @@
         <v>2.3206018518518584E-4</v>
       </c>
       <c r="S5" s="6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -6490,7 +6493,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B9" s="17">
         <f t="shared" si="6"/>
@@ -6505,18 +6508,18 @@
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="2" t="s">
-        <v>92</v>
+        <v>3</v>
       </c>
       <c r="G9" s="18">
         <f t="shared" si="2"/>
-        <v>5.5555555555555653E-5</v>
+        <v>5.532407407407439E-5</v>
       </c>
       <c r="H9" s="18">
-        <v>2.5827546296296297E-3</v>
+        <v>2.5825231481481485E-3</v>
       </c>
       <c r="I9" s="18">
         <f t="shared" si="3"/>
-        <v>2.5833333333333333E-3</v>
+        <v>2.5831018518518521E-3</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="2" t="s">
@@ -6535,7 +6538,7 @@
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Q9" s="18">
         <f t="shared" si="0"/>
@@ -6558,8 +6561,8 @@
         <v>1.5700231481481481E-3</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="2" t="s">
-        <v>3</v>
+      <c r="F10" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="G10" s="18">
         <f t="shared" si="2"/>
@@ -6593,7 +6596,7 @@
       </c>
       <c r="Q10" s="18">
         <f t="shared" si="0"/>
-        <v>3.0231481481481515E-4</v>
+        <v>2.9652777777777772E-4</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -6628,18 +6631,18 @@
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="L11" s="18">
         <f t="shared" si="4"/>
-        <v>1.9039351851851943E-4</v>
+        <v>1.8923611111111138E-4</v>
       </c>
       <c r="M11" s="18">
-        <v>4.0396990740740749E-3</v>
+        <v>4.0385416666666668E-3</v>
       </c>
       <c r="N11" s="18">
         <f t="shared" si="5"/>
-        <v>4.0402777777777789E-3</v>
+        <v>4.0391203703703709E-3</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="6" t="s">
@@ -6652,48 +6655,48 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B12" s="17">
         <f t="shared" si="6"/>
-        <v>5.1157407407407098E-5</v>
+        <v>4.9652777777777586E-5</v>
       </c>
       <c r="C12" s="18">
-        <v>1.5717592592592591E-3</v>
+        <v>1.5702546296296296E-3</v>
       </c>
       <c r="D12" s="18">
         <f t="shared" si="1"/>
-        <v>1.5723379629629629E-3</v>
+        <v>1.5708333333333334E-3</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G12" s="18">
         <f t="shared" si="2"/>
-        <v>5.7870370370370454E-5</v>
+        <v>5.7638888888888757E-5</v>
       </c>
       <c r="H12" s="18">
-        <v>2.5850694444444445E-3</v>
+        <v>2.5848379629629628E-3</v>
       </c>
       <c r="I12" s="18">
         <f t="shared" si="3"/>
-        <v>2.5856481481481481E-3</v>
+        <v>2.5854166666666664E-3</v>
       </c>
       <c r="J12" s="3"/>
-      <c r="K12" s="2" t="s">
-        <v>21</v>
+      <c r="K12" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="L12" s="18">
         <f t="shared" si="4"/>
-        <v>1.9120370370370385E-4</v>
+        <v>1.9097222222222172E-4</v>
       </c>
       <c r="M12" s="18">
-        <v>4.0405092592592593E-3</v>
+        <v>4.0402777777777772E-3</v>
       </c>
       <c r="N12" s="18">
         <f t="shared" si="5"/>
-        <v>4.0410879629629633E-3</v>
+        <v>4.0408564814814812E-3</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="6" t="s">
@@ -6705,38 +6708,38 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>21</v>
+      <c r="A13" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="B13" s="17">
         <f t="shared" si="6"/>
-        <v>5.1504629629629643E-5</v>
+        <v>5.1157407407407098E-5</v>
       </c>
       <c r="C13" s="18">
-        <v>1.5721064814814816E-3</v>
+        <v>1.5717592592592591E-3</v>
       </c>
       <c r="D13" s="18">
         <f t="shared" si="1"/>
-        <v>1.5726851851851854E-3</v>
+        <v>1.5723379629629629E-3</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="2" t="s">
-        <v>8</v>
+      <c r="F13" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="G13" s="18">
         <f t="shared" si="2"/>
-        <v>5.8680555555555309E-5</v>
+        <v>5.7870370370370454E-5</v>
       </c>
       <c r="H13" s="18">
-        <v>2.5858796296296294E-3</v>
+        <v>2.5850694444444445E-3</v>
       </c>
       <c r="I13" s="18">
         <f t="shared" si="3"/>
-        <v>2.586458333333333E-3</v>
+        <v>2.5856481481481481E-3</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L13" s="18">
         <f t="shared" si="4"/>
@@ -6774,19 +6777,19 @@
         <v>1.5726851851851854E-3</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="2" t="s">
-        <v>12</v>
+      <c r="F14" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="18">
         <f t="shared" si="2"/>
-        <v>5.9259259259259334E-5</v>
+        <v>5.8680555555555309E-5</v>
       </c>
       <c r="H14" s="18">
-        <v>2.5864583333333334E-3</v>
+        <v>2.5858796296296294E-3</v>
       </c>
       <c r="I14" s="18">
         <f t="shared" si="3"/>
-        <v>2.587037037037037E-3</v>
+        <v>2.586458333333333E-3</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="2" t="s">
@@ -6828,19 +6831,19 @@
         <v>1.5731481481481482E-3</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="2" t="s">
-        <v>21</v>
+      <c r="F15" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="G15" s="18">
         <f t="shared" si="2"/>
-        <v>5.9606481481481663E-5</v>
+        <v>5.9259259259259334E-5</v>
       </c>
       <c r="H15" s="18">
-        <v>2.5868055555555557E-3</v>
+        <v>2.5864583333333334E-3</v>
       </c>
       <c r="I15" s="18">
         <f t="shared" si="3"/>
-        <v>2.5873842592592593E-3</v>
+        <v>2.587037037037037E-3</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="2" t="s">
@@ -6863,7 +6866,7 @@
       </c>
       <c r="Q15" s="18">
         <f t="shared" si="0"/>
-        <v>3.3472222222222302E-4</v>
+        <v>3.3530092592592531E-4</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -7187,7 +7190,7 @@
       </c>
       <c r="Q21" s="18">
         <f t="shared" si="0"/>
-        <v>4.2407407407407389E-4</v>
+        <v>4.2384259259259263E-4</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -7222,7 +7225,7 @@
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L22" s="18">
         <f t="shared" si="4"/>
@@ -7334,18 +7337,18 @@
       </c>
       <c r="L24" s="18">
         <f t="shared" si="4"/>
-        <v>2.8842592592592548E-4</v>
+        <v>2.8819444444444422E-4</v>
       </c>
       <c r="M24" s="18">
-        <v>4.1377314814814809E-3</v>
+        <v>4.1374999999999997E-3</v>
       </c>
       <c r="N24" s="18">
         <f t="shared" si="5"/>
-        <v>4.138310185185185E-3</v>
+        <v>4.1380787037037037E-3</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="Q24" s="18">
         <f t="shared" si="0"/>
@@ -7384,7 +7387,7 @@
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L25" s="18">
         <f t="shared" si="4"/>
@@ -7399,11 +7402,11 @@
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="Q25" s="18">
         <f t="shared" si="0"/>
-        <v>4.7858796296296299E-4</v>
+        <v>4.8217592592592604E-4</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
@@ -7477,7 +7480,7 @@
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G27" s="18">
         <f t="shared" si="2"/>
@@ -7516,7 +7519,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B28" s="17">
         <f t="shared" si="6"/>
@@ -7531,18 +7534,18 @@
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G28" s="18">
         <f t="shared" si="2"/>
-        <v>9.6990740740740804E-5</v>
+        <v>1.0011574074074089E-4</v>
       </c>
       <c r="H28" s="18">
-        <v>2.6241898148148149E-3</v>
+        <v>2.627314814814815E-3</v>
       </c>
       <c r="I28" s="18">
         <f t="shared" si="3"/>
-        <v>2.6247685185185185E-3</v>
+        <v>2.6278935185185186E-3</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="2" t="s">
@@ -7565,23 +7568,23 @@
       </c>
       <c r="Q28" s="18">
         <f t="shared" si="8"/>
-        <v>5.3900462962962951E-4</v>
+        <v>5.3877314814814825E-4</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B29" s="17">
         <f t="shared" si="6"/>
-        <v>8.2754629629629454E-5</v>
+        <v>8.3217592592592414E-5</v>
       </c>
       <c r="C29" s="18">
-        <v>1.6033564814814814E-3</v>
+        <v>1.6038194444444444E-3</v>
       </c>
       <c r="D29" s="18">
         <f t="shared" si="1"/>
-        <v>1.6039351851851852E-3</v>
+        <v>1.6043981481481482E-3</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="15" t="s">
@@ -7623,7 +7626,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B30" s="17">
         <f t="shared" ref="B30:B33" si="10">C30-$C$2</f>
@@ -7638,7 +7641,7 @@
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="15" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G30" s="18">
         <f t="shared" si="9"/>
@@ -7667,7 +7670,7 @@
         <v>4.3486111111111113E-3</v>
       </c>
       <c r="P30" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="Q30" s="18">
         <f t="shared" si="8"/>
@@ -7691,7 +7694,7 @@
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G31" s="18">
         <f t="shared" si="9"/>
@@ -7706,7 +7709,7 @@
       </c>
       <c r="J31" s="7"/>
       <c r="K31" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L31" s="18">
         <f t="shared" si="7"/>
@@ -7720,7 +7723,7 @@
         <v>4.4060185185185192E-3</v>
       </c>
       <c r="P31" s="15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="Q31" s="18">
         <f t="shared" si="8"/>
@@ -7729,40 +7732,40 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="B32" s="17">
         <f t="shared" si="10"/>
-        <v>9.2361111111110986E-5</v>
+        <v>9.3634259259259235E-5</v>
       </c>
       <c r="C32" s="18">
-        <v>1.612962962962963E-3</v>
+        <v>1.6142361111111112E-3</v>
       </c>
       <c r="D32" s="18">
         <f t="shared" si="1"/>
-        <v>1.6135416666666668E-3</v>
+        <v>1.614814814814815E-3</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G32" s="18">
-        <f t="shared" ref="G32:G37" si="11">H32-$H$2</f>
-        <v>1.2465277777777778E-4</v>
+        <f t="shared" ref="G32:G34" si="11">H32-$H$2</f>
+        <v>1.2523148148148137E-4</v>
       </c>
       <c r="H32" s="18">
-        <v>2.6518518518518519E-3</v>
+        <v>2.6524305555555554E-3</v>
       </c>
       <c r="I32" s="18">
-        <f t="shared" ref="I32:I37" si="12">H32+$I$1</f>
-        <v>2.6524305555555554E-3</v>
+        <f t="shared" ref="I32:I34" si="12">H32+$I$1</f>
+        <v>2.653009259259259E-3</v>
       </c>
       <c r="J32" s="7"/>
       <c r="K32" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="L32" s="18">
-        <f t="shared" ref="L32:L37" si="13">M32-$M$2</f>
+        <f t="shared" ref="L32:L34" si="13">M32-$M$2</f>
         <v>6.8657407407407382E-4</v>
       </c>
       <c r="M32" s="18">
@@ -7773,27 +7776,27 @@
         <v>4.5364583333333333E-3</v>
       </c>
       <c r="P32" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="Q32" s="18">
-        <f t="shared" ref="Q32:Q38" si="14">SUMIF($A$3:$A$65,P32,$B$3:$B$65)+SUMIF($F$3:$F$65,P32,$G$3:$G$65)+SUMIF($K$3:$K$65,P32,$L$3:$L$65)</f>
-        <v>1.0120370370370368E-3</v>
+        <f t="shared" ref="Q32:Q37" si="14">SUMIF($A$3:$A$65,P32,$B$3:$B$65)+SUMIF($F$3:$F$65,P32,$G$3:$G$65)+SUMIF($K$3:$K$65,P32,$L$3:$L$65)</f>
+        <v>1.0153935185185181E-3</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="B33" s="17">
         <f t="shared" si="10"/>
-        <v>9.3634259259259235E-5</v>
+        <v>9.5138888888888747E-5</v>
       </c>
       <c r="C33" s="18">
-        <v>1.6142361111111112E-3</v>
+        <v>1.6157407407407407E-3</v>
       </c>
       <c r="D33" s="18">
         <f t="shared" si="1"/>
-        <v>1.614814814814815E-3</v>
+        <v>1.6163194444444445E-3</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="2" t="s">
@@ -7812,7 +7815,7 @@
       </c>
       <c r="J33" s="7"/>
       <c r="K33" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="L33" s="18">
         <f t="shared" si="13"/>
@@ -7826,7 +7829,7 @@
         <v>4.5703703703703705E-3</v>
       </c>
       <c r="P33" s="15" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q33" s="18">
         <f t="shared" si="14"/>
@@ -7835,10 +7838,10 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B34" s="17">
-        <f t="shared" ref="B34:B37" si="15">C34-$C$2</f>
+        <f t="shared" ref="B34" si="15">C34-$C$2</f>
         <v>1.0787037037037015E-4</v>
       </c>
       <c r="C34" s="18">
@@ -7850,7 +7853,7 @@
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G34" s="18">
         <f t="shared" si="11"/>
@@ -7865,7 +7868,7 @@
       </c>
       <c r="J34" s="7"/>
       <c r="K34" s="15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="L34" s="18">
         <f t="shared" si="13"/>
@@ -7879,7 +7882,7 @@
         <v>4.6032407407407411E-3</v>
       </c>
       <c r="P34" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="Q34" s="18">
         <f t="shared" si="14"/>
@@ -7888,7 +7891,7 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B35" s="17">
         <f t="shared" ref="B35:B38" si="16">C35-$C$2</f>
@@ -7903,7 +7906,7 @@
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G35" s="18">
         <f t="shared" ref="G35:G38" si="18">H35-$H$2</f>
@@ -7918,7 +7921,7 @@
       </c>
       <c r="J35" s="7"/>
       <c r="K35" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L35" s="18">
         <f t="shared" ref="L35:L38" si="20">M35-$M$2</f>
@@ -7932,7 +7935,7 @@
         <v>4.6449074074074075E-3</v>
       </c>
       <c r="P35" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="Q35" s="18">
         <f t="shared" si="14"/>
@@ -7941,7 +7944,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B36" s="17">
         <f t="shared" si="16"/>
@@ -7956,7 +7959,7 @@
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G36" s="18">
         <f t="shared" si="18"/>
@@ -7971,7 +7974,7 @@
       </c>
       <c r="J36" s="7"/>
       <c r="K36" s="15" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="L36" s="18">
         <f t="shared" si="20"/>
@@ -7985,7 +7988,7 @@
         <v>4.6684027777777783E-3</v>
       </c>
       <c r="P36" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="Q36" s="18">
         <f t="shared" si="14"/>
@@ -7994,7 +7997,7 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B37" s="17">
         <f t="shared" si="16"/>
@@ -8009,7 +8012,7 @@
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G37" s="18">
         <f t="shared" si="18"/>
@@ -8023,7 +8026,7 @@
         <v>2.8339120370370371E-3</v>
       </c>
       <c r="K37" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L37" s="18">
         <f t="shared" si="20"/>
@@ -8037,7 +8040,7 @@
         <v>4.7074074074074075E-3</v>
       </c>
       <c r="P37" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="Q37" s="18">
         <f t="shared" si="14"/>
@@ -8046,7 +8049,7 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B38" s="17">
         <f t="shared" si="16"/>
@@ -8061,7 +8064,7 @@
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G38" s="18">
         <f t="shared" si="18"/>
@@ -8075,7 +8078,7 @@
         <v>3.1153935185185182E-3</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L38" s="18">
         <f t="shared" si="20"/>
@@ -8122,6 +8125,9 @@
       <c r="C41" s="18"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
+      <c r="F41" s="6" t="s">
+        <v>248</v>
+      </c>
       <c r="G41" s="18"/>
       <c r="H41" s="18"/>
       <c r="I41" s="18"/>
@@ -8641,8 +8647,8 @@
   </sheetPr>
   <dimension ref="A1:Q110"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P47" sqref="P47"/>
+    <sheetView topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8661,7 +8667,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
@@ -8670,7 +8676,7 @@
       </c>
       <c r="E1" s="18"/>
       <c r="F1" s="21" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -8679,11 +8685,11 @@
       </c>
       <c r="J1" s="18"/>
       <c r="K1" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="L1" s="16"/>
       <c r="N1" s="9" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="Q1" s="18">
         <v>1.6550925925925924E-5</v>
@@ -8694,10 +8700,10 @@
         <v>23</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D2" s="18">
         <f>C2+$D$1</f>
@@ -8708,10 +8714,10 @@
         <v>23</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I2" s="18">
         <f>H2+$I$1</f>
@@ -8719,7 +8725,7 @@
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="L2" s="18">
         <f t="shared" ref="L2:L30" si="0">SUMIF($A$3:$A$65,K2,$B$3:$B$65)+SUMIF($F$3:$F$65,K2,$G$3:$G$65)</f>
@@ -8749,7 +8755,7 @@
         <v>9.6643518518518476E-5</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D3" s="18">
         <f t="shared" ref="D3:D33" si="1">C3+$D$1</f>
@@ -8757,14 +8763,14 @@
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G3" s="18">
         <f t="shared" ref="G3:G33" si="2">H3-$H$2</f>
         <v>7.6967592592592452E-5</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I3" s="18">
         <f t="shared" ref="I3:I33" si="3">H3+$I$1</f>
@@ -8779,7 +8785,7 @@
         <v>1.753472222222217E-4</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O3" s="17">
         <f t="shared" ref="O3:O6" si="4">P3-$C$2</f>
@@ -8795,14 +8801,14 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B4" s="17">
         <f>C4-$C$2</f>
         <v>9.7337962962962699E-5</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D4" s="18">
         <f t="shared" si="1"/>
@@ -8817,7 +8823,7 @@
         <v>7.8703703703703227E-5</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I4" s="18">
         <f t="shared" si="3"/>
@@ -8832,7 +8838,7 @@
         <v>1.8194444444444464E-4</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O4" s="17">
         <f t="shared" si="4"/>
@@ -8855,7 +8861,7 @@
         <v>9.9074074074073908E-5</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D5" s="18">
         <f t="shared" si="1"/>
@@ -8885,7 +8891,7 @@
         <v>1.8414351851851795E-4</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O5" s="17">
         <f t="shared" si="4"/>
@@ -8908,7 +8914,7 @@
         <v>1.0127314814814851E-4</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D6" s="18">
         <f t="shared" si="1"/>
@@ -8923,7 +8929,7 @@
         <v>8.0671296296296133E-5</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I6" s="18">
         <f t="shared" si="3"/>
@@ -8931,14 +8937,14 @@
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L6" s="18">
         <f t="shared" si="0"/>
         <v>1.8946759259259221E-4</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O6" s="17">
         <f t="shared" si="4"/>
@@ -8961,7 +8967,7 @@
         <v>1.0138888888888914E-4</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D7" s="18">
         <f t="shared" si="1"/>
@@ -8976,7 +8982,7 @@
         <v>8.2986111111110934E-5</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I7" s="18">
         <f t="shared" si="3"/>
@@ -8996,14 +9002,14 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B8" s="17">
         <f t="shared" si="6"/>
         <v>1.0509259259259239E-4</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D8" s="18">
         <f t="shared" si="1"/>
@@ -9011,7 +9017,7 @@
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G8" s="18">
         <f t="shared" si="2"/>
@@ -9033,7 +9039,7 @@
         <v>1.9629629629629641E-4</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O8" s="18"/>
       <c r="P8" s="18"/>
@@ -9063,7 +9069,7 @@
         <v>8.5069444444444038E-5</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I9" s="18">
         <f t="shared" si="3"/>
@@ -9078,7 +9084,7 @@
         <v>2.0057870370370412E-4</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O9" s="18"/>
       <c r="P9" s="18"/>
@@ -9093,7 +9099,7 @@
         <v>1.0891203703703714E-4</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D10" s="18">
         <f t="shared" si="1"/>
@@ -9108,7 +9114,7 @@
         <v>8.7384259259259273E-5</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I10" s="18">
         <f t="shared" si="3"/>
@@ -9123,7 +9129,7 @@
         <v>2.0150462962963004E-4</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="O10" s="18"/>
       <c r="P10" s="18"/>
@@ -9131,14 +9137,14 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B11" s="17">
         <f t="shared" si="6"/>
         <v>1.0891203703703714E-4</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D11" s="18">
         <f t="shared" si="1"/>
@@ -9153,7 +9159,7 @@
         <v>8.8773148148147719E-5</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I11" s="18">
         <f t="shared" si="3"/>
@@ -9168,7 +9174,7 @@
         <v>2.0312500000000061E-4</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O11" s="18"/>
       <c r="P11" s="18"/>
@@ -9183,7 +9189,7 @@
         <v>1.0972222222222243E-4</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D12" s="18">
         <f t="shared" si="1"/>
@@ -9191,7 +9197,7 @@
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G12" s="18">
         <f t="shared" si="2"/>
@@ -9240,7 +9246,7 @@
         <v>9.0856481481481691E-5</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I13" s="18">
         <f t="shared" si="3"/>
@@ -9282,7 +9288,7 @@
         <v>9.2824074074073729E-5</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I14" s="18">
         <f t="shared" si="3"/>
@@ -9309,7 +9315,7 @@
         <v>1.1759259259259275E-4</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D15" s="18">
         <f t="shared" si="1"/>
@@ -9324,7 +9330,7 @@
         <v>9.3055555555555426E-5</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I15" s="18">
         <f t="shared" si="3"/>
@@ -9351,7 +9357,7 @@
         <v>1.2013888888888881E-4</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D16" s="18">
         <f t="shared" si="1"/>
@@ -9366,7 +9372,7 @@
         <v>9.3171296296296491E-5</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I16" s="18">
         <f t="shared" si="3"/>
@@ -9408,7 +9414,7 @@
         <v>9.4907407407407267E-5</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I17" s="18">
         <f t="shared" si="3"/>
@@ -9416,7 +9422,7 @@
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L17" s="18">
         <f t="shared" si="0"/>
@@ -9435,7 +9441,7 @@
         <v>1.2824074074074083E-4</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D18" s="18">
         <f t="shared" si="1"/>
@@ -9450,7 +9456,7 @@
         <v>9.5370370370370661E-5</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I18" s="18">
         <f t="shared" si="3"/>
@@ -9477,7 +9483,7 @@
         <v>1.2939814814814802E-4</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D19" s="18">
         <f t="shared" si="1"/>
@@ -9492,7 +9498,7 @@
         <v>1.0358796296296244E-4</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I19" s="18">
         <f t="shared" si="3"/>
@@ -9500,7 +9506,7 @@
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L19" s="18">
         <f t="shared" si="0"/>
@@ -9512,7 +9518,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B20" s="17">
         <f t="shared" si="6"/>
@@ -9534,7 +9540,7 @@
         <v>1.0416666666666647E-4</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I20" s="18">
         <f t="shared" si="3"/>
@@ -9569,14 +9575,14 @@
       </c>
       <c r="E21" s="18"/>
       <c r="F21" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G21" s="18">
         <f t="shared" si="2"/>
         <v>1.0439814814814773E-4</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I21" s="18">
         <f t="shared" si="3"/>
@@ -9584,7 +9590,7 @@
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L21" s="18">
         <f t="shared" si="0"/>
@@ -9596,14 +9602,14 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B22" s="17">
         <f t="shared" si="6"/>
         <v>1.4756944444444453E-4</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D22" s="18">
         <f t="shared" si="1"/>
@@ -9645,7 +9651,7 @@
         <v>1.4988425925925933E-4</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D23" s="18">
         <f t="shared" si="1"/>
@@ -9660,7 +9666,7 @@
         <v>1.0752314814814826E-4</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I23" s="18">
         <f t="shared" si="3"/>
@@ -9668,7 +9674,7 @@
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L23" s="18">
         <f t="shared" si="0"/>
@@ -9695,14 +9701,14 @@
       </c>
       <c r="E24" s="18"/>
       <c r="F24" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G24" s="18">
         <f t="shared" ref="G24:G25" si="7">H24-$H$2</f>
         <v>1.0868055555555544E-4</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I24" s="18">
         <f t="shared" ref="I24:I25" si="8">H24+$I$1</f>
@@ -9729,7 +9735,7 @@
         <v>1.5694444444444436E-4</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D25" s="18">
         <f t="shared" si="1"/>
@@ -9779,7 +9785,7 @@
       </c>
       <c r="E26" s="18"/>
       <c r="F26" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G26" s="18">
         <f t="shared" si="2"/>
@@ -9794,7 +9800,7 @@
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="15" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L26" s="18">
         <f t="shared" si="0"/>
@@ -9806,14 +9812,14 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B27" s="17">
         <f t="shared" si="6"/>
         <v>1.5717592592592606E-4</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D27" s="18">
         <f t="shared" si="1"/>
@@ -9848,14 +9854,14 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B28" s="17">
         <f t="shared" si="6"/>
         <v>1.5752314814814839E-4</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D28" s="18">
         <f t="shared" si="1"/>
@@ -9870,7 +9876,7 @@
         <v>1.1620370370370387E-4</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I28" s="18">
         <f t="shared" si="3"/>
@@ -9878,7 +9884,7 @@
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L28" s="18">
         <f t="shared" si="0"/>
@@ -9890,7 +9896,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B29" s="17">
         <f t="shared" si="6"/>
@@ -9905,14 +9911,14 @@
       </c>
       <c r="E29" s="18"/>
       <c r="F29" s="14" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G29" s="18">
         <f t="shared" si="2"/>
         <v>1.1909722222222226E-4</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I29" s="18">
         <f t="shared" si="3"/>
@@ -9920,7 +9926,7 @@
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L29" s="18">
         <f t="shared" si="0"/>
@@ -9932,7 +9938,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B30" s="17">
         <f t="shared" si="6"/>
@@ -9947,7 +9953,7 @@
       </c>
       <c r="E30" s="18"/>
       <c r="F30" s="15" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G30" s="18">
         <f t="shared" si="2"/>
@@ -9962,7 +9968,7 @@
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="15" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="L30" s="18">
         <f t="shared" si="0"/>
@@ -9974,7 +9980,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B31" s="17">
         <f t="shared" si="6"/>
@@ -9989,7 +9995,7 @@
       </c>
       <c r="E31" s="18"/>
       <c r="F31" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G31" s="18">
         <f t="shared" si="2"/>
@@ -10031,7 +10037,7 @@
       </c>
       <c r="E32" s="18"/>
       <c r="F32" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G32" s="18">
         <f t="shared" si="2"/>
@@ -10065,7 +10071,7 @@
         <v>4.3287037037037035E-4</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D33" s="18">
         <f t="shared" si="1"/>
@@ -10748,8 +10754,8 @@
   </sheetPr>
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10762,14 +10768,14 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D1" s="18">
         <v>8.9120370370370373E-6</v>
       </c>
       <c r="E1" s="18"/>
       <c r="F1" s="9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -10777,10 +10783,10 @@
         <v>23</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D2" s="18">
         <f>C2+$D$1</f>
@@ -10788,12 +10794,12 @@
       </c>
       <c r="E2" s="18"/>
       <c r="F2" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B3" s="17">
         <f>C3-$C$2</f>
@@ -10808,7 +10814,7 @@
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -10828,7 +10834,7 @@
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -10935,7 +10941,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B11" s="17">
         <f t="shared" si="1"/>
@@ -11002,212 +11008,212 @@
       <c r="E14" s="18"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="B15" s="17">
+        <f t="shared" si="1"/>
+        <v>4.3749999999999974E-4</v>
+      </c>
+      <c r="C15" s="17">
+        <v>2.279861111111111E-3</v>
+      </c>
+      <c r="D15" s="18">
+        <f t="shared" si="0"/>
+        <v>2.2887731481481479E-3</v>
+      </c>
+      <c r="E15" s="18"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="17">
-        <f t="shared" si="1"/>
+      <c r="B16" s="17">
+        <f t="shared" ref="B16:B37" si="2">C16-$C$2</f>
         <v>4.4502314814814817E-4</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C16" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="18">
-        <f t="shared" si="0"/>
+      <c r="D16" s="18">
+        <f t="shared" ref="D16:D37" si="3">C16+$D$1</f>
         <v>2.2962962962962963E-3</v>
       </c>
-      <c r="E15" s="18"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="E16" s="18"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="17">
-        <f t="shared" si="1"/>
-        <v>4.5277777777777786E-4</v>
-      </c>
-      <c r="C16" s="17" t="s">
+      <c r="B17" s="17">
+        <f t="shared" si="2"/>
+        <v>4.5624999999999984E-4</v>
+      </c>
+      <c r="C17" s="17">
+        <v>2.2986111111111111E-3</v>
+      </c>
+      <c r="D17" s="18">
+        <f t="shared" si="3"/>
+        <v>2.307523148148148E-3</v>
+      </c>
+      <c r="E17" s="18"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="17">
+        <f t="shared" si="2"/>
+        <v>4.6643518518518497E-4</v>
+      </c>
+      <c r="C18" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="18">
-        <f t="shared" si="0"/>
-        <v>2.304050925925926E-3</v>
-      </c>
-      <c r="E16" s="18"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="17">
-        <f t="shared" si="1"/>
-        <v>4.6643518518518497E-4</v>
-      </c>
-      <c r="C17" s="17" t="s">
+      <c r="D18" s="18">
+        <f t="shared" si="3"/>
+        <v>2.3177083333333331E-3</v>
+      </c>
+      <c r="E18" s="18"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="17">
+        <f t="shared" si="2"/>
+        <v>4.8229166666666668E-4</v>
+      </c>
+      <c r="C19" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="D17" s="18">
-        <f t="shared" si="0"/>
-        <v>2.3177083333333331E-3</v>
-      </c>
-      <c r="E17" s="18"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="17">
-        <f t="shared" si="1"/>
-        <v>4.8229166666666668E-4</v>
-      </c>
-      <c r="C18" s="17" t="s">
+      <c r="D19" s="18">
+        <f t="shared" si="3"/>
+        <v>2.3335648148148148E-3</v>
+      </c>
+      <c r="E19" s="18"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="17">
+        <f t="shared" si="2"/>
+        <v>4.8773148148148113E-4</v>
+      </c>
+      <c r="C20" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="D18" s="18">
-        <f t="shared" si="0"/>
-        <v>2.3335648148148148E-3</v>
-      </c>
-      <c r="E18" s="18"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="17">
-        <f t="shared" si="1"/>
-        <v>4.8773148148148113E-4</v>
-      </c>
-      <c r="C19" s="17" t="s">
+      <c r="D20" s="18">
+        <f t="shared" si="3"/>
+        <v>2.3390046296296292E-3</v>
+      </c>
+      <c r="E20" s="18"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="17">
+        <f t="shared" si="2"/>
+        <v>4.9131944444444418E-4</v>
+      </c>
+      <c r="C21" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="18">
-        <f t="shared" si="0"/>
-        <v>2.3390046296296292E-3</v>
-      </c>
-      <c r="E19" s="18"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="17">
-        <f t="shared" si="1"/>
-        <v>4.9131944444444418E-4</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D20" s="18">
-        <f t="shared" si="0"/>
+      <c r="D21" s="18">
+        <f t="shared" si="3"/>
         <v>2.3425925925925923E-3</v>
-      </c>
-      <c r="E20" s="18"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="17">
-        <f t="shared" si="1"/>
-        <v>5.0104166666666635E-4</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="D21" s="18">
-        <f t="shared" si="0"/>
-        <v>2.3523148148148145E-3</v>
       </c>
       <c r="E21" s="18"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B22" s="17">
-        <f t="shared" si="1"/>
-        <v>5.138888888888886E-4</v>
-      </c>
-      <c r="C22" s="17">
-        <v>2.3562499999999998E-3</v>
+        <f t="shared" si="2"/>
+        <v>5.0104166666666635E-4</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>86</v>
       </c>
       <c r="D22" s="18">
-        <f t="shared" si="0"/>
-        <v>2.3651620370370367E-3</v>
+        <f t="shared" si="3"/>
+        <v>2.3523148148148145E-3</v>
       </c>
       <c r="E22" s="18"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B23" s="17">
-        <f t="shared" si="1"/>
-        <v>5.2164351851851829E-4</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>88</v>
+        <f t="shared" si="2"/>
+        <v>5.138888888888886E-4</v>
+      </c>
+      <c r="C23" s="17">
+        <v>2.3562499999999998E-3</v>
       </c>
       <c r="D23" s="18">
-        <f t="shared" si="0"/>
-        <v>2.3729166666666664E-3</v>
+        <f t="shared" si="3"/>
+        <v>2.3651620370370367E-3</v>
       </c>
       <c r="E23" s="18"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="B24" s="17">
-        <f t="shared" si="1"/>
-        <v>5.2604166666666663E-4</v>
-      </c>
-      <c r="C24" s="17">
-        <v>2.3684027777777779E-3</v>
+        <f t="shared" si="2"/>
+        <v>5.2164351851851829E-4</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>87</v>
       </c>
       <c r="D24" s="18">
-        <f t="shared" si="0"/>
-        <v>2.3773148148148147E-3</v>
+        <f t="shared" si="3"/>
+        <v>2.3729166666666664E-3</v>
       </c>
       <c r="E24" s="18"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>19</v>
+        <v>162</v>
       </c>
       <c r="B25" s="17">
-        <f t="shared" ref="B25:B29" si="2">C25-$C$2</f>
-        <v>5.2650462962962915E-4</v>
+        <f t="shared" si="2"/>
+        <v>5.2604166666666663E-4</v>
       </c>
       <c r="C25" s="17">
-        <v>2.3688657407407404E-3</v>
+        <v>2.3684027777777779E-3</v>
       </c>
       <c r="D25" s="18">
-        <f t="shared" si="0"/>
-        <v>2.3777777777777773E-3</v>
+        <f t="shared" si="3"/>
+        <v>2.3773148148148147E-3</v>
       </c>
       <c r="E25" s="18"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B26" s="17">
         <f t="shared" si="2"/>
-        <v>5.3379629629629632E-4</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>89</v>
+        <v>5.2650462962962915E-4</v>
+      </c>
+      <c r="C26" s="17">
+        <v>2.3688657407407404E-3</v>
       </c>
       <c r="D26" s="18">
-        <f t="shared" si="0"/>
-        <v>2.3850694444444444E-3</v>
+        <f t="shared" si="3"/>
+        <v>2.3777777777777773E-3</v>
       </c>
       <c r="E26" s="18"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B27" s="17">
         <f t="shared" si="2"/>
@@ -11217,176 +11223,196 @@
         <v>2.3782407407407407E-3</v>
       </c>
       <c r="D27" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.3871527777777775E-3</v>
       </c>
       <c r="E27" s="18"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B28" s="17">
         <f t="shared" si="2"/>
-        <v>5.4745370370370386E-4</v>
+        <v>5.3611111111111112E-4</v>
       </c>
       <c r="C28" s="17">
-        <v>2.3898148148148151E-3</v>
+        <v>2.3784722222222224E-3</v>
       </c>
       <c r="D28" s="18">
-        <f t="shared" si="0"/>
-        <v>2.398726851851852E-3</v>
+        <f t="shared" si="3"/>
+        <v>2.3873842592592592E-3</v>
       </c>
       <c r="E28" s="18"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="B29" s="18">
+        <v>250</v>
+      </c>
+      <c r="B29" s="17">
         <f t="shared" si="2"/>
-        <v>6.159722222222224E-4</v>
-      </c>
-      <c r="C29" s="18">
-        <v>2.4583333333333336E-3</v>
+        <v>5.3611111111111112E-4</v>
+      </c>
+      <c r="C29" s="17">
+        <v>2.3784722222222224E-3</v>
       </c>
       <c r="D29" s="18">
-        <f t="shared" si="0"/>
-        <v>2.4672453703703705E-3</v>
+        <f t="shared" si="3"/>
+        <v>2.3873842592592592E-3</v>
       </c>
       <c r="E29" s="18"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B30" s="17">
-        <f t="shared" ref="B30" si="3">C30-$C$2</f>
-        <v>6.6134259259259249E-4</v>
+        <f t="shared" ref="B30:B38" si="4">C30-$C$2</f>
+        <v>5.4745370370370386E-4</v>
       </c>
       <c r="C30" s="17">
-        <v>2.5037037037037037E-3</v>
+        <v>2.3898148148148151E-3</v>
       </c>
       <c r="D30" s="18">
-        <f t="shared" ref="D30" si="4">C30+$D$1</f>
-        <v>2.5126157407407406E-3</v>
+        <f t="shared" ref="D30:D38" si="5">C30+$D$1</f>
+        <v>2.398726851851852E-3</v>
       </c>
       <c r="E30" s="18"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="B31" s="17">
-        <f t="shared" ref="B31:B36" si="5">C31-$C$2</f>
-        <v>7.3842592592592558E-4</v>
-      </c>
-      <c r="C31" s="17">
-        <v>2.5807870370370368E-3</v>
+        <v>247</v>
+      </c>
+      <c r="B31" s="18">
+        <f t="shared" si="4"/>
+        <v>6.159722222222224E-4</v>
+      </c>
+      <c r="C31" s="18">
+        <v>2.4583333333333336E-3</v>
       </c>
       <c r="D31" s="18">
-        <f t="shared" ref="D31:D36" si="6">C31+$D$1</f>
-        <v>2.5896990740740737E-3</v>
+        <f t="shared" si="5"/>
+        <v>2.4672453703703705E-3</v>
       </c>
       <c r="E31" s="18"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>233</v>
+        <v>9</v>
       </c>
       <c r="B32" s="17">
+        <f t="shared" si="4"/>
+        <v>6.6134259259259249E-4</v>
+      </c>
+      <c r="C32" s="17">
+        <v>2.5037037037037037E-3</v>
+      </c>
+      <c r="D32" s="18">
         <f t="shared" si="5"/>
-        <v>7.5567129629629617E-4</v>
-      </c>
-      <c r="C32" s="18">
-        <v>2.5980324074074074E-3</v>
-      </c>
-      <c r="D32" s="18">
-        <f t="shared" si="6"/>
-        <v>2.6069444444444443E-3</v>
+        <v>2.5126157407407406E-3</v>
       </c>
       <c r="E32" s="18"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B33" s="17">
+        <f t="shared" si="4"/>
+        <v>7.3842592592592558E-4</v>
+      </c>
+      <c r="C33" s="17">
+        <v>2.5807870370370368E-3</v>
+      </c>
+      <c r="D33" s="18">
         <f t="shared" si="5"/>
+        <v>2.5896990740740737E-3</v>
+      </c>
+      <c r="E33" s="18"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="B34" s="17">
+        <f t="shared" si="4"/>
+        <v>7.5567129629629617E-4</v>
+      </c>
+      <c r="C34" s="18">
+        <v>2.5980324074074074E-3</v>
+      </c>
+      <c r="D34" s="18">
+        <f t="shared" si="5"/>
+        <v>2.6069444444444443E-3</v>
+      </c>
+      <c r="E34" s="18"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="B35" s="17">
+        <f t="shared" si="4"/>
         <v>8.8067129629629585E-4</v>
       </c>
-      <c r="C33" s="18">
+      <c r="C35" s="18">
         <v>2.7230324074074071E-3</v>
       </c>
-      <c r="D33" s="18">
-        <f t="shared" si="6"/>
+      <c r="D35" s="18">
+        <f t="shared" si="5"/>
         <v>2.731944444444444E-3</v>
       </c>
-      <c r="E33" s="18"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="B34" s="17">
+      <c r="E35" s="18"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B36" s="17">
+        <f t="shared" si="4"/>
+        <v>1.2689814814814814E-3</v>
+      </c>
+      <c r="C36" s="18">
+        <v>3.1113425925925926E-3</v>
+      </c>
+      <c r="D36" s="18">
         <f t="shared" si="5"/>
-        <v>1.2670138888888885E-3</v>
-      </c>
-      <c r="C34" s="18">
-        <v>3.1093749999999997E-3</v>
-      </c>
-      <c r="D34" s="18">
-        <f t="shared" si="6"/>
-        <v>3.1182870370370366E-3</v>
-      </c>
-      <c r="E34" s="18"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="B35" s="17">
+        <v>3.1202546296296295E-3</v>
+      </c>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B37" s="17">
+        <f t="shared" si="4"/>
+        <v>2.0942129629629627E-3</v>
+      </c>
+      <c r="C37" s="18">
+        <v>3.9365740740740741E-3</v>
+      </c>
+      <c r="D37" s="18">
         <f t="shared" si="5"/>
-        <v>2.0942129629629627E-3</v>
-      </c>
-      <c r="C35" s="18">
-        <v>3.9365740740740741E-3</v>
-      </c>
-      <c r="D35" s="18">
-        <f t="shared" si="6"/>
         <v>3.9454861111111114E-3</v>
       </c>
-      <c r="E35" s="18"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="B36" s="18">
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="B38" s="18">
+        <f t="shared" si="4"/>
+        <v>2.2270833333333327E-3</v>
+      </c>
+      <c r="C38" s="18">
+        <v>4.0694444444444441E-3</v>
+      </c>
+      <c r="D38" s="18">
         <f t="shared" si="5"/>
-        <v>2.2270833333333327E-3</v>
-      </c>
-      <c r="C36" s="18">
-        <v>4.0694444444444441E-3</v>
-      </c>
-      <c r="D36" s="18">
-        <f t="shared" si="6"/>
         <v>4.0783564814814814E-3</v>
       </c>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -11571,7 +11597,7 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11584,14 +11610,14 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D1" s="18">
         <v>3.4722222222222224E-7</v>
       </c>
       <c r="E1" s="18"/>
       <c r="F1" s="9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -11599,10 +11625,10 @@
         <v>23</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D2" s="18">
         <f>C2+$D$1</f>
@@ -11610,19 +11636,19 @@
       </c>
       <c r="E2" s="18"/>
       <c r="F2" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B3" s="17">
         <f>C3-$C$2</f>
         <v>3.1585648148148163E-4</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D3" s="18">
         <f t="shared" ref="D3:D27" si="0">C3+$D$1</f>
@@ -11630,7 +11656,7 @@
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -11642,7 +11668,7 @@
         <v>3.2314814814814793E-4</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D4" s="18">
         <f t="shared" si="0"/>
@@ -11650,7 +11676,7 @@
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -11662,7 +11688,7 @@
         <v>3.2627314814814802E-4</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D5" s="18">
         <f t="shared" si="0"/>
@@ -11670,7 +11696,7 @@
       </c>
       <c r="E5" s="18"/>
       <c r="F5" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -11682,7 +11708,7 @@
         <v>3.4606481481481424E-4</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
@@ -11699,7 +11725,7 @@
         <v>3.5034722222222195E-4</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D7" s="18">
         <f t="shared" si="0"/>
@@ -11716,7 +11742,7 @@
         <v>3.6689814814814788E-4</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D8" s="18">
         <f t="shared" si="0"/>
@@ -11733,7 +11759,7 @@
         <v>3.7083333333333326E-4</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D9" s="18">
         <f t="shared" si="0"/>
@@ -11750,7 +11776,7 @@
         <v>3.7662037037037048E-4</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D10" s="18">
         <f t="shared" si="0"/>
@@ -11760,14 +11786,14 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B11" s="17">
         <f t="shared" si="1"/>
         <v>3.7951388888888887E-4</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D11" s="18">
         <f t="shared" si="0"/>
@@ -11784,7 +11810,7 @@
         <v>3.8564814814814798E-4</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D12" s="18">
         <f t="shared" si="0"/>
@@ -11801,7 +11827,7 @@
         <v>4.0624999999999993E-4</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D13" s="18">
         <f t="shared" si="0"/>
@@ -11818,7 +11844,7 @@
         <v>4.1168981481481482E-4</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D14" s="18">
         <f t="shared" si="0"/>
@@ -11835,7 +11861,7 @@
         <v>4.3252314814814802E-4</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D15" s="18">
         <f t="shared" si="0"/>
@@ -11852,7 +11878,7 @@
         <v>4.8321759259259281E-4</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D16" s="18">
         <f t="shared" si="0"/>
@@ -11869,7 +11895,7 @@
         <v>4.9386574074074133E-4</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D17" s="18">
         <f t="shared" si="0"/>
@@ -11879,14 +11905,14 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B18" s="17">
         <f t="shared" si="1"/>
         <v>4.9409722222222173E-4</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D18" s="18">
         <f t="shared" si="0"/>
@@ -11903,7 +11929,7 @@
         <v>5.196759259259256E-4</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D19" s="18">
         <f t="shared" si="0"/>
@@ -11913,7 +11939,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B20" s="17">
         <f t="shared" si="1"/>
@@ -11971,7 +11997,7 @@
         <v>5.6527777777777783E-4</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D23" s="18">
         <f t="shared" si="0"/>
@@ -11981,7 +12007,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B24" s="17">
         <f t="shared" si="2"/>
@@ -11998,7 +12024,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B25" s="17">
         <f t="shared" si="2"/>
@@ -12019,20 +12045,20 @@
       </c>
       <c r="B26" s="17">
         <f t="shared" si="2"/>
-        <v>7.8263888888888871E-4</v>
+        <v>7.8726851851851831E-4</v>
       </c>
       <c r="C26" s="17">
-        <v>3.3327546296296295E-3</v>
+        <v>3.3373842592592591E-3</v>
       </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>3.3331018518518519E-3</v>
+        <v>3.3377314814814815E-3</v>
       </c>
       <c r="E26" s="18"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B27" s="17">
         <f t="shared" si="2"/>
@@ -12305,7 +12331,7 @@
   <dimension ref="A1:R81"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12321,40 +12347,40 @@
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="F1" s="9" t="s">
+      <c r="J1" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="L1" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>221</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>223</v>
       </c>
       <c r="N1" s="9"/>
       <c r="O1" s="16"/>
@@ -12363,7 +12389,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B2" s="18">
         <f t="shared" ref="B2:B25" si="0">SUM(C2:M2)</f>
@@ -12397,7 +12423,7 @@
         <f>SUMIF(('9KX2'!$K$3:$K$65),A2,('9KX2'!$L$3:$L$65))</f>
         <v>9.8263888888889053E-5</v>
       </c>
-      <c r="J2" s="27">
+      <c r="J2" s="18">
         <f>IF((SUMIF((TFL!$A$3:$A$65),A2,(TFL!$B$3:$B$65))=0),"-",(SUMIF((TFL!$A$3:$A$65),A2,(TFL!$B$3:$B$65))))</f>
         <v>9.7337962962962699E-5</v>
       </c>
@@ -12625,7 +12651,7 @@
         <f>SUMIF(('9KX2'!$K$3:$K$65),A6,('9KX2'!$L$3:$L$65))</f>
         <v>1.7881944444444412E-4</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="27">
         <f>IF((SUMIF((TFL!$A$3:$A$65),A6,(TFL!$B$3:$B$65))=0),"-",(SUMIF((TFL!$A$3:$A$65),A6,(TFL!$B$3:$B$65))))</f>
         <v>9.6643518518518476E-5</v>
       </c>
@@ -12762,7 +12788,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B9" s="18">
         <f t="shared" si="0"/>
@@ -12823,7 +12849,7 @@
       </c>
       <c r="B10" s="18">
         <f t="shared" si="0"/>
-        <v>1.730671296296295E-3</v>
+        <v>1.7248842592592576E-3</v>
       </c>
       <c r="C10" s="17">
         <f>SUMIF((Tau!$A$3:$A$65),A10,(Tau!$B$3:$B$65))</f>
@@ -12843,15 +12869,15 @@
       </c>
       <c r="G10" s="17">
         <f>SUMIF(('9KX2'!$A$3:$A$65),A10,('9KX2'!$B$3:$B$65))</f>
-        <v>5.1504629629629643E-5</v>
+        <v>4.9652777777777586E-5</v>
       </c>
       <c r="H10" s="18">
         <f>SUMIF(('9KX2'!$F$3:$F$65),A10,('9KX2'!$G$3:$G$65))</f>
-        <v>5.9606481481481663E-5</v>
+        <v>5.7638888888888757E-5</v>
       </c>
       <c r="I10" s="18">
         <f>SUMIF(('9KX2'!$K$3:$K$65),A10,('9KX2'!$L$3:$L$65))</f>
-        <v>1.9120370370370385E-4</v>
+        <v>1.8923611111111138E-4</v>
       </c>
       <c r="J10" s="17">
         <f>IF((SUMIF((TFL!$A$3:$A$65),A10,(TFL!$B$3:$B$65))=0),"-",(SUMIF((TFL!$A$3:$A$65),A10,(TFL!$B$3:$B$65))))</f>
@@ -13108,7 +13134,7 @@
       </c>
       <c r="B15" s="18">
         <f t="shared" si="0"/>
-        <v>2.1393518518518519E-3</v>
+        <v>2.1428240740740739E-3</v>
       </c>
       <c r="C15" s="17">
         <f>SUMIF((Tau!$A$3:$A$65),A15,(Tau!$B$3:$B$65))</f>
@@ -13138,7 +13164,7 @@
         <f>SUMIF(('9KX2'!$K$3:$K$65),A15,('9KX2'!$L$3:$L$65))</f>
         <v>1.5590277777777824E-4</v>
       </c>
-      <c r="J15" s="26">
+      <c r="J15" s="18">
         <f>IF((SUMIF((TFL!$A$3:$A$65),A15,(TFL!$B$3:$B$65))=0),"-",(SUMIF((TFL!$A$3:$A$65),A15,(TFL!$B$3:$B$65))))</f>
         <v>4.3287037037037035E-4</v>
       </c>
@@ -13148,7 +13174,7 @@
       </c>
       <c r="L15" s="17">
         <f>SUMIF((Tartarus!$A$3:$A$65),A15,(Tartarus!$B$3:$B$65))</f>
-        <v>4.5277777777777786E-4</v>
+        <v>4.5624999999999984E-4</v>
       </c>
       <c r="M15" s="17">
         <f>SUMIF((RDR!$A$3:$A$65),A15,(RDR!$B$3:$B$65))</f>
@@ -13165,7 +13191,7 @@
       </c>
       <c r="B16" s="18">
         <f t="shared" si="0"/>
-        <v>2.1430555555555547E-3</v>
+        <v>2.1428240740740735E-3</v>
       </c>
       <c r="C16" s="17">
         <f>SUMIF((Tau!$A$3:$A$65),A16,(Tau!$B$3:$B$65))</f>
@@ -13193,7 +13219,7 @@
       </c>
       <c r="I16" s="18">
         <f>SUMIF(('9KX2'!$K$3:$K$65),A16,('9KX2'!$L$3:$L$65))</f>
-        <v>2.8842592592592548E-4</v>
+        <v>2.8819444444444422E-4</v>
       </c>
       <c r="J16" s="17">
         <f>IF((SUMIF((TFL!$A$3:$A$65),A16,(TFL!$B$3:$B$65))=0),"-",(SUMIF((TFL!$A$3:$A$65),A16,(TFL!$B$3:$B$65))))</f>
@@ -13336,7 +13362,7 @@
       </c>
       <c r="B19" s="18">
         <f t="shared" si="0"/>
-        <v>2.3784722222222215E-3</v>
+        <v>2.3836805555555534E-3</v>
       </c>
       <c r="C19" s="17">
         <f>SUMIF((Tau!$A$3:$A$65),A19,(Tau!$B$3:$B$65))</f>
@@ -13364,7 +13390,7 @@
       </c>
       <c r="I19" s="18">
         <f>SUMIF(('9KX2'!$K$3:$K$65),A19,('9KX2'!$L$3:$L$65))</f>
-        <v>1.9039351851851943E-4</v>
+        <v>1.9097222222222172E-4</v>
       </c>
       <c r="J19" s="17">
         <f>IF((SUMIF((TFL!$A$3:$A$65),A19,(TFL!$B$3:$B$65))=0),"-",(SUMIF((TFL!$A$3:$A$65),A19,(TFL!$B$3:$B$65))))</f>
@@ -13380,7 +13406,7 @@
       </c>
       <c r="M19" s="17">
         <f>SUMIF((RDR!$A$3:$A$65),A19,(RDR!$B$3:$B$65))</f>
-        <v>7.8263888888888871E-4</v>
+        <v>7.8726851851851831E-4</v>
       </c>
       <c r="N19" s="17"/>
       <c r="O19" s="18"/>
@@ -13388,7 +13414,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B20" s="18">
         <f t="shared" si="0"/>
@@ -13448,7 +13474,7 @@
       </c>
       <c r="B21" s="18">
         <f t="shared" si="0"/>
-        <v>2.5902777777777768E-3</v>
+        <v>2.5925925925925921E-3</v>
       </c>
       <c r="C21" s="17">
         <f>SUMIF((Tau!$A$3:$A$65),A21,(Tau!$B$3:$B$65))</f>
@@ -13488,7 +13514,7 @@
       </c>
       <c r="L21" s="17">
         <f>SUMIF((Tartarus!$A$3:$A$65),A21,(Tartarus!$B$3:$B$65))</f>
-        <v>5.3379629629629632E-4</v>
+        <v>5.3611111111111112E-4</v>
       </c>
       <c r="M21" s="17">
         <f>SUMIF((RDR!$A$3:$A$65),A21,(RDR!$B$3:$B$65))</f>
@@ -13558,7 +13584,7 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B23" s="18">
         <f t="shared" si="0"/>
@@ -13616,7 +13642,7 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B24" s="18">
         <f t="shared" si="0"/>
@@ -13674,7 +13700,7 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B25" s="18">
         <f t="shared" si="0"/>
@@ -13708,7 +13734,7 @@
         <f>SUMIF(('9KX2'!$K$3:$K$65),A25,('9KX2'!$L$3:$L$65))</f>
         <v>1.7861111111111116E-3</v>
       </c>
-      <c r="J25" s="17" t="str">
+      <c r="J25" s="26" t="str">
         <f>IF((SUMIF((TFL!$A$3:$A$65),A25,(TFL!$B$3:$B$65))=0),"-",(SUMIF((TFL!$A$3:$A$65),A25,(TFL!$B$3:$B$65))))</f>
         <v>-</v>
       </c>
